--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1803" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84976879-CD09-4B53-B77E-6EBDE434FB43}"/>
+  <xr:revisionPtr revIDLastSave="2138" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF744683-4E38-463A-BE33-9C0515037FFA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
   <sheets>
     <sheet name="general_info" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="341">
   <si>
     <t>Cover</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Section V: Law Enforcement</t>
   </si>
   <si>
-    <t>Corruption and Trust</t>
-  </si>
-  <si>
     <t>Police</t>
   </si>
   <si>
@@ -145,18 +142,6 @@
     <t>Other Publications</t>
   </si>
   <si>
-    <t>n_chart</t>
-  </si>
-  <si>
-    <t>1_1</t>
-  </si>
-  <si>
-    <t>1_2</t>
-  </si>
-  <si>
-    <t>3_1</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -226,9 +211,6 @@
     <t>Figure_14</t>
   </si>
   <si>
-    <t>Figure_15</t>
-  </si>
-  <si>
     <t>Figure_16</t>
   </si>
   <si>
@@ -259,6 +241,12 @@
     <t>Figure_1_2</t>
   </si>
   <si>
+    <t>Figure_3_1</t>
+  </si>
+  <si>
+    <t>Figure_3_2</t>
+  </si>
+  <si>
     <t>ProjectDesign</t>
   </si>
   <si>
@@ -343,12 +331,6 @@
     <t>ExecutiveFindings2</t>
   </si>
   <si>
-    <t>Importance of the Rule of Law in the United States by Political Affiliation</t>
-  </si>
-  <si>
-    <t>People who think that the Rule of Law is important or not important in the following topics by political affiliation</t>
-  </si>
-  <si>
     <t>US democracy</t>
   </si>
   <si>
@@ -394,18 +376,12 @@
     <t>static/US_Report_WJP.pdf</t>
   </si>
   <si>
-    <t>Electoral Participation in the United States + Vote Intention</t>
-  </si>
-  <si>
     <t>Infographic</t>
   </si>
   <si>
     <t>Integrity of the Electoral Process in the United States</t>
   </si>
   <si>
-    <t>Percentage of respondents who agree or strongly agree with the following statements</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -430,9 +406,6 @@
     <t>#003b8a, #fa4d59</t>
   </si>
   <si>
-    <t>Acceptance of Election Results</t>
-  </si>
-  <si>
     <t>Trust in in Institutions to Ensure Fair Election Results</t>
   </si>
   <si>
@@ -442,27 +415,12 @@
     <t>Trust in News Media in the United States over Time</t>
   </si>
   <si>
-    <t>Percentage of respondents who reported that they trust a lot or some in News Media</t>
-  </si>
-  <si>
     <t>Factors of Good Quality Information, by Political Affiliation</t>
   </si>
   <si>
     <t>q1i</t>
   </si>
   <si>
-    <t>Frequency of Media Engagement, by political affiliation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposure to political news </t>
-  </si>
-  <si>
-    <t>Frequency of engagement in political discussions</t>
-  </si>
-  <si>
-    <t>Cross-check for veracity of news</t>
-  </si>
-  <si>
     <t>Attitudes Towards Authoritarianism and Rule of Law</t>
   </si>
   <si>
@@ -470,21 +428,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>Government Efficiency vs Accountability</t>
-  </si>
-  <si>
-    <t>President bounded by laws</t>
-  </si>
-  <si>
-    <t>Civil Obedience</t>
-  </si>
-  <si>
-    <t>President respect/attacks on Media</t>
-  </si>
-  <si>
-    <t>President respect/attacks to autonomous bodies</t>
   </si>
   <si>
     <t>Attitudes Towards Authoritarianism and Rule of Law, by Political Affiliation</t>
@@ -611,12 +554,6 @@
     <t>Justice System</t>
   </si>
   <si>
-    <t>q2b, q2c</t>
-  </si>
-  <si>
-    <t>q2e, q2f, q2g</t>
-  </si>
-  <si>
     <t>Trust in Institutions over Time</t>
   </si>
   <si>
@@ -626,24 +563,12 @@
     <t>People Living in Their Country</t>
   </si>
   <si>
-    <t>Perceptions of Corruption and Trust, by Political Affiliation</t>
-  </si>
-  <si>
     <t>Corruption</t>
   </si>
   <si>
     <t>Trust</t>
   </si>
   <si>
-    <t>Percentage of respondents who have a lot orsome trust in...</t>
-  </si>
-  <si>
-    <t>q1a, q1b, q1c, q1d, q1e, q1f, q1g</t>
-  </si>
-  <si>
-    <t>q2a, q2b, q2c, q2d, q2e, q2f, q2g</t>
-  </si>
-  <si>
     <t>#003b8a, #fa4d57, #d9d9d9</t>
   </si>
   <si>
@@ -680,9 +605,6 @@
     <t>Percentage of respondents who believe that the police do not discriminate against suspects based on...</t>
   </si>
   <si>
-    <t>q1e, q1f, q1g</t>
-  </si>
-  <si>
     <t>Percentage of respondents who have a lot or some trust in prosecutors, public defense attorneys, and judges and magistrates</t>
   </si>
   <si>
@@ -830,9 +752,6 @@
     <t>q18a, q18b, q18c, q18d, q18e, q18f</t>
   </si>
   <si>
-    <t>q48e_G2, q48f_G2, q48g_G2</t>
-  </si>
-  <si>
     <t>q48e_G1</t>
   </si>
   <si>
@@ -917,9 +836,6 @@
     <t>Figure_10_2</t>
   </si>
   <si>
-    <t>Percentage of respondents who believe that most or All people working in the following institutions are corrupt</t>
-  </si>
-  <si>
     <t>Percentage of respondents who believe that most or All prosecutors, public defense attorneys, and judges and magistrates are corrupt</t>
   </si>
   <si>
@@ -938,12 +854,6 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>10_1</t>
-  </si>
-  <si>
-    <t>10_2</t>
-  </si>
-  <si>
     <t>Wordcloud</t>
   </si>
   <si>
@@ -989,13 +899,172 @@
     <t>quadpanel</t>
   </si>
   <si>
-    <t>Figure_3_1</t>
-  </si>
-  <si>
-    <t>Figure_3_2</t>
-  </si>
-  <si>
-    <t>3_2</t>
+    <t>q2c, q2b</t>
+  </si>
+  <si>
+    <t>q2e, q2g, q2f</t>
+  </si>
+  <si>
+    <t>q1e, q1g, q1f</t>
+  </si>
+  <si>
+    <t>q48f_G2, q48g_G2, q48h_G1</t>
+  </si>
+  <si>
+    <t>Relevance of the Rule of Law, by Political Affiliation</t>
+  </si>
+  <si>
+    <t>Percentage of respondents who believe that the Rule of Law is essential or important in the following topics…</t>
+  </si>
+  <si>
+    <t>Electoral Participation and Vote Intention in the United States</t>
+  </si>
+  <si>
+    <t>Percentage of respondents who agree or strongly agree with the following statements…</t>
+  </si>
+  <si>
+    <t>Percentage of respondents who has a lot or some trust that the following institutions would fairly determine the election results…</t>
+  </si>
+  <si>
+    <t>Percentage of respondents that agree or strongly agree that the Supreme Court of Justice would be impartial if having to…</t>
+  </si>
+  <si>
+    <t>Percentage of respondents who reported that they have a lot or some trust in the News Media</t>
+  </si>
+  <si>
+    <t>Difference in the percentage of Democrats and Republicans who marked a factor as important.</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Percentage of respondents that confirmed…</t>
+  </si>
+  <si>
+    <t>Having found political news on social media every day.</t>
+  </si>
+  <si>
+    <t>Have engaged in online political discussions at least once a week.</t>
+  </si>
+  <si>
+    <t>Have checked the truthfulness of the information in the last three months.</t>
+  </si>
+  <si>
+    <t>It is important that citizens have a say in government matters, even at the expense of efficiency.</t>
+  </si>
+  <si>
+    <t>The President must always obey the law and the courts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is important to obey the government in power, no matter who you voted for. </t>
+  </si>
+  <si>
+    <t>2021, 2024</t>
+  </si>
+  <si>
+    <t>2021, 2025</t>
+  </si>
+  <si>
+    <t>2021, 2026</t>
+  </si>
+  <si>
+    <t>hexpanel</t>
+  </si>
+  <si>
+    <t>Acceptance of Election Results, by Political Affiliation</t>
+  </si>
+  <si>
+    <t>Frequency of Media Engagement, by Political Affiliation</t>
+  </si>
+  <si>
+    <t>Figure_15_1</t>
+  </si>
+  <si>
+    <t>Figure_15_2</t>
+  </si>
+  <si>
+    <t>Perceptions of Corruption, by Political Affiliation</t>
+  </si>
+  <si>
+    <t>q2c</t>
+  </si>
+  <si>
+    <t>q2e</t>
+  </si>
+  <si>
+    <t>q2f</t>
+  </si>
+  <si>
+    <t>National Government Officers</t>
+  </si>
+  <si>
+    <t>Prosecutors</t>
+  </si>
+  <si>
+    <t>Judges and Magistrates</t>
+  </si>
+  <si>
+    <t>Public Defense Attorneys</t>
+  </si>
+  <si>
+    <t>q2g</t>
+  </si>
+  <si>
+    <t>#2a2a95</t>
+  </si>
+  <si>
+    <t>#2a2a96</t>
+  </si>
+  <si>
+    <t>#2a2a97</t>
+  </si>
+  <si>
+    <t>#2a2a98</t>
+  </si>
+  <si>
+    <t>#2a2a99</t>
+  </si>
+  <si>
+    <t>Figure_24</t>
+  </si>
+  <si>
+    <t>Trust in Institutions over Time, by Political Affiliation</t>
+  </si>
+  <si>
+    <t>q1b</t>
+  </si>
+  <si>
+    <t>q1f</t>
+  </si>
+  <si>
+    <t>q1c</t>
+  </si>
+  <si>
+    <t>q1e</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> q1g</t>
+  </si>
+  <si>
+    <t>Local Government Officers</t>
+  </si>
+  <si>
+    <t>2021, 2027</t>
+  </si>
+  <si>
+    <t>2021, 2028</t>
+  </si>
+  <si>
+    <t>2021, 2029</t>
+  </si>
+  <si>
+    <t>#3273ff, #a90099</t>
+  </si>
+  <si>
+    <t>#3273ff, #a90100</t>
+  </si>
+  <si>
+    <t>#3273ff, #a90101</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1086,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1032,25 +1101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,18 +1118,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1090,15 +1139,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1106,7 +1152,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1133,10 +1179,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA9653AC-F8C3-401C-B349-891D4FF1F533}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0">
   <autoFilter ref="A1:B6" xr:uid="{BA9653AC-F8C3-401C-B349-891D4FF1F533}"/>
@@ -1149,9 +1191,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}" name="Table1" displayName="Table1" ref="A1:M47" totalsRowShown="0" dataDxfId="7">
-  <autoFilter ref="A1:M47" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}" name="Table1" displayName="Table1" ref="A1:L49" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:L49" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{D1E86754-498B-4449-AF9C-7F6F91357B29}" name="id"/>
     <tableColumn id="2" xr3:uid="{A219685D-2336-4EA2-A45E-896ADB1E01D2}" name="page"/>
     <tableColumn id="3" xr3:uid="{4F87C862-B4AE-49B9-8A8D-A51D6C4F12BA}" name="section_header"/>
@@ -1160,33 +1202,32 @@
     <tableColumn id="6" xr3:uid="{D78F8B52-A191-41B0-8464-081D07493BD3}" name="section_page"/>
     <tableColumn id="7" xr3:uid="{2C08080F-B5E5-4917-A6E2-1E8583610D91}" name="has_subsection"/>
     <tableColumn id="8" xr3:uid="{268CABA1-2A43-438A-A7EF-385670D18802}" name="thematic_findings"/>
-    <tableColumn id="9" xr3:uid="{9A483C7A-E5AB-453E-8EC5-ADD4AC8040CD}" name="n_chart" dataDxfId="6"/>
     <tableColumn id="10" xr3:uid="{B3FC5117-A8E2-4E1B-B517-AAD68F7CB433}" name="title" dataDxfId="5"/>
     <tableColumn id="11" xr3:uid="{5CC182F6-C715-4AC8-854D-355CB0816969}" name="subtitle" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{224E4B7B-6146-43FA-B490-F87BAA8696E1}" name="footnote" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{4E95668B-FEB8-484F-BB19-1E0983B005D7}" name="macro" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{224E4B7B-6146-43FA-B490-F87BAA8696E1}" name="footnote" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{4E95668B-FEB8-484F-BB19-1E0983B005D7}" name="macro" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}" name="Table5" displayName="Table5" ref="A1:M71" totalsRowShown="0">
-  <autoFilter ref="A1:M71" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}" name="Table5" displayName="Table5" ref="A1:M81" totalsRowShown="0">
+  <autoFilter ref="A1:M81" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{212EC242-638E-4C2D-8A7C-290B2E57BD74}" name="id"/>
     <tableColumn id="2" xr3:uid="{0605D17D-53ED-4ED7-90F5-CA0A9CEFC8B9}" name="panel"/>
     <tableColumn id="3" xr3:uid="{B680CB48-28A5-4FB6-98AA-215E22B8B40F}" name="chart_title"/>
     <tableColumn id="4" xr3:uid="{FFEF5F92-2DF3-49A4-BD91-1FA7728CB677}" name="chart_subtitle"/>
     <tableColumn id="5" xr3:uid="{9C01E486-AAA9-4113-9F7C-DFED4772B00B}" name="var_id"/>
-    <tableColumn id="6" xr3:uid="{B447C55F-11C9-4234-9D1F-AF7936BEDF14}" name="reportValues" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{B447C55F-11C9-4234-9D1F-AF7936BEDF14}" name="reportValues" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{3122E94D-312F-487C-A9AD-C0E5E1E51E5E}" name="panel_title"/>
     <tableColumn id="8" xr3:uid="{203C77AD-FB8E-4313-B49E-37F7B9468C14}" name="panel_subtitle"/>
     <tableColumn id="9" xr3:uid="{5273962B-B3E2-440F-8940-B09D8F61305B}" name="type"/>
     <tableColumn id="10" xr3:uid="{DDAEDC79-07D2-402E-81B5-2E1EFAA266FD}" name="legend_text"/>
     <tableColumn id="11" xr3:uid="{2349E397-D3E7-455F-B793-654DDB7A534C}" name="legend_color"/>
     <tableColumn id="12" xr3:uid="{6CA05E5D-08AE-4A36-A0AA-353E1F289F09}" name="sample"/>
-    <tableColumn id="13" xr3:uid="{BCA1C210-6FE1-4DDF-9357-7DAD0B831D61}" name="years" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{BCA1C210-6FE1-4DDF-9357-7DAD0B831D61}" name="years" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1512,7 +1553,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,50 +1564,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
         <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
         <v>111</v>
-      </c>
-      <c r="B5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1579,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E524A5-001D-41D7-83FE-232B11FD9C08}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,15 +1635,15 @@
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -1620,28 +1661,25 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1675,14 +1713,11 @@
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1716,16 +1751,13 @@
       <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1757,16 +1789,13 @@
       <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1798,16 +1827,13 @@
       <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="9" t="s">
+      <c r="L5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1839,16 +1865,13 @@
       <c r="K6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L6" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1880,16 +1903,13 @@
       <c r="K7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1921,16 +1941,13 @@
       <c r="K8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L8" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1962,16 +1979,13 @@
       <c r="K9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="9" t="s">
+      <c r="L9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1994,25 +2008,22 @@
       <c r="H10" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>36</v>
+      <c r="I10" t="s">
+        <v>89</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -2035,25 +2046,22 @@
       <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>37</v>
+      <c r="I11" t="s">
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -2076,25 +2084,22 @@
       <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <v>2</v>
+      <c r="I12" t="s">
+        <v>289</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
-      </c>
-      <c r="K12" t="s">
-        <v>102</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>67</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -2117,25 +2122,22 @@
       <c r="H13" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>38</v>
+      <c r="I13" t="s">
+        <v>99</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
-      </c>
-      <c r="K13" t="s">
-        <v>106</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -2158,25 +2160,22 @@
       <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>317</v>
+      <c r="I14" t="s">
+        <v>101</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -2208,16 +2207,13 @@
       <c r="K15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="9" t="s">
+      <c r="L15" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -2240,25 +2236,22 @@
       <c r="H16" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="1">
-        <v>4</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>291</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -2281,25 +2274,22 @@
       <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="1">
-        <v>5</v>
+      <c r="I17" t="s">
+        <v>113</v>
       </c>
       <c r="J17" t="s">
-        <v>120</v>
-      </c>
-      <c r="K17" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -2322,25 +2312,22 @@
       <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="1">
-        <v>6</v>
+      <c r="I18" t="s">
+        <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>127</v>
-      </c>
-      <c r="K18" t="s">
-        <v>121</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -2363,25 +2350,22 @@
       <c r="H19" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="1">
-        <v>7</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>309</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2404,25 +2388,22 @@
       <c r="H20" t="b">
         <v>1</v>
       </c>
-      <c r="I20" s="1">
-        <v>8</v>
+      <c r="I20" t="s">
+        <v>122</v>
       </c>
       <c r="J20" t="s">
-        <v>131</v>
-      </c>
-      <c r="K20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -2445,25 +2426,22 @@
       <c r="H21" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="1">
-        <v>9</v>
+      <c r="I21" t="s">
+        <v>123</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -2486,25 +2464,22 @@
       <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>298</v>
+      <c r="I22" t="s">
+        <v>124</v>
       </c>
       <c r="J22" t="s">
-        <v>133</v>
-      </c>
-      <c r="K22" t="s">
-        <v>134</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="B23">
         <v>19</v>
@@ -2527,25 +2502,22 @@
       <c r="H23" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>299</v>
+      <c r="I23" t="s">
+        <v>125</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
-      </c>
-      <c r="K23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -2568,25 +2540,22 @@
       <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="1">
-        <v>11</v>
+      <c r="I24" t="s">
+        <v>310</v>
       </c>
       <c r="J24" t="s">
-        <v>137</v>
-      </c>
-      <c r="K24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>21</v>
@@ -2609,31 +2578,28 @@
       <c r="H25" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="1">
-        <v>12</v>
+      <c r="I25" t="s">
+        <v>127</v>
       </c>
       <c r="J25" t="s">
-        <v>141</v>
-      </c>
-      <c r="K25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B26">
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -2659,22 +2625,19 @@
       <c r="K26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" s="9" t="s">
+      <c r="L26" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B27">
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2691,31 +2654,28 @@
       <c r="H27" t="b">
         <v>1</v>
       </c>
-      <c r="I27" s="1">
-        <v>13</v>
+      <c r="I27" t="s">
+        <v>130</v>
       </c>
       <c r="J27" t="s">
-        <v>149</v>
-      </c>
-      <c r="K27" t="s">
-        <v>142</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B28">
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -2732,113 +2692,104 @@
       <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="I28" s="1">
-        <v>14</v>
+      <c r="I28" t="s">
+        <v>131</v>
       </c>
       <c r="J28" t="s">
-        <v>150</v>
-      </c>
-      <c r="K28" t="s">
-        <v>293</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
       <c r="B29">
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="I29" s="1">
-        <v>15</v>
+      <c r="I29" t="s">
+        <v>135</v>
       </c>
       <c r="J29" t="s">
-        <v>154</v>
-      </c>
-      <c r="K29" t="s">
-        <v>155</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>312</v>
       </c>
       <c r="B30">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="1">
-        <v>16</v>
+      <c r="I30" t="s">
+        <v>135</v>
       </c>
       <c r="J30" t="s">
-        <v>177</v>
-      </c>
-      <c r="K30" t="s">
-        <v>155</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -2855,25 +2806,22 @@
       <c r="H31" t="b">
         <v>1</v>
       </c>
-      <c r="I31" s="1">
-        <v>17</v>
+      <c r="I31" t="s">
+        <v>158</v>
       </c>
       <c r="J31" t="s">
-        <v>180</v>
-      </c>
-      <c r="K31" t="s">
-        <v>294</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B32">
         <v>28</v>
@@ -2905,16 +2853,13 @@
       <c r="K32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" s="9" t="s">
+      <c r="L32" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B33">
         <v>29</v>
@@ -2923,7 +2868,7 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -2937,23 +2882,22 @@
       <c r="H33" t="b">
         <v>1</v>
       </c>
-      <c r="I33" s="1">
-        <v>18</v>
-      </c>
-      <c r="J33" s="10"/>
-      <c r="K33" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>161</v>
+      </c>
+      <c r="J33" t="s">
+        <v>266</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -2962,7 +2906,7 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -2976,23 +2920,22 @@
       <c r="H34" t="b">
         <v>1</v>
       </c>
-      <c r="I34" s="1">
-        <v>19</v>
-      </c>
-      <c r="J34" s="10"/>
-      <c r="K34" t="s">
-        <v>202</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>313</v>
+      </c>
+      <c r="J34" t="s">
+        <v>266</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B35">
         <v>31</v>
@@ -3001,52 +2944,51 @@
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
       </c>
-      <c r="I35" s="1">
-        <v>20</v>
-      </c>
-      <c r="J35" s="10"/>
-      <c r="K35" t="s">
-        <v>202</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>170</v>
+      </c>
+      <c r="J35" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B36">
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -3054,25 +2996,22 @@
       <c r="H36" t="b">
         <v>1</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>12</v>
+      <c r="I36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J36" t="s">
+        <v>171</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B37">
         <v>33</v>
@@ -3081,39 +3020,36 @@
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
       </c>
-      <c r="I37" s="1">
-        <v>21</v>
-      </c>
-      <c r="J37" t="s">
-        <v>206</v>
-      </c>
-      <c r="K37" t="s">
-        <v>202</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -3122,39 +3058,36 @@
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
       </c>
-      <c r="I38" s="1">
-        <v>22</v>
+      <c r="I38" t="s">
+        <v>176</v>
       </c>
       <c r="J38" t="s">
-        <v>208</v>
-      </c>
-      <c r="K38" t="s">
-        <v>209</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B39">
         <v>35</v>
@@ -3163,362 +3096,411 @@
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
       </c>
-      <c r="I39" s="1">
-        <v>23</v>
+      <c r="I39" t="s">
+        <v>181</v>
       </c>
       <c r="J39" t="s">
-        <v>215</v>
-      </c>
-      <c r="K39" t="s">
-        <v>12</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B40">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>183</v>
+      </c>
+      <c r="J40" t="s">
+        <v>184</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>327</v>
+      </c>
+      <c r="B41">
         <v>37</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
         <v>29</v>
       </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M40" s="9" t="s">
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
         <v>30</v>
       </c>
-      <c r="E41" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42">
-        <v>39</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
         <v>30</v>
       </c>
-      <c r="E42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43">
-        <v>40</v>
-      </c>
-      <c r="C43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44">
-        <v>41</v>
-      </c>
-      <c r="C44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="D47" t="s">
         <v>32</v>
       </c>
-      <c r="E44" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45">
-        <v>42</v>
-      </c>
-      <c r="C45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>33</v>
       </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46">
-        <v>43</v>
-      </c>
-      <c r="C46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47">
+      <c r="B48">
         <v>44</v>
       </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>51</v>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3532,13 +3514,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEE3254-54E8-4BFF-9B28-6E5AF3AF9A29}">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3560,81 +3542,81 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="D1" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="H1" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="M1" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>91</v>
       </c>
-      <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>95</v>
-      </c>
       <c r="J2" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="K2" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="L2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M2" s="1">
         <v>2024</v>
@@ -3642,22 +3624,22 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -3666,13 +3648,16 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
+      <c r="K3" t="s">
+        <v>267</v>
+      </c>
       <c r="L3" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M3" s="1">
         <v>2024</v>
@@ -3680,40 +3665,40 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
         <v>271</v>
       </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K4" t="s">
         <v>102</v>
       </c>
-      <c r="E4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J4" t="s">
-        <v>219</v>
-      </c>
-      <c r="K4" t="s">
-        <v>108</v>
-      </c>
       <c r="L4" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M4" s="1">
         <v>2024</v>
@@ -3721,40 +3706,40 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
         <v>271</v>
       </c>
-      <c r="B5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>301</v>
-      </c>
       <c r="J5" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L5" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M5" s="1">
         <v>2024</v>
@@ -3762,40 +3747,40 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
         <v>271</v>
       </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>301</v>
-      </c>
       <c r="J6" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L6" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M6" s="1">
         <v>2024</v>
@@ -3803,19 +3788,19 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -3827,36 +3812,36 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -3868,39 +3853,39 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="J8" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>118</v>
+        <v>291</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>276</v>
+        <v>248</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>12</v>
@@ -3909,12 +3894,16 @@
         <v>12</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L9" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M9" s="1">
         <v>2024</v>
@@ -3922,37 +3911,40 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>306</v>
+        <v>276</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M10" s="1">
         <v>2024</v>
@@ -3960,37 +3952,40 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>306</v>
+        <v>276</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M11" s="1">
         <v>2024</v>
@@ -3998,37 +3993,40 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="E12" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>306</v>
+        <v>276</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M12" s="1">
         <v>2024</v>
@@ -4036,37 +4034,40 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="E13" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>306</v>
+        <v>276</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M13" s="1">
         <v>2024</v>
@@ -4074,40 +4075,40 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="E14" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="J14" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M14" s="1">
         <v>2024</v>
@@ -4115,40 +4116,40 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="E15" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="J15" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L15" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M15" s="1">
         <v>2024</v>
@@ -4156,40 +4157,40 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="E16" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="J16" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M16" s="1">
         <v>2024</v>
@@ -4197,40 +4198,40 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="E17" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="J17" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K17" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M17" s="1">
         <v>2024</v>
@@ -4238,22 +4239,22 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>276</v>
+        <v>209</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>12</v>
@@ -4262,94 +4263,98 @@
         <v>12</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L18" t="s">
-        <v>153</v>
-      </c>
-      <c r="M18" s="5">
+        <v>134</v>
+      </c>
+      <c r="M18" s="3">
         <v>2024</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>57</v>
+      <c r="A19" t="s">
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="E19" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
         <v>278</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>308</v>
-      </c>
       <c r="J19" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L19" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M19" s="1">
         <v>2024</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>58</v>
+      <c r="A20" t="s">
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="E20" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
         <v>278</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" t="s">
-        <v>308</v>
-      </c>
       <c r="J20" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L20" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M20" s="1">
         <v>2024</v>
@@ -4357,60 +4362,63 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>277</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" t="s">
         <v>134</v>
       </c>
-      <c r="E21" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
-        <v>307</v>
-      </c>
-      <c r="K21" t="s">
-        <v>112</v>
-      </c>
-      <c r="L21" t="s">
-        <v>153</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="E22" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>276</v>
+        <v>211</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -4419,16 +4427,16 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="J22" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M22" s="1">
         <v>2024</v>
@@ -4436,40 +4444,40 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>310</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="E23" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>281</v>
+        <v>212</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="G23" t="s">
-        <v>138</v>
+        <v>299</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="J23" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M23" s="1">
         <v>2024</v>
@@ -4477,40 +4485,40 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>310</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="E24" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>300</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="J24" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M24" s="1">
         <v>2024</v>
@@ -4518,40 +4526,40 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>310</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="E25" t="s">
-        <v>240</v>
-      </c>
-      <c r="F25" s="7">
+        <v>214</v>
+      </c>
+      <c r="F25" s="5">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>140</v>
+        <v>301</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L25" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M25" s="1">
         <v>2024</v>
@@ -4559,40 +4567,40 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>241</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>276</v>
+        <v>215</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="G26" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>305</v>
-      </c>
-      <c r="J26" t="s">
-        <v>220</v>
+        <v>275</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="K26" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M26" s="1">
         <v>2024</v>
@@ -4600,40 +4608,40 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>242</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>276</v>
+        <v>216</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>305</v>
-      </c>
-      <c r="J27" t="s">
-        <v>221</v>
+        <v>275</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="K27" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M27" s="1">
         <v>2024</v>
@@ -4641,40 +4649,40 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>243</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>276</v>
+        <v>217</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>305</v>
-      </c>
-      <c r="J28" t="s">
-        <v>222</v>
+        <v>275</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="K28" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M28" s="1">
         <v>2024</v>
@@ -4682,40 +4690,40 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>244</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>276</v>
+        <v>218</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
         <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>305</v>
-      </c>
-      <c r="J29" t="s">
-        <v>223</v>
+        <v>275</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="K29" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M29" s="1">
         <v>2024</v>
@@ -4723,201 +4731,204 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>245</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>276</v>
+        <v>219</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>305</v>
-      </c>
-      <c r="J30" t="s">
-        <v>224</v>
+        <v>275</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="K30" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="L30" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M30" s="1">
         <v>2024</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>60</v>
+      <c r="A31" t="s">
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="E31" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="G31" t="s">
-        <v>144</v>
+        <v>302</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="K31" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="L31" t="s">
-        <v>219</v>
-      </c>
-      <c r="M31" s="1">
-        <v>2024</v>
+        <v>193</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>60</v>
+      <c r="A32" t="s">
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="E32" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>303</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="J32" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="K32" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s">
-        <v>219</v>
-      </c>
-      <c r="M32" s="1">
-        <v>2024</v>
+        <v>193</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>60</v>
+      <c r="A33" t="s">
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="E33" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="J33" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="K33" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="L33" t="s">
-        <v>219</v>
-      </c>
-      <c r="M33" s="1">
-        <v>2024</v>
+        <v>193</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="E34" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G34" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>307</v>
+        <v>277</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
       </c>
       <c r="K34" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L34" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M34" s="1">
         <v>2024</v>
@@ -4925,78 +4936,81 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="E35" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G35" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="J35" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K35" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s">
-        <v>219</v>
-      </c>
-      <c r="M35" s="1">
-        <v>2024</v>
+        <v>193</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="E36" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G36" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>307</v>
+        <v>277</v>
+      </c>
+      <c r="J36" t="s">
+        <v>12</v>
       </c>
       <c r="K36" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L36" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M36" s="1">
         <v>2024</v>
@@ -5004,496 +5018,532 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="E37" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G37" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="J37" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K37" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L37" t="s">
-        <v>219</v>
-      </c>
-      <c r="M37" s="1">
-        <v>2024</v>
+        <v>193</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G38" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H38" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>277</v>
+      </c>
+      <c r="J38" t="s">
+        <v>12</v>
       </c>
       <c r="K38" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L38" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G39" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
+        <v>277</v>
+      </c>
+      <c r="J39" t="s">
+        <v>12</v>
       </c>
       <c r="K39" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L39" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G40" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H40" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="I40" t="s">
-        <v>307</v>
+        <v>277</v>
+      </c>
+      <c r="J40" t="s">
+        <v>12</v>
       </c>
       <c r="K40" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G41" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H41" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
+        <v>277</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
       </c>
       <c r="K41" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G42" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H42" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="I42" t="s">
-        <v>307</v>
+        <v>277</v>
+      </c>
+      <c r="J42" t="s">
+        <v>12</v>
       </c>
       <c r="K42" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L42" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G43" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="H43" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="I43" t="s">
-        <v>307</v>
+        <v>277</v>
+      </c>
+      <c r="J43" t="s">
+        <v>12</v>
       </c>
       <c r="K43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L43" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G44" t="s">
+        <v>152</v>
+      </c>
+      <c r="H44" t="s">
         <v>154</v>
       </c>
-      <c r="D44" t="s">
-        <v>155</v>
-      </c>
-      <c r="E44" t="s">
-        <v>251</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G44" t="s">
-        <v>171</v>
-      </c>
-      <c r="H44" t="s">
-        <v>173</v>
-      </c>
       <c r="I44" t="s">
-        <v>307</v>
+        <v>277</v>
+      </c>
+      <c r="J44" t="s">
+        <v>12</v>
       </c>
       <c r="K44" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G45" t="s">
+        <v>152</v>
+      </c>
+      <c r="H45" t="s">
         <v>155</v>
       </c>
-      <c r="E45" t="s">
-        <v>252</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G45" t="s">
-        <v>171</v>
-      </c>
-      <c r="H45" t="s">
-        <v>174</v>
-      </c>
       <c r="I45" t="s">
-        <v>307</v>
+        <v>277</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
       </c>
       <c r="K45" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L45" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G46" t="s">
+        <v>148</v>
+      </c>
+      <c r="H46" t="s">
+        <v>149</v>
+      </c>
+      <c r="I46" t="s">
+        <v>277</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" t="s">
+        <v>106</v>
+      </c>
+      <c r="L46" t="s">
+        <v>134</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G46" t="s">
-        <v>167</v>
-      </c>
-      <c r="H46" t="s">
-        <v>168</v>
-      </c>
-      <c r="I46" t="s">
-        <v>307</v>
-      </c>
-      <c r="K46" t="s">
-        <v>112</v>
-      </c>
-      <c r="L46" t="s">
-        <v>153</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>312</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G47" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="H47" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="I47" t="s">
-        <v>307</v>
+        <v>277</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
       </c>
       <c r="K47" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G48" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="H48" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="I48" t="s">
-        <v>307</v>
+        <v>277</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
       </c>
       <c r="K48" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L48" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" t="s">
         <v>278</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" t="s">
-        <v>308</v>
+      <c r="J49" t="s">
+        <v>12</v>
       </c>
       <c r="K49" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L49" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M49" s="1">
         <v>2024</v>
@@ -5501,37 +5551,40 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D50" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="E50" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="G50" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="H50" t="s">
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>307</v>
+        <v>277</v>
+      </c>
+      <c r="J50" t="s">
+        <v>12</v>
       </c>
       <c r="K50" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L50" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M50" s="1">
         <v>2024</v>
@@ -5539,37 +5592,40 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="E51" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="G51" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="H51" t="s">
         <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>307</v>
+        <v>277</v>
+      </c>
+      <c r="J51" t="s">
+        <v>12</v>
       </c>
       <c r="K51" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M51" s="1">
         <v>2024</v>
@@ -5577,40 +5633,40 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="E52" t="s">
-        <v>189</v>
+        <v>285</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="G52" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H52" t="s">
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="J52" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="K52" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L52" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M52" s="1">
         <v>2024</v>
@@ -5618,40 +5674,40 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="E53" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="G53" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="H53" t="s">
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="J53" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="K53" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="L53" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M53" s="1">
         <v>2024</v>
@@ -5659,403 +5715,409 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>313</v>
       </c>
       <c r="D54" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="E54" t="s">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="G54" t="s">
+        <v>164</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>255</v>
+      </c>
+      <c r="J54" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" t="s">
+        <v>106</v>
+      </c>
+      <c r="L54" t="s">
         <v>193</v>
       </c>
-      <c r="H54" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" t="s">
-        <v>307</v>
-      </c>
-      <c r="K54" t="s">
-        <v>112</v>
-      </c>
-      <c r="L54" t="s">
-        <v>153</v>
-      </c>
-      <c r="M54" s="1">
-        <v>2024</v>
+      <c r="M54" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>313</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="E55" t="s">
-        <v>267</v>
+        <v>163</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="G55" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="H55" t="s">
         <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>307</v>
+        <v>255</v>
+      </c>
+      <c r="J55" t="s">
+        <v>12</v>
       </c>
       <c r="K55" t="s">
-        <v>112</v>
+        <v>322</v>
       </c>
       <c r="L55" t="s">
-        <v>153</v>
-      </c>
-      <c r="M55" s="1">
-        <v>2024</v>
+        <v>193</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>313</v>
       </c>
       <c r="D56" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="E56" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="G56" t="s">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="H56" t="s">
         <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="J56" t="s">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="K56" t="s">
-        <v>186</v>
+        <v>323</v>
       </c>
       <c r="L56" t="s">
-        <v>153</v>
-      </c>
-      <c r="M56" s="1">
-        <v>2024</v>
+        <v>193</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>313</v>
       </c>
       <c r="D57" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="E57" t="s">
-        <v>212</v>
+        <v>315</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="G57" t="s">
-        <v>188</v>
+        <v>318</v>
       </c>
       <c r="H57" t="s">
         <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="J57" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="K57" t="s">
-        <v>187</v>
+        <v>324</v>
       </c>
       <c r="L57" t="s">
-        <v>153</v>
-      </c>
-      <c r="M57" s="1">
-        <v>2024</v>
+        <v>193</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="E58" t="s">
-        <v>198</v>
+        <v>321</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="G58" t="s">
-        <v>195</v>
+        <v>319</v>
       </c>
       <c r="H58" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J58" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="K58" t="s">
-        <v>108</v>
+        <v>325</v>
       </c>
       <c r="L58" t="s">
-        <v>219</v>
-      </c>
-      <c r="M58" s="1">
-        <v>2024</v>
+        <v>193</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="E59" t="s">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="G59" t="s">
-        <v>196</v>
+        <v>320</v>
       </c>
       <c r="H59" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J59" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="K59" t="s">
-        <v>108</v>
+        <v>326</v>
       </c>
       <c r="L59" t="s">
-        <v>219</v>
-      </c>
-      <c r="M59" s="1">
-        <v>2024</v>
+        <v>193</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="E60" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G60" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="H60" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="J60" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="K60" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="L60" t="s">
-        <v>153</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>276</v>
+        <v>134</v>
+      </c>
+      <c r="M60" s="1">
+        <v>2024</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="D61" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="E61" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G61" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="H61" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="J61" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="K61" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="L61" t="s">
-        <v>153</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>276</v>
+        <v>134</v>
+      </c>
+      <c r="M61" s="1">
+        <v>2024</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="E62" t="s">
-        <v>261</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1</v>
+        <v>241</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="G62" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="H62" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I62" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="J62" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="K62" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L62" t="s">
-        <v>153</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>276</v>
+        <v>134</v>
+      </c>
+      <c r="M62" s="1">
+        <v>2024</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="E63" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G63" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="H63" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="J63" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="K63" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="L63" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="M63" s="1">
         <v>2024</v>
@@ -6063,403 +6125,804 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>206</v>
+        <v>328</v>
       </c>
       <c r="D64" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="E64" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G64" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="H64" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I64" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J64" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="K64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L64" t="s">
-        <v>219</v>
-      </c>
-      <c r="M64" s="1">
-        <v>2024</v>
+        <v>193</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
+        <v>328</v>
       </c>
       <c r="D65" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="E65" t="s">
-        <v>261</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1</v>
+        <v>329</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="G65" t="s">
-        <v>205</v>
+        <v>334</v>
       </c>
       <c r="H65" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I65" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J65" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="K65" t="s">
-        <v>108</v>
+        <v>322</v>
       </c>
       <c r="L65" t="s">
-        <v>219</v>
-      </c>
-      <c r="M65" s="1">
-        <v>2024</v>
+        <v>193</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="D66" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G66" t="s">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c r="H66" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I66" t="s">
+        <v>255</v>
+      </c>
+      <c r="J66" t="s">
+        <v>12</v>
+      </c>
+      <c r="K66" t="s">
+        <v>323</v>
+      </c>
+      <c r="L66" t="s">
+        <v>193</v>
+      </c>
+      <c r="M66" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="J66" t="s">
-        <v>227</v>
-      </c>
-      <c r="K66" t="s">
-        <v>187</v>
-      </c>
-      <c r="L66" t="s">
-        <v>153</v>
-      </c>
-      <c r="M66" s="1">
-        <v>2024</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="D67" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="E67" t="s">
-        <v>190</v>
+        <v>332</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="G67" t="s">
-        <v>195</v>
+        <v>318</v>
       </c>
       <c r="H67" t="s">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="J67" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="K67" t="s">
-        <v>187</v>
+        <v>324</v>
       </c>
       <c r="L67" t="s">
-        <v>153</v>
-      </c>
-      <c r="M67" s="1">
-        <v>2024</v>
+        <v>193</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="D68" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="E68" t="s">
-        <v>262</v>
+        <v>333</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G68" t="s">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="H68" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I68" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="J68" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="K68" t="s">
-        <v>187</v>
+        <v>325</v>
       </c>
       <c r="L68" t="s">
-        <v>153</v>
-      </c>
-      <c r="M68" s="1">
-        <v>2024</v>
+        <v>193</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>328</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="E69" t="s">
-        <v>263</v>
+        <v>330</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="H69" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="J69" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="K69" t="s">
-        <v>108</v>
+        <v>326</v>
       </c>
       <c r="L69" t="s">
-        <v>219</v>
-      </c>
-      <c r="M69" s="1">
-        <v>2024</v>
+        <v>193</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="E70" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="H70" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="I70" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="J70" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="K70" t="s">
-        <v>108</v>
+        <v>338</v>
       </c>
       <c r="L70" t="s">
-        <v>219</v>
-      </c>
-      <c r="M70" s="1">
-        <v>2024</v>
+        <v>134</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="E71" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="H71" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="I71" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="J71" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="K71" t="s">
-        <v>108</v>
+        <v>339</v>
       </c>
       <c r="L71" t="s">
-        <v>219</v>
-      </c>
-      <c r="M71" s="1">
+        <v>134</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" t="s">
+        <v>235</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>180</v>
+      </c>
+      <c r="H72" t="s">
+        <v>186</v>
+      </c>
+      <c r="I72" t="s">
+        <v>274</v>
+      </c>
+      <c r="J72" t="s">
+        <v>12</v>
+      </c>
+      <c r="K72" t="s">
+        <v>340</v>
+      </c>
+      <c r="L72" t="s">
+        <v>134</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" t="s">
+        <v>259</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G73" t="s">
+        <v>178</v>
+      </c>
+      <c r="H73" t="s">
+        <v>182</v>
+      </c>
+      <c r="I73" t="s">
+        <v>273</v>
+      </c>
+      <c r="J73" t="s">
+        <v>193</v>
+      </c>
+      <c r="K73" t="s">
+        <v>102</v>
+      </c>
+      <c r="L73" t="s">
+        <v>193</v>
+      </c>
+      <c r="M73" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-    </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74" t="s">
+        <v>234</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G74" t="s">
+        <v>179</v>
+      </c>
+      <c r="H74" t="s">
+        <v>182</v>
+      </c>
+      <c r="I74" t="s">
+        <v>273</v>
+      </c>
+      <c r="J74" t="s">
+        <v>193</v>
+      </c>
+      <c r="K74" t="s">
+        <v>102</v>
+      </c>
+      <c r="L74" t="s">
+        <v>193</v>
+      </c>
+      <c r="M74" s="1">
+        <v>2024</v>
+      </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" t="s">
+        <v>235</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>180</v>
+      </c>
+      <c r="H75" t="s">
+        <v>186</v>
+      </c>
+      <c r="I75" t="s">
+        <v>273</v>
+      </c>
+      <c r="J75" t="s">
+        <v>193</v>
+      </c>
+      <c r="K75" t="s">
+        <v>102</v>
+      </c>
+      <c r="L75" t="s">
+        <v>193</v>
+      </c>
+      <c r="M75" s="1">
+        <v>2024</v>
+      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="A76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" t="s">
+        <v>183</v>
+      </c>
+      <c r="D76" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" t="s">
+        <v>287</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G76" t="s">
+        <v>174</v>
+      </c>
+      <c r="H76" t="s">
+        <v>187</v>
+      </c>
+      <c r="I76" t="s">
+        <v>277</v>
+      </c>
+      <c r="J76" t="s">
+        <v>201</v>
+      </c>
+      <c r="K76" t="s">
+        <v>168</v>
+      </c>
+      <c r="L76" t="s">
+        <v>134</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="A77" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" t="s">
+        <v>184</v>
+      </c>
+      <c r="E77" t="s">
+        <v>286</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G77" t="s">
+        <v>173</v>
+      </c>
+      <c r="H77" t="s">
+        <v>264</v>
+      </c>
+      <c r="I77" t="s">
+        <v>277</v>
+      </c>
+      <c r="J77" t="s">
+        <v>201</v>
+      </c>
+      <c r="K77" t="s">
+        <v>168</v>
+      </c>
+      <c r="L77" t="s">
+        <v>134</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="A78" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78" t="s">
+        <v>184</v>
+      </c>
+      <c r="E78" t="s">
+        <v>288</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G78" t="s">
+        <v>185</v>
+      </c>
+      <c r="H78" t="s">
+        <v>188</v>
+      </c>
+      <c r="I78" t="s">
+        <v>277</v>
+      </c>
+      <c r="J78" t="s">
+        <v>201</v>
+      </c>
+      <c r="K78" t="s">
+        <v>168</v>
+      </c>
+      <c r="L78" t="s">
+        <v>134</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="A79" t="s">
+        <v>327</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>236</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>190</v>
+      </c>
+      <c r="I79" t="s">
+        <v>255</v>
+      </c>
+      <c r="J79" t="s">
+        <v>193</v>
+      </c>
+      <c r="K79" t="s">
+        <v>102</v>
+      </c>
+      <c r="L79" t="s">
+        <v>193</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>327</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>237</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>191</v>
+      </c>
+      <c r="I80" t="s">
+        <v>255</v>
+      </c>
+      <c r="J80" t="s">
+        <v>193</v>
+      </c>
+      <c r="K80" t="s">
+        <v>102</v>
+      </c>
+      <c r="L80" t="s">
+        <v>193</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>327</v>
+      </c>
+      <c r="B81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s">
+        <v>238</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>192</v>
+      </c>
+      <c r="I81" t="s">
+        <v>255</v>
+      </c>
+      <c r="J81" t="s">
+        <v>193</v>
+      </c>
+      <c r="K81" t="s">
+        <v>102</v>
+      </c>
+      <c r="L81" t="s">
+        <v>193</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2138" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF744683-4E38-463A-BE33-9C0515037FFA}"/>
+  <xr:revisionPtr revIDLastSave="2201" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DB5A4B2-E7F3-4611-8DAD-3BEF2C406525}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="348">
   <si>
     <t>Cover</t>
   </si>
@@ -1065,6 +1065,27 @@
   </si>
   <si>
     <t>#3273ff, #a90101</t>
+  </si>
+  <si>
+    <t>label_at</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Percentage of respondents that agree or strongly agree that the Supreme Court of Justice would be impartial if having to decide on…</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1165,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1179,6 +1260,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA9653AC-F8C3-401C-B349-891D4FF1F533}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0">
   <autoFilter ref="A1:B6" xr:uid="{BA9653AC-F8C3-401C-B349-891D4FF1F533}"/>
@@ -1191,7 +1276,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}" name="Table1" displayName="Table1" ref="A1:L49" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}" name="Table1" displayName="Table1" ref="A1:L49" totalsRowShown="0" dataDxfId="12">
   <autoFilter ref="A1:L49" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{D1E86754-498B-4449-AF9C-7F6F91357B29}" name="id"/>
@@ -1202,32 +1287,34 @@
     <tableColumn id="6" xr3:uid="{D78F8B52-A191-41B0-8464-081D07493BD3}" name="section_page"/>
     <tableColumn id="7" xr3:uid="{2C08080F-B5E5-4917-A6E2-1E8583610D91}" name="has_subsection"/>
     <tableColumn id="8" xr3:uid="{268CABA1-2A43-438A-A7EF-385670D18802}" name="thematic_findings"/>
-    <tableColumn id="10" xr3:uid="{B3FC5117-A8E2-4E1B-B517-AAD68F7CB433}" name="title" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{5CC182F6-C715-4AC8-854D-355CB0816969}" name="subtitle" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{224E4B7B-6146-43FA-B490-F87BAA8696E1}" name="footnote" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{4E95668B-FEB8-484F-BB19-1E0983B005D7}" name="macro" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{B3FC5117-A8E2-4E1B-B517-AAD68F7CB433}" name="title" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{5CC182F6-C715-4AC8-854D-355CB0816969}" name="subtitle" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{224E4B7B-6146-43FA-B490-F87BAA8696E1}" name="footnote" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{4E95668B-FEB8-484F-BB19-1E0983B005D7}" name="macro" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}" name="Table5" displayName="Table5" ref="A1:M81" totalsRowShown="0">
-  <autoFilter ref="A1:M81" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}" name="Table5" displayName="Table5" ref="A1:O81" totalsRowShown="0">
+  <autoFilter ref="A1:O81" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{212EC242-638E-4C2D-8A7C-290B2E57BD74}" name="id"/>
     <tableColumn id="2" xr3:uid="{0605D17D-53ED-4ED7-90F5-CA0A9CEFC8B9}" name="panel"/>
     <tableColumn id="3" xr3:uid="{B680CB48-28A5-4FB6-98AA-215E22B8B40F}" name="chart_title"/>
     <tableColumn id="4" xr3:uid="{FFEF5F92-2DF3-49A4-BD91-1FA7728CB677}" name="chart_subtitle"/>
     <tableColumn id="5" xr3:uid="{9C01E486-AAA9-4113-9F7C-DFED4772B00B}" name="var_id"/>
-    <tableColumn id="6" xr3:uid="{B447C55F-11C9-4234-9D1F-AF7936BEDF14}" name="reportValues" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{B447C55F-11C9-4234-9D1F-AF7936BEDF14}" name="reportValues" dataDxfId="7"/>
     <tableColumn id="7" xr3:uid="{3122E94D-312F-487C-A9AD-C0E5E1E51E5E}" name="panel_title"/>
     <tableColumn id="8" xr3:uid="{203C77AD-FB8E-4313-B49E-37F7B9468C14}" name="panel_subtitle"/>
     <tableColumn id="9" xr3:uid="{5273962B-B3E2-440F-8940-B09D8F61305B}" name="type"/>
+    <tableColumn id="14" xr3:uid="{EC03CCD6-A19A-460C-A5B2-E18BBA34F967}" name="label_at"/>
     <tableColumn id="10" xr3:uid="{DDAEDC79-07D2-402E-81B5-2E1EFAA266FD}" name="legend_text"/>
     <tableColumn id="11" xr3:uid="{2349E397-D3E7-455F-B793-654DDB7A534C}" name="legend_color"/>
     <tableColumn id="12" xr3:uid="{6CA05E5D-08AE-4A36-A0AA-353E1F289F09}" name="sample"/>
-    <tableColumn id="13" xr3:uid="{BCA1C210-6FE1-4DDF-9357-7DAD0B831D61}" name="years" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{BCA1C210-6FE1-4DDF-9357-7DAD0B831D61}" name="years" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{79FC7E8F-E231-444D-8CC2-A3A820DFD11C}" name="status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3514,13 +3601,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEE3254-54E8-4BFF-9B28-6E5AF3AF9A29}">
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3534,13 +3621,14 @@
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3569,19 +3657,25 @@
         <v>37</v>
       </c>
       <c r="J1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K1" t="s">
         <v>85</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>86</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>242</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3610,19 +3704,25 @@
         <v>91</v>
       </c>
       <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>269</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>267</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -3654,16 +3754,22 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
         <v>267</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>134</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>244</v>
       </c>
@@ -3692,19 +3798,25 @@
         <v>271</v>
       </c>
       <c r="J4" t="s">
+        <v>342</v>
+      </c>
+      <c r="K4" t="s">
         <v>193</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>102</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>193</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>244</v>
       </c>
@@ -3733,19 +3845,25 @@
         <v>271</v>
       </c>
       <c r="J5" t="s">
+        <v>342</v>
+      </c>
+      <c r="K5" t="s">
         <v>193</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>120</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>193</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>244</v>
       </c>
@@ -3774,19 +3892,25 @@
         <v>271</v>
       </c>
       <c r="J6" t="s">
+        <v>342</v>
+      </c>
+      <c r="K6" t="s">
         <v>193</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>121</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>193</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -3815,19 +3939,25 @@
         <v>277</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
         <v>106</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>134</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -3856,19 +3986,25 @@
         <v>255</v>
       </c>
       <c r="J8" t="s">
+        <v>342</v>
+      </c>
+      <c r="K8" t="s">
         <v>193</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>102</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>193</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>247</v>
       </c>
@@ -3902,14 +4038,20 @@
       <c r="K9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="3">
         <v>2024</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -3938,19 +4080,25 @@
         <v>276</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
         <v>106</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3979,19 +4127,25 @@
         <v>276</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
         <v>106</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>134</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -4020,19 +4174,25 @@
         <v>276</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
         <v>106</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>134</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -4061,19 +4221,25 @@
         <v>276</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
         <v>106</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>134</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -4102,19 +4268,25 @@
         <v>273</v>
       </c>
       <c r="J14" t="s">
+        <v>343</v>
+      </c>
+      <c r="K14" t="s">
         <v>193</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>102</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>193</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -4143,19 +4315,25 @@
         <v>273</v>
       </c>
       <c r="J15" t="s">
+        <v>343</v>
+      </c>
+      <c r="K15" t="s">
         <v>193</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>102</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>193</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -4184,19 +4362,25 @@
         <v>273</v>
       </c>
       <c r="J16" t="s">
+        <v>343</v>
+      </c>
+      <c r="K16" t="s">
         <v>193</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>102</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>193</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -4225,19 +4409,25 @@
         <v>273</v>
       </c>
       <c r="J17" t="s">
+        <v>343</v>
+      </c>
+      <c r="K17" t="s">
         <v>193</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>102</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>193</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -4271,14 +4461,20 @@
       <c r="K18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2024</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -4307,19 +4503,25 @@
         <v>278</v>
       </c>
       <c r="J19" t="s">
+        <v>343</v>
+      </c>
+      <c r="K19" t="s">
         <v>193</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>102</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>193</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -4330,7 +4532,7 @@
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="E20" t="s">
         <v>253</v>
@@ -4348,19 +4550,25 @@
         <v>278</v>
       </c>
       <c r="J20" t="s">
+        <v>343</v>
+      </c>
+      <c r="K20" t="s">
         <v>193</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>102</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>193</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>262</v>
       </c>
@@ -4389,19 +4597,25 @@
         <v>277</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" t="s">
         <v>106</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>134</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>263</v>
       </c>
@@ -4430,19 +4644,25 @@
         <v>272</v>
       </c>
       <c r="J22" t="s">
+        <v>269</v>
+      </c>
+      <c r="K22" t="s">
         <v>193</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>102</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>193</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>252</v>
       </c>
@@ -4471,19 +4691,25 @@
         <v>271</v>
       </c>
       <c r="J23" t="s">
+        <v>342</v>
+      </c>
+      <c r="K23" t="s">
         <v>193</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>102</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>193</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>252</v>
       </c>
@@ -4512,19 +4738,25 @@
         <v>271</v>
       </c>
       <c r="J24" t="s">
+        <v>342</v>
+      </c>
+      <c r="K24" t="s">
         <v>193</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>102</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>193</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>252</v>
       </c>
@@ -4553,19 +4785,25 @@
         <v>271</v>
       </c>
       <c r="J25" t="s">
+        <v>342</v>
+      </c>
+      <c r="K25" t="s">
         <v>193</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>102</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>193</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -4593,20 +4831,26 @@
       <c r="I26" t="s">
         <v>275</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" t="s">
+        <v>342</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>175</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>134</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -4634,20 +4878,26 @@
       <c r="I27" t="s">
         <v>275</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" t="s">
+        <v>342</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>175</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>134</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -4675,20 +4925,26 @@
       <c r="I28" t="s">
         <v>275</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" t="s">
+        <v>342</v>
+      </c>
+      <c r="K28" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>175</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>134</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -4716,20 +4972,26 @@
       <c r="I29" t="s">
         <v>275</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" t="s">
+        <v>342</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>175</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>134</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -4757,20 +5019,26 @@
       <c r="I30" t="s">
         <v>275</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" t="s">
+        <v>342</v>
+      </c>
+      <c r="K30" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>175</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>134</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -4799,19 +5067,25 @@
         <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" t="s">
         <v>175</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>193</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -4840,19 +5114,25 @@
         <v>255</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" t="s">
         <v>175</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>193</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -4881,19 +5161,25 @@
         <v>255</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" t="s">
         <v>175</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>193</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -4922,19 +5208,25 @@
         <v>277</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" t="s">
         <v>106</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>134</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -4963,19 +5255,25 @@
         <v>255</v>
       </c>
       <c r="J35" t="s">
+        <v>342</v>
+      </c>
+      <c r="K35" t="s">
         <v>193</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>102</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>193</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O35" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -5004,19 +5302,25 @@
         <v>277</v>
       </c>
       <c r="J36" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" t="s">
         <v>106</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>134</v>
       </c>
-      <c r="M36" s="1">
+      <c r="N36" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -5045,19 +5349,25 @@
         <v>255</v>
       </c>
       <c r="J37" t="s">
+        <v>342</v>
+      </c>
+      <c r="K37" t="s">
         <v>193</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>102</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>193</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>311</v>
       </c>
@@ -5086,19 +5396,25 @@
         <v>277</v>
       </c>
       <c r="J38" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" t="s">
         <v>106</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>134</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O38" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>311</v>
       </c>
@@ -5127,19 +5443,25 @@
         <v>277</v>
       </c>
       <c r="J39" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" t="s">
         <v>106</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>134</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>311</v>
       </c>
@@ -5168,19 +5490,25 @@
         <v>277</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" t="s">
         <v>106</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>134</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>311</v>
       </c>
@@ -5209,19 +5537,25 @@
         <v>277</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K41" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" t="s">
         <v>106</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>134</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="N41" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>311</v>
       </c>
@@ -5250,19 +5584,25 @@
         <v>277</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" t="s">
         <v>106</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>134</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>312</v>
       </c>
@@ -5291,19 +5631,25 @@
         <v>277</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" t="s">
         <v>106</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>134</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>312</v>
       </c>
@@ -5332,19 +5678,25 @@
         <v>277</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" t="s">
         <v>106</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>134</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="N44" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>312</v>
       </c>
@@ -5373,19 +5725,25 @@
         <v>277</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" t="s">
         <v>106</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>134</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>312</v>
       </c>
@@ -5414,19 +5772,25 @@
         <v>277</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K46" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" t="s">
         <v>106</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>134</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O46" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>312</v>
       </c>
@@ -5455,19 +5819,25 @@
         <v>277</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K47" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" t="s">
         <v>106</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>134</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O47" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>312</v>
       </c>
@@ -5496,19 +5866,25 @@
         <v>277</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K48" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" t="s">
         <v>106</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>134</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -5537,19 +5913,25 @@
         <v>278</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="K49" t="s">
+        <v>193</v>
+      </c>
+      <c r="L49" t="s">
         <v>102</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>193</v>
       </c>
-      <c r="M49" s="1">
+      <c r="N49" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -5578,19 +5960,25 @@
         <v>277</v>
       </c>
       <c r="J50" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K50" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" t="s">
         <v>106</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>134</v>
       </c>
-      <c r="M50" s="1">
+      <c r="N50" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -5619,19 +6007,25 @@
         <v>277</v>
       </c>
       <c r="J51" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K51" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" t="s">
         <v>106</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>134</v>
       </c>
-      <c r="M51" s="1">
+      <c r="N51" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O51" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -5660,19 +6054,25 @@
         <v>277</v>
       </c>
       <c r="J52" t="s">
+        <v>342</v>
+      </c>
+      <c r="K52" t="s">
         <v>199</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>167</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>134</v>
       </c>
-      <c r="M52" s="1">
+      <c r="N52" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O52" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -5701,19 +6101,25 @@
         <v>277</v>
       </c>
       <c r="J53" t="s">
+        <v>342</v>
+      </c>
+      <c r="K53" t="s">
         <v>200</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>168</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>134</v>
       </c>
-      <c r="M53" s="1">
+      <c r="N53" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O53" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -5742,19 +6148,25 @@
         <v>255</v>
       </c>
       <c r="J54" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" t="s">
         <v>106</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>193</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O54" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -5783,19 +6195,25 @@
         <v>255</v>
       </c>
       <c r="J55" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K55" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" t="s">
         <v>322</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>193</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="N55" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O55" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -5824,19 +6242,25 @@
         <v>255</v>
       </c>
       <c r="J56" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" t="s">
         <v>323</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>193</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O56" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -5865,19 +6289,25 @@
         <v>255</v>
       </c>
       <c r="J57" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57" t="s">
         <v>324</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>193</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="N57" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O57" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -5906,19 +6336,25 @@
         <v>255</v>
       </c>
       <c r="J58" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K58" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58" t="s">
         <v>325</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>193</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O58" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -5947,19 +6383,25 @@
         <v>255</v>
       </c>
       <c r="J59" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K59" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59" t="s">
         <v>326</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>193</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O59" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -5988,19 +6430,25 @@
         <v>277</v>
       </c>
       <c r="J60" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K60" t="s">
+        <v>12</v>
+      </c>
+      <c r="L60" t="s">
         <v>106</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>134</v>
       </c>
-      <c r="M60" s="1">
+      <c r="N60" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O60" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -6029,19 +6477,25 @@
         <v>277</v>
       </c>
       <c r="J61" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K61" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61" t="s">
         <v>106</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>134</v>
       </c>
-      <c r="M61" s="1">
+      <c r="N61" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O61" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -6070,19 +6524,25 @@
         <v>277</v>
       </c>
       <c r="J62" t="s">
+        <v>342</v>
+      </c>
+      <c r="K62" t="s">
         <v>199</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>167</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>134</v>
       </c>
-      <c r="M62" s="1">
+      <c r="N62" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O62" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -6111,19 +6571,25 @@
         <v>277</v>
       </c>
       <c r="J63" t="s">
+        <v>342</v>
+      </c>
+      <c r="K63" t="s">
         <v>200</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>168</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>134</v>
       </c>
-      <c r="M63" s="1">
+      <c r="N63" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O63" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -6152,19 +6618,25 @@
         <v>255</v>
       </c>
       <c r="J64" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K64" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" t="s">
         <v>106</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>193</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="N64" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O64" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -6193,19 +6665,25 @@
         <v>255</v>
       </c>
       <c r="J65" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K65" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" t="s">
         <v>322</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>193</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="N65" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O65" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -6234,19 +6712,25 @@
         <v>255</v>
       </c>
       <c r="J66" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K66" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" t="s">
         <v>323</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>193</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="N66" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O66" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -6275,19 +6759,25 @@
         <v>255</v>
       </c>
       <c r="J67" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K67" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67" t="s">
         <v>324</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>193</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="N67" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O67" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -6316,19 +6806,25 @@
         <v>255</v>
       </c>
       <c r="J68" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68" t="s">
         <v>325</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>193</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="N68" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O68" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>61</v>
       </c>
@@ -6357,19 +6853,25 @@
         <v>255</v>
       </c>
       <c r="J69" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="K69" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" t="s">
         <v>326</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>193</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="N69" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O69" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -6401,16 +6903,22 @@
         <v>12</v>
       </c>
       <c r="K70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" t="s">
         <v>338</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>134</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="N70" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O70" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -6442,16 +6950,22 @@
         <v>12</v>
       </c>
       <c r="K71" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" t="s">
         <v>339</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>134</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="N71" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O71" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -6483,16 +6997,22 @@
         <v>12</v>
       </c>
       <c r="K72" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" t="s">
         <v>340</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>134</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O72" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -6521,19 +7041,25 @@
         <v>273</v>
       </c>
       <c r="J73" t="s">
+        <v>343</v>
+      </c>
+      <c r="K73" t="s">
         <v>193</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>102</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>193</v>
       </c>
-      <c r="M73" s="1">
+      <c r="N73" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O73" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -6562,19 +7088,25 @@
         <v>273</v>
       </c>
       <c r="J74" t="s">
+        <v>343</v>
+      </c>
+      <c r="K74" t="s">
         <v>193</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>102</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>193</v>
       </c>
-      <c r="M74" s="1">
+      <c r="N74" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O74" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>63</v>
       </c>
@@ -6603,19 +7135,25 @@
         <v>273</v>
       </c>
       <c r="J75" t="s">
+        <v>343</v>
+      </c>
+      <c r="K75" t="s">
         <v>193</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>102</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>193</v>
       </c>
-      <c r="M75" s="1">
+      <c r="N75" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O75" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>64</v>
       </c>
@@ -6644,19 +7182,25 @@
         <v>277</v>
       </c>
       <c r="J76" t="s">
+        <v>342</v>
+      </c>
+      <c r="K76" t="s">
         <v>201</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>168</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>134</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="N76" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O76" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>64</v>
       </c>
@@ -6685,19 +7229,25 @@
         <v>277</v>
       </c>
       <c r="J77" t="s">
+        <v>342</v>
+      </c>
+      <c r="K77" t="s">
         <v>201</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>168</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>134</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="N77" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O77" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -6726,19 +7276,25 @@
         <v>277</v>
       </c>
       <c r="J78" t="s">
+        <v>342</v>
+      </c>
+      <c r="K78" t="s">
         <v>201</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>168</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>134</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="N78" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O78" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>327</v>
       </c>
@@ -6767,19 +7323,25 @@
         <v>255</v>
       </c>
       <c r="J79" t="s">
+        <v>342</v>
+      </c>
+      <c r="K79" t="s">
         <v>193</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>102</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>193</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="N79" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O79" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>327</v>
       </c>
@@ -6808,19 +7370,25 @@
         <v>255</v>
       </c>
       <c r="J80" t="s">
+        <v>342</v>
+      </c>
+      <c r="K80" t="s">
         <v>193</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>102</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>193</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="N80" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O80" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>327</v>
       </c>
@@ -6849,19 +7417,25 @@
         <v>255</v>
       </c>
       <c r="J81" t="s">
+        <v>342</v>
+      </c>
+      <c r="K81" t="s">
         <v>193</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>102</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>193</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O81" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -6869,8 +7443,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -6878,8 +7453,9 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -6887,8 +7463,9 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -6896,8 +7473,9 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -6905,8 +7483,9 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -6914,8 +7493,9 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -6923,9 +7503,21 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="O2:O81">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="missing">
+      <formula>NOT(ISERROR(SEARCH("missing",O2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="ready">
+      <formula>NOT(ISERROR(SEARCH("ready",O2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="coding">
+      <formula>NOT(ISERROR(SEARCH("coding",O2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="F23" twoDigitTextYear="1"/>

--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2201" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DB5A4B2-E7F3-4611-8DAD-3BEF2C406525}"/>
+  <xr:revisionPtr revIDLastSave="2209" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8096DCDC-3367-43AA-9EC9-BA6410ECAEE0}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="348">
   <si>
     <t>Cover</t>
   </si>
@@ -1165,7 +1165,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1193,36 +1193,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1276,7 +1246,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}" name="Table1" displayName="Table1" ref="A1:L49" totalsRowShown="0" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}" name="Table1" displayName="Table1" ref="A1:L49" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="A1:L49" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{D1E86754-498B-4449-AF9C-7F6F91357B29}" name="id"/>
@@ -1287,10 +1257,10 @@
     <tableColumn id="6" xr3:uid="{D78F8B52-A191-41B0-8464-081D07493BD3}" name="section_page"/>
     <tableColumn id="7" xr3:uid="{2C08080F-B5E5-4917-A6E2-1E8583610D91}" name="has_subsection"/>
     <tableColumn id="8" xr3:uid="{268CABA1-2A43-438A-A7EF-385670D18802}" name="thematic_findings"/>
-    <tableColumn id="10" xr3:uid="{B3FC5117-A8E2-4E1B-B517-AAD68F7CB433}" name="title" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{5CC182F6-C715-4AC8-854D-355CB0816969}" name="subtitle" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{224E4B7B-6146-43FA-B490-F87BAA8696E1}" name="footnote" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{4E95668B-FEB8-484F-BB19-1E0983B005D7}" name="macro" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{B3FC5117-A8E2-4E1B-B517-AAD68F7CB433}" name="title" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{5CC182F6-C715-4AC8-854D-355CB0816969}" name="subtitle" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{224E4B7B-6146-43FA-B490-F87BAA8696E1}" name="footnote" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{4E95668B-FEB8-484F-BB19-1E0983B005D7}" name="macro" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1305,7 +1275,7 @@
     <tableColumn id="3" xr3:uid="{B680CB48-28A5-4FB6-98AA-215E22B8B40F}" name="chart_title"/>
     <tableColumn id="4" xr3:uid="{FFEF5F92-2DF3-49A4-BD91-1FA7728CB677}" name="chart_subtitle"/>
     <tableColumn id="5" xr3:uid="{9C01E486-AAA9-4113-9F7C-DFED4772B00B}" name="var_id"/>
-    <tableColumn id="6" xr3:uid="{B447C55F-11C9-4234-9D1F-AF7936BEDF14}" name="reportValues" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{B447C55F-11C9-4234-9D1F-AF7936BEDF14}" name="reportValues" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{3122E94D-312F-487C-A9AD-C0E5E1E51E5E}" name="panel_title"/>
     <tableColumn id="8" xr3:uid="{203C77AD-FB8E-4313-B49E-37F7B9468C14}" name="panel_subtitle"/>
     <tableColumn id="9" xr3:uid="{5273962B-B3E2-440F-8940-B09D8F61305B}" name="type"/>
@@ -1313,7 +1283,7 @@
     <tableColumn id="10" xr3:uid="{DDAEDC79-07D2-402E-81B5-2E1EFAA266FD}" name="legend_text"/>
     <tableColumn id="11" xr3:uid="{2349E397-D3E7-455F-B793-654DDB7A534C}" name="legend_color"/>
     <tableColumn id="12" xr3:uid="{6CA05E5D-08AE-4A36-A0AA-353E1F289F09}" name="sample"/>
-    <tableColumn id="13" xr3:uid="{BCA1C210-6FE1-4DDF-9357-7DAD0B831D61}" name="years" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{BCA1C210-6FE1-4DDF-9357-7DAD0B831D61}" name="years" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{79FC7E8F-E231-444D-8CC2-A3A820DFD11C}" name="status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3604,10 +3574,10 @@
   <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N65" sqref="N65"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5219,8 +5189,8 @@
       <c r="M34" t="s">
         <v>134</v>
       </c>
-      <c r="N34" s="1">
-        <v>2024</v>
+      <c r="N34" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="O34" t="s">
         <v>347</v>
@@ -5313,8 +5283,8 @@
       <c r="M36" t="s">
         <v>134</v>
       </c>
-      <c r="N36" s="1">
-        <v>2024</v>
+      <c r="N36" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="O36" t="s">
         <v>347</v>
@@ -5971,8 +5941,8 @@
       <c r="M50" t="s">
         <v>134</v>
       </c>
-      <c r="N50" s="1">
-        <v>2024</v>
+      <c r="N50" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="O50" t="s">
         <v>347</v>
@@ -6018,8 +5988,8 @@
       <c r="M51" t="s">
         <v>134</v>
       </c>
-      <c r="N51" s="1">
-        <v>2024</v>
+      <c r="N51" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="O51" t="s">
         <v>347</v>
@@ -6065,8 +6035,8 @@
       <c r="M52" t="s">
         <v>134</v>
       </c>
-      <c r="N52" s="1">
-        <v>2024</v>
+      <c r="N52" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="O52" t="s">
         <v>347</v>
@@ -6112,8 +6082,8 @@
       <c r="M53" t="s">
         <v>134</v>
       </c>
-      <c r="N53" s="1">
-        <v>2024</v>
+      <c r="N53" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="O53" t="s">
         <v>347</v>
@@ -6441,8 +6411,8 @@
       <c r="M60" t="s">
         <v>134</v>
       </c>
-      <c r="N60" s="1">
-        <v>2024</v>
+      <c r="N60" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="O60" t="s">
         <v>347</v>
@@ -6488,8 +6458,8 @@
       <c r="M61" t="s">
         <v>134</v>
       </c>
-      <c r="N61" s="1">
-        <v>2024</v>
+      <c r="N61" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="O61" t="s">
         <v>347</v>
@@ -6535,8 +6505,8 @@
       <c r="M62" t="s">
         <v>134</v>
       </c>
-      <c r="N62" s="1">
-        <v>2024</v>
+      <c r="N62" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="O62" t="s">
         <v>347</v>
@@ -6582,8 +6552,8 @@
       <c r="M63" t="s">
         <v>134</v>
       </c>
-      <c r="N63" s="1">
-        <v>2024</v>
+      <c r="N63" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="O63" t="s">
         <v>347</v>
@@ -7508,14 +7478,14 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O2:O81">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="missing">
-      <formula>NOT(ISERROR(SEARCH("missing",O2)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="coding">
+      <formula>NOT(ISERROR(SEARCH("coding",O2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="ready">
       <formula>NOT(ISERROR(SEARCH("ready",O2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="coding">
-      <formula>NOT(ISERROR(SEARCH("coding",O2)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="missing">
+      <formula>NOT(ISERROR(SEARCH("missing",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7529,26 +7499,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -7797,10 +7747,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99B8D699-284D-4873-A808-FFD96E111D58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7817,20 +7798,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99B8D699-284D-4873-A808-FFD96E111D58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2209" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8096DCDC-3367-43AA-9EC9-BA6410ECAEE0}"/>
+  <xr:revisionPtr revIDLastSave="2223" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4EE0BCC-A925-4B18-A7A7-6969C6BBA3B7}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="343">
   <si>
     <t>Cover</t>
   </si>
@@ -626,21 +626,6 @@
     <t>Democrats, Republicans</t>
   </si>
   <si>
-    <t>It is more important to have a government that can get things done, even if we have no influence over what it does., It is more important for citizens to be able to hold government accountable, even if that means it makes decisions more slowly.,  None of the above/Prefer not to answer</t>
-  </si>
-  <si>
-    <t>Since the President was elected to lead the country, he should not be bound by laws or court decisions that he thinks are wrong., The President must always obey the laws and the courts, even if he thinks they are wrong., None of the above/Prefer not to answer</t>
-  </si>
-  <si>
-    <t>It is important to obey the government in power, no matter who you voted for., It is not necessary to obey the laws of a government that you did not vote for., None of the above/Prefer not to answer</t>
-  </si>
-  <si>
-    <t>Since the President was elected to lead the country, he can attack or discredit the media, civil society organizations, and opposition groups that criticize her/him., The President must respect the media, civil society organizations, and opposition groups and welcome their input., None of the above/Prefer not to answer</t>
-  </si>
-  <si>
-    <t>Since the President was elected to lead the country, he can limit the competences of independent government bodies or other autonomous authorities, like the courts., The President must respect the competencies, mandates, and legal powers of independent government bodies or other autonomous authorities., None of the above/Prefer not to answer</t>
-  </si>
-  <si>
     <t>National Government Officers, Local Government Officers</t>
   </si>
   <si>
@@ -854,9 +839,6 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>Wordcloud</t>
-  </si>
-  <si>
     <t>Bars</t>
   </si>
   <si>
@@ -935,9 +917,6 @@
     <t>Difference in the percentage of Democrats and Republicans who marked a factor as important.</t>
   </si>
   <si>
-    <t>Special</t>
-  </si>
-  <si>
     <t>Percentage of respondents that confirmed…</t>
   </si>
   <si>
@@ -1086,6 +1065,12 @@
   </si>
   <si>
     <t>ready</t>
+  </si>
+  <si>
+    <t>Statement 1, Statement 2, Neither</t>
+  </si>
+  <si>
+    <t>Statement 2, Statement 1, Neither</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1160,7 +1145,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1610,7 +1594,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E524A5-001D-41D7-83FE-232B11FD9C08}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:L30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,7 +2059,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2113,12 +2097,12 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -2142,16 +2126,16 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J12" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2189,7 +2173,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2227,7 +2211,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2270,7 +2254,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -2294,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -2303,7 +2287,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2335,13 +2319,13 @@
         <v>113</v>
       </c>
       <c r="J17" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2373,13 +2357,13 @@
         <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2408,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -2417,7 +2401,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2449,13 +2433,13 @@
         <v>122</v>
       </c>
       <c r="J20" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2487,18 +2471,18 @@
         <v>123</v>
       </c>
       <c r="J21" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -2525,18 +2509,18 @@
         <v>124</v>
       </c>
       <c r="J22" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B23">
         <v>19</v>
@@ -2563,18 +2547,18 @@
         <v>125</v>
       </c>
       <c r="J23" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -2598,16 +2582,16 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="J24" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2645,7 +2629,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2715,13 +2699,13 @@
         <v>130</v>
       </c>
       <c r="J27" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2753,18 +2737,18 @@
         <v>131</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B29">
         <v>25</v>
@@ -2797,12 +2781,12 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B30">
         <v>26</v>
@@ -2835,7 +2819,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2873,7 +2857,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2943,13 +2927,13 @@
         <v>161</v>
       </c>
       <c r="J33" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2978,16 +2962,16 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="J34" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3025,7 +3009,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3054,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J36" t="s">
         <v>171</v>
@@ -3063,7 +3047,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3139,7 +3123,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3177,7 +3161,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3215,12 +3199,12 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -3253,7 +3237,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3574,10 +3558,10 @@
   <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="O26" sqref="O26:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,10 +3590,10 @@
         <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E1" t="s">
         <v>41</v>
@@ -3618,16 +3602,16 @@
         <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I1" t="s">
         <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K1" t="s">
         <v>85</v>
@@ -3636,13 +3620,13 @@
         <v>86</v>
       </c>
       <c r="M1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3659,10 +3643,10 @@
         <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -3677,10 +3661,10 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M2" t="s">
         <v>134</v>
@@ -3689,7 +3673,7 @@
         <v>2024</v>
       </c>
       <c r="O2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3706,10 +3690,10 @@
         <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -3718,7 +3702,7 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>270</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -3727,7 +3711,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M3" t="s">
         <v>134</v>
@@ -3736,39 +3720,39 @@
         <v>2024</v>
       </c>
       <c r="O3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K4" t="s">
         <v>193</v>
@@ -3783,27 +3767,27 @@
         <v>2024</v>
       </c>
       <c r="O4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -3812,10 +3796,10 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K5" t="s">
         <v>193</v>
@@ -3830,27 +3814,27 @@
         <v>2024</v>
       </c>
       <c r="O5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
         <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="G6" t="s">
         <v>98</v>
@@ -3859,10 +3843,10 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K6" t="s">
         <v>193</v>
@@ -3877,7 +3861,7 @@
         <v>2024</v>
       </c>
       <c r="O6" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -3894,7 +3878,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -3906,10 +3890,10 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
@@ -3921,10 +3905,10 @@
         <v>134</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -3941,7 +3925,7 @@
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -3953,10 +3937,10 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J8" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K8" t="s">
         <v>193</v>
@@ -3968,30 +3952,30 @@
         <v>193</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O8" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>12</v>
@@ -4018,7 +4002,7 @@
         <v>2024</v>
       </c>
       <c r="O9" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -4032,13 +4016,13 @@
         <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G10" t="s">
         <v>115</v>
@@ -4047,10 +4031,10 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J10" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -4065,7 +4049,7 @@
         <v>2024</v>
       </c>
       <c r="O10" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -4079,13 +4063,13 @@
         <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G11" t="s">
         <v>116</v>
@@ -4094,10 +4078,10 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J11" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -4112,7 +4096,7 @@
         <v>2024</v>
       </c>
       <c r="O11" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -4126,13 +4110,13 @@
         <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G12" t="s">
         <v>117</v>
@@ -4141,10 +4125,10 @@
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J12" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
@@ -4159,7 +4143,7 @@
         <v>2024</v>
       </c>
       <c r="O12" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -4173,13 +4157,13 @@
         <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G13" t="s">
         <v>118</v>
@@ -4188,10 +4172,10 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J13" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
@@ -4206,7 +4190,7 @@
         <v>2024</v>
       </c>
       <c r="O13" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -4220,13 +4204,13 @@
         <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G14" t="s">
         <v>115</v>
@@ -4235,10 +4219,10 @@
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J14" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K14" t="s">
         <v>193</v>
@@ -4253,7 +4237,7 @@
         <v>2024</v>
       </c>
       <c r="O14" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -4267,13 +4251,13 @@
         <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G15" t="s">
         <v>116</v>
@@ -4282,10 +4266,10 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J15" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K15" t="s">
         <v>193</v>
@@ -4300,7 +4284,7 @@
         <v>2024</v>
       </c>
       <c r="O15" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -4314,13 +4298,13 @@
         <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G16" t="s">
         <v>117</v>
@@ -4329,10 +4313,10 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J16" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K16" t="s">
         <v>193</v>
@@ -4347,7 +4331,7 @@
         <v>2024</v>
       </c>
       <c r="O16" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -4361,13 +4345,13 @@
         <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E17" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G17" t="s">
         <v>118</v>
@@ -4376,10 +4360,10 @@
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J17" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K17" t="s">
         <v>193</v>
@@ -4394,7 +4378,7 @@
         <v>2024</v>
       </c>
       <c r="O17" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -4405,16 +4389,16 @@
         <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>12</v>
@@ -4441,7 +4425,7 @@
         <v>2024</v>
       </c>
       <c r="O18" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -4455,13 +4439,13 @@
         <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
@@ -4470,10 +4454,10 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J19" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K19" t="s">
         <v>193</v>
@@ -4488,7 +4472,7 @@
         <v>2024</v>
       </c>
       <c r="O19" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -4502,13 +4486,13 @@
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E20" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -4517,10 +4501,10 @@
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J20" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K20" t="s">
         <v>193</v>
@@ -4535,12 +4519,12 @@
         <v>2024</v>
       </c>
       <c r="O20" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -4549,13 +4533,13 @@
         <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E21" t="s">
         <v>126</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -4564,10 +4548,10 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K21" t="s">
         <v>12</v>
@@ -4579,15 +4563,15 @@
         <v>134</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O21" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B22" t="s">
         <v>88</v>
@@ -4596,13 +4580,13 @@
         <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -4611,10 +4595,10 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J22" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K22" t="s">
         <v>193</v>
@@ -4629,39 +4613,39 @@
         <v>2024</v>
       </c>
       <c r="O22" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s">
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D23" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E23" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G23" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J23" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K23" t="s">
         <v>193</v>
@@ -4676,39 +4660,39 @@
         <v>2024</v>
       </c>
       <c r="O23" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s">
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D24" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E24" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G24" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J24" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K24" t="s">
         <v>193</v>
@@ -4723,39 +4707,39 @@
         <v>2024</v>
       </c>
       <c r="O24" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s">
         <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D25" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E25" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J25" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K25" t="s">
         <v>193</v>
@@ -4770,7 +4754,7 @@
         <v>2024</v>
       </c>
       <c r="O25" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -4787,10 +4771,10 @@
         <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -4799,13 +4783,13 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J26" t="s">
-        <v>342</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>194</v>
+        <v>335</v>
+      </c>
+      <c r="K26" t="s">
+        <v>341</v>
       </c>
       <c r="L26" t="s">
         <v>175</v>
@@ -4817,7 +4801,7 @@
         <v>2024</v>
       </c>
       <c r="O26" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -4834,10 +4818,10 @@
         <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -4846,13 +4830,13 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J27" t="s">
+        <v>335</v>
+      </c>
+      <c r="K27" t="s">
         <v>342</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="L27" t="s">
         <v>175</v>
@@ -4864,7 +4848,7 @@
         <v>2024</v>
       </c>
       <c r="O27" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -4881,10 +4865,10 @@
         <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -4893,13 +4877,13 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J28" t="s">
-        <v>342</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>196</v>
+        <v>335</v>
+      </c>
+      <c r="K28" t="s">
+        <v>341</v>
       </c>
       <c r="L28" t="s">
         <v>175</v>
@@ -4911,7 +4895,7 @@
         <v>2024</v>
       </c>
       <c r="O28" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -4928,10 +4912,10 @@
         <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -4940,13 +4924,13 @@
         <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
+        <v>335</v>
+      </c>
+      <c r="K29" t="s">
         <v>342</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="L29" t="s">
         <v>175</v>
@@ -4958,7 +4942,7 @@
         <v>2024</v>
       </c>
       <c r="O29" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -4975,10 +4959,10 @@
         <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -4987,13 +4971,13 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J30" t="s">
+        <v>335</v>
+      </c>
+      <c r="K30" t="s">
         <v>342</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="L30" t="s">
         <v>175</v>
@@ -5005,7 +4989,7 @@
         <v>2024</v>
       </c>
       <c r="O30" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -5019,25 +5003,25 @@
         <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E31" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G31" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J31" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K31" t="s">
         <v>12</v>
@@ -5049,10 +5033,10 @@
         <v>193</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O31" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -5066,25 +5050,25 @@
         <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E32" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G32" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J32" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K32" t="s">
         <v>12</v>
@@ -5096,10 +5080,10 @@
         <v>193</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O32" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -5113,25 +5097,25 @@
         <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E33" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G33" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J33" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K33" t="s">
         <v>12</v>
@@ -5143,10 +5127,10 @@
         <v>193</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O33" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -5160,13 +5144,13 @@
         <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E34" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G34" t="s">
         <v>132</v>
@@ -5175,10 +5159,10 @@
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J34" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K34" t="s">
         <v>12</v>
@@ -5190,10 +5174,10 @@
         <v>134</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O34" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -5207,13 +5191,13 @@
         <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G35" t="s">
         <v>132</v>
@@ -5222,10 +5206,10 @@
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J35" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K35" t="s">
         <v>193</v>
@@ -5237,10 +5221,10 @@
         <v>193</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O35" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -5254,13 +5238,13 @@
         <v>131</v>
       </c>
       <c r="D36" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E36" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G36" t="s">
         <v>133</v>
@@ -5269,10 +5253,10 @@
         <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K36" t="s">
         <v>12</v>
@@ -5284,10 +5268,10 @@
         <v>134</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O36" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -5301,13 +5285,13 @@
         <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E37" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G37" t="s">
         <v>133</v>
@@ -5316,10 +5300,10 @@
         <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J37" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K37" t="s">
         <v>193</v>
@@ -5331,15 +5315,15 @@
         <v>193</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O37" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s">
         <v>87</v>
@@ -5351,10 +5335,10 @@
         <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G38" t="s">
         <v>157</v>
@@ -5363,10 +5347,10 @@
         <v>143</v>
       </c>
       <c r="I38" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J38" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K38" t="s">
         <v>12</v>
@@ -5378,15 +5362,15 @@
         <v>134</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O38" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s">
         <v>88</v>
@@ -5398,10 +5382,10 @@
         <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G39" t="s">
         <v>157</v>
@@ -5410,10 +5394,10 @@
         <v>144</v>
       </c>
       <c r="I39" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J39" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K39" t="s">
         <v>12</v>
@@ -5425,15 +5409,15 @@
         <v>134</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O39" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
@@ -5445,10 +5429,10 @@
         <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G40" t="s">
         <v>157</v>
@@ -5457,10 +5441,10 @@
         <v>145</v>
       </c>
       <c r="I40" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J40" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K40" t="s">
         <v>12</v>
@@ -5472,15 +5456,15 @@
         <v>134</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O40" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s">
         <v>114</v>
@@ -5492,10 +5476,10 @@
         <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G41" t="s">
         <v>157</v>
@@ -5504,10 +5488,10 @@
         <v>146</v>
       </c>
       <c r="I41" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J41" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K41" t="s">
         <v>12</v>
@@ -5519,15 +5503,15 @@
         <v>134</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O41" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s">
         <v>129</v>
@@ -5539,10 +5523,10 @@
         <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G42" t="s">
         <v>157</v>
@@ -5551,10 +5535,10 @@
         <v>147</v>
       </c>
       <c r="I42" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J42" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K42" t="s">
         <v>12</v>
@@ -5566,15 +5550,15 @@
         <v>134</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O42" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B43" t="s">
         <v>138</v>
@@ -5586,10 +5570,10 @@
         <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G43" t="s">
         <v>152</v>
@@ -5598,10 +5582,10 @@
         <v>153</v>
       </c>
       <c r="I43" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J43" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K43" t="s">
         <v>12</v>
@@ -5613,15 +5597,15 @@
         <v>134</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O43" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s">
         <v>139</v>
@@ -5633,10 +5617,10 @@
         <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G44" t="s">
         <v>152</v>
@@ -5645,10 +5629,10 @@
         <v>154</v>
       </c>
       <c r="I44" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J44" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K44" t="s">
         <v>12</v>
@@ -5660,15 +5644,15 @@
         <v>134</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O44" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B45" t="s">
         <v>140</v>
@@ -5680,10 +5664,10 @@
         <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G45" t="s">
         <v>152</v>
@@ -5692,10 +5676,10 @@
         <v>155</v>
       </c>
       <c r="I45" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J45" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K45" t="s">
         <v>12</v>
@@ -5707,15 +5691,15 @@
         <v>134</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O45" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B46" t="s">
         <v>137</v>
@@ -5727,10 +5711,10 @@
         <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G46" t="s">
         <v>148</v>
@@ -5739,10 +5723,10 @@
         <v>149</v>
       </c>
       <c r="I46" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J46" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K46" t="s">
         <v>12</v>
@@ -5754,15 +5738,15 @@
         <v>134</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O46" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B47" t="s">
         <v>141</v>
@@ -5774,10 +5758,10 @@
         <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G47" t="s">
         <v>148</v>
@@ -5786,10 +5770,10 @@
         <v>150</v>
       </c>
       <c r="I47" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J47" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K47" t="s">
         <v>12</v>
@@ -5801,15 +5785,15 @@
         <v>134</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O47" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B48" t="s">
         <v>142</v>
@@ -5821,10 +5805,10 @@
         <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G48" t="s">
         <v>151</v>
@@ -5833,10 +5817,10 @@
         <v>156</v>
       </c>
       <c r="I48" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J48" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K48" t="s">
         <v>12</v>
@@ -5848,10 +5832,10 @@
         <v>134</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O48" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -5868,10 +5852,10 @@
         <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -5880,10 +5864,10 @@
         <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J49" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K49" t="s">
         <v>193</v>
@@ -5898,7 +5882,7 @@
         <v>2024</v>
       </c>
       <c r="O49" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -5912,13 +5896,13 @@
         <v>161</v>
       </c>
       <c r="D50" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E50" t="s">
         <v>162</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G50" t="s">
         <v>164</v>
@@ -5927,10 +5911,10 @@
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J50" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K50" t="s">
         <v>12</v>
@@ -5942,10 +5926,10 @@
         <v>134</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O50" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -5959,13 +5943,13 @@
         <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E51" t="s">
         <v>163</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G51" t="s">
         <v>165</v>
@@ -5974,10 +5958,10 @@
         <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J51" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K51" t="s">
         <v>12</v>
@@ -5989,10 +5973,10 @@
         <v>134</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O51" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -6006,13 +5990,13 @@
         <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E52" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G52" t="s">
         <v>166</v>
@@ -6021,13 +6005,13 @@
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J52" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K52" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L52" t="s">
         <v>167</v>
@@ -6036,10 +6020,10 @@
         <v>134</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O52" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -6053,13 +6037,13 @@
         <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E53" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G53" t="s">
         <v>169</v>
@@ -6068,13 +6052,13 @@
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J53" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K53" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L53" t="s">
         <v>168</v>
@@ -6083,10 +6067,10 @@
         <v>134</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O53" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -6097,16 +6081,16 @@
         <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D54" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E54" t="s">
         <v>162</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G54" t="s">
         <v>164</v>
@@ -6115,10 +6099,10 @@
         <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J54" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K54" t="s">
         <v>12</v>
@@ -6130,10 +6114,10 @@
         <v>193</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O54" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -6144,16 +6128,16 @@
         <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D55" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E55" t="s">
         <v>163</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G55" t="s">
         <v>165</v>
@@ -6162,25 +6146,25 @@
         <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J55" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K55" t="s">
         <v>12</v>
       </c>
       <c r="L55" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M55" t="s">
         <v>193</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O55" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -6191,43 +6175,43 @@
         <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D56" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E56" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G56" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H56" t="s">
         <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J56" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K56" t="s">
         <v>12</v>
       </c>
       <c r="L56" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M56" t="s">
         <v>193</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O56" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -6238,43 +6222,43 @@
         <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D57" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E57" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G57" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H57" t="s">
         <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J57" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K57" t="s">
         <v>12</v>
       </c>
       <c r="L57" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M57" t="s">
         <v>193</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O57" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -6285,43 +6269,43 @@
         <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D58" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E58" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G58" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H58" t="s">
         <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J58" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K58" t="s">
         <v>12</v>
       </c>
       <c r="L58" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M58" t="s">
         <v>193</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O58" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -6332,43 +6316,43 @@
         <v>138</v>
       </c>
       <c r="C59" t="s">
+        <v>306</v>
+      </c>
+      <c r="D59" t="s">
+        <v>261</v>
+      </c>
+      <c r="E59" t="s">
+        <v>309</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="D59" t="s">
-        <v>266</v>
-      </c>
-      <c r="E59" t="s">
-        <v>316</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G59" t="s">
-        <v>320</v>
-      </c>
       <c r="H59" t="s">
         <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J59" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K59" t="s">
         <v>12</v>
       </c>
       <c r="L59" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M59" t="s">
         <v>193</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O59" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -6385,10 +6369,10 @@
         <v>171</v>
       </c>
       <c r="E60" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G60" t="s">
         <v>172</v>
@@ -6397,10 +6381,10 @@
         <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J60" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K60" t="s">
         <v>12</v>
@@ -6412,10 +6396,10 @@
         <v>134</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O60" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -6432,10 +6416,10 @@
         <v>171</v>
       </c>
       <c r="E61" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G61" t="s">
         <v>165</v>
@@ -6444,10 +6428,10 @@
         <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J61" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K61" t="s">
         <v>12</v>
@@ -6459,10 +6443,10 @@
         <v>134</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O61" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -6479,10 +6463,10 @@
         <v>171</v>
       </c>
       <c r="E62" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G62" t="s">
         <v>166</v>
@@ -6491,13 +6475,13 @@
         <v>12</v>
       </c>
       <c r="I62" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J62" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K62" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L62" t="s">
         <v>167</v>
@@ -6506,10 +6490,10 @@
         <v>134</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O62" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -6526,10 +6510,10 @@
         <v>171</v>
       </c>
       <c r="E63" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G63" t="s">
         <v>169</v>
@@ -6538,13 +6522,13 @@
         <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J63" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K63" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L63" t="s">
         <v>168</v>
@@ -6553,10 +6537,10 @@
         <v>134</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O63" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -6567,16 +6551,16 @@
         <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D64" t="s">
         <v>171</v>
       </c>
       <c r="E64" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G64" t="s">
         <v>165</v>
@@ -6585,10 +6569,10 @@
         <v>12</v>
       </c>
       <c r="I64" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J64" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K64" t="s">
         <v>12</v>
@@ -6600,10 +6584,10 @@
         <v>193</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O64" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -6614,43 +6598,43 @@
         <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D65" t="s">
         <v>171</v>
       </c>
       <c r="E65" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G65" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
       </c>
       <c r="I65" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J65" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K65" t="s">
         <v>12</v>
       </c>
       <c r="L65" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M65" t="s">
         <v>193</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="O65" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -6661,43 +6645,43 @@
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D66" t="s">
         <v>171</v>
       </c>
       <c r="E66" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G66" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J66" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K66" t="s">
         <v>12</v>
       </c>
       <c r="L66" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M66" t="s">
         <v>193</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O66" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -6708,43 +6692,43 @@
         <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D67" t="s">
         <v>171</v>
       </c>
       <c r="E67" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G67" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J67" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K67" t="s">
         <v>12</v>
       </c>
       <c r="L67" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M67" t="s">
         <v>193</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="O67" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -6755,43 +6739,43 @@
         <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D68" t="s">
         <v>171</v>
       </c>
       <c r="E68" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G68" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H68" t="s">
         <v>12</v>
       </c>
       <c r="I68" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J68" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K68" t="s">
         <v>12</v>
       </c>
       <c r="L68" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M68" t="s">
         <v>193</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="O68" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -6802,43 +6786,43 @@
         <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D69" t="s">
         <v>171</v>
       </c>
       <c r="E69" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G69" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H69" t="s">
         <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J69" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K69" t="s">
         <v>12</v>
       </c>
       <c r="L69" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M69" t="s">
         <v>193</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="O69" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -6855,10 +6839,10 @@
         <v>177</v>
       </c>
       <c r="E70" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G70" t="s">
         <v>178</v>
@@ -6867,7 +6851,7 @@
         <v>182</v>
       </c>
       <c r="I70" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J70" t="s">
         <v>12</v>
@@ -6876,16 +6860,16 @@
         <v>12</v>
       </c>
       <c r="L70" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="M70" t="s">
         <v>134</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O70" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -6902,10 +6886,10 @@
         <v>177</v>
       </c>
       <c r="E71" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G71" t="s">
         <v>179</v>
@@ -6914,7 +6898,7 @@
         <v>182</v>
       </c>
       <c r="I71" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J71" t="s">
         <v>12</v>
@@ -6923,16 +6907,16 @@
         <v>12</v>
       </c>
       <c r="L71" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M71" t="s">
         <v>134</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="O71" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -6949,7 +6933,7 @@
         <v>177</v>
       </c>
       <c r="E72" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
@@ -6961,7 +6945,7 @@
         <v>186</v>
       </c>
       <c r="I72" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J72" t="s">
         <v>12</v>
@@ -6970,16 +6954,16 @@
         <v>12</v>
       </c>
       <c r="L72" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M72" t="s">
         <v>134</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O72" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -6996,10 +6980,10 @@
         <v>177</v>
       </c>
       <c r="E73" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G73" t="s">
         <v>178</v>
@@ -7008,10 +6992,10 @@
         <v>182</v>
       </c>
       <c r="I73" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J73" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K73" t="s">
         <v>193</v>
@@ -7026,7 +7010,7 @@
         <v>2024</v>
       </c>
       <c r="O73" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -7043,10 +7027,10 @@
         <v>177</v>
       </c>
       <c r="E74" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G74" t="s">
         <v>179</v>
@@ -7055,10 +7039,10 @@
         <v>182</v>
       </c>
       <c r="I74" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J74" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K74" t="s">
         <v>193</v>
@@ -7073,7 +7057,7 @@
         <v>2024</v>
       </c>
       <c r="O74" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -7090,7 +7074,7 @@
         <v>177</v>
       </c>
       <c r="E75" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F75" s="1">
         <v>1</v>
@@ -7102,10 +7086,10 @@
         <v>186</v>
       </c>
       <c r="I75" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J75" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K75" t="s">
         <v>193</v>
@@ -7120,7 +7104,7 @@
         <v>2024</v>
       </c>
       <c r="O75" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -7137,10 +7121,10 @@
         <v>184</v>
       </c>
       <c r="E76" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G76" t="s">
         <v>174</v>
@@ -7149,13 +7133,13 @@
         <v>187</v>
       </c>
       <c r="I76" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J76" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K76" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L76" t="s">
         <v>168</v>
@@ -7164,10 +7148,10 @@
         <v>134</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O76" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -7184,25 +7168,25 @@
         <v>184</v>
       </c>
       <c r="E77" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G77" t="s">
         <v>173</v>
       </c>
       <c r="H77" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I77" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J77" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K77" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L77" t="s">
         <v>168</v>
@@ -7211,10 +7195,10 @@
         <v>134</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O77" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -7231,10 +7215,10 @@
         <v>184</v>
       </c>
       <c r="E78" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G78" t="s">
         <v>185</v>
@@ -7243,13 +7227,13 @@
         <v>188</v>
       </c>
       <c r="I78" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J78" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K78" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L78" t="s">
         <v>168</v>
@@ -7258,15 +7242,15 @@
         <v>134</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O78" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B79" t="s">
         <v>87</v>
@@ -7278,10 +7262,10 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
@@ -7290,10 +7274,10 @@
         <v>190</v>
       </c>
       <c r="I79" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J79" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K79" t="s">
         <v>193</v>
@@ -7305,15 +7289,15 @@
         <v>193</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O79" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
@@ -7325,10 +7309,10 @@
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G80" t="s">
         <v>12</v>
@@ -7337,10 +7321,10 @@
         <v>191</v>
       </c>
       <c r="I80" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J80" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K80" t="s">
         <v>193</v>
@@ -7352,15 +7336,15 @@
         <v>193</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O80" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B81" t="s">
         <v>94</v>
@@ -7372,10 +7356,10 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
@@ -7384,10 +7368,10 @@
         <v>192</v>
       </c>
       <c r="I81" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J81" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K81" t="s">
         <v>193</v>
@@ -7399,10 +7383,10 @@
         <v>193</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O81" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">

--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2223" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4EE0BCC-A925-4B18-A7A7-6969C6BBA3B7}"/>
+  <xr:revisionPtr revIDLastSave="2260" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{063DF623-9F8B-4BA5-92AD-F84F2B6A6193}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="344">
   <si>
     <t>Cover</t>
   </si>
@@ -386,15 +386,6 @@
   </si>
   <si>
     <t>Electoral Process</t>
-  </si>
-  <si>
-    <t>Voting Rights and Electoral Authorities</t>
-  </si>
-  <si>
-    <t>Electoral Results and Voting Counts</t>
-  </si>
-  <si>
-    <t>Electoral Campaign and Boundaries</t>
   </si>
   <si>
     <t>Integrity of the Electoral Process, by Political Affiliation</t>
@@ -644,18 +635,6 @@
     <t>USA_q18a</t>
   </si>
   <si>
-    <t>USA_q21b_G1, USA_q21g_G1, USA_q21d_G2, USA_q21h_G2, USA_q21i_G2</t>
-  </si>
-  <si>
-    <t>USA_q21a_G1, USA_q21e_G1, USA_q21f_G1, USA_q21h_G1, USA_q21a_G2, USA_q1k, USA_q2h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA_q21c_G1, USA_q21d_G1, USA_q21b_G2, USA_q21f_G2, USA_q21g_G2, USA_q21j_G2 </t>
-  </si>
-  <si>
-    <t>USA_q21j_G1, USA_q21c_G2, USA_q21e_G2</t>
-  </si>
-  <si>
     <t>USA_q20a, USA_q20b</t>
   </si>
   <si>
@@ -854,9 +833,6 @@
     <t>Gauge</t>
   </si>
   <si>
-    <t>Dashbars</t>
-  </si>
-  <si>
     <t>Lines</t>
   </si>
   <si>
@@ -1071,6 +1047,33 @@
   </si>
   <si>
     <t>Statement 2, Statement 1, Neither</t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>Edgebars</t>
+  </si>
+  <si>
+    <t>Voting Rights</t>
+  </si>
+  <si>
+    <t>Electoral Authorities</t>
+  </si>
+  <si>
+    <t>Electoral Results and Vote Counting</t>
+  </si>
+  <si>
+    <t>USA_q21b_G2, USA_q21g_G1, USA_q21h_G2, USA_q21i_G2, USA_q21c_G2</t>
+  </si>
+  <si>
+    <t>USA_q21a_G1, USA_q21a_G2, USA_q21b_G1, USA_q21h_G1</t>
+  </si>
+  <si>
+    <t>USA_q21e_G1, USA_q21f_G1, USA_q1k, USA_q2h, USA_q21g_G2</t>
+  </si>
+  <si>
+    <t>USA_q21c_G1, USA_q21d_G1, USA_q21f_G2, USA_q21j_G2, USA_q21j_merge</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1597,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,10 +1648,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1663,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E524A5-001D-41D7-83FE-232B11FD9C08}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,7 +2062,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2097,12 +2100,12 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -2126,16 +2129,16 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="J12" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2173,7 +2176,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2211,7 +2214,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2254,7 +2257,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -2278,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -2287,7 +2290,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2319,13 +2322,13 @@
         <v>113</v>
       </c>
       <c r="J17" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2354,16 +2357,16 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J18" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2392,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -2401,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2430,16 +2433,16 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2468,21 +2471,21 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J21" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -2506,21 +2509,21 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B23">
         <v>19</v>
@@ -2544,21 +2547,21 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J23" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -2582,16 +2585,16 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="J24" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2620,16 +2623,16 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2696,16 +2699,16 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J27" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2734,21 +2737,21 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J28" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B29">
         <v>25</v>
@@ -2772,21 +2775,21 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B30">
         <v>26</v>
@@ -2810,16 +2813,16 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2848,16 +2851,16 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2909,7 +2912,7 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -2924,16 +2927,16 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J33" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2947,7 +2950,7 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -2962,16 +2965,16 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="J34" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2985,7 +2988,7 @@
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -3000,16 +3003,16 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J35" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3023,7 +3026,7 @@
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -3038,16 +3041,16 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="J36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3114,16 +3117,16 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3152,16 +3155,16 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J39" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3190,21 +3193,21 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J40" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -3228,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -3237,7 +3240,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3558,10 +3561,10 @@
   <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O26" sqref="O26:O30"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3590,10 +3593,10 @@
         <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E1" t="s">
         <v>41</v>
@@ -3602,16 +3605,16 @@
         <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I1" t="s">
         <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K1" t="s">
         <v>85</v>
@@ -3620,13 +3623,13 @@
         <v>86</v>
       </c>
       <c r="M1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="N1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="O1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3643,10 +3646,10 @@
         <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -3661,19 +3664,19 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N2" s="1">
         <v>2024</v>
       </c>
       <c r="O2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3690,10 +3693,10 @@
         <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -3711,83 +3714,83 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N3" s="1">
         <v>2024</v>
       </c>
       <c r="O3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J4" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L4" t="s">
         <v>102</v>
       </c>
       <c r="M4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N4" s="1">
         <v>2024</v>
       </c>
       <c r="O4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -3796,45 +3799,45 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N5" s="1">
         <v>2024</v>
       </c>
       <c r="O5" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
         <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G6" t="s">
         <v>98</v>
@@ -3843,25 +3846,25 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J6" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N6" s="1">
         <v>2024</v>
       </c>
       <c r="O6" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -3878,7 +3881,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -3890,10 +3893,10 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
@@ -3902,13 +3905,13 @@
         <v>106</v>
       </c>
       <c r="M7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -3925,7 +3928,7 @@
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -3937,45 +3940,45 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="J8" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L8" t="s">
         <v>102</v>
       </c>
       <c r="M8" t="s">
-        <v>193</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>298</v>
+        <v>190</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2021</v>
       </c>
       <c r="O8" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>12</v>
@@ -3996,13 +3999,13 @@
         <v>12</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N9" s="3">
         <v>2024</v>
       </c>
       <c r="O9" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -4016,13 +4019,13 @@
         <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G10" t="s">
         <v>115</v>
@@ -4031,10 +4034,10 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>270</v>
+        <v>336</v>
       </c>
       <c r="J10" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -4043,13 +4046,13 @@
         <v>106</v>
       </c>
       <c r="M10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N10" s="1">
         <v>2024</v>
       </c>
       <c r="O10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -4063,25 +4066,25 @@
         <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>201</v>
+        <v>341</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>337</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>270</v>
+        <v>336</v>
       </c>
       <c r="J11" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -4090,13 +4093,13 @@
         <v>106</v>
       </c>
       <c r="M11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N11" s="1">
         <v>2024</v>
       </c>
       <c r="O11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -4110,25 +4113,25 @@
         <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>202</v>
+        <v>342</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>338</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>270</v>
+        <v>336</v>
       </c>
       <c r="J12" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
@@ -4137,13 +4140,13 @@
         <v>106</v>
       </c>
       <c r="M12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N12" s="1">
         <v>2024</v>
       </c>
       <c r="O12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -4157,25 +4160,25 @@
         <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>343</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>339</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>270</v>
+        <v>336</v>
       </c>
       <c r="J13" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
@@ -4184,13 +4187,13 @@
         <v>106</v>
       </c>
       <c r="M13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N13" s="1">
         <v>2024</v>
       </c>
       <c r="O13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -4201,16 +4204,16 @@
         <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G14" t="s">
         <v>115</v>
@@ -4219,25 +4222,25 @@
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="J14" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L14" t="s">
         <v>102</v>
       </c>
       <c r="M14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N14" s="1">
         <v>2024</v>
       </c>
       <c r="O14" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -4248,43 +4251,43 @@
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>341</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>337</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="J15" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L15" t="s">
         <v>102</v>
       </c>
       <c r="M15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N15" s="1">
         <v>2024</v>
       </c>
       <c r="O15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -4295,43 +4298,43 @@
         <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E16" t="s">
-        <v>202</v>
+        <v>342</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>338</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="J16" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s">
         <v>102</v>
       </c>
       <c r="M16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N16" s="1">
         <v>2024</v>
       </c>
       <c r="O16" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -4342,43 +4345,43 @@
         <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>343</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>339</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="J17" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s">
         <v>102</v>
       </c>
       <c r="M17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N17" s="1">
         <v>2024</v>
       </c>
       <c r="O17" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -4389,16 +4392,16 @@
         <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>12</v>
@@ -4419,13 +4422,13 @@
         <v>12</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N18" s="3">
         <v>2024</v>
       </c>
       <c r="O18" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -4436,16 +4439,16 @@
         <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
@@ -4454,25 +4457,25 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="J19" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s">
         <v>102</v>
       </c>
       <c r="M19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N19" s="1">
         <v>2024</v>
       </c>
       <c r="O19" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -4483,16 +4486,16 @@
         <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E20" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -4501,45 +4504,45 @@
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="J20" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
         <v>102</v>
       </c>
       <c r="M20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N20" s="1">
         <v>2024</v>
       </c>
       <c r="O20" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -4548,10 +4551,10 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J21" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K21" t="s">
         <v>12</v>
@@ -4560,33 +4563,33 @@
         <v>106</v>
       </c>
       <c r="M21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O21" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s">
         <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E22" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -4595,166 +4598,166 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="J22" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
         <v>102</v>
       </c>
       <c r="M22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N22" s="1">
         <v>2024</v>
       </c>
       <c r="O22" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s">
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D23" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E23" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J23" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s">
         <v>102</v>
       </c>
       <c r="M23" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N23" s="1">
         <v>2024</v>
       </c>
       <c r="O23" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D24" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E24" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J24" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s">
         <v>102</v>
       </c>
       <c r="M24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N24" s="1">
         <v>2024</v>
       </c>
       <c r="O24" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s">
         <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D25" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J25" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s">
         <v>102</v>
       </c>
       <c r="M25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N25" s="1">
         <v>2024</v>
       </c>
       <c r="O25" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -4765,16 +4768,16 @@
         <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -4783,25 +4786,25 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J26" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K26" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N26" s="1">
         <v>2024</v>
       </c>
       <c r="O26" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -4812,16 +4815,16 @@
         <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -4830,25 +4833,25 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J27" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K27" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="L27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N27" s="1">
         <v>2024</v>
       </c>
       <c r="O27" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -4859,16 +4862,16 @@
         <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -4877,25 +4880,25 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K28" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N28" s="1">
         <v>2024</v>
       </c>
       <c r="O28" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -4906,16 +4909,16 @@
         <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -4924,25 +4927,25 @@
         <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J29" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K29" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="L29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N29" s="1">
         <v>2024</v>
       </c>
       <c r="O29" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -4950,19 +4953,19 @@
         <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -4971,25 +4974,25 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J30" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K30" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="L30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N30" s="1">
         <v>2024</v>
       </c>
       <c r="O30" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -5000,43 +5003,43 @@
         <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E31" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G31" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J31" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K31" t="s">
         <v>12</v>
       </c>
       <c r="L31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O31" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -5047,43 +5050,43 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E32" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G32" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J32" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K32" t="s">
         <v>12</v>
       </c>
       <c r="L32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M32" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O32" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -5094,43 +5097,43 @@
         <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E33" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G33" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J33" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K33" t="s">
         <v>12</v>
       </c>
       <c r="L33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M33" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O33" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -5141,28 +5144,28 @@
         <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E34" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J34" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K34" t="s">
         <v>12</v>
@@ -5171,13 +5174,13 @@
         <v>106</v>
       </c>
       <c r="M34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O34" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -5188,43 +5191,43 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E35" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J35" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s">
         <v>102</v>
       </c>
       <c r="M35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O35" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -5235,28 +5238,28 @@
         <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J36" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K36" t="s">
         <v>12</v>
@@ -5265,13 +5268,13 @@
         <v>106</v>
       </c>
       <c r="M36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O36" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -5282,75 +5285,75 @@
         <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J37" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s">
         <v>102</v>
       </c>
       <c r="M37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O37" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s">
         <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J38" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K38" t="s">
         <v>12</v>
@@ -5359,45 +5362,45 @@
         <v>106</v>
       </c>
       <c r="M38" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O38" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s">
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H39" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I39" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J39" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K39" t="s">
         <v>12</v>
@@ -5406,45 +5409,45 @@
         <v>106</v>
       </c>
       <c r="M39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O39" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I40" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J40" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K40" t="s">
         <v>12</v>
@@ -5453,45 +5456,45 @@
         <v>106</v>
       </c>
       <c r="M40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O40" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s">
         <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I41" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J41" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K41" t="s">
         <v>12</v>
@@ -5500,45 +5503,45 @@
         <v>106</v>
       </c>
       <c r="M41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O41" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I42" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J42" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K42" t="s">
         <v>12</v>
@@ -5547,45 +5550,45 @@
         <v>106</v>
       </c>
       <c r="M42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O42" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H43" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I43" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J43" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K43" t="s">
         <v>12</v>
@@ -5594,45 +5597,45 @@
         <v>106</v>
       </c>
       <c r="M43" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O43" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I44" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J44" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K44" t="s">
         <v>12</v>
@@ -5641,45 +5644,45 @@
         <v>106</v>
       </c>
       <c r="M44" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O44" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G45" t="s">
+        <v>149</v>
+      </c>
+      <c r="H45" t="s">
         <v>152</v>
       </c>
-      <c r="H45" t="s">
-        <v>155</v>
-      </c>
       <c r="I45" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J45" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K45" t="s">
         <v>12</v>
@@ -5688,45 +5691,45 @@
         <v>106</v>
       </c>
       <c r="M45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O45" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G46" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H46" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I46" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J46" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K46" t="s">
         <v>12</v>
@@ -5735,45 +5738,45 @@
         <v>106</v>
       </c>
       <c r="M46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O46" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H47" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I47" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J47" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K47" t="s">
         <v>12</v>
@@ -5782,45 +5785,45 @@
         <v>106</v>
       </c>
       <c r="M47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O47" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G48" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H48" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I48" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J48" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K48" t="s">
         <v>12</v>
@@ -5829,13 +5832,13 @@
         <v>106</v>
       </c>
       <c r="M48" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O48" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -5846,16 +5849,16 @@
         <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -5864,25 +5867,25 @@
         <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="J49" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L49" t="s">
         <v>102</v>
       </c>
       <c r="M49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N49" s="1">
         <v>2024</v>
       </c>
       <c r="O49" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -5893,28 +5896,28 @@
         <v>87</v>
       </c>
       <c r="C50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" t="s">
+        <v>254</v>
+      </c>
+      <c r="E50" t="s">
+        <v>159</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G50" t="s">
         <v>161</v>
       </c>
-      <c r="D50" t="s">
-        <v>261</v>
-      </c>
-      <c r="E50" t="s">
-        <v>162</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G50" t="s">
-        <v>164</v>
-      </c>
       <c r="H50" t="s">
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J50" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K50" t="s">
         <v>12</v>
@@ -5923,13 +5926,13 @@
         <v>106</v>
       </c>
       <c r="M50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O50" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -5940,28 +5943,28 @@
         <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D51" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H51" t="s">
         <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J51" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K51" t="s">
         <v>12</v>
@@ -5970,13 +5973,13 @@
         <v>106</v>
       </c>
       <c r="M51" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O51" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -5987,43 +5990,43 @@
         <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D52" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E52" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H52" t="s">
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J52" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K52" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M52" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O52" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -6034,43 +6037,43 @@
         <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D53" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E53" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G53" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H53" t="s">
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J53" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K53" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L53" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O53" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -6081,28 +6084,28 @@
         <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D54" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G54" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H54" t="s">
         <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J54" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K54" t="s">
         <v>12</v>
@@ -6111,13 +6114,13 @@
         <v>106</v>
       </c>
       <c r="M54" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O54" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -6128,43 +6131,43 @@
         <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D55" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E55" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G55" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H55" t="s">
         <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J55" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K55" t="s">
         <v>12</v>
       </c>
       <c r="L55" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="M55" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O55" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -6175,43 +6178,43 @@
         <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D56" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E56" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G56" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H56" t="s">
         <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J56" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K56" t="s">
         <v>12</v>
       </c>
       <c r="L56" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M56" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O56" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -6222,43 +6225,43 @@
         <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D57" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E57" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G57" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H57" t="s">
         <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J57" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K57" t="s">
         <v>12</v>
       </c>
       <c r="L57" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M57" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O57" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -6266,46 +6269,46 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
+        <v>298</v>
+      </c>
+      <c r="D58" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" t="s">
         <v>306</v>
       </c>
-      <c r="D58" t="s">
-        <v>261</v>
-      </c>
-      <c r="E58" t="s">
-        <v>314</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G58" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H58" t="s">
         <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J58" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K58" t="s">
         <v>12</v>
       </c>
       <c r="L58" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M58" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O58" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -6313,46 +6316,46 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D59" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G59" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H59" t="s">
         <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J59" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K59" t="s">
         <v>12</v>
       </c>
       <c r="L59" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M59" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O59" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -6363,28 +6366,28 @@
         <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D60" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E60" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G60" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H60" t="s">
         <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J60" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K60" t="s">
         <v>12</v>
@@ -6393,13 +6396,13 @@
         <v>106</v>
       </c>
       <c r="M60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O60" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -6410,28 +6413,28 @@
         <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E61" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G61" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H61" t="s">
         <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J61" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K61" t="s">
         <v>12</v>
@@ -6440,13 +6443,13 @@
         <v>106</v>
       </c>
       <c r="M61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O61" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -6457,43 +6460,43 @@
         <v>94</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E62" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G62" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H62" t="s">
         <v>12</v>
       </c>
       <c r="I62" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J62" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L62" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M62" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O62" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -6504,43 +6507,43 @@
         <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D63" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E63" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H63" t="s">
         <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J63" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K63" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L63" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M63" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O63" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -6551,28 +6554,28 @@
         <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E64" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G64" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H64" t="s">
         <v>12</v>
       </c>
       <c r="I64" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J64" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K64" t="s">
         <v>12</v>
@@ -6581,13 +6584,13 @@
         <v>106</v>
       </c>
       <c r="M64" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O64" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -6598,43 +6601,43 @@
         <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D65" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G65" t="s">
+        <v>319</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>243</v>
+      </c>
+      <c r="J65" t="s">
         <v>327</v>
       </c>
-      <c r="H65" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" t="s">
-        <v>250</v>
-      </c>
-      <c r="J65" t="s">
-        <v>335</v>
-      </c>
       <c r="K65" t="s">
         <v>12</v>
       </c>
       <c r="L65" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="M65" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="O65" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -6645,43 +6648,43 @@
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D66" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E66" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G66" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J66" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K66" t="s">
         <v>12</v>
       </c>
       <c r="L66" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M66" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="O66" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -6692,43 +6695,43 @@
         <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E67" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G67" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J67" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K67" t="s">
         <v>12</v>
       </c>
       <c r="L67" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M67" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="O67" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -6736,46 +6739,46 @@
         <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C68" t="s">
+        <v>313</v>
+      </c>
+      <c r="D68" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" t="s">
+        <v>318</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G68" t="s">
+        <v>304</v>
+      </c>
+      <c r="H68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" t="s">
+        <v>243</v>
+      </c>
+      <c r="J68" t="s">
+        <v>327</v>
+      </c>
+      <c r="K68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68" t="s">
+        <v>310</v>
+      </c>
+      <c r="M68" t="s">
+        <v>190</v>
+      </c>
+      <c r="N68" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D68" t="s">
-        <v>171</v>
-      </c>
-      <c r="E68" t="s">
-        <v>326</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G68" t="s">
-        <v>312</v>
-      </c>
-      <c r="H68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" t="s">
-        <v>250</v>
-      </c>
-      <c r="J68" t="s">
-        <v>335</v>
-      </c>
-      <c r="K68" t="s">
-        <v>12</v>
-      </c>
-      <c r="L68" t="s">
-        <v>318</v>
-      </c>
-      <c r="M68" t="s">
-        <v>193</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="O68" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -6783,46 +6786,46 @@
         <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D69" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G69" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H69" t="s">
         <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J69" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K69" t="s">
         <v>12</v>
       </c>
       <c r="L69" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M69" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="O69" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -6833,25 +6836,25 @@
         <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D70" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E70" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G70" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H70" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I70" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="J70" t="s">
         <v>12</v>
@@ -6860,16 +6863,16 @@
         <v>12</v>
       </c>
       <c r="L70" t="s">
+        <v>323</v>
+      </c>
+      <c r="M70" t="s">
+        <v>131</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O70" t="s">
         <v>331</v>
-      </c>
-      <c r="M70" t="s">
-        <v>134</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="O70" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -6880,25 +6883,25 @@
         <v>88</v>
       </c>
       <c r="C71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" t="s">
+        <v>222</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G71" t="s">
         <v>176</v>
       </c>
-      <c r="D71" t="s">
-        <v>177</v>
-      </c>
-      <c r="E71" t="s">
-        <v>229</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>179</v>
       </c>
-      <c r="H71" t="s">
-        <v>182</v>
-      </c>
       <c r="I71" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="J71" t="s">
         <v>12</v>
@@ -6907,16 +6910,16 @@
         <v>12</v>
       </c>
       <c r="L71" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="M71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="O71" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -6927,25 +6930,25 @@
         <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D72" t="s">
+        <v>174</v>
+      </c>
+      <c r="E72" t="s">
+        <v>223</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
         <v>177</v>
       </c>
-      <c r="E72" t="s">
-        <v>230</v>
-      </c>
-      <c r="F72" s="1">
-        <v>1</v>
-      </c>
-      <c r="G72" t="s">
-        <v>180</v>
-      </c>
       <c r="H72" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I72" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="J72" t="s">
         <v>12</v>
@@ -6954,16 +6957,16 @@
         <v>12</v>
       </c>
       <c r="L72" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M72" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="O72" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -6974,43 +6977,43 @@
         <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D73" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E73" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G73" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H73" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I73" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="J73" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K73" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L73" t="s">
         <v>102</v>
       </c>
       <c r="M73" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N73" s="1">
         <v>2024</v>
       </c>
       <c r="O73" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -7021,43 +7024,43 @@
         <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D74" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E74" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G74" t="s">
+        <v>176</v>
+      </c>
+      <c r="H74" t="s">
         <v>179</v>
       </c>
-      <c r="H74" t="s">
-        <v>182</v>
-      </c>
       <c r="I74" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="J74" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L74" t="s">
         <v>102</v>
       </c>
       <c r="M74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N74" s="1">
         <v>2024</v>
       </c>
       <c r="O74" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -7068,43 +7071,43 @@
         <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" t="s">
+        <v>223</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
         <v>177</v>
       </c>
-      <c r="E75" t="s">
-        <v>230</v>
-      </c>
-      <c r="F75" s="1">
-        <v>1</v>
-      </c>
-      <c r="G75" t="s">
-        <v>180</v>
-      </c>
       <c r="H75" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I75" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="J75" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K75" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L75" t="s">
         <v>102</v>
       </c>
       <c r="M75" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N75" s="1">
         <v>2024</v>
       </c>
       <c r="O75" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -7115,43 +7118,43 @@
         <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D76" t="s">
+        <v>181</v>
+      </c>
+      <c r="E76" t="s">
+        <v>273</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G76" t="s">
+        <v>171</v>
+      </c>
+      <c r="H76" t="s">
         <v>184</v>
       </c>
-      <c r="E76" t="s">
-        <v>281</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G76" t="s">
-        <v>174</v>
-      </c>
-      <c r="H76" t="s">
-        <v>187</v>
-      </c>
       <c r="I76" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J76" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K76" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L76" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M76" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O76" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -7162,43 +7165,43 @@
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D77" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E77" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G77" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H77" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I77" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J77" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L77" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M77" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O77" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -7209,184 +7212,184 @@
         <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D78" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E78" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G78" t="s">
+        <v>182</v>
+      </c>
+      <c r="H78" t="s">
         <v>185</v>
       </c>
-      <c r="H78" t="s">
-        <v>188</v>
-      </c>
       <c r="I78" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J78" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K78" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L78" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M78" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O78" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B79" t="s">
         <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
       </c>
       <c r="H79" t="s">
+        <v>187</v>
+      </c>
+      <c r="I79" t="s">
+        <v>243</v>
+      </c>
+      <c r="J79" t="s">
+        <v>327</v>
+      </c>
+      <c r="K79" t="s">
         <v>190</v>
-      </c>
-      <c r="I79" t="s">
-        <v>250</v>
-      </c>
-      <c r="J79" t="s">
-        <v>335</v>
-      </c>
-      <c r="K79" t="s">
-        <v>193</v>
       </c>
       <c r="L79" t="s">
         <v>102</v>
       </c>
       <c r="M79" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O79" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G80" t="s">
         <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I80" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J80" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K80" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L80" t="s">
         <v>102</v>
       </c>
       <c r="M80" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O80" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B81" t="s">
         <v>94</v>
       </c>
       <c r="C81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s">
+        <v>226</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
         <v>189</v>
       </c>
-      <c r="D81" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" t="s">
-        <v>233</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" t="s">
-        <v>192</v>
-      </c>
       <c r="I81" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J81" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K81" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L81" t="s">
         <v>102</v>
       </c>
       <c r="M81" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O81" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -7483,6 +7486,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -7731,27 +7754,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1EE7D2B-72B9-4B29-A99A-A2518AB2EE2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99B8D699-284D-4873-A808-FFD96E111D58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7768,23 +7790,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1EE7D2B-72B9-4B29-A99A-A2518AB2EE2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2260" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{063DF623-9F8B-4BA5-92AD-F84F2B6A6193}"/>
+  <xr:revisionPtr revIDLastSave="2273" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C27901A7-EDB0-4838-BD2E-176639316A9C}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="343">
   <si>
     <t>Cover</t>
   </si>
@@ -1047,9 +1047,6 @@
   </si>
   <si>
     <t>Statement 2, Statement 1, Neither</t>
-  </si>
-  <si>
-    <t>coding</t>
   </si>
   <si>
     <t>Edgebars</t>
@@ -1666,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E524A5-001D-41D7-83FE-232B11FD9C08}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,7 +2363,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3126,7 +3123,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3561,10 +3558,10 @@
   <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4022,7 +4019,7 @@
         <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>239</v>
@@ -4034,7 +4031,7 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J10" t="s">
         <v>328</v>
@@ -4052,7 +4049,7 @@
         <v>2024</v>
       </c>
       <c r="O10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -4069,19 +4066,19 @@
         <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J11" t="s">
         <v>328</v>
@@ -4099,7 +4096,7 @@
         <v>2024</v>
       </c>
       <c r="O11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -4116,19 +4113,19 @@
         <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J12" t="s">
         <v>328</v>
@@ -4146,7 +4143,7 @@
         <v>2024</v>
       </c>
       <c r="O12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -4163,19 +4160,19 @@
         <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J13" t="s">
         <v>328</v>
@@ -4193,7 +4190,7 @@
         <v>2024</v>
       </c>
       <c r="O13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -4210,7 +4207,7 @@
         <v>278</v>
       </c>
       <c r="E14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>239</v>
@@ -4240,7 +4237,7 @@
         <v>2024</v>
       </c>
       <c r="O14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -4257,13 +4254,13 @@
         <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
@@ -4287,7 +4284,7 @@
         <v>2024</v>
       </c>
       <c r="O15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -4304,13 +4301,13 @@
         <v>278</v>
       </c>
       <c r="E16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
@@ -4334,7 +4331,7 @@
         <v>2024</v>
       </c>
       <c r="O16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -4351,13 +4348,13 @@
         <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -4381,7 +4378,7 @@
         <v>2024</v>
       </c>
       <c r="O17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -4776,7 +4773,7 @@
       <c r="E26" t="s">
         <v>203</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="1" t="s">
         <v>237</v>
       </c>
       <c r="G26" t="s">
@@ -4823,7 +4820,7 @@
       <c r="E27" t="s">
         <v>204</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="1" t="s">
         <v>237</v>
       </c>
       <c r="G27" t="s">
@@ -4870,7 +4867,7 @@
       <c r="E28" t="s">
         <v>205</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="1" t="s">
         <v>237</v>
       </c>
       <c r="G28" t="s">
@@ -4917,7 +4914,7 @@
       <c r="E29" t="s">
         <v>206</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="1" t="s">
         <v>237</v>
       </c>
       <c r="G29" t="s">
@@ -4964,7 +4961,7 @@
       <c r="E30" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="1" t="s">
         <v>237</v>
       </c>
       <c r="G30" t="s">
@@ -7013,7 +7010,7 @@
         <v>2024</v>
       </c>
       <c r="O73" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -7060,7 +7057,7 @@
         <v>2024</v>
       </c>
       <c r="O74" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -7107,7 +7104,7 @@
         <v>2024</v>
       </c>
       <c r="O75" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -7486,26 +7483,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -7754,10 +7731,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99B8D699-284D-4873-A808-FFD96E111D58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7774,20 +7782,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99B8D699-284D-4873-A808-FFD96E111D58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2273" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C27901A7-EDB0-4838-BD2E-176639316A9C}"/>
+  <xr:revisionPtr revIDLastSave="2301" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9CB3878-F7D1-47AA-8530-F6F3F87AD902}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="337">
   <si>
     <t>Cover</t>
   </si>
@@ -917,12 +917,6 @@
     <t>2021, 2024</t>
   </si>
   <si>
-    <t>2021, 2025</t>
-  </si>
-  <si>
-    <t>2021, 2026</t>
-  </si>
-  <si>
     <t>hexpanel</t>
   </si>
   <si>
@@ -1004,24 +998,9 @@
     <t>Local Government Officers</t>
   </si>
   <si>
-    <t>2021, 2027</t>
-  </si>
-  <si>
-    <t>2021, 2028</t>
-  </si>
-  <si>
-    <t>2021, 2029</t>
-  </si>
-  <si>
     <t>#3273ff, #a90099</t>
   </si>
   <si>
-    <t>#3273ff, #a90100</t>
-  </si>
-  <si>
-    <t>#3273ff, #a90101</t>
-  </si>
-  <si>
     <t>label_at</t>
   </si>
   <si>
@@ -1071,6 +1050,9 @@
   </si>
   <si>
     <t>USA_q21c_G1, USA_q21d_G1, USA_q21f_G2, USA_q21j_G2, USA_q21j_merge</t>
+  </si>
+  <si>
+    <t>coding</t>
   </si>
 </sst>
 </file>
@@ -2392,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -2582,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J24" t="s">
         <v>283</v>
@@ -2748,7 +2730,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B29">
         <v>25</v>
@@ -2781,12 +2763,12 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B30">
         <v>26</v>
@@ -2819,7 +2801,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2962,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J34" t="s">
         <v>254</v>
@@ -2971,7 +2953,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3038,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J36" t="s">
         <v>168</v>
@@ -3047,7 +3029,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3204,7 +3186,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -3558,10 +3540,10 @@
   <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M73" sqref="M73"/>
+      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3611,7 +3593,7 @@
         <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K1" t="s">
         <v>85</v>
@@ -3626,7 +3608,7 @@
         <v>231</v>
       </c>
       <c r="O1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3673,7 +3655,7 @@
         <v>2024</v>
       </c>
       <c r="O2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3720,7 +3702,7 @@
         <v>2024</v>
       </c>
       <c r="O3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -3752,7 +3734,7 @@
         <v>258</v>
       </c>
       <c r="J4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K4" t="s">
         <v>190</v>
@@ -3767,7 +3749,7 @@
         <v>2024</v>
       </c>
       <c r="O4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -3799,7 +3781,7 @@
         <v>258</v>
       </c>
       <c r="J5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K5" t="s">
         <v>190</v>
@@ -3814,7 +3796,7 @@
         <v>2024</v>
       </c>
       <c r="O5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -3846,7 +3828,7 @@
         <v>258</v>
       </c>
       <c r="J6" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K6" t="s">
         <v>190</v>
@@ -3861,7 +3843,7 @@
         <v>2024</v>
       </c>
       <c r="O6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -3893,7 +3875,7 @@
         <v>263</v>
       </c>
       <c r="J7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
@@ -3908,7 +3890,7 @@
         <v>237</v>
       </c>
       <c r="O7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -3940,22 +3922,22 @@
         <v>261</v>
       </c>
       <c r="J8" t="s">
-        <v>327</v>
-      </c>
-      <c r="K8" t="s">
-        <v>190</v>
+        <v>12</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>318</v>
       </c>
       <c r="M8" t="s">
         <v>190</v>
       </c>
-      <c r="N8" s="1">
-        <v>2021</v>
+      <c r="N8" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="O8" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -4002,7 +3984,7 @@
         <v>2024</v>
       </c>
       <c r="O9" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -4019,7 +4001,7 @@
         <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>239</v>
@@ -4031,10 +4013,10 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="J10" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -4049,7 +4031,7 @@
         <v>2024</v>
       </c>
       <c r="O10" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -4066,22 +4048,22 @@
         <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G11" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="J11" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -4096,7 +4078,7 @@
         <v>2024</v>
       </c>
       <c r="O11" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -4113,22 +4095,22 @@
         <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G12" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="J12" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
@@ -4143,7 +4125,7 @@
         <v>2024</v>
       </c>
       <c r="O12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -4160,22 +4142,22 @@
         <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G13" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="J13" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
@@ -4190,7 +4172,7 @@
         <v>2024</v>
       </c>
       <c r="O13" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -4207,7 +4189,7 @@
         <v>278</v>
       </c>
       <c r="E14" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>239</v>
@@ -4222,7 +4204,7 @@
         <v>260</v>
       </c>
       <c r="J14" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K14" t="s">
         <v>190</v>
@@ -4237,7 +4219,7 @@
         <v>2024</v>
       </c>
       <c r="O14" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -4254,13 +4236,13 @@
         <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G15" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
@@ -4269,7 +4251,7 @@
         <v>260</v>
       </c>
       <c r="J15" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K15" t="s">
         <v>190</v>
@@ -4284,7 +4266,7 @@
         <v>2024</v>
       </c>
       <c r="O15" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -4301,13 +4283,13 @@
         <v>278</v>
       </c>
       <c r="E16" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G16" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
@@ -4316,7 +4298,7 @@
         <v>260</v>
       </c>
       <c r="J16" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K16" t="s">
         <v>190</v>
@@ -4331,7 +4313,7 @@
         <v>2024</v>
       </c>
       <c r="O16" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -4348,13 +4330,13 @@
         <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G17" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -4363,7 +4345,7 @@
         <v>260</v>
       </c>
       <c r="J17" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K17" t="s">
         <v>190</v>
@@ -4378,7 +4360,7 @@
         <v>2024</v>
       </c>
       <c r="O17" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -4389,7 +4371,7 @@
         <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
@@ -4425,7 +4407,7 @@
         <v>2024</v>
       </c>
       <c r="O18" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -4457,7 +4439,7 @@
         <v>264</v>
       </c>
       <c r="J19" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K19" t="s">
         <v>190</v>
@@ -4472,7 +4454,7 @@
         <v>2024</v>
       </c>
       <c r="O19" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -4486,7 +4468,7 @@
         <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E20" t="s">
         <v>241</v>
@@ -4504,7 +4486,7 @@
         <v>264</v>
       </c>
       <c r="J20" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K20" t="s">
         <v>190</v>
@@ -4519,7 +4501,7 @@
         <v>2024</v>
       </c>
       <c r="O20" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -4551,7 +4533,7 @@
         <v>263</v>
       </c>
       <c r="J21" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K21" t="s">
         <v>12</v>
@@ -4566,7 +4548,7 @@
         <v>237</v>
       </c>
       <c r="O21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -4613,7 +4595,7 @@
         <v>2024</v>
       </c>
       <c r="O22" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -4624,7 +4606,7 @@
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D23" t="s">
         <v>283</v>
@@ -4645,7 +4627,7 @@
         <v>258</v>
       </c>
       <c r="J23" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K23" t="s">
         <v>190</v>
@@ -4660,7 +4642,7 @@
         <v>2024</v>
       </c>
       <c r="O23" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -4671,7 +4653,7 @@
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D24" t="s">
         <v>283</v>
@@ -4692,7 +4674,7 @@
         <v>258</v>
       </c>
       <c r="J24" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K24" t="s">
         <v>190</v>
@@ -4707,7 +4689,7 @@
         <v>2024</v>
       </c>
       <c r="O24" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -4718,7 +4700,7 @@
         <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D25" t="s">
         <v>283</v>
@@ -4739,7 +4721,7 @@
         <v>258</v>
       </c>
       <c r="J25" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K25" t="s">
         <v>190</v>
@@ -4754,7 +4736,7 @@
         <v>2024</v>
       </c>
       <c r="O25" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -4786,10 +4768,10 @@
         <v>262</v>
       </c>
       <c r="J26" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K26" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="L26" t="s">
         <v>172</v>
@@ -4801,7 +4783,7 @@
         <v>2024</v>
       </c>
       <c r="O26" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -4833,10 +4815,10 @@
         <v>262</v>
       </c>
       <c r="J27" t="s">
+        <v>320</v>
+      </c>
+      <c r="K27" t="s">
         <v>327</v>
-      </c>
-      <c r="K27" t="s">
-        <v>334</v>
       </c>
       <c r="L27" t="s">
         <v>172</v>
@@ -4848,7 +4830,7 @@
         <v>2024</v>
       </c>
       <c r="O27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -4880,10 +4862,10 @@
         <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K28" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="L28" t="s">
         <v>172</v>
@@ -4895,7 +4877,7 @@
         <v>2024</v>
       </c>
       <c r="O28" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -4927,10 +4909,10 @@
         <v>262</v>
       </c>
       <c r="J29" t="s">
+        <v>320</v>
+      </c>
+      <c r="K29" t="s">
         <v>327</v>
-      </c>
-      <c r="K29" t="s">
-        <v>334</v>
       </c>
       <c r="L29" t="s">
         <v>172</v>
@@ -4942,7 +4924,7 @@
         <v>2024</v>
       </c>
       <c r="O29" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -4974,10 +4956,10 @@
         <v>262</v>
       </c>
       <c r="J30" t="s">
+        <v>320</v>
+      </c>
+      <c r="K30" t="s">
         <v>327</v>
-      </c>
-      <c r="K30" t="s">
-        <v>334</v>
       </c>
       <c r="L30" t="s">
         <v>172</v>
@@ -4989,7 +4971,7 @@
         <v>2024</v>
       </c>
       <c r="O30" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -5021,7 +5003,7 @@
         <v>243</v>
       </c>
       <c r="J31" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K31" t="s">
         <v>12</v>
@@ -5036,7 +5018,7 @@
         <v>290</v>
       </c>
       <c r="O31" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -5068,7 +5050,7 @@
         <v>243</v>
       </c>
       <c r="J32" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K32" t="s">
         <v>12</v>
@@ -5083,7 +5065,7 @@
         <v>290</v>
       </c>
       <c r="O32" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -5115,7 +5097,7 @@
         <v>243</v>
       </c>
       <c r="J33" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K33" t="s">
         <v>12</v>
@@ -5130,7 +5112,7 @@
         <v>290</v>
       </c>
       <c r="O33" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -5162,7 +5144,7 @@
         <v>263</v>
       </c>
       <c r="J34" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K34" t="s">
         <v>12</v>
@@ -5177,7 +5159,7 @@
         <v>237</v>
       </c>
       <c r="O34" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -5209,7 +5191,7 @@
         <v>243</v>
       </c>
       <c r="J35" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K35" t="s">
         <v>190</v>
@@ -5224,7 +5206,7 @@
         <v>290</v>
       </c>
       <c r="O35" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -5256,7 +5238,7 @@
         <v>263</v>
       </c>
       <c r="J36" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K36" t="s">
         <v>12</v>
@@ -5271,7 +5253,7 @@
         <v>237</v>
       </c>
       <c r="O36" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -5303,7 +5285,7 @@
         <v>243</v>
       </c>
       <c r="J37" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K37" t="s">
         <v>190</v>
@@ -5318,12 +5300,12 @@
         <v>290</v>
       </c>
       <c r="O37" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s">
         <v>87</v>
@@ -5350,7 +5332,7 @@
         <v>263</v>
       </c>
       <c r="J38" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K38" t="s">
         <v>12</v>
@@ -5365,12 +5347,12 @@
         <v>237</v>
       </c>
       <c r="O38" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s">
         <v>88</v>
@@ -5397,7 +5379,7 @@
         <v>263</v>
       </c>
       <c r="J39" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K39" t="s">
         <v>12</v>
@@ -5412,12 +5394,12 @@
         <v>237</v>
       </c>
       <c r="O39" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
@@ -5444,7 +5426,7 @@
         <v>263</v>
       </c>
       <c r="J40" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K40" t="s">
         <v>12</v>
@@ -5459,12 +5441,12 @@
         <v>237</v>
       </c>
       <c r="O40" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s">
         <v>114</v>
@@ -5491,7 +5473,7 @@
         <v>263</v>
       </c>
       <c r="J41" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K41" t="s">
         <v>12</v>
@@ -5506,12 +5488,12 @@
         <v>237</v>
       </c>
       <c r="O41" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s">
         <v>126</v>
@@ -5538,7 +5520,7 @@
         <v>263</v>
       </c>
       <c r="J42" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K42" t="s">
         <v>12</v>
@@ -5553,12 +5535,12 @@
         <v>237</v>
       </c>
       <c r="O42" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s">
         <v>135</v>
@@ -5585,7 +5567,7 @@
         <v>263</v>
       </c>
       <c r="J43" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K43" t="s">
         <v>12</v>
@@ -5600,12 +5582,12 @@
         <v>237</v>
       </c>
       <c r="O43" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B44" t="s">
         <v>136</v>
@@ -5632,7 +5614,7 @@
         <v>263</v>
       </c>
       <c r="J44" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K44" t="s">
         <v>12</v>
@@ -5647,12 +5629,12 @@
         <v>237</v>
       </c>
       <c r="O44" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B45" t="s">
         <v>137</v>
@@ -5679,7 +5661,7 @@
         <v>263</v>
       </c>
       <c r="J45" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K45" t="s">
         <v>12</v>
@@ -5694,12 +5676,12 @@
         <v>237</v>
       </c>
       <c r="O45" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B46" t="s">
         <v>134</v>
@@ -5726,7 +5708,7 @@
         <v>263</v>
       </c>
       <c r="J46" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K46" t="s">
         <v>12</v>
@@ -5741,12 +5723,12 @@
         <v>237</v>
       </c>
       <c r="O46" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B47" t="s">
         <v>138</v>
@@ -5773,7 +5755,7 @@
         <v>263</v>
       </c>
       <c r="J47" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K47" t="s">
         <v>12</v>
@@ -5788,12 +5770,12 @@
         <v>237</v>
       </c>
       <c r="O47" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B48" t="s">
         <v>139</v>
@@ -5820,7 +5802,7 @@
         <v>263</v>
       </c>
       <c r="J48" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K48" t="s">
         <v>12</v>
@@ -5835,7 +5817,7 @@
         <v>237</v>
       </c>
       <c r="O48" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -5867,7 +5849,7 @@
         <v>264</v>
       </c>
       <c r="J49" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K49" t="s">
         <v>190</v>
@@ -5882,7 +5864,7 @@
         <v>2024</v>
       </c>
       <c r="O49" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -5914,7 +5896,7 @@
         <v>263</v>
       </c>
       <c r="J50" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K50" t="s">
         <v>12</v>
@@ -5929,7 +5911,7 @@
         <v>237</v>
       </c>
       <c r="O50" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -5961,7 +5943,7 @@
         <v>263</v>
       </c>
       <c r="J51" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K51" t="s">
         <v>12</v>
@@ -5976,7 +5958,7 @@
         <v>237</v>
       </c>
       <c r="O51" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -6008,7 +5990,7 @@
         <v>263</v>
       </c>
       <c r="J52" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K52" t="s">
         <v>191</v>
@@ -6023,7 +6005,7 @@
         <v>237</v>
       </c>
       <c r="O52" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -6055,7 +6037,7 @@
         <v>263</v>
       </c>
       <c r="J53" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K53" t="s">
         <v>192</v>
@@ -6070,7 +6052,7 @@
         <v>237</v>
       </c>
       <c r="O53" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -6081,7 +6063,7 @@
         <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D54" t="s">
         <v>254</v>
@@ -6102,7 +6084,7 @@
         <v>243</v>
       </c>
       <c r="J54" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K54" t="s">
         <v>12</v>
@@ -6117,7 +6099,7 @@
         <v>290</v>
       </c>
       <c r="O54" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -6128,7 +6110,7 @@
         <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D55" t="s">
         <v>254</v>
@@ -6149,13 +6131,13 @@
         <v>243</v>
       </c>
       <c r="J55" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K55" t="s">
         <v>12</v>
       </c>
       <c r="L55" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M55" t="s">
         <v>190</v>
@@ -6164,7 +6146,7 @@
         <v>290</v>
       </c>
       <c r="O55" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -6175,19 +6157,19 @@
         <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D56" t="s">
         <v>254</v>
       </c>
       <c r="E56" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="G56" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H56" t="s">
         <v>12</v>
@@ -6196,13 +6178,13 @@
         <v>243</v>
       </c>
       <c r="J56" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K56" t="s">
         <v>12</v>
       </c>
       <c r="L56" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M56" t="s">
         <v>190</v>
@@ -6211,7 +6193,7 @@
         <v>290</v>
       </c>
       <c r="O56" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -6222,19 +6204,19 @@
         <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D57" t="s">
         <v>254</v>
       </c>
       <c r="E57" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>244</v>
       </c>
       <c r="G57" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H57" t="s">
         <v>12</v>
@@ -6243,13 +6225,13 @@
         <v>243</v>
       </c>
       <c r="J57" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K57" t="s">
         <v>12</v>
       </c>
       <c r="L57" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M57" t="s">
         <v>190</v>
@@ -6258,7 +6240,7 @@
         <v>290</v>
       </c>
       <c r="O57" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -6269,19 +6251,19 @@
         <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D58" t="s">
         <v>254</v>
       </c>
       <c r="E58" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>244</v>
       </c>
       <c r="G58" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H58" t="s">
         <v>12</v>
@@ -6290,13 +6272,13 @@
         <v>243</v>
       </c>
       <c r="J58" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K58" t="s">
         <v>12</v>
       </c>
       <c r="L58" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M58" t="s">
         <v>190</v>
@@ -6305,7 +6287,7 @@
         <v>290</v>
       </c>
       <c r="O58" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -6316,19 +6298,19 @@
         <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D59" t="s">
         <v>254</v>
       </c>
       <c r="E59" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>244</v>
       </c>
       <c r="G59" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H59" t="s">
         <v>12</v>
@@ -6337,13 +6319,13 @@
         <v>243</v>
       </c>
       <c r="J59" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K59" t="s">
         <v>12</v>
       </c>
       <c r="L59" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M59" t="s">
         <v>190</v>
@@ -6352,7 +6334,7 @@
         <v>290</v>
       </c>
       <c r="O59" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -6384,7 +6366,7 @@
         <v>263</v>
       </c>
       <c r="J60" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K60" t="s">
         <v>12</v>
@@ -6399,7 +6381,7 @@
         <v>237</v>
       </c>
       <c r="O60" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -6431,7 +6413,7 @@
         <v>263</v>
       </c>
       <c r="J61" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K61" t="s">
         <v>12</v>
@@ -6446,7 +6428,7 @@
         <v>237</v>
       </c>
       <c r="O61" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -6478,7 +6460,7 @@
         <v>263</v>
       </c>
       <c r="J62" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K62" t="s">
         <v>191</v>
@@ -6493,7 +6475,7 @@
         <v>237</v>
       </c>
       <c r="O62" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -6525,7 +6507,7 @@
         <v>263</v>
       </c>
       <c r="J63" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K63" t="s">
         <v>192</v>
@@ -6540,7 +6522,7 @@
         <v>237</v>
       </c>
       <c r="O63" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -6551,7 +6533,7 @@
         <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D64" t="s">
         <v>168</v>
@@ -6572,7 +6554,7 @@
         <v>243</v>
       </c>
       <c r="J64" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K64" t="s">
         <v>12</v>
@@ -6587,7 +6569,7 @@
         <v>290</v>
       </c>
       <c r="O64" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -6598,19 +6580,19 @@
         <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D65" t="s">
         <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G65" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
@@ -6619,22 +6601,22 @@
         <v>243</v>
       </c>
       <c r="J65" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K65" t="s">
         <v>12</v>
       </c>
       <c r="L65" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M65" t="s">
         <v>190</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O65" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -6645,19 +6627,19 @@
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D66" t="s">
         <v>168</v>
       </c>
       <c r="E66" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
@@ -6666,22 +6648,22 @@
         <v>243</v>
       </c>
       <c r="J66" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K66" t="s">
         <v>12</v>
       </c>
       <c r="L66" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M66" t="s">
         <v>190</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O66" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -6692,19 +6674,19 @@
         <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D67" t="s">
         <v>168</v>
       </c>
       <c r="E67" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G67" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
@@ -6713,22 +6695,22 @@
         <v>243</v>
       </c>
       <c r="J67" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K67" t="s">
         <v>12</v>
       </c>
       <c r="L67" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M67" t="s">
         <v>190</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="O67" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -6739,19 +6721,19 @@
         <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D68" t="s">
         <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G68" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H68" t="s">
         <v>12</v>
@@ -6760,22 +6742,22 @@
         <v>243</v>
       </c>
       <c r="J68" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K68" t="s">
         <v>12</v>
       </c>
       <c r="L68" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M68" t="s">
         <v>190</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="O68" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -6786,19 +6768,19 @@
         <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D69" t="s">
         <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G69" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H69" t="s">
         <v>12</v>
@@ -6807,22 +6789,22 @@
         <v>243</v>
       </c>
       <c r="J69" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K69" t="s">
         <v>12</v>
       </c>
       <c r="L69" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M69" t="s">
         <v>190</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="O69" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -6854,13 +6836,13 @@
         <v>261</v>
       </c>
       <c r="J70" t="s">
-        <v>12</v>
-      </c>
-      <c r="K70" t="s">
-        <v>12</v>
+        <v>321</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="L70" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M70" t="s">
         <v>131</v>
@@ -6869,7 +6851,7 @@
         <v>290</v>
       </c>
       <c r="O70" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -6901,22 +6883,22 @@
         <v>261</v>
       </c>
       <c r="J71" t="s">
-        <v>12</v>
-      </c>
-      <c r="K71" t="s">
-        <v>12</v>
+        <v>321</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="L71" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M71" t="s">
         <v>131</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O71" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -6948,22 +6930,22 @@
         <v>261</v>
       </c>
       <c r="J72" t="s">
-        <v>12</v>
-      </c>
-      <c r="K72" t="s">
-        <v>12</v>
+        <v>321</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="L72" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M72" t="s">
         <v>131</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O72" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -6995,9 +6977,9 @@
         <v>260</v>
       </c>
       <c r="J73" t="s">
-        <v>328</v>
-      </c>
-      <c r="K73" t="s">
+        <v>321</v>
+      </c>
+      <c r="K73" s="7" t="s">
         <v>190</v>
       </c>
       <c r="L73" t="s">
@@ -7010,7 +6992,7 @@
         <v>2024</v>
       </c>
       <c r="O73" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -7042,7 +7024,7 @@
         <v>260</v>
       </c>
       <c r="J74" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K74" t="s">
         <v>190</v>
@@ -7057,7 +7039,7 @@
         <v>2024</v>
       </c>
       <c r="O74" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -7089,7 +7071,7 @@
         <v>260</v>
       </c>
       <c r="J75" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K75" t="s">
         <v>190</v>
@@ -7104,7 +7086,7 @@
         <v>2024</v>
       </c>
       <c r="O75" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -7136,7 +7118,7 @@
         <v>263</v>
       </c>
       <c r="J76" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K76" t="s">
         <v>193</v>
@@ -7151,7 +7133,7 @@
         <v>237</v>
       </c>
       <c r="O76" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -7183,7 +7165,7 @@
         <v>263</v>
       </c>
       <c r="J77" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K77" t="s">
         <v>193</v>
@@ -7198,7 +7180,7 @@
         <v>237</v>
       </c>
       <c r="O77" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -7230,7 +7212,7 @@
         <v>263</v>
       </c>
       <c r="J78" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K78" t="s">
         <v>193</v>
@@ -7245,12 +7227,12 @@
         <v>237</v>
       </c>
       <c r="O78" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B79" t="s">
         <v>87</v>
@@ -7277,7 +7259,7 @@
         <v>243</v>
       </c>
       <c r="J79" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K79" t="s">
         <v>190</v>
@@ -7292,12 +7274,12 @@
         <v>290</v>
       </c>
       <c r="O79" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
@@ -7324,7 +7306,7 @@
         <v>243</v>
       </c>
       <c r="J80" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K80" t="s">
         <v>190</v>
@@ -7339,12 +7321,12 @@
         <v>290</v>
       </c>
       <c r="O80" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B81" t="s">
         <v>94</v>
@@ -7371,7 +7353,7 @@
         <v>243</v>
       </c>
       <c r="J81" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K81" t="s">
         <v>190</v>
@@ -7386,7 +7368,7 @@
         <v>290</v>
       </c>
       <c r="O81" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">

--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2301" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9CB3878-F7D1-47AA-8530-F6F3F87AD902}"/>
+  <xr:revisionPtr revIDLastSave="2368" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5B7AABA-4778-4086-AB74-0670AC003B8F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
   <sheets>
     <sheet name="general_info" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="343">
   <si>
     <t>Cover</t>
   </si>
@@ -884,9 +884,6 @@
     <t>Percentage of respondents who has a lot or some trust that the following institutions would fairly determine the election results…</t>
   </si>
   <si>
-    <t>Percentage of respondents that agree or strongly agree that the Supreme Court of Justice would be impartial if having to…</t>
-  </si>
-  <si>
     <t>Percentage of respondents who reported that they have a lot or some trust in the News Media</t>
   </si>
   <si>
@@ -992,9 +989,6 @@
     <t>q1e</t>
   </si>
   <si>
-    <t xml:space="preserve"> q1g</t>
-  </si>
-  <si>
     <t>Local Government Officers</t>
   </si>
   <si>
@@ -1053,6 +1047,30 @@
   </si>
   <si>
     <t>coding</t>
+  </si>
+  <si>
+    <t>Figure_1_1, Figure_1_2</t>
+  </si>
+  <si>
+    <t>Figure_3_1, Figure_3_2</t>
+  </si>
+  <si>
+    <t>charts</t>
+  </si>
+  <si>
+    <t>Figure_10_1, Figure_10_2</t>
+  </si>
+  <si>
+    <t>Figure_10</t>
+  </si>
+  <si>
+    <t>Figure_3</t>
+  </si>
+  <si>
+    <t>Figure_1</t>
+  </si>
+  <si>
+    <t>q1g</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1149,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1163,16 +1181,7 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1200,6 +1209,10 @@
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA9653AC-F8C3-401C-B349-891D4FF1F533}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0">
   <autoFilter ref="A1:B6" xr:uid="{BA9653AC-F8C3-401C-B349-891D4FF1F533}"/>
@@ -1212,44 +1225,43 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}" name="Table1" displayName="Table1" ref="A1:L49" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="A1:L49" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}" name="Table1" displayName="Table1" ref="A1:J46" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:J46" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{D1E86754-498B-4449-AF9C-7F6F91357B29}" name="id"/>
     <tableColumn id="2" xr3:uid="{A219685D-2336-4EA2-A45E-896ADB1E01D2}" name="page"/>
     <tableColumn id="3" xr3:uid="{4F87C862-B4AE-49B9-8A8D-A51D6C4F12BA}" name="section_header"/>
     <tableColumn id="4" xr3:uid="{D475E546-EAC4-45FE-96D2-E695D8591071}" name="subsection_header"/>
+    <tableColumn id="10" xr3:uid="{3B893D9A-A460-4DC5-9748-23C7312713C7}" name="charts"/>
     <tableColumn id="5" xr3:uid="{43387711-F09E-4421-BE29-615E26285AD4}" name="toc"/>
     <tableColumn id="6" xr3:uid="{D78F8B52-A191-41B0-8464-081D07493BD3}" name="section_page"/>
     <tableColumn id="7" xr3:uid="{2C08080F-B5E5-4917-A6E2-1E8583610D91}" name="has_subsection"/>
     <tableColumn id="8" xr3:uid="{268CABA1-2A43-438A-A7EF-385670D18802}" name="thematic_findings"/>
-    <tableColumn id="10" xr3:uid="{B3FC5117-A8E2-4E1B-B517-AAD68F7CB433}" name="title" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{5CC182F6-C715-4AC8-854D-355CB0816969}" name="subtitle" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{224E4B7B-6146-43FA-B490-F87BAA8696E1}" name="footnote" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{4E95668B-FEB8-484F-BB19-1E0983B005D7}" name="macro" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{4E95668B-FEB8-484F-BB19-1E0983B005D7}" name="macro" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}" name="Table5" displayName="Table5" ref="A1:O81" totalsRowShown="0">
-  <autoFilter ref="A1:O81" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}" name="Table5" displayName="Table5" ref="A1:P81" totalsRowShown="0">
+  <autoFilter ref="A1:P81" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{212EC242-638E-4C2D-8A7C-290B2E57BD74}" name="id"/>
     <tableColumn id="2" xr3:uid="{0605D17D-53ED-4ED7-90F5-CA0A9CEFC8B9}" name="panel"/>
     <tableColumn id="3" xr3:uid="{B680CB48-28A5-4FB6-98AA-215E22B8B40F}" name="chart_title"/>
     <tableColumn id="4" xr3:uid="{FFEF5F92-2DF3-49A4-BD91-1FA7728CB677}" name="chart_subtitle"/>
     <tableColumn id="5" xr3:uid="{9C01E486-AAA9-4113-9F7C-DFED4772B00B}" name="var_id"/>
-    <tableColumn id="6" xr3:uid="{B447C55F-11C9-4234-9D1F-AF7936BEDF14}" name="reportValues" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B447C55F-11C9-4234-9D1F-AF7936BEDF14}" name="reportValues" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{3122E94D-312F-487C-A9AD-C0E5E1E51E5E}" name="panel_title"/>
     <tableColumn id="8" xr3:uid="{203C77AD-FB8E-4313-B49E-37F7B9468C14}" name="panel_subtitle"/>
+    <tableColumn id="16" xr3:uid="{121C63F2-C904-48A6-9D20-EC47030AA9FA}" name="footnote"/>
     <tableColumn id="9" xr3:uid="{5273962B-B3E2-440F-8940-B09D8F61305B}" name="type"/>
     <tableColumn id="14" xr3:uid="{EC03CCD6-A19A-460C-A5B2-E18BBA34F967}" name="label_at"/>
     <tableColumn id="10" xr3:uid="{DDAEDC79-07D2-402E-81B5-2E1EFAA266FD}" name="legend_text"/>
     <tableColumn id="11" xr3:uid="{2349E397-D3E7-455F-B793-654DDB7A534C}" name="legend_color"/>
     <tableColumn id="12" xr3:uid="{6CA05E5D-08AE-4A36-A0AA-353E1F289F09}" name="sample"/>
-    <tableColumn id="13" xr3:uid="{BCA1C210-6FE1-4DDF-9357-7DAD0B831D61}" name="years" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{BCA1C210-6FE1-4DDF-9357-7DAD0B831D61}" name="years" dataDxfId="5"/>
     <tableColumn id="15" xr3:uid="{79FC7E8F-E231-444D-8CC2-A3A820DFD11C}" name="status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1579,13 +1591,13 @@
       <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="99.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1593,7 +1605,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1601,7 +1613,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1609,7 +1621,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1617,7 +1629,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -1625,7 +1637,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -1643,28 +1655,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E524A5-001D-41D7-83FE-232B11FD9C08}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" customWidth="1"/>
+    <col min="3" max="3" width="52.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" customWidth="1"/>
+    <col min="10" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1678,31 +1688,25 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>103</v>
       </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
       <c r="J1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1715,8 +1719,8 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -1727,20 +1731,14 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1753,8 +1751,8 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -1765,20 +1763,14 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="7" t="s">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1791,8 +1783,8 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1803,20 +1795,14 @@
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1829,32 +1815,26 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1867,32 +1847,26 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="b">
-        <v>1</v>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1905,32 +1879,26 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="b">
-        <v>1</v>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -1943,8 +1911,8 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="b">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>12</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1955,20 +1923,14 @@
       <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1981,34 +1943,28 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="b">
-        <v>1</v>
+      <c r="E9" t="s">
+        <v>12</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>341</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2019,37 +1975,31 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="b">
-        <v>1</v>
+      <c r="E10" t="s">
+        <v>335</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2057,8 +2007,8 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="b">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>232</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -2067,150 +2017,126 @@
         <v>0</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" t="s">
-        <v>93</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
         <v>14</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" t="s">
-        <v>276</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15">
-        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -2221,139 +2147,115 @@
       <c r="H15" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>277</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="I17" t="s">
-        <v>113</v>
-      </c>
-      <c r="J17" t="s">
-        <v>278</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
         <v>18</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>116</v>
-      </c>
-      <c r="J18" t="s">
-        <v>278</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19">
-        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -2361,37 +2263,31 @@
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" t="b">
-        <v>1</v>
+      <c r="E19" t="s">
+        <v>53</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>292</v>
-      </c>
-      <c r="J19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>339</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -2399,8 +2295,8 @@
       <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" t="b">
-        <v>0</v>
+      <c r="E20" t="s">
+        <v>338</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2409,39 +2305,33 @@
         <v>0</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" t="s">
-        <v>279</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>240</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2449,34 +2339,28 @@
       <c r="H21" t="b">
         <v>1</v>
       </c>
-      <c r="I21" t="s">
-        <v>120</v>
-      </c>
-      <c r="J21" t="s">
-        <v>280</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2485,150 +2369,126 @@
         <v>0</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>121</v>
-      </c>
-      <c r="J22" t="s">
-        <v>281</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="B23">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>122</v>
-      </c>
-      <c r="J23" t="s">
-        <v>282</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>293</v>
       </c>
-      <c r="J24" t="s">
-        <v>283</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" t="s">
-        <v>125</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>71</v>
-      </c>
       <c r="B26">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>293</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -2639,72 +2499,60 @@
       <c r="H26" t="b">
         <v>1</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>294</v>
       </c>
       <c r="B27">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>294</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>127</v>
-      </c>
-      <c r="J27" t="s">
-        <v>278</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -2713,112 +2561,94 @@
         <v>0</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" t="s">
-        <v>253</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>294</v>
-      </c>
-      <c r="B29">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
-        <v>132</v>
-      </c>
-      <c r="J29" t="s">
-        <v>133</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>295</v>
-      </c>
-      <c r="B30">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>132</v>
-      </c>
-      <c r="J30" t="s">
-        <v>133</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B31">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -2827,36 +2657,30 @@
         <v>0</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>155</v>
-      </c>
-      <c r="J31" t="s">
-        <v>133</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B32">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
@@ -2867,148 +2691,124 @@
       <c r="H32" t="b">
         <v>1</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B33">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>158</v>
-      </c>
-      <c r="J33" t="s">
-        <v>254</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B34">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>296</v>
-      </c>
-      <c r="J34" t="s">
-        <v>254</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B35">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
       </c>
-      <c r="I35" t="s">
-        <v>167</v>
-      </c>
-      <c r="J35" t="s">
-        <v>168</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B36">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -3017,36 +2817,30 @@
         <v>0</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
-        <v>311</v>
-      </c>
-      <c r="J36" t="s">
-        <v>168</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B37">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>64</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
@@ -3057,148 +2851,124 @@
       <c r="H37" t="b">
         <v>1</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>309</v>
       </c>
       <c r="B38">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>309</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
-        <v>173</v>
-      </c>
-      <c r="J38" t="s">
-        <v>174</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B39">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" t="b">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
-        <v>178</v>
-      </c>
-      <c r="J39" t="s">
-        <v>174</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B40">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>180</v>
-      </c>
-      <c r="J40" t="s">
-        <v>181</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="B41">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" t="b">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -3207,77 +2977,65 @@
         <v>0</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
-        <v>186</v>
-      </c>
-      <c r="J41" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B42">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
-      <c r="E42" t="b">
-        <v>1</v>
+      <c r="E42" t="s">
+        <v>12</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="7" t="s">
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B43">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -3285,37 +3043,31 @@
       <c r="H43" t="b">
         <v>0</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B44">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" t="b">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
       </c>
       <c r="F44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -3323,34 +3075,28 @@
       <c r="H44" t="b">
         <v>0</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B45">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="b">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -3361,34 +3107,28 @@
       <c r="H45" t="b">
         <v>0</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B46">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" t="b">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -3399,130 +3139,10 @@
       <c r="H46" t="b">
         <v>0</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47">
-        <v>43</v>
-      </c>
-      <c r="C47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48">
-        <v>44</v>
-      </c>
-      <c r="C48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49">
-        <v>44</v>
-      </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L49" s="7" t="s">
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3537,34 +3157,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEE3254-54E8-4BFF-9B28-6E5AF3AF9A29}">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
+    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="8" max="9" width="15.453125" customWidth="1"/>
+    <col min="10" max="10" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" customWidth="1"/>
+    <col min="13" max="13" width="14.08984375" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3590,28 +3210,31 @@
         <v>246</v>
       </c>
       <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
-        <v>319</v>
-      </c>
       <c r="K1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>230</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>231</v>
       </c>
-      <c r="O1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3637,28 +3260,31 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>91</v>
       </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
       <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
         <v>257</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>255</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>2024</v>
       </c>
-      <c r="O2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -3684,28 +3310,31 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
         <v>91</v>
       </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
       <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
         <v>255</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>131</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>2024</v>
       </c>
-      <c r="O3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>232</v>
       </c>
@@ -3731,28 +3360,31 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
         <v>258</v>
       </c>
-      <c r="J4" t="s">
-        <v>320</v>
-      </c>
       <c r="K4" t="s">
+        <v>318</v>
+      </c>
+      <c r="L4" t="s">
         <v>190</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>102</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>190</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>2024</v>
       </c>
-      <c r="O4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>232</v>
       </c>
@@ -3778,28 +3410,31 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
         <v>258</v>
       </c>
-      <c r="J5" t="s">
-        <v>320</v>
-      </c>
       <c r="K5" t="s">
+        <v>318</v>
+      </c>
+      <c r="L5" t="s">
         <v>190</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>117</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>190</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>2024</v>
       </c>
-      <c r="O5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -3825,28 +3460,31 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
         <v>258</v>
       </c>
-      <c r="J6" t="s">
-        <v>320</v>
-      </c>
       <c r="K6" t="s">
+        <v>318</v>
+      </c>
+      <c r="L6" t="s">
         <v>190</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>118</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>190</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>2024</v>
       </c>
-      <c r="O6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -3872,28 +3510,31 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
         <v>263</v>
       </c>
-      <c r="J7" t="s">
-        <v>320</v>
-      </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
         <v>106</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>131</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -3919,28 +3560,31 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
         <v>261</v>
       </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L8" t="s">
-        <v>318</v>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="M8" t="s">
+        <v>316</v>
+      </c>
+      <c r="N8" t="s">
         <v>190</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O8" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>235</v>
       </c>
@@ -3966,11 +3610,11 @@
         <v>12</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="K9" s="2" t="s">
         <v>12</v>
       </c>
@@ -3978,16 +3622,19 @@
         <v>12</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2024</v>
       </c>
-      <c r="O9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -4001,7 +3648,7 @@
         <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>239</v>
@@ -4013,28 +3660,31 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
         <v>106</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>131</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>2024</v>
       </c>
-      <c r="O10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -4048,40 +3698,43 @@
         <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
         <v>106</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>2024</v>
       </c>
-      <c r="O11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -4095,40 +3748,43 @@
         <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
         <v>106</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>131</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>2024</v>
       </c>
-      <c r="O12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -4142,40 +3798,43 @@
         <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
         <v>106</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>131</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>2024</v>
       </c>
-      <c r="O13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -4189,7 +3848,7 @@
         <v>278</v>
       </c>
       <c r="E14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>239</v>
@@ -4201,28 +3860,31 @@
         <v>12</v>
       </c>
       <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
         <v>260</v>
       </c>
-      <c r="J14" t="s">
-        <v>321</v>
-      </c>
       <c r="K14" t="s">
+        <v>319</v>
+      </c>
+      <c r="L14" t="s">
         <v>190</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>102</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>190</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>2024</v>
       </c>
-      <c r="O14" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -4236,40 +3898,43 @@
         <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
       </c>
       <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
         <v>260</v>
       </c>
-      <c r="J15" t="s">
-        <v>321</v>
-      </c>
       <c r="K15" t="s">
+        <v>319</v>
+      </c>
+      <c r="L15" t="s">
         <v>190</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>102</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>190</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>2024</v>
       </c>
-      <c r="O15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -4283,40 +3948,43 @@
         <v>278</v>
       </c>
       <c r="E16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
       <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
         <v>260</v>
       </c>
-      <c r="J16" t="s">
-        <v>321</v>
-      </c>
       <c r="K16" t="s">
+        <v>319</v>
+      </c>
+      <c r="L16" t="s">
         <v>190</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>102</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>190</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>2024</v>
       </c>
-      <c r="O16" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -4330,40 +3998,43 @@
         <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
       </c>
       <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
         <v>260</v>
       </c>
-      <c r="J17" t="s">
-        <v>321</v>
-      </c>
       <c r="K17" t="s">
+        <v>319</v>
+      </c>
+      <c r="L17" t="s">
         <v>190</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>102</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>190</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>2024</v>
       </c>
-      <c r="O17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -4371,7 +4042,7 @@
         <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
@@ -4389,11 +4060,11 @@
         <v>12</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="K18" s="2" t="s">
         <v>12</v>
       </c>
@@ -4401,16 +4072,19 @@
         <v>12</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2024</v>
       </c>
-      <c r="O18" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -4436,28 +4110,31 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
         <v>264</v>
       </c>
-      <c r="J19" t="s">
-        <v>321</v>
-      </c>
       <c r="K19" t="s">
+        <v>319</v>
+      </c>
+      <c r="L19" t="s">
         <v>190</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>102</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>190</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>2024</v>
       </c>
-      <c r="O19" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -4468,7 +4145,7 @@
         <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E20" t="s">
         <v>241</v>
@@ -4483,28 +4160,31 @@
         <v>12</v>
       </c>
       <c r="I20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" t="s">
         <v>264</v>
       </c>
-      <c r="J20" t="s">
-        <v>321</v>
-      </c>
       <c r="K20" t="s">
+        <v>319</v>
+      </c>
+      <c r="L20" t="s">
         <v>190</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>102</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>190</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>2024</v>
       </c>
-      <c r="O20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>250</v>
       </c>
@@ -4515,7 +4195,7 @@
         <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E21" t="s">
         <v>123</v>
@@ -4530,28 +4210,31 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
         <v>263</v>
       </c>
-      <c r="J21" t="s">
-        <v>320</v>
-      </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" t="s">
         <v>106</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>131</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O21" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -4562,7 +4245,7 @@
         <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E22" t="s">
         <v>199</v>
@@ -4577,28 +4260,31 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
         <v>259</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>257</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>190</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>102</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>190</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>2024</v>
       </c>
-      <c r="O22" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>240</v>
       </c>
@@ -4606,10 +4292,10 @@
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E23" t="s">
         <v>200</v>
@@ -4618,34 +4304,37 @@
         <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
       </c>
       <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
         <v>258</v>
       </c>
-      <c r="J23" t="s">
-        <v>320</v>
-      </c>
       <c r="K23" t="s">
+        <v>318</v>
+      </c>
+      <c r="L23" t="s">
         <v>190</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>102</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>190</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>2024</v>
       </c>
-      <c r="O23" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -4653,10 +4342,10 @@
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E24" t="s">
         <v>201</v>
@@ -4665,34 +4354,37 @@
         <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
       </c>
       <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
         <v>258</v>
       </c>
-      <c r="J24" t="s">
-        <v>320</v>
-      </c>
       <c r="K24" t="s">
+        <v>318</v>
+      </c>
+      <c r="L24" t="s">
         <v>190</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>102</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>190</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>2024</v>
       </c>
-      <c r="O24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -4700,10 +4392,10 @@
         <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E25" t="s">
         <v>202</v>
@@ -4712,34 +4404,37 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
       </c>
       <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
         <v>258</v>
       </c>
-      <c r="J25" t="s">
-        <v>320</v>
-      </c>
       <c r="K25" t="s">
+        <v>318</v>
+      </c>
+      <c r="L25" t="s">
         <v>190</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>102</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>190</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>2024</v>
       </c>
-      <c r="O25" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -4765,28 +4460,31 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
         <v>262</v>
       </c>
-      <c r="J26" t="s">
-        <v>320</v>
-      </c>
       <c r="K26" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L26" t="s">
+        <v>324</v>
+      </c>
+      <c r="M26" t="s">
         <v>172</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>131</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>2024</v>
       </c>
-      <c r="O26" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -4812,28 +4510,31 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
         <v>262</v>
       </c>
-      <c r="J27" t="s">
-        <v>320</v>
-      </c>
       <c r="K27" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="L27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M27" t="s">
         <v>172</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>131</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>2024</v>
       </c>
-      <c r="O27" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -4859,28 +4560,31 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
         <v>262</v>
       </c>
-      <c r="J28" t="s">
-        <v>320</v>
-      </c>
       <c r="K28" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L28" t="s">
+        <v>324</v>
+      </c>
+      <c r="M28" t="s">
         <v>172</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>131</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>2024</v>
       </c>
-      <c r="O28" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -4906,28 +4610,31 @@
         <v>12</v>
       </c>
       <c r="I29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
         <v>262</v>
       </c>
-      <c r="J29" t="s">
-        <v>320</v>
-      </c>
       <c r="K29" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="L29" t="s">
+        <v>325</v>
+      </c>
+      <c r="M29" t="s">
         <v>172</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>131</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>2024</v>
       </c>
-      <c r="O29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -4953,28 +4660,31 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
         <v>262</v>
       </c>
-      <c r="J30" t="s">
-        <v>320</v>
-      </c>
       <c r="K30" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="L30" t="s">
+        <v>325</v>
+      </c>
+      <c r="M30" t="s">
         <v>172</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>131</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <v>2024</v>
       </c>
-      <c r="O30" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -4994,34 +4704,37 @@
         <v>244</v>
       </c>
       <c r="G31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
       </c>
       <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
         <v>243</v>
       </c>
-      <c r="J31" t="s">
-        <v>320</v>
-      </c>
       <c r="K31" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" t="s">
         <v>172</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>190</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O31" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P31" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -5041,34 +4754,37 @@
         <v>244</v>
       </c>
       <c r="G32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
       </c>
       <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
         <v>243</v>
       </c>
-      <c r="J32" t="s">
-        <v>320</v>
-      </c>
       <c r="K32" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" t="s">
         <v>172</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>190</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O32" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -5088,34 +4804,37 @@
         <v>239</v>
       </c>
       <c r="G33" t="s">
+        <v>288</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" t="s">
+        <v>243</v>
+      </c>
+      <c r="K33" t="s">
+        <v>318</v>
+      </c>
+      <c r="L33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" t="s">
+        <v>172</v>
+      </c>
+      <c r="N33" t="s">
+        <v>190</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" t="s">
-        <v>243</v>
-      </c>
-      <c r="J33" t="s">
-        <v>320</v>
-      </c>
-      <c r="K33" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" t="s">
-        <v>172</v>
-      </c>
-      <c r="M33" t="s">
-        <v>190</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O33" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -5141,28 +4860,31 @@
         <v>12</v>
       </c>
       <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
         <v>263</v>
       </c>
-      <c r="J34" t="s">
-        <v>320</v>
-      </c>
       <c r="K34" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" t="s">
         <v>106</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>131</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O34" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -5188,28 +4910,31 @@
         <v>12</v>
       </c>
       <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
         <v>243</v>
       </c>
-      <c r="J35" t="s">
-        <v>320</v>
-      </c>
       <c r="K35" t="s">
+        <v>318</v>
+      </c>
+      <c r="L35" t="s">
         <v>190</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>102</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>190</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O35" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -5235,28 +4960,31 @@
         <v>12</v>
       </c>
       <c r="I36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" t="s">
         <v>263</v>
       </c>
-      <c r="J36" t="s">
-        <v>320</v>
-      </c>
       <c r="K36" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" t="s">
         <v>106</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>131</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O36" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -5282,30 +5010,33 @@
         <v>12</v>
       </c>
       <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
         <v>243</v>
       </c>
-      <c r="J37" t="s">
-        <v>320</v>
-      </c>
       <c r="K37" t="s">
+        <v>318</v>
+      </c>
+      <c r="L37" t="s">
         <v>190</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>102</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>190</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O37" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s">
         <v>87</v>
@@ -5329,30 +5060,33 @@
         <v>140</v>
       </c>
       <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
         <v>263</v>
       </c>
-      <c r="J38" t="s">
-        <v>320</v>
-      </c>
       <c r="K38" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" t="s">
         <v>106</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>131</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O38" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B39" t="s">
         <v>88</v>
@@ -5376,30 +5110,33 @@
         <v>141</v>
       </c>
       <c r="I39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" t="s">
         <v>263</v>
       </c>
-      <c r="J39" t="s">
-        <v>320</v>
-      </c>
       <c r="K39" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L39" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" t="s">
         <v>106</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>131</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O39" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
@@ -5423,30 +5160,33 @@
         <v>142</v>
       </c>
       <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
         <v>263</v>
       </c>
-      <c r="J40" t="s">
-        <v>320</v>
-      </c>
       <c r="K40" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" t="s">
         <v>106</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>131</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O40" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B41" t="s">
         <v>114</v>
@@ -5470,30 +5210,33 @@
         <v>143</v>
       </c>
       <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" t="s">
         <v>263</v>
       </c>
-      <c r="J41" t="s">
-        <v>320</v>
-      </c>
       <c r="K41" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" t="s">
         <v>106</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>131</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="O41" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O41" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s">
         <v>126</v>
@@ -5517,30 +5260,33 @@
         <v>144</v>
       </c>
       <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
         <v>263</v>
       </c>
-      <c r="J42" t="s">
-        <v>320</v>
-      </c>
       <c r="K42" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L42" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" t="s">
         <v>106</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>131</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="O42" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O42" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B43" t="s">
         <v>135</v>
@@ -5564,30 +5310,33 @@
         <v>150</v>
       </c>
       <c r="I43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" t="s">
         <v>263</v>
       </c>
-      <c r="J43" t="s">
-        <v>320</v>
-      </c>
       <c r="K43" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L43" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" t="s">
         <v>106</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="O43" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O43" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B44" t="s">
         <v>136</v>
@@ -5611,30 +5360,33 @@
         <v>151</v>
       </c>
       <c r="I44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" t="s">
         <v>263</v>
       </c>
-      <c r="J44" t="s">
-        <v>320</v>
-      </c>
       <c r="K44" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" t="s">
         <v>106</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>131</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="O44" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O44" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s">
         <v>137</v>
@@ -5658,30 +5410,33 @@
         <v>152</v>
       </c>
       <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" t="s">
         <v>263</v>
       </c>
-      <c r="J45" t="s">
-        <v>320</v>
-      </c>
       <c r="K45" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" t="s">
         <v>106</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>131</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O45" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s">
         <v>134</v>
@@ -5705,30 +5460,33 @@
         <v>146</v>
       </c>
       <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
         <v>263</v>
       </c>
-      <c r="J46" t="s">
-        <v>320</v>
-      </c>
       <c r="K46" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" t="s">
         <v>106</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>131</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O46" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s">
         <v>138</v>
@@ -5752,30 +5510,33 @@
         <v>147</v>
       </c>
       <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" t="s">
         <v>263</v>
       </c>
-      <c r="J47" t="s">
-        <v>320</v>
-      </c>
       <c r="K47" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L47" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" t="s">
         <v>106</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>131</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="O47" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O47" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s">
         <v>139</v>
@@ -5799,28 +5560,31 @@
         <v>153</v>
       </c>
       <c r="I48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" t="s">
         <v>263</v>
       </c>
-      <c r="J48" t="s">
-        <v>320</v>
-      </c>
       <c r="K48" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L48" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" t="s">
         <v>106</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>131</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="O48" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O48" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -5846,28 +5610,31 @@
         <v>12</v>
       </c>
       <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" t="s">
         <v>264</v>
       </c>
-      <c r="J49" t="s">
-        <v>321</v>
-      </c>
       <c r="K49" t="s">
+        <v>319</v>
+      </c>
+      <c r="L49" t="s">
         <v>190</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>102</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>190</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O49" s="1">
         <v>2024</v>
       </c>
-      <c r="O49" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -5893,28 +5660,31 @@
         <v>12</v>
       </c>
       <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
         <v>263</v>
       </c>
-      <c r="J50" t="s">
-        <v>320</v>
-      </c>
       <c r="K50" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L50" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" t="s">
         <v>106</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>131</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="O50" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O50" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -5940,28 +5710,31 @@
         <v>12</v>
       </c>
       <c r="I51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" t="s">
         <v>263</v>
       </c>
-      <c r="J51" t="s">
-        <v>320</v>
-      </c>
       <c r="K51" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L51" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" t="s">
         <v>106</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>131</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="O51" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O51" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -5987,28 +5760,31 @@
         <v>12</v>
       </c>
       <c r="I52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
         <v>263</v>
       </c>
-      <c r="J52" t="s">
-        <v>320</v>
-      </c>
       <c r="K52" t="s">
+        <v>318</v>
+      </c>
+      <c r="L52" t="s">
         <v>191</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>164</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>131</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="O52" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O52" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -6034,28 +5810,31 @@
         <v>12</v>
       </c>
       <c r="I53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" t="s">
         <v>263</v>
       </c>
-      <c r="J53" t="s">
-        <v>320</v>
-      </c>
       <c r="K53" t="s">
+        <v>318</v>
+      </c>
+      <c r="L53" t="s">
         <v>192</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>165</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>131</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O53" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -6063,7 +5842,7 @@
         <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D54" t="s">
         <v>254</v>
@@ -6081,28 +5860,31 @@
         <v>12</v>
       </c>
       <c r="I54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" t="s">
         <v>243</v>
       </c>
-      <c r="J54" t="s">
-        <v>320</v>
-      </c>
       <c r="K54" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L54" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" t="s">
         <v>106</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>190</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O54" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O54" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P54" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -6110,7 +5892,7 @@
         <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D55" t="s">
         <v>254</v>
@@ -6128,28 +5910,31 @@
         <v>12</v>
       </c>
       <c r="I55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" t="s">
         <v>243</v>
       </c>
-      <c r="J55" t="s">
-        <v>320</v>
-      </c>
       <c r="K55" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L55" t="s">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="M55" t="s">
+        <v>304</v>
+      </c>
+      <c r="N55" t="s">
         <v>190</v>
       </c>
-      <c r="N55" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O55" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O55" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P55" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -6157,46 +5942,49 @@
         <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D56" t="s">
         <v>254</v>
       </c>
       <c r="E56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="G56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H56" t="s">
         <v>12</v>
       </c>
       <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" t="s">
         <v>243</v>
       </c>
-      <c r="J56" t="s">
-        <v>320</v>
-      </c>
       <c r="K56" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L56" t="s">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="M56" t="s">
+        <v>305</v>
+      </c>
+      <c r="N56" t="s">
         <v>190</v>
       </c>
-      <c r="N56" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O56" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O56" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P56" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -6204,46 +5992,49 @@
         <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D57" t="s">
         <v>254</v>
       </c>
       <c r="E57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>244</v>
       </c>
       <c r="G57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H57" t="s">
         <v>12</v>
       </c>
       <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" t="s">
         <v>243</v>
       </c>
-      <c r="J57" t="s">
-        <v>320</v>
-      </c>
       <c r="K57" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L57" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="M57" t="s">
+        <v>306</v>
+      </c>
+      <c r="N57" t="s">
         <v>190</v>
       </c>
-      <c r="N57" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O57" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O57" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P57" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -6251,46 +6042,49 @@
         <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D58" t="s">
         <v>254</v>
       </c>
       <c r="E58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>244</v>
       </c>
       <c r="G58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H58" t="s">
         <v>12</v>
       </c>
       <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" t="s">
         <v>243</v>
       </c>
-      <c r="J58" t="s">
-        <v>320</v>
-      </c>
       <c r="K58" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L58" t="s">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="M58" t="s">
+        <v>307</v>
+      </c>
+      <c r="N58" t="s">
         <v>190</v>
       </c>
-      <c r="N58" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O58" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O58" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P58" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -6298,46 +6092,49 @@
         <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D59" t="s">
         <v>254</v>
       </c>
       <c r="E59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>244</v>
       </c>
       <c r="G59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H59" t="s">
         <v>12</v>
       </c>
       <c r="I59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" t="s">
         <v>243</v>
       </c>
-      <c r="J59" t="s">
-        <v>320</v>
-      </c>
       <c r="K59" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L59" t="s">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="M59" t="s">
+        <v>308</v>
+      </c>
+      <c r="N59" t="s">
         <v>190</v>
       </c>
-      <c r="N59" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O59" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O59" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P59" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -6363,28 +6160,31 @@
         <v>12</v>
       </c>
       <c r="I60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" t="s">
         <v>263</v>
       </c>
-      <c r="J60" t="s">
-        <v>320</v>
-      </c>
       <c r="K60" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L60" t="s">
+        <v>12</v>
+      </c>
+      <c r="M60" t="s">
         <v>106</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>131</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O60" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -6410,28 +6210,31 @@
         <v>12</v>
       </c>
       <c r="I61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" t="s">
         <v>263</v>
       </c>
-      <c r="J61" t="s">
-        <v>320</v>
-      </c>
       <c r="K61" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L61" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" t="s">
         <v>106</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>131</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="O61" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O61" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -6457,28 +6260,31 @@
         <v>12</v>
       </c>
       <c r="I62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" t="s">
         <v>263</v>
       </c>
-      <c r="J62" t="s">
-        <v>320</v>
-      </c>
       <c r="K62" t="s">
+        <v>318</v>
+      </c>
+      <c r="L62" t="s">
         <v>191</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>164</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>131</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="O62" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O62" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -6504,28 +6310,31 @@
         <v>12</v>
       </c>
       <c r="I63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" t="s">
         <v>263</v>
       </c>
-      <c r="J63" t="s">
-        <v>320</v>
-      </c>
       <c r="K63" t="s">
+        <v>318</v>
+      </c>
+      <c r="L63" t="s">
         <v>192</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>165</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>131</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="O63" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O63" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -6533,7 +6342,7 @@
         <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D64" t="s">
         <v>168</v>
@@ -6551,28 +6360,31 @@
         <v>12</v>
       </c>
       <c r="I64" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" t="s">
         <v>243</v>
       </c>
-      <c r="J64" t="s">
-        <v>320</v>
-      </c>
       <c r="K64" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L64" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" t="s">
         <v>106</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>190</v>
       </c>
-      <c r="N64" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O64" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O64" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P64" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -6580,46 +6392,49 @@
         <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D65" t="s">
         <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G65" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
       </c>
       <c r="I65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" t="s">
         <v>243</v>
       </c>
-      <c r="J65" t="s">
-        <v>320</v>
-      </c>
       <c r="K65" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L65" t="s">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="M65" t="s">
+        <v>304</v>
+      </c>
+      <c r="N65" t="s">
         <v>190</v>
       </c>
-      <c r="N65" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O65" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O65" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P65" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -6627,46 +6442,49 @@
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D66" t="s">
         <v>168</v>
       </c>
       <c r="E66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G66" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
       </c>
       <c r="I66" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" t="s">
         <v>243</v>
       </c>
-      <c r="J66" t="s">
-        <v>320</v>
-      </c>
       <c r="K66" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L66" t="s">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="M66" t="s">
+        <v>305</v>
+      </c>
+      <c r="N66" t="s">
         <v>190</v>
       </c>
-      <c r="N66" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O66" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O66" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P66" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -6674,46 +6492,49 @@
         <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D67" t="s">
         <v>168</v>
       </c>
       <c r="E67" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
       </c>
       <c r="I67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" t="s">
         <v>243</v>
       </c>
-      <c r="J67" t="s">
-        <v>320</v>
-      </c>
       <c r="K67" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L67" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="M67" t="s">
+        <v>306</v>
+      </c>
+      <c r="N67" t="s">
         <v>190</v>
       </c>
-      <c r="N67" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O67" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O67" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P67" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -6721,46 +6542,49 @@
         <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D68" t="s">
         <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H68" t="s">
         <v>12</v>
       </c>
       <c r="I68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" t="s">
         <v>243</v>
       </c>
-      <c r="J68" t="s">
-        <v>320</v>
-      </c>
       <c r="K68" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L68" t="s">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="M68" t="s">
+        <v>307</v>
+      </c>
+      <c r="N68" t="s">
         <v>190</v>
       </c>
-      <c r="N68" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O68" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O68" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P68" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>61</v>
       </c>
@@ -6768,46 +6592,49 @@
         <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D69" t="s">
         <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H69" t="s">
         <v>12</v>
       </c>
       <c r="I69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" t="s">
         <v>243</v>
       </c>
-      <c r="J69" t="s">
-        <v>320</v>
-      </c>
       <c r="K69" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L69" t="s">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="M69" t="s">
+        <v>308</v>
+      </c>
+      <c r="N69" t="s">
         <v>190</v>
       </c>
-      <c r="N69" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O69" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O69" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P69" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -6833,28 +6660,31 @@
         <v>179</v>
       </c>
       <c r="I70" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" t="s">
         <v>261</v>
       </c>
-      <c r="J70" t="s">
-        <v>321</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L70" t="s">
-        <v>318</v>
+      <c r="K70" t="s">
+        <v>319</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="M70" t="s">
+        <v>316</v>
+      </c>
+      <c r="N70" t="s">
         <v>131</v>
       </c>
-      <c r="N70" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O70" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O70" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P70" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -6880,28 +6710,31 @@
         <v>179</v>
       </c>
       <c r="I71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" t="s">
         <v>261</v>
       </c>
-      <c r="J71" t="s">
-        <v>321</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L71" t="s">
-        <v>318</v>
+      <c r="K71" t="s">
+        <v>319</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="M71" t="s">
+        <v>316</v>
+      </c>
+      <c r="N71" t="s">
         <v>131</v>
       </c>
-      <c r="N71" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O71" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O71" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P71" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -6927,28 +6760,31 @@
         <v>183</v>
       </c>
       <c r="I72" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" t="s">
         <v>261</v>
       </c>
-      <c r="J72" t="s">
-        <v>321</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L72" t="s">
-        <v>318</v>
+      <c r="K72" t="s">
+        <v>319</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="M72" t="s">
+        <v>316</v>
+      </c>
+      <c r="N72" t="s">
         <v>131</v>
       </c>
-      <c r="N72" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O72" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O72" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P72" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -6974,28 +6810,31 @@
         <v>179</v>
       </c>
       <c r="I73" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" t="s">
         <v>260</v>
       </c>
-      <c r="J73" t="s">
-        <v>321</v>
-      </c>
-      <c r="K73" s="7" t="s">
+      <c r="K73" t="s">
+        <v>319</v>
+      </c>
+      <c r="L73" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>102</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>190</v>
       </c>
-      <c r="N73" s="1">
+      <c r="O73" s="1">
         <v>2024</v>
       </c>
-      <c r="O73" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -7021,28 +6860,31 @@
         <v>179</v>
       </c>
       <c r="I74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" t="s">
         <v>260</v>
       </c>
-      <c r="J74" t="s">
-        <v>321</v>
-      </c>
       <c r="K74" t="s">
+        <v>319</v>
+      </c>
+      <c r="L74" t="s">
         <v>190</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>102</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>190</v>
       </c>
-      <c r="N74" s="1">
+      <c r="O74" s="1">
         <v>2024</v>
       </c>
-      <c r="O74" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>63</v>
       </c>
@@ -7068,28 +6910,31 @@
         <v>183</v>
       </c>
       <c r="I75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" t="s">
         <v>260</v>
       </c>
-      <c r="J75" t="s">
-        <v>321</v>
-      </c>
       <c r="K75" t="s">
+        <v>319</v>
+      </c>
+      <c r="L75" t="s">
         <v>190</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>102</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>190</v>
       </c>
-      <c r="N75" s="1">
+      <c r="O75" s="1">
         <v>2024</v>
       </c>
-      <c r="O75" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>64</v>
       </c>
@@ -7115,28 +6960,31 @@
         <v>184</v>
       </c>
       <c r="I76" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" t="s">
         <v>263</v>
       </c>
-      <c r="J76" t="s">
-        <v>320</v>
-      </c>
       <c r="K76" t="s">
+        <v>318</v>
+      </c>
+      <c r="L76" t="s">
         <v>193</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>165</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>131</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="O76" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O76" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>64</v>
       </c>
@@ -7162,28 +7010,31 @@
         <v>252</v>
       </c>
       <c r="I77" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" t="s">
         <v>263</v>
       </c>
-      <c r="J77" t="s">
-        <v>320</v>
-      </c>
       <c r="K77" t="s">
+        <v>318</v>
+      </c>
+      <c r="L77" t="s">
         <v>193</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>165</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>131</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="O77" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O77" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -7209,30 +7060,33 @@
         <v>185</v>
       </c>
       <c r="I78" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" t="s">
         <v>263</v>
       </c>
-      <c r="J78" t="s">
-        <v>320</v>
-      </c>
       <c r="K78" t="s">
+        <v>318</v>
+      </c>
+      <c r="L78" t="s">
         <v>193</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>165</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>131</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="O78" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O78" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B79" t="s">
         <v>87</v>
@@ -7256,30 +7110,33 @@
         <v>187</v>
       </c>
       <c r="I79" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" t="s">
         <v>243</v>
       </c>
-      <c r="J79" t="s">
-        <v>320</v>
-      </c>
       <c r="K79" t="s">
+        <v>318</v>
+      </c>
+      <c r="L79" t="s">
         <v>190</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>102</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>190</v>
       </c>
-      <c r="N79" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O79" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O79" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P79" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
@@ -7303,30 +7160,33 @@
         <v>188</v>
       </c>
       <c r="I80" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" t="s">
         <v>243</v>
       </c>
-      <c r="J80" t="s">
-        <v>320</v>
-      </c>
       <c r="K80" t="s">
+        <v>318</v>
+      </c>
+      <c r="L80" t="s">
         <v>190</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>102</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>190</v>
       </c>
-      <c r="N80" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O80" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O80" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P80" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B81" t="s">
         <v>94</v>
@@ -7350,28 +7210,31 @@
         <v>189</v>
       </c>
       <c r="I81" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" t="s">
         <v>243</v>
       </c>
-      <c r="J81" t="s">
-        <v>320</v>
-      </c>
       <c r="K81" t="s">
+        <v>318</v>
+      </c>
+      <c r="L81" t="s">
         <v>190</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>102</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>190</v>
       </c>
-      <c r="N81" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O81" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O81" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P81" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -7380,8 +7243,9 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -7390,8 +7254,9 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -7400,8 +7265,9 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -7410,8 +7276,9 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -7420,8 +7287,9 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -7430,8 +7298,9 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -7440,18 +7309,19 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="O2:O81">
+  <conditionalFormatting sqref="P2:P81">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="coding">
-      <formula>NOT(ISERROR(SEARCH("coding",O2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("coding",P2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="ready">
-      <formula>NOT(ISERROR(SEARCH("ready",O2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ready",P2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="missing">
-      <formula>NOT(ISERROR(SEARCH("missing",O2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("missing",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject-my.sharepoint.com/personal/nclapacs_worldjusticeproject_org/Documents/Documents/GitHub/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2368" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5B7AABA-4778-4086-AB74-0670AC003B8F}"/>
+  <xr:revisionPtr revIDLastSave="2372" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13AADBC0-80DA-44C3-BDFF-AFDE56D873AF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="338">
   <si>
     <t>Cover</t>
   </si>
@@ -954,21 +954,6 @@
   </si>
   <si>
     <t>q2g</t>
-  </si>
-  <si>
-    <t>#2a2a95</t>
-  </si>
-  <si>
-    <t>#2a2a96</t>
-  </si>
-  <si>
-    <t>#2a2a97</t>
-  </si>
-  <si>
-    <t>#2a2a98</t>
-  </si>
-  <si>
-    <t>#2a2a99</t>
   </si>
   <si>
     <t>Figure_24</t>
@@ -1181,13 +1166,13 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1205,14 +1190,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA9653AC-F8C3-401C-B349-891D4FF1F533}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0">
   <autoFilter ref="A1:B6" xr:uid="{BA9653AC-F8C3-401C-B349-891D4FF1F533}"/>
@@ -1225,7 +1202,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}" name="Table1" displayName="Table1" ref="A1:J46" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}" name="Table1" displayName="Table1" ref="A1:J46" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:J46" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{D1E86754-498B-4449-AF9C-7F6F91357B29}" name="id"/>
@@ -1237,7 +1214,7 @@
     <tableColumn id="6" xr3:uid="{D78F8B52-A191-41B0-8464-081D07493BD3}" name="section_page"/>
     <tableColumn id="7" xr3:uid="{2C08080F-B5E5-4917-A6E2-1E8583610D91}" name="has_subsection"/>
     <tableColumn id="8" xr3:uid="{268CABA1-2A43-438A-A7EF-385670D18802}" name="thematic_findings"/>
-    <tableColumn id="13" xr3:uid="{4E95668B-FEB8-484F-BB19-1E0983B005D7}" name="macro" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{4E95668B-FEB8-484F-BB19-1E0983B005D7}" name="macro" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1245,14 +1222,20 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}" name="Table5" displayName="Table5" ref="A1:P81" totalsRowShown="0">
-  <autoFilter ref="A1:P81" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}"/>
+  <autoFilter ref="A1:P81" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Slope"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{212EC242-638E-4C2D-8A7C-290B2E57BD74}" name="id"/>
     <tableColumn id="2" xr3:uid="{0605D17D-53ED-4ED7-90F5-CA0A9CEFC8B9}" name="panel"/>
     <tableColumn id="3" xr3:uid="{B680CB48-28A5-4FB6-98AA-215E22B8B40F}" name="chart_title"/>
     <tableColumn id="4" xr3:uid="{FFEF5F92-2DF3-49A4-BD91-1FA7728CB677}" name="chart_subtitle"/>
     <tableColumn id="5" xr3:uid="{9C01E486-AAA9-4113-9F7C-DFED4772B00B}" name="var_id"/>
-    <tableColumn id="6" xr3:uid="{B447C55F-11C9-4234-9D1F-AF7936BEDF14}" name="reportValues" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{B447C55F-11C9-4234-9D1F-AF7936BEDF14}" name="reportValues" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{3122E94D-312F-487C-A9AD-C0E5E1E51E5E}" name="panel_title"/>
     <tableColumn id="8" xr3:uid="{203C77AD-FB8E-4313-B49E-37F7B9468C14}" name="panel_subtitle"/>
     <tableColumn id="16" xr3:uid="{121C63F2-C904-48A6-9D20-EC47030AA9FA}" name="footnote"/>
@@ -1261,7 +1244,7 @@
     <tableColumn id="10" xr3:uid="{DDAEDC79-07D2-402E-81B5-2E1EFAA266FD}" name="legend_text"/>
     <tableColumn id="11" xr3:uid="{2349E397-D3E7-455F-B793-654DDB7A534C}" name="legend_color"/>
     <tableColumn id="12" xr3:uid="{6CA05E5D-08AE-4A36-A0AA-353E1F289F09}" name="sample"/>
-    <tableColumn id="13" xr3:uid="{BCA1C210-6FE1-4DDF-9357-7DAD0B831D61}" name="years" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{BCA1C210-6FE1-4DDF-9357-7DAD0B831D61}" name="years" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{79FC7E8F-E231-444D-8CC2-A3A820DFD11C}" name="status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1688,7 +1671,7 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1964,7 +1947,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1976,7 +1959,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -2028,7 +2011,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2040,7 +2023,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -2284,7 +2267,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2296,7 +2279,7 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2860,7 +2843,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -2872,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -3160,10 +3143,10 @@
   <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3216,7 +3199,7 @@
         <v>37</v>
       </c>
       <c r="K1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L1" t="s">
         <v>85</v>
@@ -3231,10 +3214,10 @@
         <v>231</v>
       </c>
       <c r="P1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3281,10 +3264,10 @@
         <v>2024</v>
       </c>
       <c r="P2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -3331,10 +3314,10 @@
         <v>2024</v>
       </c>
       <c r="P3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>232</v>
       </c>
@@ -3366,7 +3349,7 @@
         <v>258</v>
       </c>
       <c r="K4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L4" t="s">
         <v>190</v>
@@ -3381,10 +3364,10 @@
         <v>2024</v>
       </c>
       <c r="P4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>232</v>
       </c>
@@ -3416,7 +3399,7 @@
         <v>258</v>
       </c>
       <c r="K5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L5" t="s">
         <v>190</v>
@@ -3431,10 +3414,10 @@
         <v>2024</v>
       </c>
       <c r="P5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -3466,7 +3449,7 @@
         <v>258</v>
       </c>
       <c r="K6" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L6" t="s">
         <v>190</v>
@@ -3481,10 +3464,10 @@
         <v>2024</v>
       </c>
       <c r="P6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -3516,7 +3499,7 @@
         <v>263</v>
       </c>
       <c r="K7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
@@ -3531,10 +3514,10 @@
         <v>237</v>
       </c>
       <c r="P7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -3572,7 +3555,7 @@
         <v>289</v>
       </c>
       <c r="M8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="N8" t="s">
         <v>190</v>
@@ -3581,10 +3564,10 @@
         <v>289</v>
       </c>
       <c r="P8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>235</v>
       </c>
@@ -3631,10 +3614,10 @@
         <v>2024</v>
       </c>
       <c r="P9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -3648,7 +3631,7 @@
         <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>239</v>
@@ -3663,10 +3646,10 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -3681,10 +3664,10 @@
         <v>2024</v>
       </c>
       <c r="P10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3698,13 +3681,13 @@
         <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G11" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -3713,10 +3696,10 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K11" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L11" t="s">
         <v>12</v>
@@ -3731,10 +3714,10 @@
         <v>2024</v>
       </c>
       <c r="P11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -3748,13 +3731,13 @@
         <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -3763,10 +3746,10 @@
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K12" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
@@ -3781,10 +3764,10 @@
         <v>2024</v>
       </c>
       <c r="P12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -3798,13 +3781,13 @@
         <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G13" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -3813,10 +3796,10 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K13" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
@@ -3831,10 +3814,10 @@
         <v>2024</v>
       </c>
       <c r="P13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -3848,7 +3831,7 @@
         <v>278</v>
       </c>
       <c r="E14" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>239</v>
@@ -3866,7 +3849,7 @@
         <v>260</v>
       </c>
       <c r="K14" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L14" t="s">
         <v>190</v>
@@ -3881,10 +3864,10 @@
         <v>2024</v>
       </c>
       <c r="P14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -3898,13 +3881,13 @@
         <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G15" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
@@ -3916,7 +3899,7 @@
         <v>260</v>
       </c>
       <c r="K15" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L15" t="s">
         <v>190</v>
@@ -3931,10 +3914,10 @@
         <v>2024</v>
       </c>
       <c r="P15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -3948,13 +3931,13 @@
         <v>278</v>
       </c>
       <c r="E16" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G16" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
@@ -3966,7 +3949,7 @@
         <v>260</v>
       </c>
       <c r="K16" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L16" t="s">
         <v>190</v>
@@ -3981,10 +3964,10 @@
         <v>2024</v>
       </c>
       <c r="P16" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3998,13 +3981,13 @@
         <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G17" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -4016,7 +3999,7 @@
         <v>260</v>
       </c>
       <c r="K17" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L17" t="s">
         <v>190</v>
@@ -4031,10 +4014,10 @@
         <v>2024</v>
       </c>
       <c r="P17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -4081,10 +4064,10 @@
         <v>2024</v>
       </c>
       <c r="P18" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -4116,7 +4099,7 @@
         <v>264</v>
       </c>
       <c r="K19" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L19" t="s">
         <v>190</v>
@@ -4131,10 +4114,10 @@
         <v>2024</v>
       </c>
       <c r="P19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -4145,7 +4128,7 @@
         <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E20" t="s">
         <v>241</v>
@@ -4166,7 +4149,7 @@
         <v>264</v>
       </c>
       <c r="K20" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L20" t="s">
         <v>190</v>
@@ -4181,10 +4164,10 @@
         <v>2024</v>
       </c>
       <c r="P20" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>250</v>
       </c>
@@ -4216,7 +4199,7 @@
         <v>263</v>
       </c>
       <c r="K21" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L21" t="s">
         <v>12</v>
@@ -4231,10 +4214,10 @@
         <v>237</v>
       </c>
       <c r="P21" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -4281,10 +4264,10 @@
         <v>2024</v>
       </c>
       <c r="P22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>240</v>
       </c>
@@ -4316,7 +4299,7 @@
         <v>258</v>
       </c>
       <c r="K23" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L23" t="s">
         <v>190</v>
@@ -4331,10 +4314,10 @@
         <v>2024</v>
       </c>
       <c r="P23" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -4366,7 +4349,7 @@
         <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L24" t="s">
         <v>190</v>
@@ -4381,10 +4364,10 @@
         <v>2024</v>
       </c>
       <c r="P24" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -4416,7 +4399,7 @@
         <v>258</v>
       </c>
       <c r="K25" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L25" t="s">
         <v>190</v>
@@ -4431,10 +4414,10 @@
         <v>2024</v>
       </c>
       <c r="P25" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -4466,10 +4449,10 @@
         <v>262</v>
       </c>
       <c r="K26" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L26" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M26" t="s">
         <v>172</v>
@@ -4481,10 +4464,10 @@
         <v>2024</v>
       </c>
       <c r="P26" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -4516,10 +4499,10 @@
         <v>262</v>
       </c>
       <c r="K27" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L27" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M27" t="s">
         <v>172</v>
@@ -4531,10 +4514,10 @@
         <v>2024</v>
       </c>
       <c r="P27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -4566,10 +4549,10 @@
         <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L28" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M28" t="s">
         <v>172</v>
@@ -4581,10 +4564,10 @@
         <v>2024</v>
       </c>
       <c r="P28" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -4616,10 +4599,10 @@
         <v>262</v>
       </c>
       <c r="K29" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L29" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M29" t="s">
         <v>172</v>
@@ -4631,10 +4614,10 @@
         <v>2024</v>
       </c>
       <c r="P29" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -4666,10 +4649,10 @@
         <v>262</v>
       </c>
       <c r="K30" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L30" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M30" t="s">
         <v>172</v>
@@ -4681,7 +4664,7 @@
         <v>2024</v>
       </c>
       <c r="P30" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
@@ -4716,13 +4699,13 @@
         <v>243</v>
       </c>
       <c r="K31" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M31" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="N31" t="s">
         <v>190</v>
@@ -4731,7 +4714,7 @@
         <v>289</v>
       </c>
       <c r="P31" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
@@ -4766,13 +4749,13 @@
         <v>243</v>
       </c>
       <c r="K32" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M32" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="N32" t="s">
         <v>190</v>
@@ -4781,7 +4764,7 @@
         <v>289</v>
       </c>
       <c r="P32" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
@@ -4816,13 +4799,13 @@
         <v>243</v>
       </c>
       <c r="K33" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M33" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="N33" t="s">
         <v>190</v>
@@ -4831,10 +4814,10 @@
         <v>289</v>
       </c>
       <c r="P33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -4866,7 +4849,7 @@
         <v>263</v>
       </c>
       <c r="K34" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s">
         <v>12</v>
@@ -4881,7 +4864,7 @@
         <v>237</v>
       </c>
       <c r="P34" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
@@ -4916,7 +4899,7 @@
         <v>243</v>
       </c>
       <c r="K35" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s">
         <v>190</v>
@@ -4931,10 +4914,10 @@
         <v>289</v>
       </c>
       <c r="P35" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -4966,7 +4949,7 @@
         <v>263</v>
       </c>
       <c r="K36" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L36" t="s">
         <v>12</v>
@@ -4981,7 +4964,7 @@
         <v>237</v>
       </c>
       <c r="P36" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
@@ -5016,7 +4999,7 @@
         <v>243</v>
       </c>
       <c r="K37" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s">
         <v>190</v>
@@ -5031,10 +5014,10 @@
         <v>289</v>
       </c>
       <c r="P37" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>293</v>
       </c>
@@ -5066,7 +5049,7 @@
         <v>263</v>
       </c>
       <c r="K38" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s">
         <v>12</v>
@@ -5081,10 +5064,10 @@
         <v>237</v>
       </c>
       <c r="P38" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>293</v>
       </c>
@@ -5116,7 +5099,7 @@
         <v>263</v>
       </c>
       <c r="K39" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s">
         <v>12</v>
@@ -5131,10 +5114,10 @@
         <v>237</v>
       </c>
       <c r="P39" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>293</v>
       </c>
@@ -5166,7 +5149,7 @@
         <v>263</v>
       </c>
       <c r="K40" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s">
         <v>12</v>
@@ -5181,10 +5164,10 @@
         <v>237</v>
       </c>
       <c r="P40" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>293</v>
       </c>
@@ -5216,7 +5199,7 @@
         <v>263</v>
       </c>
       <c r="K41" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s">
         <v>12</v>
@@ -5231,10 +5214,10 @@
         <v>237</v>
       </c>
       <c r="P41" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>293</v>
       </c>
@@ -5266,7 +5249,7 @@
         <v>263</v>
       </c>
       <c r="K42" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L42" t="s">
         <v>12</v>
@@ -5281,10 +5264,10 @@
         <v>237</v>
       </c>
       <c r="P42" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>294</v>
       </c>
@@ -5316,7 +5299,7 @@
         <v>263</v>
       </c>
       <c r="K43" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L43" t="s">
         <v>12</v>
@@ -5331,10 +5314,10 @@
         <v>237</v>
       </c>
       <c r="P43" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>294</v>
       </c>
@@ -5366,7 +5349,7 @@
         <v>263</v>
       </c>
       <c r="K44" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s">
         <v>12</v>
@@ -5381,10 +5364,10 @@
         <v>237</v>
       </c>
       <c r="P44" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>294</v>
       </c>
@@ -5416,7 +5399,7 @@
         <v>263</v>
       </c>
       <c r="K45" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L45" t="s">
         <v>12</v>
@@ -5431,10 +5414,10 @@
         <v>237</v>
       </c>
       <c r="P45" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>294</v>
       </c>
@@ -5466,7 +5449,7 @@
         <v>263</v>
       </c>
       <c r="K46" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L46" t="s">
         <v>12</v>
@@ -5481,10 +5464,10 @@
         <v>237</v>
       </c>
       <c r="P46" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>294</v>
       </c>
@@ -5516,7 +5499,7 @@
         <v>263</v>
       </c>
       <c r="K47" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L47" t="s">
         <v>12</v>
@@ -5531,10 +5514,10 @@
         <v>237</v>
       </c>
       <c r="P47" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>294</v>
       </c>
@@ -5566,7 +5549,7 @@
         <v>263</v>
       </c>
       <c r="K48" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L48" t="s">
         <v>12</v>
@@ -5581,10 +5564,10 @@
         <v>237</v>
       </c>
       <c r="P48" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -5616,7 +5599,7 @@
         <v>264</v>
       </c>
       <c r="K49" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L49" t="s">
         <v>190</v>
@@ -5631,10 +5614,10 @@
         <v>2024</v>
       </c>
       <c r="P49" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -5666,7 +5649,7 @@
         <v>263</v>
       </c>
       <c r="K50" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L50" t="s">
         <v>12</v>
@@ -5681,10 +5664,10 @@
         <v>237</v>
       </c>
       <c r="P50" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -5716,7 +5699,7 @@
         <v>263</v>
       </c>
       <c r="K51" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L51" t="s">
         <v>12</v>
@@ -5731,10 +5714,10 @@
         <v>237</v>
       </c>
       <c r="P51" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -5766,7 +5749,7 @@
         <v>263</v>
       </c>
       <c r="K52" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L52" t="s">
         <v>191</v>
@@ -5781,10 +5764,10 @@
         <v>237</v>
       </c>
       <c r="P52" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -5816,7 +5799,7 @@
         <v>263</v>
       </c>
       <c r="K53" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L53" t="s">
         <v>192</v>
@@ -5831,7 +5814,7 @@
         <v>237</v>
       </c>
       <c r="P53" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
@@ -5866,13 +5849,13 @@
         <v>243</v>
       </c>
       <c r="K54" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L54" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M54" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N54" t="s">
         <v>190</v>
@@ -5881,7 +5864,7 @@
         <v>289</v>
       </c>
       <c r="P54" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
@@ -5916,13 +5899,13 @@
         <v>243</v>
       </c>
       <c r="K55" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L55" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M55" t="s">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="N55" t="s">
         <v>190</v>
@@ -5931,7 +5914,7 @@
         <v>289</v>
       </c>
       <c r="P55" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
@@ -5966,13 +5949,13 @@
         <v>243</v>
       </c>
       <c r="K56" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L56" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M56" t="s">
-        <v>305</v>
+        <v>102</v>
       </c>
       <c r="N56" t="s">
         <v>190</v>
@@ -5981,7 +5964,7 @@
         <v>289</v>
       </c>
       <c r="P56" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
@@ -6016,13 +5999,13 @@
         <v>243</v>
       </c>
       <c r="K57" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L57" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M57" t="s">
-        <v>306</v>
+        <v>102</v>
       </c>
       <c r="N57" t="s">
         <v>190</v>
@@ -6031,7 +6014,7 @@
         <v>289</v>
       </c>
       <c r="P57" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
@@ -6066,13 +6049,13 @@
         <v>243</v>
       </c>
       <c r="K58" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L58" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M58" t="s">
-        <v>307</v>
+        <v>102</v>
       </c>
       <c r="N58" t="s">
         <v>190</v>
@@ -6081,7 +6064,7 @@
         <v>289</v>
       </c>
       <c r="P58" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
@@ -6116,13 +6099,13 @@
         <v>243</v>
       </c>
       <c r="K59" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L59" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M59" t="s">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="N59" t="s">
         <v>190</v>
@@ -6131,10 +6114,10 @@
         <v>289</v>
       </c>
       <c r="P59" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -6166,7 +6149,7 @@
         <v>263</v>
       </c>
       <c r="K60" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L60" t="s">
         <v>12</v>
@@ -6181,10 +6164,10 @@
         <v>237</v>
       </c>
       <c r="P60" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -6216,7 +6199,7 @@
         <v>263</v>
       </c>
       <c r="K61" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L61" t="s">
         <v>12</v>
@@ -6231,10 +6214,10 @@
         <v>237</v>
       </c>
       <c r="P61" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -6266,7 +6249,7 @@
         <v>263</v>
       </c>
       <c r="K62" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L62" t="s">
         <v>191</v>
@@ -6281,10 +6264,10 @@
         <v>237</v>
       </c>
       <c r="P62" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -6316,7 +6299,7 @@
         <v>263</v>
       </c>
       <c r="K63" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L63" t="s">
         <v>192</v>
@@ -6331,7 +6314,7 @@
         <v>237</v>
       </c>
       <c r="P63" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
@@ -6342,7 +6325,7 @@
         <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D64" t="s">
         <v>168</v>
@@ -6366,13 +6349,13 @@
         <v>243</v>
       </c>
       <c r="K64" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L64" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M64" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N64" t="s">
         <v>190</v>
@@ -6381,7 +6364,7 @@
         <v>289</v>
       </c>
       <c r="P64" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
@@ -6392,19 +6375,19 @@
         <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D65" t="s">
         <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G65" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
@@ -6416,13 +6399,13 @@
         <v>243</v>
       </c>
       <c r="K65" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L65" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M65" t="s">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="N65" t="s">
         <v>190</v>
@@ -6431,7 +6414,7 @@
         <v>289</v>
       </c>
       <c r="P65" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
@@ -6442,13 +6425,13 @@
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D66" t="s">
         <v>168</v>
       </c>
       <c r="E66" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>239</v>
@@ -6466,13 +6449,13 @@
         <v>243</v>
       </c>
       <c r="K66" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L66" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M66" t="s">
-        <v>305</v>
+        <v>102</v>
       </c>
       <c r="N66" t="s">
         <v>190</v>
@@ -6481,7 +6464,7 @@
         <v>289</v>
       </c>
       <c r="P66" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
@@ -6492,13 +6475,13 @@
         <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D67" t="s">
         <v>168</v>
       </c>
       <c r="E67" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>239</v>
@@ -6516,13 +6499,13 @@
         <v>243</v>
       </c>
       <c r="K67" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L67" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M67" t="s">
-        <v>306</v>
+        <v>102</v>
       </c>
       <c r="N67" t="s">
         <v>190</v>
@@ -6531,7 +6514,7 @@
         <v>289</v>
       </c>
       <c r="P67" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
@@ -6542,13 +6525,13 @@
         <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D68" t="s">
         <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>239</v>
@@ -6566,13 +6549,13 @@
         <v>243</v>
       </c>
       <c r="K68" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L68" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M68" t="s">
-        <v>307</v>
+        <v>102</v>
       </c>
       <c r="N68" t="s">
         <v>190</v>
@@ -6581,7 +6564,7 @@
         <v>289</v>
       </c>
       <c r="P68" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
@@ -6592,13 +6575,13 @@
         <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D69" t="s">
         <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>239</v>
@@ -6616,13 +6599,13 @@
         <v>243</v>
       </c>
       <c r="K69" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L69" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M69" t="s">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="N69" t="s">
         <v>190</v>
@@ -6631,10 +6614,10 @@
         <v>289</v>
       </c>
       <c r="P69" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -6666,13 +6649,13 @@
         <v>261</v>
       </c>
       <c r="K70" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>289</v>
       </c>
       <c r="M70" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="N70" t="s">
         <v>131</v>
@@ -6681,10 +6664,10 @@
         <v>289</v>
       </c>
       <c r="P70" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -6716,13 +6699,13 @@
         <v>261</v>
       </c>
       <c r="K71" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>289</v>
       </c>
       <c r="M71" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="N71" t="s">
         <v>131</v>
@@ -6731,10 +6714,10 @@
         <v>289</v>
       </c>
       <c r="P71" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -6766,13 +6749,13 @@
         <v>261</v>
       </c>
       <c r="K72" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>289</v>
       </c>
       <c r="M72" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="N72" t="s">
         <v>131</v>
@@ -6781,10 +6764,10 @@
         <v>289</v>
       </c>
       <c r="P72" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -6816,7 +6799,7 @@
         <v>260</v>
       </c>
       <c r="K73" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>190</v>
@@ -6831,10 +6814,10 @@
         <v>2024</v>
       </c>
       <c r="P73" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -6866,7 +6849,7 @@
         <v>260</v>
       </c>
       <c r="K74" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L74" t="s">
         <v>190</v>
@@ -6881,10 +6864,10 @@
         <v>2024</v>
       </c>
       <c r="P74" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>63</v>
       </c>
@@ -6916,7 +6899,7 @@
         <v>260</v>
       </c>
       <c r="K75" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L75" t="s">
         <v>190</v>
@@ -6931,10 +6914,10 @@
         <v>2024</v>
       </c>
       <c r="P75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>64</v>
       </c>
@@ -6966,7 +6949,7 @@
         <v>263</v>
       </c>
       <c r="K76" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L76" t="s">
         <v>193</v>
@@ -6981,10 +6964,10 @@
         <v>237</v>
       </c>
       <c r="P76" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>64</v>
       </c>
@@ -7016,7 +6999,7 @@
         <v>263</v>
       </c>
       <c r="K77" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L77" t="s">
         <v>193</v>
@@ -7031,10 +7014,10 @@
         <v>237</v>
       </c>
       <c r="P77" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -7066,7 +7049,7 @@
         <v>263</v>
       </c>
       <c r="K78" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L78" t="s">
         <v>193</v>
@@ -7081,12 +7064,12 @@
         <v>237</v>
       </c>
       <c r="P78" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B79" t="s">
         <v>87</v>
@@ -7116,7 +7099,7 @@
         <v>243</v>
       </c>
       <c r="K79" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L79" t="s">
         <v>190</v>
@@ -7131,12 +7114,12 @@
         <v>289</v>
       </c>
       <c r="P79" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
@@ -7166,7 +7149,7 @@
         <v>243</v>
       </c>
       <c r="K80" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L80" t="s">
         <v>190</v>
@@ -7181,12 +7164,12 @@
         <v>289</v>
       </c>
       <c r="P80" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B81" t="s">
         <v>94</v>
@@ -7216,7 +7199,7 @@
         <v>243</v>
       </c>
       <c r="K81" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L81" t="s">
         <v>190</v>
@@ -7231,7 +7214,7 @@
         <v>289</v>
       </c>
       <c r="P81" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
@@ -7335,6 +7318,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -7583,17 +7577,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7604,6 +7587,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1EE7D2B-72B9-4B29-A99A-A2518AB2EE2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99B8D699-284D-4873-A808-FFD96E111D58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7622,17 +7616,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1EE7D2B-72B9-4B29-A99A-A2518AB2EE2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
   <ds:schemaRefs>

--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject-my.sharepoint.com/personal/nclapacs_worldjusticeproject_org/Documents/Documents/GitHub/USA-report-2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2372" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13AADBC0-80DA-44C3-BDFF-AFDE56D873AF}"/>
+  <xr:revisionPtr revIDLastSave="2368" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5B7AABA-4778-4086-AB74-0670AC003B8F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="343">
   <si>
     <t>Cover</t>
   </si>
@@ -954,6 +954,21 @@
   </si>
   <si>
     <t>q2g</t>
+  </si>
+  <si>
+    <t>#2a2a95</t>
+  </si>
+  <si>
+    <t>#2a2a96</t>
+  </si>
+  <si>
+    <t>#2a2a97</t>
+  </si>
+  <si>
+    <t>#2a2a98</t>
+  </si>
+  <si>
+    <t>#2a2a99</t>
   </si>
   <si>
     <t>Figure_24</t>
@@ -1166,13 +1181,13 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1190,6 +1205,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA9653AC-F8C3-401C-B349-891D4FF1F533}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0">
   <autoFilter ref="A1:B6" xr:uid="{BA9653AC-F8C3-401C-B349-891D4FF1F533}"/>
@@ -1202,7 +1225,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}" name="Table1" displayName="Table1" ref="A1:J46" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}" name="Table1" displayName="Table1" ref="A1:J46" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:J46" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{D1E86754-498B-4449-AF9C-7F6F91357B29}" name="id"/>
@@ -1214,7 +1237,7 @@
     <tableColumn id="6" xr3:uid="{D78F8B52-A191-41B0-8464-081D07493BD3}" name="section_page"/>
     <tableColumn id="7" xr3:uid="{2C08080F-B5E5-4917-A6E2-1E8583610D91}" name="has_subsection"/>
     <tableColumn id="8" xr3:uid="{268CABA1-2A43-438A-A7EF-385670D18802}" name="thematic_findings"/>
-    <tableColumn id="13" xr3:uid="{4E95668B-FEB8-484F-BB19-1E0983B005D7}" name="macro" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{4E95668B-FEB8-484F-BB19-1E0983B005D7}" name="macro" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1222,20 +1245,14 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}" name="Table5" displayName="Table5" ref="A1:P81" totalsRowShown="0">
-  <autoFilter ref="A1:P81" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Slope"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P81" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{212EC242-638E-4C2D-8A7C-290B2E57BD74}" name="id"/>
     <tableColumn id="2" xr3:uid="{0605D17D-53ED-4ED7-90F5-CA0A9CEFC8B9}" name="panel"/>
     <tableColumn id="3" xr3:uid="{B680CB48-28A5-4FB6-98AA-215E22B8B40F}" name="chart_title"/>
     <tableColumn id="4" xr3:uid="{FFEF5F92-2DF3-49A4-BD91-1FA7728CB677}" name="chart_subtitle"/>
     <tableColumn id="5" xr3:uid="{9C01E486-AAA9-4113-9F7C-DFED4772B00B}" name="var_id"/>
-    <tableColumn id="6" xr3:uid="{B447C55F-11C9-4234-9D1F-AF7936BEDF14}" name="reportValues" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B447C55F-11C9-4234-9D1F-AF7936BEDF14}" name="reportValues" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{3122E94D-312F-487C-A9AD-C0E5E1E51E5E}" name="panel_title"/>
     <tableColumn id="8" xr3:uid="{203C77AD-FB8E-4313-B49E-37F7B9468C14}" name="panel_subtitle"/>
     <tableColumn id="16" xr3:uid="{121C63F2-C904-48A6-9D20-EC47030AA9FA}" name="footnote"/>
@@ -1244,7 +1261,7 @@
     <tableColumn id="10" xr3:uid="{DDAEDC79-07D2-402E-81B5-2E1EFAA266FD}" name="legend_text"/>
     <tableColumn id="11" xr3:uid="{2349E397-D3E7-455F-B793-654DDB7A534C}" name="legend_color"/>
     <tableColumn id="12" xr3:uid="{6CA05E5D-08AE-4A36-A0AA-353E1F289F09}" name="sample"/>
-    <tableColumn id="13" xr3:uid="{BCA1C210-6FE1-4DDF-9357-7DAD0B831D61}" name="years" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{BCA1C210-6FE1-4DDF-9357-7DAD0B831D61}" name="years" dataDxfId="5"/>
     <tableColumn id="15" xr3:uid="{79FC7E8F-E231-444D-8CC2-A3A820DFD11C}" name="status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1671,7 +1688,7 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1947,7 +1964,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1959,7 +1976,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -2011,7 +2028,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2023,7 +2040,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -2267,7 +2284,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2279,7 +2296,7 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2843,7 +2860,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -2855,7 +2872,7 @@
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -3143,10 +3160,10 @@
   <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3199,7 +3216,7 @@
         <v>37</v>
       </c>
       <c r="K1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L1" t="s">
         <v>85</v>
@@ -3214,10 +3231,10 @@
         <v>231</v>
       </c>
       <c r="P1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3264,10 +3281,10 @@
         <v>2024</v>
       </c>
       <c r="P2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -3314,10 +3331,10 @@
         <v>2024</v>
       </c>
       <c r="P3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>232</v>
       </c>
@@ -3349,7 +3366,7 @@
         <v>258</v>
       </c>
       <c r="K4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L4" t="s">
         <v>190</v>
@@ -3364,10 +3381,10 @@
         <v>2024</v>
       </c>
       <c r="P4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>232</v>
       </c>
@@ -3399,7 +3416,7 @@
         <v>258</v>
       </c>
       <c r="K5" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L5" t="s">
         <v>190</v>
@@ -3414,10 +3431,10 @@
         <v>2024</v>
       </c>
       <c r="P5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -3449,7 +3466,7 @@
         <v>258</v>
       </c>
       <c r="K6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L6" t="s">
         <v>190</v>
@@ -3464,10 +3481,10 @@
         <v>2024</v>
       </c>
       <c r="P6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -3499,7 +3516,7 @@
         <v>263</v>
       </c>
       <c r="K7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
@@ -3514,10 +3531,10 @@
         <v>237</v>
       </c>
       <c r="P7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -3555,7 +3572,7 @@
         <v>289</v>
       </c>
       <c r="M8" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N8" t="s">
         <v>190</v>
@@ -3564,10 +3581,10 @@
         <v>289</v>
       </c>
       <c r="P8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>235</v>
       </c>
@@ -3614,10 +3631,10 @@
         <v>2024</v>
       </c>
       <c r="P9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -3631,7 +3648,7 @@
         <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>239</v>
@@ -3646,10 +3663,10 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K10" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -3664,10 +3681,10 @@
         <v>2024</v>
       </c>
       <c r="P10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3681,13 +3698,13 @@
         <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G11" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -3696,10 +3713,10 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K11" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L11" t="s">
         <v>12</v>
@@ -3714,10 +3731,10 @@
         <v>2024</v>
       </c>
       <c r="P11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -3731,13 +3748,13 @@
         <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G12" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -3746,10 +3763,10 @@
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K12" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
@@ -3764,10 +3781,10 @@
         <v>2024</v>
       </c>
       <c r="P12" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -3781,13 +3798,13 @@
         <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G13" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -3796,10 +3813,10 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K13" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
@@ -3814,10 +3831,10 @@
         <v>2024</v>
       </c>
       <c r="P13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -3831,7 +3848,7 @@
         <v>278</v>
       </c>
       <c r="E14" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>239</v>
@@ -3849,7 +3866,7 @@
         <v>260</v>
       </c>
       <c r="K14" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L14" t="s">
         <v>190</v>
@@ -3864,10 +3881,10 @@
         <v>2024</v>
       </c>
       <c r="P14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -3881,13 +3898,13 @@
         <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G15" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
@@ -3899,7 +3916,7 @@
         <v>260</v>
       </c>
       <c r="K15" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L15" t="s">
         <v>190</v>
@@ -3914,10 +3931,10 @@
         <v>2024</v>
       </c>
       <c r="P15" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -3931,13 +3948,13 @@
         <v>278</v>
       </c>
       <c r="E16" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G16" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
@@ -3949,7 +3966,7 @@
         <v>260</v>
       </c>
       <c r="K16" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L16" t="s">
         <v>190</v>
@@ -3964,10 +3981,10 @@
         <v>2024</v>
       </c>
       <c r="P16" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3981,13 +3998,13 @@
         <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G17" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -3999,7 +4016,7 @@
         <v>260</v>
       </c>
       <c r="K17" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L17" t="s">
         <v>190</v>
@@ -4014,10 +4031,10 @@
         <v>2024</v>
       </c>
       <c r="P17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -4064,10 +4081,10 @@
         <v>2024</v>
       </c>
       <c r="P18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -4099,7 +4116,7 @@
         <v>264</v>
       </c>
       <c r="K19" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L19" t="s">
         <v>190</v>
@@ -4114,10 +4131,10 @@
         <v>2024</v>
       </c>
       <c r="P19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -4128,7 +4145,7 @@
         <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E20" t="s">
         <v>241</v>
@@ -4149,7 +4166,7 @@
         <v>264</v>
       </c>
       <c r="K20" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L20" t="s">
         <v>190</v>
@@ -4164,10 +4181,10 @@
         <v>2024</v>
       </c>
       <c r="P20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>250</v>
       </c>
@@ -4199,7 +4216,7 @@
         <v>263</v>
       </c>
       <c r="K21" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L21" t="s">
         <v>12</v>
@@ -4214,10 +4231,10 @@
         <v>237</v>
       </c>
       <c r="P21" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -4264,10 +4281,10 @@
         <v>2024</v>
       </c>
       <c r="P22" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>240</v>
       </c>
@@ -4299,7 +4316,7 @@
         <v>258</v>
       </c>
       <c r="K23" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L23" t="s">
         <v>190</v>
@@ -4314,10 +4331,10 @@
         <v>2024</v>
       </c>
       <c r="P23" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -4349,7 +4366,7 @@
         <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L24" t="s">
         <v>190</v>
@@ -4364,10 +4381,10 @@
         <v>2024</v>
       </c>
       <c r="P24" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -4399,7 +4416,7 @@
         <v>258</v>
       </c>
       <c r="K25" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L25" t="s">
         <v>190</v>
@@ -4414,10 +4431,10 @@
         <v>2024</v>
       </c>
       <c r="P25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -4449,10 +4466,10 @@
         <v>262</v>
       </c>
       <c r="K26" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L26" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M26" t="s">
         <v>172</v>
@@ -4464,10 +4481,10 @@
         <v>2024</v>
       </c>
       <c r="P26" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -4499,10 +4516,10 @@
         <v>262</v>
       </c>
       <c r="K27" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L27" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M27" t="s">
         <v>172</v>
@@ -4514,10 +4531,10 @@
         <v>2024</v>
       </c>
       <c r="P27" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -4549,10 +4566,10 @@
         <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L28" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M28" t="s">
         <v>172</v>
@@ -4564,10 +4581,10 @@
         <v>2024</v>
       </c>
       <c r="P28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -4599,10 +4616,10 @@
         <v>262</v>
       </c>
       <c r="K29" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L29" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M29" t="s">
         <v>172</v>
@@ -4614,10 +4631,10 @@
         <v>2024</v>
       </c>
       <c r="P29" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -4649,10 +4666,10 @@
         <v>262</v>
       </c>
       <c r="K30" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L30" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M30" t="s">
         <v>172</v>
@@ -4664,7 +4681,7 @@
         <v>2024</v>
       </c>
       <c r="P30" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
@@ -4699,13 +4716,13 @@
         <v>243</v>
       </c>
       <c r="K31" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L31" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="M31" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="N31" t="s">
         <v>190</v>
@@ -4714,7 +4731,7 @@
         <v>289</v>
       </c>
       <c r="P31" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
@@ -4749,13 +4766,13 @@
         <v>243</v>
       </c>
       <c r="K32" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L32" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="M32" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="N32" t="s">
         <v>190</v>
@@ -4764,7 +4781,7 @@
         <v>289</v>
       </c>
       <c r="P32" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
@@ -4799,13 +4816,13 @@
         <v>243</v>
       </c>
       <c r="K33" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="M33" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="N33" t="s">
         <v>190</v>
@@ -4814,10 +4831,10 @@
         <v>289</v>
       </c>
       <c r="P33" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -4849,7 +4866,7 @@
         <v>263</v>
       </c>
       <c r="K34" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L34" t="s">
         <v>12</v>
@@ -4864,7 +4881,7 @@
         <v>237</v>
       </c>
       <c r="P34" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
@@ -4899,7 +4916,7 @@
         <v>243</v>
       </c>
       <c r="K35" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s">
         <v>190</v>
@@ -4914,10 +4931,10 @@
         <v>289</v>
       </c>
       <c r="P35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -4949,7 +4966,7 @@
         <v>263</v>
       </c>
       <c r="K36" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s">
         <v>12</v>
@@ -4964,7 +4981,7 @@
         <v>237</v>
       </c>
       <c r="P36" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
@@ -4999,7 +5016,7 @@
         <v>243</v>
       </c>
       <c r="K37" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s">
         <v>190</v>
@@ -5014,10 +5031,10 @@
         <v>289</v>
       </c>
       <c r="P37" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>293</v>
       </c>
@@ -5049,7 +5066,7 @@
         <v>263</v>
       </c>
       <c r="K38" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s">
         <v>12</v>
@@ -5064,10 +5081,10 @@
         <v>237</v>
       </c>
       <c r="P38" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>293</v>
       </c>
@@ -5099,7 +5116,7 @@
         <v>263</v>
       </c>
       <c r="K39" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L39" t="s">
         <v>12</v>
@@ -5114,10 +5131,10 @@
         <v>237</v>
       </c>
       <c r="P39" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>293</v>
       </c>
@@ -5149,7 +5166,7 @@
         <v>263</v>
       </c>
       <c r="K40" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s">
         <v>12</v>
@@ -5164,10 +5181,10 @@
         <v>237</v>
       </c>
       <c r="P40" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>293</v>
       </c>
@@ -5199,7 +5216,7 @@
         <v>263</v>
       </c>
       <c r="K41" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s">
         <v>12</v>
@@ -5214,10 +5231,10 @@
         <v>237</v>
       </c>
       <c r="P41" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>293</v>
       </c>
@@ -5249,7 +5266,7 @@
         <v>263</v>
       </c>
       <c r="K42" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L42" t="s">
         <v>12</v>
@@ -5264,10 +5281,10 @@
         <v>237</v>
       </c>
       <c r="P42" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>294</v>
       </c>
@@ -5299,7 +5316,7 @@
         <v>263</v>
       </c>
       <c r="K43" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L43" t="s">
         <v>12</v>
@@ -5314,10 +5331,10 @@
         <v>237</v>
       </c>
       <c r="P43" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>294</v>
       </c>
@@ -5349,7 +5366,7 @@
         <v>263</v>
       </c>
       <c r="K44" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L44" t="s">
         <v>12</v>
@@ -5364,10 +5381,10 @@
         <v>237</v>
       </c>
       <c r="P44" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>294</v>
       </c>
@@ -5399,7 +5416,7 @@
         <v>263</v>
       </c>
       <c r="K45" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s">
         <v>12</v>
@@ -5414,10 +5431,10 @@
         <v>237</v>
       </c>
       <c r="P45" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>294</v>
       </c>
@@ -5449,7 +5466,7 @@
         <v>263</v>
       </c>
       <c r="K46" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s">
         <v>12</v>
@@ -5464,10 +5481,10 @@
         <v>237</v>
       </c>
       <c r="P46" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>294</v>
       </c>
@@ -5499,7 +5516,7 @@
         <v>263</v>
       </c>
       <c r="K47" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L47" t="s">
         <v>12</v>
@@ -5514,10 +5531,10 @@
         <v>237</v>
       </c>
       <c r="P47" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>294</v>
       </c>
@@ -5549,7 +5566,7 @@
         <v>263</v>
       </c>
       <c r="K48" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L48" t="s">
         <v>12</v>
@@ -5564,10 +5581,10 @@
         <v>237</v>
       </c>
       <c r="P48" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -5599,7 +5616,7 @@
         <v>264</v>
       </c>
       <c r="K49" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L49" t="s">
         <v>190</v>
@@ -5614,10 +5631,10 @@
         <v>2024</v>
       </c>
       <c r="P49" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -5649,7 +5666,7 @@
         <v>263</v>
       </c>
       <c r="K50" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L50" t="s">
         <v>12</v>
@@ -5664,10 +5681,10 @@
         <v>237</v>
       </c>
       <c r="P50" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -5699,7 +5716,7 @@
         <v>263</v>
       </c>
       <c r="K51" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L51" t="s">
         <v>12</v>
@@ -5714,10 +5731,10 @@
         <v>237</v>
       </c>
       <c r="P51" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -5749,7 +5766,7 @@
         <v>263</v>
       </c>
       <c r="K52" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L52" t="s">
         <v>191</v>
@@ -5764,10 +5781,10 @@
         <v>237</v>
       </c>
       <c r="P52" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -5799,7 +5816,7 @@
         <v>263</v>
       </c>
       <c r="K53" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L53" t="s">
         <v>192</v>
@@ -5814,7 +5831,7 @@
         <v>237</v>
       </c>
       <c r="P53" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
@@ -5849,13 +5866,13 @@
         <v>243</v>
       </c>
       <c r="K54" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L54" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="M54" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N54" t="s">
         <v>190</v>
@@ -5864,7 +5881,7 @@
         <v>289</v>
       </c>
       <c r="P54" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
@@ -5899,13 +5916,13 @@
         <v>243</v>
       </c>
       <c r="K55" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L55" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="M55" t="s">
-        <v>102</v>
+        <v>304</v>
       </c>
       <c r="N55" t="s">
         <v>190</v>
@@ -5914,7 +5931,7 @@
         <v>289</v>
       </c>
       <c r="P55" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
@@ -5949,13 +5966,13 @@
         <v>243</v>
       </c>
       <c r="K56" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L56" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="M56" t="s">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="N56" t="s">
         <v>190</v>
@@ -5964,7 +5981,7 @@
         <v>289</v>
       </c>
       <c r="P56" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
@@ -5999,13 +6016,13 @@
         <v>243</v>
       </c>
       <c r="K57" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L57" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="M57" t="s">
-        <v>102</v>
+        <v>306</v>
       </c>
       <c r="N57" t="s">
         <v>190</v>
@@ -6014,7 +6031,7 @@
         <v>289</v>
       </c>
       <c r="P57" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
@@ -6049,13 +6066,13 @@
         <v>243</v>
       </c>
       <c r="K58" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L58" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="M58" t="s">
-        <v>102</v>
+        <v>307</v>
       </c>
       <c r="N58" t="s">
         <v>190</v>
@@ -6064,7 +6081,7 @@
         <v>289</v>
       </c>
       <c r="P58" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
@@ -6099,13 +6116,13 @@
         <v>243</v>
       </c>
       <c r="K59" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L59" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="M59" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="N59" t="s">
         <v>190</v>
@@ -6114,10 +6131,10 @@
         <v>289</v>
       </c>
       <c r="P59" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -6149,7 +6166,7 @@
         <v>263</v>
       </c>
       <c r="K60" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L60" t="s">
         <v>12</v>
@@ -6164,10 +6181,10 @@
         <v>237</v>
       </c>
       <c r="P60" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -6199,7 +6216,7 @@
         <v>263</v>
       </c>
       <c r="K61" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L61" t="s">
         <v>12</v>
@@ -6214,10 +6231,10 @@
         <v>237</v>
       </c>
       <c r="P61" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -6249,7 +6266,7 @@
         <v>263</v>
       </c>
       <c r="K62" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L62" t="s">
         <v>191</v>
@@ -6264,10 +6281,10 @@
         <v>237</v>
       </c>
       <c r="P62" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -6299,7 +6316,7 @@
         <v>263</v>
       </c>
       <c r="K63" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L63" t="s">
         <v>192</v>
@@ -6314,7 +6331,7 @@
         <v>237</v>
       </c>
       <c r="P63" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
@@ -6325,7 +6342,7 @@
         <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D64" t="s">
         <v>168</v>
@@ -6349,13 +6366,13 @@
         <v>243</v>
       </c>
       <c r="K64" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L64" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="M64" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N64" t="s">
         <v>190</v>
@@ -6364,7 +6381,7 @@
         <v>289</v>
       </c>
       <c r="P64" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
@@ -6375,19 +6392,19 @@
         <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D65" t="s">
         <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G65" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
@@ -6399,13 +6416,13 @@
         <v>243</v>
       </c>
       <c r="K65" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L65" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="M65" t="s">
-        <v>102</v>
+        <v>304</v>
       </c>
       <c r="N65" t="s">
         <v>190</v>
@@ -6414,7 +6431,7 @@
         <v>289</v>
       </c>
       <c r="P65" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
@@ -6425,13 +6442,13 @@
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D66" t="s">
         <v>168</v>
       </c>
       <c r="E66" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>239</v>
@@ -6449,13 +6466,13 @@
         <v>243</v>
       </c>
       <c r="K66" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L66" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="M66" t="s">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="N66" t="s">
         <v>190</v>
@@ -6464,7 +6481,7 @@
         <v>289</v>
       </c>
       <c r="P66" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
@@ -6475,13 +6492,13 @@
         <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D67" t="s">
         <v>168</v>
       </c>
       <c r="E67" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>239</v>
@@ -6499,13 +6516,13 @@
         <v>243</v>
       </c>
       <c r="K67" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L67" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="M67" t="s">
-        <v>102</v>
+        <v>306</v>
       </c>
       <c r="N67" t="s">
         <v>190</v>
@@ -6514,7 +6531,7 @@
         <v>289</v>
       </c>
       <c r="P67" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
@@ -6525,13 +6542,13 @@
         <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D68" t="s">
         <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>239</v>
@@ -6549,13 +6566,13 @@
         <v>243</v>
       </c>
       <c r="K68" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L68" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="M68" t="s">
-        <v>102</v>
+        <v>307</v>
       </c>
       <c r="N68" t="s">
         <v>190</v>
@@ -6564,7 +6581,7 @@
         <v>289</v>
       </c>
       <c r="P68" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
@@ -6575,13 +6592,13 @@
         <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D69" t="s">
         <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>239</v>
@@ -6599,13 +6616,13 @@
         <v>243</v>
       </c>
       <c r="K69" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L69" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="M69" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="N69" t="s">
         <v>190</v>
@@ -6614,10 +6631,10 @@
         <v>289</v>
       </c>
       <c r="P69" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -6649,13 +6666,13 @@
         <v>261</v>
       </c>
       <c r="K70" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>289</v>
       </c>
       <c r="M70" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N70" t="s">
         <v>131</v>
@@ -6664,10 +6681,10 @@
         <v>289</v>
       </c>
       <c r="P70" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -6699,13 +6716,13 @@
         <v>261</v>
       </c>
       <c r="K71" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>289</v>
       </c>
       <c r="M71" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N71" t="s">
         <v>131</v>
@@ -6714,10 +6731,10 @@
         <v>289</v>
       </c>
       <c r="P71" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -6749,13 +6766,13 @@
         <v>261</v>
       </c>
       <c r="K72" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>289</v>
       </c>
       <c r="M72" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N72" t="s">
         <v>131</v>
@@ -6764,10 +6781,10 @@
         <v>289</v>
       </c>
       <c r="P72" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -6799,7 +6816,7 @@
         <v>260</v>
       </c>
       <c r="K73" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>190</v>
@@ -6814,10 +6831,10 @@
         <v>2024</v>
       </c>
       <c r="P73" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -6849,7 +6866,7 @@
         <v>260</v>
       </c>
       <c r="K74" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L74" t="s">
         <v>190</v>
@@ -6864,10 +6881,10 @@
         <v>2024</v>
       </c>
       <c r="P74" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>63</v>
       </c>
@@ -6899,7 +6916,7 @@
         <v>260</v>
       </c>
       <c r="K75" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L75" t="s">
         <v>190</v>
@@ -6914,10 +6931,10 @@
         <v>2024</v>
       </c>
       <c r="P75" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>64</v>
       </c>
@@ -6949,7 +6966,7 @@
         <v>263</v>
       </c>
       <c r="K76" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L76" t="s">
         <v>193</v>
@@ -6964,10 +6981,10 @@
         <v>237</v>
       </c>
       <c r="P76" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>64</v>
       </c>
@@ -6999,7 +7016,7 @@
         <v>263</v>
       </c>
       <c r="K77" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L77" t="s">
         <v>193</v>
@@ -7014,10 +7031,10 @@
         <v>237</v>
       </c>
       <c r="P77" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -7049,7 +7066,7 @@
         <v>263</v>
       </c>
       <c r="K78" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L78" t="s">
         <v>193</v>
@@ -7064,12 +7081,12 @@
         <v>237</v>
       </c>
       <c r="P78" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B79" t="s">
         <v>87</v>
@@ -7099,7 +7116,7 @@
         <v>243</v>
       </c>
       <c r="K79" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L79" t="s">
         <v>190</v>
@@ -7114,12 +7131,12 @@
         <v>289</v>
       </c>
       <c r="P79" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
@@ -7149,7 +7166,7 @@
         <v>243</v>
       </c>
       <c r="K80" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L80" t="s">
         <v>190</v>
@@ -7164,12 +7181,12 @@
         <v>289</v>
       </c>
       <c r="P80" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B81" t="s">
         <v>94</v>
@@ -7199,7 +7216,7 @@
         <v>243</v>
       </c>
       <c r="K81" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L81" t="s">
         <v>190</v>
@@ -7214,7 +7231,7 @@
         <v>289</v>
       </c>
       <c r="P81" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
@@ -7318,17 +7335,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -7577,6 +7583,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7587,17 +7604,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1EE7D2B-72B9-4B29-A99A-A2518AB2EE2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99B8D699-284D-4873-A808-FFD96E111D58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7616,6 +7622,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1EE7D2B-72B9-4B29-A99A-A2518AB2EE2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
   <ds:schemaRefs>

--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2368" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5B7AABA-4778-4086-AB74-0670AC003B8F}"/>
+  <xr:revisionPtr revIDLastSave="2430" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B88830DE-2094-4983-92AF-B47626DDFCD0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
   <sheets>
     <sheet name="general_info" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="341">
   <si>
     <t>Cover</t>
   </si>
@@ -767,9 +767,6 @@
     <t>Figure_11</t>
   </si>
   <si>
-    <t xml:space="preserve"> USA_q22a_G2, USA_q22b_G2, USA_q22c_G2, USA_q22d_G2, USA_q22e_G2, USA_q22g</t>
-  </si>
-  <si>
     <t>1, 2, 3</t>
   </si>
   <si>
@@ -845,9 +842,6 @@
     <t>singlepanel</t>
   </si>
   <si>
-    <t>dash</t>
-  </si>
-  <si>
     <t>tripanel</t>
   </si>
   <si>
@@ -956,21 +950,6 @@
     <t>q2g</t>
   </si>
   <si>
-    <t>#2a2a95</t>
-  </si>
-  <si>
-    <t>#2a2a96</t>
-  </si>
-  <si>
-    <t>#2a2a97</t>
-  </si>
-  <si>
-    <t>#2a2a98</t>
-  </si>
-  <si>
-    <t>#2a2a99</t>
-  </si>
-  <si>
     <t>Figure_24</t>
   </si>
   <si>
@@ -1071,6 +1050,21 @@
   </si>
   <si>
     <t>q1g</t>
+  </si>
+  <si>
+    <t>USA_q22a_G2, USA_q22b_G2, USA_q22c_G2, USA_q22d_G2, USA_q22e_G2, USA_q22g</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source: WJP General Population Poll 2024</t>
+  </si>
+  <si>
+    <t>Source: WJP General Population Poll 2014, 2016, 2017, 2018, 2021, and 2024</t>
+  </si>
+  <si>
+    <t>Source: WJP General Population Poll 2021 and 2024</t>
   </si>
 </sst>
 </file>
@@ -1181,13 +1175,13 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1205,14 +1199,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA9653AC-F8C3-401C-B349-891D4FF1F533}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0">
   <autoFilter ref="A1:B6" xr:uid="{BA9653AC-F8C3-401C-B349-891D4FF1F533}"/>
@@ -1225,7 +1211,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}" name="Table1" displayName="Table1" ref="A1:J46" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}" name="Table1" displayName="Table1" ref="A1:J46" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:J46" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{D1E86754-498B-4449-AF9C-7F6F91357B29}" name="id"/>
@@ -1237,31 +1223,32 @@
     <tableColumn id="6" xr3:uid="{D78F8B52-A191-41B0-8464-081D07493BD3}" name="section_page"/>
     <tableColumn id="7" xr3:uid="{2C08080F-B5E5-4917-A6E2-1E8583610D91}" name="has_subsection"/>
     <tableColumn id="8" xr3:uid="{268CABA1-2A43-438A-A7EF-385670D18802}" name="thematic_findings"/>
-    <tableColumn id="13" xr3:uid="{4E95668B-FEB8-484F-BB19-1E0983B005D7}" name="macro" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{4E95668B-FEB8-484F-BB19-1E0983B005D7}" name="macro" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}" name="Table5" displayName="Table5" ref="A1:P81" totalsRowShown="0">
-  <autoFilter ref="A1:P81" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}" name="Table5" displayName="Table5" ref="A1:Q81" totalsRowShown="0">
+  <autoFilter ref="A1:Q81" xr:uid="{92034C10-9C61-4F8C-87F0-421ACDF97633}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{212EC242-638E-4C2D-8A7C-290B2E57BD74}" name="id"/>
     <tableColumn id="2" xr3:uid="{0605D17D-53ED-4ED7-90F5-CA0A9CEFC8B9}" name="panel"/>
     <tableColumn id="3" xr3:uid="{B680CB48-28A5-4FB6-98AA-215E22B8B40F}" name="chart_title"/>
     <tableColumn id="4" xr3:uid="{FFEF5F92-2DF3-49A4-BD91-1FA7728CB677}" name="chart_subtitle"/>
     <tableColumn id="5" xr3:uid="{9C01E486-AAA9-4113-9F7C-DFED4772B00B}" name="var_id"/>
-    <tableColumn id="6" xr3:uid="{B447C55F-11C9-4234-9D1F-AF7936BEDF14}" name="reportValues" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{B447C55F-11C9-4234-9D1F-AF7936BEDF14}" name="reportValues" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{3122E94D-312F-487C-A9AD-C0E5E1E51E5E}" name="panel_title"/>
     <tableColumn id="8" xr3:uid="{203C77AD-FB8E-4313-B49E-37F7B9468C14}" name="panel_subtitle"/>
+    <tableColumn id="17" xr3:uid="{075D5883-CEDB-4E49-AE00-156099EEA3F3}" name="source"/>
     <tableColumn id="16" xr3:uid="{121C63F2-C904-48A6-9D20-EC47030AA9FA}" name="footnote"/>
     <tableColumn id="9" xr3:uid="{5273962B-B3E2-440F-8940-B09D8F61305B}" name="type"/>
     <tableColumn id="14" xr3:uid="{EC03CCD6-A19A-460C-A5B2-E18BBA34F967}" name="label_at"/>
     <tableColumn id="10" xr3:uid="{DDAEDC79-07D2-402E-81B5-2E1EFAA266FD}" name="legend_text"/>
     <tableColumn id="11" xr3:uid="{2349E397-D3E7-455F-B793-654DDB7A534C}" name="legend_color"/>
     <tableColumn id="12" xr3:uid="{6CA05E5D-08AE-4A36-A0AA-353E1F289F09}" name="sample"/>
-    <tableColumn id="13" xr3:uid="{BCA1C210-6FE1-4DDF-9357-7DAD0B831D61}" name="years" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{BCA1C210-6FE1-4DDF-9357-7DAD0B831D61}" name="years" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{79FC7E8F-E231-444D-8CC2-A3A820DFD11C}" name="status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1591,13 +1578,13 @@
       <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="99.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="99.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1605,7 +1592,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1613,7 +1600,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1621,7 +1608,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1629,7 +1616,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -1637,7 +1624,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -1657,24 +1644,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E524A5-001D-41D7-83FE-232B11FD9C08}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.08984375" customWidth="1"/>
-    <col min="3" max="3" width="52.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1688,7 +1675,7 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1706,7 +1693,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +1725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1770,7 +1757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1802,7 +1789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1834,7 +1821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1866,7 +1853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1898,7 +1885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -1930,7 +1917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1962,9 +1949,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1976,7 +1963,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1991,10 +1978,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -2023,12 +2010,12 @@
         <v>1</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2040,7 +2027,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -2055,10 +2042,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -2090,7 +2077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -2119,10 +2106,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2151,10 +2138,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2183,10 +2170,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -2215,10 +2202,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2247,10 +2234,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2279,12 +2266,12 @@
         <v>1</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2296,7 +2283,7 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2311,10 +2298,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>240</v>
       </c>
@@ -2343,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -2375,10 +2362,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -2410,7 +2397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2439,10 +2426,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2471,12 +2458,12 @@
         <v>1</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -2488,7 +2475,7 @@
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -2503,12 +2490,12 @@
         <v>1</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -2520,7 +2507,7 @@
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2535,10 +2522,10 @@
         <v>1</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -2567,10 +2554,10 @@
         <v>1</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -2602,7 +2589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2631,10 +2618,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2663,10 +2650,10 @@
         <v>1</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2695,10 +2682,10 @@
         <v>1</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -2727,10 +2714,10 @@
         <v>1</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2762,7 +2749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -2791,10 +2778,10 @@
         <v>1</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -2823,10 +2810,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -2855,12 +2842,12 @@
         <v>1</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -2872,7 +2859,7 @@
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2890,7 +2877,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -2922,7 +2909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2954,7 +2941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -2986,7 +2973,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -3018,7 +3005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -3050,7 +3037,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -3082,7 +3069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -3114,7 +3101,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -3157,34 +3144,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEE3254-54E8-4BFF-9B28-6E5AF3AF9A29}">
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomRight" activeCell="K79" sqref="K79:K81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
-    <col min="8" max="9" width="15.453125" customWidth="1"/>
-    <col min="10" max="10" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" customWidth="1"/>
-    <col min="13" max="13" width="14.08984375" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.08984375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3192,10 +3181,10 @@
         <v>84</v>
       </c>
       <c r="C1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" t="s">
         <v>248</v>
-      </c>
-      <c r="D1" t="s">
-        <v>249</v>
       </c>
       <c r="E1" t="s">
         <v>41</v>
@@ -3204,37 +3193,40 @@
         <v>35</v>
       </c>
       <c r="G1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H1" t="s">
         <v>245</v>
       </c>
-      <c r="H1" t="s">
-        <v>246</v>
-      </c>
       <c r="I1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
-        <v>317</v>
-      </c>
       <c r="L1" t="s">
+        <v>310</v>
+      </c>
+      <c r="M1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>86</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>230</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>231</v>
       </c>
-      <c r="P1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3260,36 +3252,39 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>91</v>
       </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
       <c r="L2" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O2" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>2024</v>
       </c>
-      <c r="P2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>92</v>
@@ -3310,31 +3305,34 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
         <v>91</v>
       </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
       <c r="L3" t="s">
         <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="N3" t="s">
+        <v>254</v>
+      </c>
+      <c r="O3" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>2024</v>
       </c>
-      <c r="P3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>232</v>
       </c>
@@ -3342,10 +3340,10 @@
         <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E4" t="s">
         <v>196</v>
@@ -3354,37 +3352,40 @@
         <v>239</v>
       </c>
       <c r="G4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J4" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="L4" t="s">
+        <v>311</v>
+      </c>
+      <c r="M4" t="s">
         <v>190</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>102</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>190</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>2024</v>
       </c>
-      <c r="P4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>232</v>
       </c>
@@ -3392,10 +3393,10 @@
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E5" t="s">
         <v>233</v>
@@ -3410,31 +3411,34 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J5" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="L5" t="s">
+        <v>311</v>
+      </c>
+      <c r="M5" t="s">
         <v>190</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>117</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>190</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>2024</v>
       </c>
-      <c r="P5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -3442,10 +3446,10 @@
         <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E6" t="s">
         <v>234</v>
@@ -3460,31 +3464,34 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J6" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="L6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M6" t="s">
         <v>190</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>118</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>190</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>2024</v>
       </c>
-      <c r="P6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -3510,36 +3517,39 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J7" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
         <v>106</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>131</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>101</v>
@@ -3560,31 +3570,34 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J8" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M8" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="N8" t="s">
+        <v>309</v>
+      </c>
+      <c r="O8" t="s">
+        <v>190</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q8" t="s">
         <v>316</v>
       </c>
-      <c r="N8" t="s">
-        <v>190</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>235</v>
       </c>
@@ -3592,7 +3605,7 @@
         <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -3609,15 +3622,15 @@
       <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>12</v>
+      <c r="I9" t="s">
+        <v>338</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="L9" s="2" t="s">
         <v>12</v>
       </c>
@@ -3625,16 +3638,19 @@
         <v>12</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2024</v>
       </c>
-      <c r="P9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -3645,10 +3661,10 @@
         <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E10" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>239</v>
@@ -3660,31 +3676,34 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J10" t="s">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>319</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
         <v>106</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>131</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>2024</v>
       </c>
-      <c r="P10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3695,46 +3714,49 @@
         <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E11" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J11" t="s">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
         <v>319</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
         <v>106</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>131</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>2024</v>
       </c>
-      <c r="P11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -3745,46 +3767,49 @@
         <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G12" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J12" t="s">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
         <v>319</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s">
         <v>106</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>131</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>2024</v>
       </c>
-      <c r="P12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -3795,46 +3820,49 @@
         <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E13" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G13" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J13" t="s">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s">
         <v>319</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="M13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
         <v>106</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>131</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>2024</v>
       </c>
-      <c r="P13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -3845,10 +3873,10 @@
         <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E14" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>239</v>
@@ -3860,31 +3888,34 @@
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J14" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="L14" t="s">
+        <v>312</v>
+      </c>
+      <c r="M14" t="s">
         <v>190</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>102</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>190</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>2024</v>
       </c>
-      <c r="P14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -3895,46 +3926,49 @@
         <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E15" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G15" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J15" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="L15" t="s">
+        <v>312</v>
+      </c>
+      <c r="M15" t="s">
         <v>190</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>102</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>190</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>2024</v>
       </c>
-      <c r="P15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -3945,46 +3979,49 @@
         <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E16" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G16" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J16" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="L16" t="s">
+        <v>312</v>
+      </c>
+      <c r="M16" t="s">
         <v>190</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>102</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>190</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>2024</v>
       </c>
-      <c r="P16" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3995,46 +4032,49 @@
         <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E17" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G17" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J17" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="L17" t="s">
+        <v>312</v>
+      </c>
+      <c r="M17" t="s">
         <v>190</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>102</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>190</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>2024</v>
       </c>
-      <c r="P17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -4042,7 +4082,7 @@
         <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
@@ -4059,15 +4099,15 @@
       <c r="H18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>12</v>
+      <c r="I18" t="s">
+        <v>338</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="L18" s="2" t="s">
         <v>12</v>
       </c>
@@ -4075,16 +4115,19 @@
         <v>12</v>
       </c>
       <c r="N18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2024</v>
       </c>
-      <c r="P18" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -4095,7 +4138,7 @@
         <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E19" t="s">
         <v>198</v>
@@ -4110,31 +4153,34 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J19" t="s">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="K19" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="L19" t="s">
+        <v>312</v>
+      </c>
+      <c r="M19" t="s">
         <v>190</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>102</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>190</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>2024</v>
       </c>
-      <c r="P19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -4145,10 +4191,10 @@
         <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E20" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>239</v>
@@ -4160,33 +4206,36 @@
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J20" t="s">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="K20" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="L20" t="s">
+        <v>312</v>
+      </c>
+      <c r="M20" t="s">
         <v>190</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>102</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>190</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>2024</v>
       </c>
-      <c r="P20" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -4195,7 +4244,7 @@
         <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E21" t="s">
         <v>123</v>
@@ -4210,42 +4259,45 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J21" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K21" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" t="s">
         <v>106</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>131</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P21" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
         <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E22" t="s">
         <v>199</v>
@@ -4260,31 +4312,34 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J22" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L22" t="s">
+        <v>256</v>
+      </c>
+      <c r="M22" t="s">
         <v>190</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>102</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>190</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>2024</v>
       </c>
-      <c r="P22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>240</v>
       </c>
@@ -4292,49 +4347,52 @@
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E23" t="s">
         <v>200</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J23" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="K23" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="L23" t="s">
+        <v>311</v>
+      </c>
+      <c r="M23" t="s">
         <v>190</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>102</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>190</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>2024</v>
       </c>
-      <c r="P23" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -4342,10 +4400,10 @@
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E24" t="s">
         <v>201</v>
@@ -4354,37 +4412,40 @@
         <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J24" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="K24" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="L24" t="s">
+        <v>311</v>
+      </c>
+      <c r="M24" t="s">
         <v>190</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>102</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>190</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>2024</v>
       </c>
-      <c r="P24" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -4392,10 +4453,10 @@
         <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E25" t="s">
         <v>202</v>
@@ -4404,37 +4465,40 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J25" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="K25" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s">
+        <v>311</v>
+      </c>
+      <c r="M25" t="s">
         <v>190</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>102</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>190</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>2024</v>
       </c>
-      <c r="P25" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -4460,31 +4524,34 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J26" t="s">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="K26" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="M26" t="s">
+        <v>317</v>
+      </c>
+      <c r="N26" t="s">
         <v>172</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>131</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>2024</v>
       </c>
-      <c r="P26" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -4510,31 +4577,34 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J27" t="s">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="K27" t="s">
+        <v>261</v>
+      </c>
+      <c r="L27" t="s">
+        <v>311</v>
+      </c>
+      <c r="M27" t="s">
         <v>318</v>
       </c>
-      <c r="L27" t="s">
-        <v>325</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>172</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>131</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <v>2024</v>
       </c>
-      <c r="P27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -4560,31 +4630,34 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="K28" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="M28" t="s">
+        <v>317</v>
+      </c>
+      <c r="N28" t="s">
         <v>172</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>131</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="1">
         <v>2024</v>
       </c>
-      <c r="P28" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -4610,31 +4683,34 @@
         <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J29" t="s">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="K29" t="s">
+        <v>261</v>
+      </c>
+      <c r="L29" t="s">
+        <v>311</v>
+      </c>
+      <c r="M29" t="s">
         <v>318</v>
       </c>
-      <c r="L29" t="s">
-        <v>325</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>172</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>131</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <v>2024</v>
       </c>
-      <c r="P29" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -4660,31 +4736,34 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J30" t="s">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="K30" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30" t="s">
+        <v>311</v>
+      </c>
+      <c r="M30" t="s">
         <v>318</v>
       </c>
-      <c r="L30" t="s">
-        <v>325</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>172</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>131</v>
       </c>
-      <c r="O30" s="1">
+      <c r="P30" s="1">
         <v>2024</v>
       </c>
-      <c r="P30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q30" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -4695,46 +4774,49 @@
         <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E31" t="s">
         <v>203</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J31" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K31" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" t="s">
         <v>172</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>190</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P31" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P31" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -4745,46 +4827,49 @@
         <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E32" t="s">
         <v>204</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G32" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>340</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s">
+        <v>311</v>
+      </c>
+      <c r="M32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" t="s">
+        <v>172</v>
+      </c>
+      <c r="O32" t="s">
+        <v>190</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" t="s">
-        <v>243</v>
-      </c>
-      <c r="K32" t="s">
-        <v>318</v>
-      </c>
-      <c r="L32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" t="s">
-        <v>172</v>
-      </c>
-      <c r="N32" t="s">
-        <v>190</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P32" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -4795,7 +4880,7 @@
         <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E33" t="s">
         <v>205</v>
@@ -4804,37 +4889,40 @@
         <v>239</v>
       </c>
       <c r="G33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J33" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K33" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L33" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" t="s">
         <v>172</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>190</v>
       </c>
-      <c r="O33" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P33" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -4845,7 +4933,7 @@
         <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E34" t="s">
         <v>208</v>
@@ -4860,31 +4948,34 @@
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J34" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K34" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L34" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" t="s">
         <v>106</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>131</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P34" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -4895,7 +4986,7 @@
         <v>128</v>
       </c>
       <c r="D35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E35" t="s">
         <v>208</v>
@@ -4910,31 +5001,34 @@
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J35" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K35" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L35" t="s">
+        <v>311</v>
+      </c>
+      <c r="M35" t="s">
         <v>190</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>102</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>190</v>
       </c>
-      <c r="O35" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P35" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P35" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -4945,7 +5039,7 @@
         <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E36" t="s">
         <v>209</v>
@@ -4960,31 +5054,34 @@
         <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J36" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K36" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L36" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" t="s">
         <v>106</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>131</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P36" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -4995,7 +5092,7 @@
         <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E37" t="s">
         <v>209</v>
@@ -5010,33 +5107,36 @@
         <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J37" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K37" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L37" t="s">
+        <v>311</v>
+      </c>
+      <c r="M37" t="s">
         <v>190</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>102</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>190</v>
       </c>
-      <c r="O37" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P37" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P37" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B38" t="s">
         <v>87</v>
@@ -5060,33 +5160,36 @@
         <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J38" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K38" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L38" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M38" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" t="s">
         <v>106</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>131</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P38" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B39" t="s">
         <v>88</v>
@@ -5110,33 +5213,36 @@
         <v>141</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J39" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K39" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L39" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" t="s">
         <v>106</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>131</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P39" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q39" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
@@ -5160,33 +5266,36 @@
         <v>142</v>
       </c>
       <c r="I40" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J40" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K40" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L40" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" t="s">
         <v>106</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>131</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P40" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B41" t="s">
         <v>114</v>
@@ -5210,33 +5319,36 @@
         <v>143</v>
       </c>
       <c r="I41" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J41" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K41" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L41" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" t="s">
         <v>106</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>131</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P41" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B42" t="s">
         <v>126</v>
@@ -5260,33 +5372,36 @@
         <v>144</v>
       </c>
       <c r="I42" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J42" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K42" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L42" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M42" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" t="s">
         <v>106</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>131</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P42" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B43" t="s">
         <v>135</v>
@@ -5310,33 +5425,36 @@
         <v>150</v>
       </c>
       <c r="I43" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J43" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K43" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L43" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M43" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" t="s">
         <v>106</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>131</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P43" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q43" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s">
         <v>136</v>
@@ -5360,33 +5478,36 @@
         <v>151</v>
       </c>
       <c r="I44" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J44" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K44" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L44" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M44" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" t="s">
         <v>106</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>131</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="P44" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P44" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q44" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s">
         <v>137</v>
@@ -5410,33 +5531,36 @@
         <v>152</v>
       </c>
       <c r="I45" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J45" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K45" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L45" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" t="s">
         <v>106</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>131</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P45" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s">
         <v>134</v>
@@ -5460,33 +5584,36 @@
         <v>146</v>
       </c>
       <c r="I46" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J46" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K46" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L46" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" t="s">
         <v>106</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>131</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="P46" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P46" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B47" t="s">
         <v>138</v>
@@ -5510,33 +5637,36 @@
         <v>147</v>
       </c>
       <c r="I47" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J47" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K47" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L47" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M47" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" t="s">
         <v>106</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>131</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P47" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q47" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s">
         <v>139</v>
@@ -5560,31 +5690,34 @@
         <v>153</v>
       </c>
       <c r="I48" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J48" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K48" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L48" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M48" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" t="s">
         <v>106</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>131</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="P48" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P48" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q48" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -5610,31 +5743,34 @@
         <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J49" t="s">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="K49" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="L49" t="s">
+        <v>312</v>
+      </c>
+      <c r="M49" t="s">
         <v>190</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>102</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>190</v>
       </c>
-      <c r="O49" s="1">
+      <c r="P49" s="1">
         <v>2024</v>
       </c>
-      <c r="P49" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q49" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -5645,13 +5781,13 @@
         <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E50" t="s">
         <v>159</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G50" t="s">
         <v>161</v>
@@ -5660,31 +5796,34 @@
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J50" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K50" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L50" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M50" t="s">
+        <v>12</v>
+      </c>
+      <c r="N50" t="s">
         <v>106</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>131</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P50" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q50" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -5695,13 +5834,13 @@
         <v>158</v>
       </c>
       <c r="D51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E51" t="s">
         <v>160</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G51" t="s">
         <v>162</v>
@@ -5710,31 +5849,34 @@
         <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J51" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K51" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L51" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M51" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" t="s">
         <v>106</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>131</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="P51" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P51" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q51" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -5745,13 +5887,13 @@
         <v>158</v>
       </c>
       <c r="D52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E52" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G52" t="s">
         <v>163</v>
@@ -5760,31 +5902,34 @@
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J52" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K52" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L52" t="s">
+        <v>311</v>
+      </c>
+      <c r="M52" t="s">
         <v>191</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>164</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>131</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="P52" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P52" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q52" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -5795,13 +5940,13 @@
         <v>158</v>
       </c>
       <c r="D53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E53" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G53" t="s">
         <v>166</v>
@@ -5810,31 +5955,34 @@
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J53" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K53" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L53" t="s">
+        <v>311</v>
+      </c>
+      <c r="M53" t="s">
         <v>192</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>165</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>131</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="P53" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P53" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q53" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -5842,16 +5990,16 @@
         <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E54" t="s">
         <v>159</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G54" t="s">
         <v>161</v>
@@ -5860,31 +6008,34 @@
         <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J54" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K54" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L54" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M54" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="N54" t="s">
+        <v>102</v>
+      </c>
+      <c r="O54" t="s">
         <v>190</v>
       </c>
-      <c r="O54" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P54" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P54" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -5892,16 +6043,16 @@
         <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E55" t="s">
         <v>160</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G55" t="s">
         <v>162</v>
@@ -5910,31 +6061,34 @@
         <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J55" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K55" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L55" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M55" t="s">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="N55" t="s">
+        <v>102</v>
+      </c>
+      <c r="O55" t="s">
         <v>190</v>
       </c>
-      <c r="O55" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P55" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P55" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -5942,49 +6096,52 @@
         <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E56" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G56" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H56" t="s">
         <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J56" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K56" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L56" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M56" t="s">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="N56" t="s">
+        <v>102</v>
+      </c>
+      <c r="O56" t="s">
         <v>190</v>
       </c>
-      <c r="O56" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P56" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P56" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -5992,49 +6149,52 @@
         <v>114</v>
       </c>
       <c r="C57" t="s">
+        <v>293</v>
+      </c>
+      <c r="D57" t="s">
+        <v>253</v>
+      </c>
+      <c r="E57" t="s">
         <v>295</v>
       </c>
-      <c r="D57" t="s">
-        <v>254</v>
-      </c>
-      <c r="E57" t="s">
-        <v>297</v>
-      </c>
       <c r="F57" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G57" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H57" t="s">
         <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J57" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K57" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L57" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M57" t="s">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="N57" t="s">
+        <v>102</v>
+      </c>
+      <c r="O57" t="s">
         <v>190</v>
       </c>
-      <c r="O57" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P57" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P57" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -6042,49 +6202,52 @@
         <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E58" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G58" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H58" t="s">
         <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J58" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K58" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L58" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M58" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="N58" t="s">
+        <v>102</v>
+      </c>
+      <c r="O58" t="s">
         <v>190</v>
       </c>
-      <c r="O58" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P58" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P58" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -6092,49 +6255,52 @@
         <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E59" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G59" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H59" t="s">
         <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J59" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K59" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L59" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M59" t="s">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="N59" t="s">
+        <v>102</v>
+      </c>
+      <c r="O59" t="s">
         <v>190</v>
       </c>
-      <c r="O59" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P59" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P59" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -6160,31 +6326,34 @@
         <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J60" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K60" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L60" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M60" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" t="s">
         <v>106</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>131</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="P60" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P60" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q60" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -6210,31 +6379,34 @@
         <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J61" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K61" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L61" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M61" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" t="s">
         <v>106</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>131</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="P61" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P61" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q61" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -6260,31 +6432,34 @@
         <v>12</v>
       </c>
       <c r="I62" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J62" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K62" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L62" t="s">
+        <v>311</v>
+      </c>
+      <c r="M62" t="s">
         <v>191</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>164</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>131</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="P62" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P62" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q62" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -6298,7 +6473,7 @@
         <v>168</v>
       </c>
       <c r="E63" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>239</v>
@@ -6310,31 +6485,34 @@
         <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J63" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K63" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L63" t="s">
+        <v>311</v>
+      </c>
+      <c r="M63" t="s">
         <v>192</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>165</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>131</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="P63" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P63" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q63" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -6342,7 +6520,7 @@
         <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D64" t="s">
         <v>168</v>
@@ -6360,31 +6538,34 @@
         <v>12</v>
       </c>
       <c r="I64" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J64" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K64" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L64" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M64" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="N64" t="s">
+        <v>102</v>
+      </c>
+      <c r="O64" t="s">
         <v>190</v>
       </c>
-      <c r="O64" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P64" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P64" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -6392,49 +6573,52 @@
         <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D65" t="s">
         <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G65" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
       </c>
       <c r="I65" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J65" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K65" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L65" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M65" t="s">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="N65" t="s">
+        <v>102</v>
+      </c>
+      <c r="O65" t="s">
         <v>190</v>
       </c>
-      <c r="O65" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P65" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P65" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -6442,49 +6626,52 @@
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D66" t="s">
         <v>168</v>
       </c>
       <c r="E66" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J66" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K66" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L66" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M66" t="s">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="N66" t="s">
+        <v>102</v>
+      </c>
+      <c r="O66" t="s">
         <v>190</v>
       </c>
-      <c r="O66" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P66" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P66" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -6492,49 +6679,52 @@
         <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D67" t="s">
         <v>168</v>
       </c>
       <c r="E67" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G67" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J67" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K67" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L67" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M67" t="s">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="N67" t="s">
+        <v>102</v>
+      </c>
+      <c r="O67" t="s">
         <v>190</v>
       </c>
-      <c r="O67" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P67" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P67" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -6542,49 +6732,52 @@
         <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D68" t="s">
         <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G68" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H68" t="s">
         <v>12</v>
       </c>
       <c r="I68" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J68" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K68" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L68" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M68" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="N68" t="s">
+        <v>102</v>
+      </c>
+      <c r="O68" t="s">
         <v>190</v>
       </c>
-      <c r="O68" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P68" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P68" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>61</v>
       </c>
@@ -6592,49 +6785,52 @@
         <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D69" t="s">
         <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G69" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H69" t="s">
         <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J69" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K69" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L69" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M69" t="s">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="N69" t="s">
+        <v>102</v>
+      </c>
+      <c r="O69" t="s">
         <v>190</v>
       </c>
-      <c r="O69" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P69" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P69" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -6648,7 +6844,7 @@
         <v>174</v>
       </c>
       <c r="E70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>239</v>
@@ -6660,31 +6856,34 @@
         <v>179</v>
       </c>
       <c r="I70" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J70" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="K70" t="s">
-        <v>319</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M70" t="s">
+        <v>260</v>
+      </c>
+      <c r="L70" t="s">
+        <v>312</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="N70" t="s">
+        <v>309</v>
+      </c>
+      <c r="O70" t="s">
+        <v>131</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q70" t="s">
         <v>316</v>
       </c>
-      <c r="N70" t="s">
-        <v>131</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P70" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -6710,31 +6909,34 @@
         <v>179</v>
       </c>
       <c r="I71" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J71" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="K71" t="s">
-        <v>319</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M71" t="s">
+        <v>260</v>
+      </c>
+      <c r="L71" t="s">
+        <v>312</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="N71" t="s">
+        <v>309</v>
+      </c>
+      <c r="O71" t="s">
+        <v>131</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q71" t="s">
         <v>316</v>
       </c>
-      <c r="N71" t="s">
-        <v>131</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P71" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -6760,31 +6962,34 @@
         <v>183</v>
       </c>
       <c r="I72" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J72" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="K72" t="s">
-        <v>319</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M72" t="s">
+        <v>260</v>
+      </c>
+      <c r="L72" t="s">
+        <v>312</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="N72" t="s">
+        <v>309</v>
+      </c>
+      <c r="O72" t="s">
+        <v>131</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q72" t="s">
         <v>316</v>
       </c>
-      <c r="N72" t="s">
-        <v>131</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P72" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -6798,7 +7003,7 @@
         <v>174</v>
       </c>
       <c r="E73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>239</v>
@@ -6810,31 +7015,34 @@
         <v>179</v>
       </c>
       <c r="I73" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J73" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="K73" t="s">
-        <v>319</v>
-      </c>
-      <c r="L73" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L73" t="s">
+        <v>312</v>
+      </c>
+      <c r="M73" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>102</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>190</v>
       </c>
-      <c r="O73" s="1">
+      <c r="P73" s="1">
         <v>2024</v>
       </c>
-      <c r="P73" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q73" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -6860,31 +7068,34 @@
         <v>179</v>
       </c>
       <c r="I74" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J74" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="K74" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="L74" t="s">
+        <v>312</v>
+      </c>
+      <c r="M74" t="s">
         <v>190</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>102</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>190</v>
       </c>
-      <c r="O74" s="1">
+      <c r="P74" s="1">
         <v>2024</v>
       </c>
-      <c r="P74" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q74" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>63</v>
       </c>
@@ -6910,31 +7121,34 @@
         <v>183</v>
       </c>
       <c r="I75" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="J75" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="K75" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="L75" t="s">
+        <v>312</v>
+      </c>
+      <c r="M75" t="s">
         <v>190</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>102</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>190</v>
       </c>
-      <c r="O75" s="1">
+      <c r="P75" s="1">
         <v>2024</v>
       </c>
-      <c r="P75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q75" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>64</v>
       </c>
@@ -6948,7 +7162,7 @@
         <v>181</v>
       </c>
       <c r="E76" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>239</v>
@@ -6960,31 +7174,34 @@
         <v>184</v>
       </c>
       <c r="I76" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J76" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K76" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L76" t="s">
+        <v>311</v>
+      </c>
+      <c r="M76" t="s">
         <v>193</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>165</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>131</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="P76" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P76" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q76" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>64</v>
       </c>
@@ -6998,43 +7215,46 @@
         <v>181</v>
       </c>
       <c r="E77" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G77" t="s">
         <v>170</v>
       </c>
       <c r="H77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I77" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J77" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K77" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L77" t="s">
+        <v>311</v>
+      </c>
+      <c r="M77" t="s">
         <v>193</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>165</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>131</v>
       </c>
-      <c r="O77" s="1" t="s">
+      <c r="P77" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P77" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q77" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -7048,7 +7268,7 @@
         <v>181</v>
       </c>
       <c r="E78" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>239</v>
@@ -7060,33 +7280,36 @@
         <v>185</v>
       </c>
       <c r="I78" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J78" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="K78" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="L78" t="s">
+        <v>311</v>
+      </c>
+      <c r="M78" t="s">
         <v>193</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>165</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>131</v>
       </c>
-      <c r="O78" s="1" t="s">
+      <c r="P78" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P78" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q78" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B79" t="s">
         <v>87</v>
@@ -7110,33 +7333,36 @@
         <v>187</v>
       </c>
       <c r="I79" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J79" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K79" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L79" t="s">
+        <v>311</v>
+      </c>
+      <c r="M79" t="s">
         <v>190</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>102</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>190</v>
       </c>
-      <c r="O79" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P79" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P79" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
@@ -7160,33 +7386,36 @@
         <v>188</v>
       </c>
       <c r="I80" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J80" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K80" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L80" t="s">
+        <v>311</v>
+      </c>
+      <c r="M80" t="s">
         <v>190</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>102</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>190</v>
       </c>
-      <c r="O80" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P80" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P80" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B81" t="s">
         <v>94</v>
@@ -7210,31 +7439,34 @@
         <v>189</v>
       </c>
       <c r="I81" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="J81" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K81" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L81" t="s">
+        <v>311</v>
+      </c>
+      <c r="M81" t="s">
         <v>190</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>102</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>190</v>
       </c>
-      <c r="O81" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P81" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P81" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -7244,8 +7476,9 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -7255,8 +7488,9 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -7266,8 +7500,9 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -7277,8 +7512,9 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -7288,8 +7524,9 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -7299,8 +7536,9 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -7310,18 +7548,19 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="P2:P81">
+  <conditionalFormatting sqref="Q2:Q81">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="coding">
-      <formula>NOT(ISERROR(SEARCH("coding",P2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("coding",Q2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="ready">
-      <formula>NOT(ISERROR(SEARCH("ready",P2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ready",Q2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="missing">
-      <formula>NOT(ISERROR(SEARCH("missing",P2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("missing",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7335,8 +7574,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3620e9c0d1a16779aea146adda0186f7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2afd3ea0446edf26a13b3c7fc9e6232" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
     <xsd:import namespace="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
     <xsd:element name="properties">
@@ -7583,28 +7842,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1EE7D2B-72B9-4B29-A99A-A2518AB2EE2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99B8D699-284D-4873-A808-FFD96E111D58}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87354EAB-4CC7-4750-AE59-FEDEECBA27EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -7620,23 +7878,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1EE7D2B-72B9-4B29-A99A-A2518AB2EE2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2430" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B88830DE-2094-4983-92AF-B47626DDFCD0}"/>
+  <xr:revisionPtr revIDLastSave="2444" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2BF8F0B-051B-454F-83F9-19EF363F3C0A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
   <sheets>
     <sheet name="general_info" sheetId="3" r:id="rId1"/>
@@ -373,9 +373,6 @@
     <t>This report presents perceptions and experiences of authoritarianism, corruption and trust, security, and criminal justice.</t>
   </si>
   <si>
-    <t>static/US_Report_WJP.pdf</t>
-  </si>
-  <si>
     <t>Infographic</t>
   </si>
   <si>
@@ -1065,6 +1062,9 @@
   </si>
   <si>
     <t>Source: WJP General Population Poll 2021 and 2024</t>
+  </si>
+  <si>
+    <t>static/US_Report_WJP_2024.pdf</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1212,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}" name="Table1" displayName="Table1" ref="A1:J46" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A1:J46" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}"/>
+  <autoFilter ref="A1:J46" xr:uid="{F4E37F24-073C-48C0-B5E4-C57E0C193B17}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="hexpanel"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{D1E86754-498B-4449-AF9C-7F6F91357B29}" name="id"/>
     <tableColumn id="2" xr3:uid="{A219685D-2336-4EA2-A45E-896ADB1E01D2}" name="page"/>
@@ -1575,7 +1581,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,15 +1627,15 @@
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
         <v>156</v>
-      </c>
-      <c r="B6" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1644,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E524A5-001D-41D7-83FE-232B11FD9C08}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1681,7 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1693,7 +1699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1821,7 +1827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -1917,7 +1923,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1949,9 +1955,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1963,7 +1969,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1978,12 +1984,12 @@
         <v>1</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1995,7 +2001,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -2010,12 +2016,12 @@
         <v>1</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2027,7 +2033,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -2042,10 +2048,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -2077,9 +2083,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2091,7 +2097,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -2106,10 +2112,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2138,10 +2144,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2170,10 +2176,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -2202,10 +2208,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2234,10 +2240,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2266,12 +2272,12 @@
         <v>1</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2283,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2298,12 +2304,12 @@
         <v>1</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2315,7 +2321,7 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -2330,10 +2336,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -2362,10 +2368,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2426,10 +2432,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2458,12 +2464,12 @@
         <v>1</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -2475,7 +2481,7 @@
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -2490,12 +2496,12 @@
         <v>1</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -2507,7 +2513,7 @@
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2522,10 +2528,10 @@
         <v>1</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -2554,10 +2560,10 @@
         <v>1</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -2589,7 +2595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E30" t="s">
         <v>58</v>
@@ -2618,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2632,7 +2638,7 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E31" t="s">
         <v>59</v>
@@ -2650,10 +2656,10 @@
         <v>1</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E32" t="s">
         <v>60</v>
@@ -2682,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2696,7 +2702,7 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E33" t="s">
         <v>61</v>
@@ -2714,10 +2720,10 @@
         <v>1</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2749,7 +2755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -2778,10 +2784,10 @@
         <v>1</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -2810,10 +2816,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -2842,12 +2848,12 @@
         <v>1</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -2859,7 +2865,7 @@
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2874,10 +2880,10 @@
         <v>1</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -2909,7 +2915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2941,7 +2947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -3101,7 +3107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -3146,11 +3152,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEE3254-54E8-4BFF-9B28-6E5AF3AF9A29}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K79" sqref="K79:K81"/>
+      <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3161,8 +3167,8 @@
     <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="28.85546875" bestFit="1" customWidth="1"/>
@@ -3181,10 +3187,10 @@
         <v>84</v>
       </c>
       <c r="C1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" t="s">
         <v>247</v>
-      </c>
-      <c r="D1" t="s">
-        <v>248</v>
       </c>
       <c r="E1" t="s">
         <v>41</v>
@@ -3193,13 +3199,13 @@
         <v>35</v>
       </c>
       <c r="G1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" t="s">
         <v>244</v>
       </c>
-      <c r="H1" t="s">
-        <v>245</v>
-      </c>
       <c r="I1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J1" t="s">
         <v>80</v>
@@ -3208,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="L1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M1" t="s">
         <v>85</v>
@@ -3217,13 +3223,13 @@
         <v>86</v>
       </c>
       <c r="O1" t="s">
+        <v>229</v>
+      </c>
+      <c r="P1" t="s">
         <v>230</v>
       </c>
-      <c r="P1" t="s">
-        <v>231</v>
-      </c>
       <c r="Q1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3240,10 +3246,10 @@
         <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -3252,7 +3258,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -3264,19 +3270,19 @@
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P2" s="1">
         <v>2024</v>
       </c>
       <c r="Q2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -3293,10 +3299,10 @@
         <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -3305,7 +3311,7 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -3320,89 +3326,89 @@
         <v>12</v>
       </c>
       <c r="N3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P3" s="1">
         <v>2024</v>
       </c>
       <c r="Q3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
       </c>
       <c r="C4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" t="s">
         <v>273</v>
       </c>
-      <c r="D4" t="s">
-        <v>274</v>
-      </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N4" t="s">
         <v>102</v>
       </c>
       <c r="O4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P4" s="1">
         <v>2024</v>
       </c>
       <c r="Q4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
       </c>
       <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" t="s">
         <v>273</v>
       </c>
-      <c r="D5" t="s">
-        <v>274</v>
-      </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -3411,51 +3417,51 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P5" s="1">
         <v>2024</v>
       </c>
       <c r="Q5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
         <v>94</v>
       </c>
       <c r="C6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" t="s">
         <v>273</v>
       </c>
-      <c r="D6" t="s">
-        <v>274</v>
-      </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G6" t="s">
         <v>98</v>
@@ -3464,31 +3470,31 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P6" s="1">
         <v>2024</v>
       </c>
       <c r="Q6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3505,7 +3511,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -3517,16 +3523,16 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
@@ -3535,13 +3541,13 @@
         <v>106</v>
       </c>
       <c r="O7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3558,7 +3564,7 @@
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -3570,52 +3576,52 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
@@ -3623,13 +3629,13 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>12</v>
@@ -3641,13 +3647,13 @@
         <v>12</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P9" s="3">
         <v>2024</v>
       </c>
       <c r="Q9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3658,34 +3664,34 @@
         <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -3694,13 +3700,13 @@
         <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P10" s="1">
         <v>2024</v>
       </c>
       <c r="Q10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -3711,34 +3717,34 @@
         <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M11" t="s">
         <v>12</v>
@@ -3747,13 +3753,13 @@
         <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P11" s="1">
         <v>2024</v>
       </c>
       <c r="Q11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3764,34 +3770,34 @@
         <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M12" t="s">
         <v>12</v>
@@ -3800,13 +3806,13 @@
         <v>106</v>
       </c>
       <c r="O12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P12" s="1">
         <v>2024</v>
       </c>
       <c r="Q12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3814,37 +3820,37 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M13" t="s">
         <v>12</v>
@@ -3853,13 +3859,13 @@
         <v>106</v>
       </c>
       <c r="O13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P13" s="1">
         <v>2024</v>
       </c>
       <c r="Q13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -3870,49 +3876,49 @@
         <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N14" t="s">
         <v>102</v>
       </c>
       <c r="O14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P14" s="1">
         <v>2024</v>
       </c>
       <c r="Q14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -3923,49 +3929,49 @@
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N15" t="s">
         <v>102</v>
       </c>
       <c r="O15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P15" s="1">
         <v>2024</v>
       </c>
       <c r="Q15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3976,49 +3982,49 @@
         <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s">
         <v>102</v>
       </c>
       <c r="O16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P16" s="1">
         <v>2024</v>
       </c>
       <c r="Q16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -4026,52 +4032,52 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s">
         <v>102</v>
       </c>
       <c r="O17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P17" s="1">
         <v>2024</v>
       </c>
       <c r="Q17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -4082,16 +4088,16 @@
         <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>12</v>
@@ -4100,13 +4106,13 @@
         <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>12</v>
@@ -4118,13 +4124,13 @@
         <v>12</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P18" s="3">
         <v>2024</v>
       </c>
       <c r="Q18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -4135,16 +4141,16 @@
         <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
@@ -4153,31 +4159,31 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
       </c>
       <c r="K19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N19" t="s">
         <v>102</v>
       </c>
       <c r="O19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P19" s="1">
         <v>2024</v>
       </c>
       <c r="Q19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -4188,16 +4194,16 @@
         <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -4206,51 +4212,51 @@
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
       </c>
       <c r="K20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N20" t="s">
         <v>102</v>
       </c>
       <c r="O20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P20" s="1">
         <v>2024</v>
       </c>
       <c r="Q20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -4259,16 +4265,16 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
       </c>
       <c r="K21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M21" t="s">
         <v>12</v>
@@ -4277,33 +4283,33 @@
         <v>106</v>
       </c>
       <c r="O21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s">
         <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -4312,190 +4318,190 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N22" t="s">
         <v>102</v>
       </c>
       <c r="O22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P22" s="1">
         <v>2024</v>
       </c>
       <c r="Q22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s">
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D23" t="s">
+        <v>279</v>
+      </c>
+      <c r="E23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" t="s">
         <v>280</v>
       </c>
-      <c r="E23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="G23" t="s">
-        <v>281</v>
-      </c>
       <c r="H23" t="s">
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
       </c>
       <c r="K23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N23" t="s">
         <v>102</v>
       </c>
       <c r="O23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P23" s="1">
         <v>2024</v>
       </c>
       <c r="Q23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
       </c>
       <c r="K24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N24" t="s">
         <v>102</v>
       </c>
       <c r="O24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P24" s="1">
         <v>2024</v>
       </c>
       <c r="Q24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s">
         <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
       </c>
       <c r="K25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N25" t="s">
         <v>102</v>
       </c>
       <c r="O25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P25" s="1">
         <v>2024</v>
       </c>
       <c r="Q25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -4506,16 +4512,16 @@
         <v>87</v>
       </c>
       <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s">
         <v>124</v>
       </c>
-      <c r="D26" t="s">
-        <v>125</v>
-      </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -4524,31 +4530,31 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
       </c>
       <c r="K26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P26" s="1">
         <v>2024</v>
       </c>
       <c r="Q26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -4559,16 +4565,16 @@
         <v>88</v>
       </c>
       <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
         <v>124</v>
       </c>
-      <c r="D27" t="s">
-        <v>125</v>
-      </c>
       <c r="E27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -4577,31 +4583,31 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
       </c>
       <c r="K27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P27" s="1">
         <v>2024</v>
       </c>
       <c r="Q27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -4612,16 +4618,16 @@
         <v>94</v>
       </c>
       <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
         <v>124</v>
       </c>
-      <c r="D28" t="s">
-        <v>125</v>
-      </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -4630,31 +4636,31 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
       </c>
       <c r="K28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P28" s="1">
         <v>2024</v>
       </c>
       <c r="Q28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -4662,19 +4668,19 @@
         <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
         <v>124</v>
       </c>
-      <c r="D29" t="s">
-        <v>125</v>
-      </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -4683,31 +4689,31 @@
         <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P29" s="1">
         <v>2024</v>
       </c>
       <c r="Q29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -4715,19 +4721,19 @@
         <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s">
         <v>124</v>
       </c>
-      <c r="D30" t="s">
-        <v>125</v>
-      </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -4736,31 +4742,31 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
       </c>
       <c r="K30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P30" s="1">
         <v>2024</v>
       </c>
       <c r="Q30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -4771,49 +4777,49 @@
         <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
       </c>
       <c r="K31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M31" t="s">
         <v>12</v>
       </c>
       <c r="N31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -4824,49 +4830,49 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
       </c>
       <c r="K32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s">
         <v>12</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -4877,49 +4883,49 @@
         <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G33" t="s">
+        <v>285</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>339</v>
+      </c>
+      <c r="J33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" t="s">
+        <v>310</v>
+      </c>
+      <c r="M33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" t="s">
+        <v>171</v>
+      </c>
+      <c r="O33" t="s">
+        <v>189</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="H33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" t="s">
-        <v>340</v>
-      </c>
-      <c r="J33" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33" t="s">
-        <v>242</v>
-      </c>
-      <c r="L33" t="s">
-        <v>311</v>
-      </c>
-      <c r="M33" t="s">
-        <v>12</v>
-      </c>
-      <c r="N33" t="s">
-        <v>172</v>
-      </c>
-      <c r="O33" t="s">
-        <v>190</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="Q33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -4930,34 +4936,34 @@
         <v>87</v>
       </c>
       <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" t="s">
         <v>128</v>
       </c>
-      <c r="D34" t="s">
-        <v>252</v>
-      </c>
-      <c r="E34" t="s">
-        <v>208</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G34" t="s">
-        <v>129</v>
-      </c>
       <c r="H34" t="s">
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
       </c>
       <c r="K34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s">
         <v>12</v>
@@ -4966,13 +4972,13 @@
         <v>106</v>
       </c>
       <c r="O34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -4983,49 +4989,49 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" t="s">
         <v>128</v>
       </c>
-      <c r="D35" t="s">
-        <v>252</v>
-      </c>
-      <c r="E35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G35" t="s">
-        <v>129</v>
-      </c>
       <c r="H35" t="s">
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
       </c>
       <c r="K35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N35" t="s">
         <v>102</v>
       </c>
       <c r="O35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -5036,34 +5042,34 @@
         <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
       </c>
       <c r="K36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s">
         <v>12</v>
@@ -5072,13 +5078,13 @@
         <v>106</v>
       </c>
       <c r="O36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -5086,90 +5092,90 @@
         <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
       </c>
       <c r="K37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N37" t="s">
         <v>102</v>
       </c>
       <c r="O37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s">
         <v>87</v>
       </c>
       <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" t="s">
         <v>132</v>
       </c>
-      <c r="D38" t="s">
-        <v>133</v>
-      </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
       </c>
       <c r="K38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s">
         <v>12</v>
@@ -5178,51 +5184,51 @@
         <v>106</v>
       </c>
       <c r="O38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s">
         <v>88</v>
       </c>
       <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" t="s">
         <v>132</v>
       </c>
-      <c r="D39" t="s">
-        <v>133</v>
-      </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
       </c>
       <c r="K39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M39" t="s">
         <v>12</v>
@@ -5231,51 +5237,51 @@
         <v>106</v>
       </c>
       <c r="O39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
       </c>
       <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" t="s">
         <v>132</v>
       </c>
-      <c r="D40" t="s">
-        <v>133</v>
-      </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
       </c>
       <c r="K40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s">
         <v>12</v>
@@ -5284,51 +5290,51 @@
         <v>106</v>
       </c>
       <c r="O40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
         <v>132</v>
       </c>
-      <c r="D41" t="s">
-        <v>133</v>
-      </c>
       <c r="E41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
       </c>
       <c r="K41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M41" t="s">
         <v>12</v>
@@ -5337,51 +5343,51 @@
         <v>106</v>
       </c>
       <c r="O41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" t="s">
         <v>132</v>
       </c>
-      <c r="D42" t="s">
-        <v>133</v>
-      </c>
       <c r="E42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
       </c>
       <c r="K42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M42" t="s">
         <v>12</v>
@@ -5390,51 +5396,51 @@
         <v>106</v>
       </c>
       <c r="O42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" t="s">
         <v>132</v>
       </c>
-      <c r="D43" t="s">
-        <v>133</v>
-      </c>
       <c r="E43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G43" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" t="s">
         <v>149</v>
       </c>
-      <c r="H43" t="s">
-        <v>150</v>
-      </c>
       <c r="I43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
       </c>
       <c r="K43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L43" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M43" t="s">
         <v>12</v>
@@ -5443,51 +5449,51 @@
         <v>106</v>
       </c>
       <c r="O43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" t="s">
         <v>132</v>
       </c>
-      <c r="D44" t="s">
-        <v>133</v>
-      </c>
       <c r="E44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
       </c>
       <c r="K44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M44" t="s">
         <v>12</v>
@@ -5496,51 +5502,51 @@
         <v>106</v>
       </c>
       <c r="O44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" t="s">
         <v>132</v>
       </c>
-      <c r="D45" t="s">
-        <v>133</v>
-      </c>
       <c r="E45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
       </c>
       <c r="K45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M45" t="s">
         <v>12</v>
@@ -5549,51 +5555,51 @@
         <v>106</v>
       </c>
       <c r="O45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" t="s">
         <v>132</v>
       </c>
-      <c r="D46" t="s">
-        <v>133</v>
-      </c>
       <c r="E46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G46" t="s">
+        <v>144</v>
+      </c>
+      <c r="H46" t="s">
         <v>145</v>
       </c>
-      <c r="H46" t="s">
-        <v>146</v>
-      </c>
       <c r="I46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
       </c>
       <c r="K46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M46" t="s">
         <v>12</v>
@@ -5602,51 +5608,51 @@
         <v>106</v>
       </c>
       <c r="O46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" t="s">
         <v>132</v>
       </c>
-      <c r="D47" t="s">
-        <v>133</v>
-      </c>
       <c r="E47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
       </c>
       <c r="K47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M47" t="s">
         <v>12</v>
@@ -5655,51 +5661,51 @@
         <v>106</v>
       </c>
       <c r="O47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" t="s">
         <v>132</v>
       </c>
-      <c r="D48" t="s">
-        <v>133</v>
-      </c>
       <c r="E48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
       </c>
       <c r="K48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M48" t="s">
         <v>12</v>
@@ -5708,13 +5714,13 @@
         <v>106</v>
       </c>
       <c r="O48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -5725,16 +5731,16 @@
         <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -5743,31 +5749,31 @@
         <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
       </c>
       <c r="K49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N49" t="s">
         <v>102</v>
       </c>
       <c r="O49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P49" s="1">
         <v>2024</v>
       </c>
       <c r="Q49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -5778,34 +5784,34 @@
         <v>87</v>
       </c>
       <c r="C50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" t="s">
+        <v>252</v>
+      </c>
+      <c r="E50" t="s">
         <v>158</v>
       </c>
-      <c r="D50" t="s">
-        <v>253</v>
-      </c>
-      <c r="E50" t="s">
-        <v>159</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H50" t="s">
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J50" t="s">
         <v>12</v>
       </c>
       <c r="K50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M50" t="s">
         <v>12</v>
@@ -5814,13 +5820,13 @@
         <v>106</v>
       </c>
       <c r="O50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -5831,34 +5837,34 @@
         <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H51" t="s">
         <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J51" t="s">
         <v>12</v>
       </c>
       <c r="K51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M51" t="s">
         <v>12</v>
@@ -5867,13 +5873,13 @@
         <v>106</v>
       </c>
       <c r="O51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -5884,49 +5890,49 @@
         <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G52" t="s">
+        <v>162</v>
+      </c>
+      <c r="H52" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" t="s">
+        <v>338</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" t="s">
+        <v>261</v>
+      </c>
+      <c r="L52" t="s">
+        <v>310</v>
+      </c>
+      <c r="M52" t="s">
+        <v>190</v>
+      </c>
+      <c r="N52" t="s">
         <v>163</v>
       </c>
-      <c r="H52" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" t="s">
-        <v>339</v>
-      </c>
-      <c r="J52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" t="s">
-        <v>262</v>
-      </c>
-      <c r="L52" t="s">
-        <v>311</v>
-      </c>
-      <c r="M52" t="s">
-        <v>191</v>
-      </c>
-      <c r="N52" t="s">
-        <v>164</v>
-      </c>
       <c r="O52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -5934,52 +5940,52 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H53" t="s">
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J53" t="s">
         <v>12</v>
       </c>
       <c r="K53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -5990,34 +5996,34 @@
         <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G54" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J54" t="s">
         <v>12</v>
       </c>
       <c r="K54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M54" t="s">
         <v>12</v>
@@ -6026,13 +6032,13 @@
         <v>102</v>
       </c>
       <c r="O54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -6043,34 +6049,34 @@
         <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G55" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J55" t="s">
         <v>12</v>
       </c>
       <c r="K55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M55" t="s">
         <v>12</v>
@@ -6079,13 +6085,13 @@
         <v>102</v>
       </c>
       <c r="O55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -6096,34 +6102,34 @@
         <v>94</v>
       </c>
       <c r="C56" t="s">
+        <v>292</v>
+      </c>
+      <c r="D56" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" t="s">
         <v>293</v>
       </c>
-      <c r="D56" t="s">
-        <v>253</v>
-      </c>
-      <c r="E56" t="s">
-        <v>294</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G56" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="I56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J56" t="s">
         <v>12</v>
       </c>
       <c r="K56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M56" t="s">
         <v>12</v>
@@ -6132,13 +6138,13 @@
         <v>102</v>
       </c>
       <c r="O56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q56" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -6146,37 +6152,37 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G57" t="s">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="I57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J57" t="s">
         <v>12</v>
       </c>
       <c r="K57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M57" t="s">
         <v>12</v>
@@ -6185,13 +6191,13 @@
         <v>102</v>
       </c>
       <c r="O57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -6199,37 +6205,37 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G58" t="s">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="I58" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J58" t="s">
         <v>12</v>
       </c>
       <c r="K58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M58" t="s">
         <v>12</v>
@@ -6238,13 +6244,13 @@
         <v>102</v>
       </c>
       <c r="O58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -6252,37 +6258,37 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G59" t="s">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J59" t="s">
         <v>12</v>
       </c>
       <c r="K59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M59" t="s">
         <v>12</v>
@@ -6291,13 +6297,13 @@
         <v>102</v>
       </c>
       <c r="O59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q59" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -6308,34 +6314,34 @@
         <v>87</v>
       </c>
       <c r="C60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" t="s">
         <v>167</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
+        <v>226</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G60" t="s">
         <v>168</v>
       </c>
-      <c r="E60" t="s">
-        <v>227</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G60" t="s">
-        <v>169</v>
-      </c>
       <c r="H60" t="s">
         <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J60" t="s">
         <v>12</v>
       </c>
       <c r="K60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M60" t="s">
         <v>12</v>
@@ -6344,13 +6350,13 @@
         <v>106</v>
       </c>
       <c r="O60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -6361,34 +6367,34 @@
         <v>88</v>
       </c>
       <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" t="s">
         <v>167</v>
       </c>
-      <c r="D61" t="s">
-        <v>168</v>
-      </c>
       <c r="E61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H61" t="s">
         <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J61" t="s">
         <v>12</v>
       </c>
       <c r="K61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M61" t="s">
         <v>12</v>
@@ -6397,13 +6403,13 @@
         <v>106</v>
       </c>
       <c r="O61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -6414,49 +6420,49 @@
         <v>94</v>
       </c>
       <c r="C62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" t="s">
         <v>167</v>
       </c>
-      <c r="D62" t="s">
-        <v>168</v>
-      </c>
       <c r="E62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G62" t="s">
+        <v>162</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" t="s">
+        <v>338</v>
+      </c>
+      <c r="J62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K62" t="s">
+        <v>261</v>
+      </c>
+      <c r="L62" t="s">
+        <v>310</v>
+      </c>
+      <c r="M62" t="s">
+        <v>190</v>
+      </c>
+      <c r="N62" t="s">
         <v>163</v>
       </c>
-      <c r="H62" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" t="s">
-        <v>339</v>
-      </c>
-      <c r="J62" t="s">
-        <v>12</v>
-      </c>
-      <c r="K62" t="s">
-        <v>262</v>
-      </c>
-      <c r="L62" t="s">
-        <v>311</v>
-      </c>
-      <c r="M62" t="s">
-        <v>191</v>
-      </c>
-      <c r="N62" t="s">
-        <v>164</v>
-      </c>
       <c r="O62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q62" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -6464,52 +6470,52 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" t="s">
         <v>167</v>
       </c>
-      <c r="D63" t="s">
-        <v>168</v>
-      </c>
       <c r="E63" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H63" t="s">
         <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J63" t="s">
         <v>12</v>
       </c>
       <c r="K63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L63" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q63" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -6520,34 +6526,34 @@
         <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G64" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J64" t="s">
         <v>12</v>
       </c>
       <c r="K64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M64" t="s">
         <v>12</v>
@@ -6556,13 +6562,13 @@
         <v>102</v>
       </c>
       <c r="O64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -6573,34 +6579,34 @@
         <v>88</v>
       </c>
       <c r="C65" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" t="s">
         <v>303</v>
       </c>
-      <c r="D65" t="s">
-        <v>168</v>
-      </c>
-      <c r="E65" t="s">
-        <v>304</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G65" t="s">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="I65" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J65" t="s">
         <v>12</v>
       </c>
       <c r="K65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M65" t="s">
         <v>12</v>
@@ -6609,13 +6615,13 @@
         <v>102</v>
       </c>
       <c r="O65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q65" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -6626,34 +6632,34 @@
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E66" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G66" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="I66" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J66" t="s">
         <v>12</v>
       </c>
       <c r="K66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M66" t="s">
         <v>12</v>
@@ -6662,13 +6668,13 @@
         <v>102</v>
       </c>
       <c r="O66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -6676,37 +6682,37 @@
         <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E67" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G67" t="s">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="I67" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J67" t="s">
         <v>12</v>
       </c>
       <c r="K67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M67" t="s">
         <v>12</v>
@@ -6715,13 +6721,13 @@
         <v>102</v>
       </c>
       <c r="O67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q67" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -6729,37 +6735,37 @@
         <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G68" t="s">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="I68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J68" t="s">
         <v>12</v>
       </c>
       <c r="K68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M68" t="s">
         <v>12</v>
@@ -6768,13 +6774,13 @@
         <v>102</v>
       </c>
       <c r="O68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -6782,37 +6788,37 @@
         <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G69" t="s">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I69" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J69" t="s">
         <v>12</v>
       </c>
       <c r="K69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M69" t="s">
         <v>12</v>
@@ -6821,13 +6827,13 @@
         <v>102</v>
       </c>
       <c r="O69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -6838,49 +6844,49 @@
         <v>87</v>
       </c>
       <c r="C70" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" t="s">
         <v>173</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>245</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G70" t="s">
         <v>174</v>
       </c>
-      <c r="E70" t="s">
-        <v>246</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G70" t="s">
-        <v>175</v>
-      </c>
       <c r="H70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I70" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J70" t="s">
         <v>12</v>
       </c>
       <c r="K70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L70" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q70" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -6891,49 +6897,49 @@
         <v>88</v>
       </c>
       <c r="C71" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" t="s">
         <v>173</v>
       </c>
-      <c r="D71" t="s">
-        <v>174</v>
-      </c>
       <c r="E71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I71" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J71" t="s">
         <v>12</v>
       </c>
       <c r="K71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -6944,49 +6950,49 @@
         <v>94</v>
       </c>
       <c r="C72" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" t="s">
         <v>173</v>
       </c>
-      <c r="D72" t="s">
-        <v>174</v>
-      </c>
       <c r="E72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I72" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J72" t="s">
         <v>12</v>
       </c>
       <c r="K72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -6997,49 +7003,49 @@
         <v>87</v>
       </c>
       <c r="C73" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" t="s">
+        <v>173</v>
+      </c>
+      <c r="E73" t="s">
+        <v>245</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G73" t="s">
+        <v>174</v>
+      </c>
+      <c r="H73" t="s">
         <v>178</v>
       </c>
-      <c r="D73" t="s">
-        <v>174</v>
-      </c>
-      <c r="E73" t="s">
-        <v>246</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G73" t="s">
-        <v>175</v>
-      </c>
-      <c r="H73" t="s">
-        <v>179</v>
-      </c>
       <c r="I73" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J73" t="s">
         <v>12</v>
       </c>
       <c r="K73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L73" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N73" t="s">
         <v>102</v>
       </c>
       <c r="O73" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P73" s="1">
         <v>2024</v>
       </c>
       <c r="Q73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -7050,49 +7056,49 @@
         <v>88</v>
       </c>
       <c r="C74" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" t="s">
+        <v>221</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G74" t="s">
+        <v>175</v>
+      </c>
+      <c r="H74" t="s">
         <v>178</v>
       </c>
-      <c r="D74" t="s">
-        <v>174</v>
-      </c>
-      <c r="E74" t="s">
-        <v>222</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G74" t="s">
-        <v>176</v>
-      </c>
-      <c r="H74" t="s">
-        <v>179</v>
-      </c>
       <c r="I74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J74" t="s">
         <v>12</v>
       </c>
       <c r="K74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N74" t="s">
         <v>102</v>
       </c>
       <c r="O74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P74" s="1">
         <v>2024</v>
       </c>
       <c r="Q74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -7103,49 +7109,49 @@
         <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E75" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F75" s="1">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I75" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J75" t="s">
         <v>12</v>
       </c>
       <c r="K75" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N75" t="s">
         <v>102</v>
       </c>
       <c r="O75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P75" s="1">
         <v>2024</v>
       </c>
       <c r="Q75" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -7156,49 +7162,49 @@
         <v>87</v>
       </c>
       <c r="C76" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" t="s">
         <v>180</v>
       </c>
-      <c r="D76" t="s">
-        <v>181</v>
-      </c>
       <c r="E76" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J76" t="s">
         <v>12</v>
       </c>
       <c r="K76" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L76" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -7209,49 +7215,49 @@
         <v>88</v>
       </c>
       <c r="C77" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" t="s">
         <v>180</v>
       </c>
-      <c r="D77" t="s">
-        <v>181</v>
-      </c>
       <c r="E77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H77" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I77" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J77" t="s">
         <v>12</v>
       </c>
       <c r="K77" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -7262,208 +7268,208 @@
         <v>94</v>
       </c>
       <c r="C78" t="s">
+        <v>179</v>
+      </c>
+      <c r="D78" t="s">
         <v>180</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
+        <v>271</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G78" t="s">
         <v>181</v>
       </c>
-      <c r="E78" t="s">
-        <v>272</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G78" t="s">
-        <v>182</v>
-      </c>
       <c r="H78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J78" t="s">
         <v>12</v>
       </c>
       <c r="K78" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L78" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q78" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B79" t="s">
         <v>87</v>
       </c>
       <c r="C79" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>223</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
         <v>186</v>
       </c>
-      <c r="D79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" t="s">
-        <v>224</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" t="s">
-        <v>187</v>
-      </c>
       <c r="I79" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J79" t="s">
         <v>12</v>
       </c>
       <c r="K79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L79" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N79" t="s">
         <v>102</v>
       </c>
       <c r="O79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q79" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G80" t="s">
         <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I80" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J80" t="s">
         <v>12</v>
       </c>
       <c r="K80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L80" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N80" t="s">
         <v>102</v>
       </c>
       <c r="O80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q80" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B81" t="s">
         <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
       </c>
       <c r="H81" t="s">
+        <v>188</v>
+      </c>
+      <c r="I81" t="s">
+        <v>339</v>
+      </c>
+      <c r="J81" t="s">
+        <v>12</v>
+      </c>
+      <c r="K81" t="s">
+        <v>241</v>
+      </c>
+      <c r="L81" t="s">
+        <v>310</v>
+      </c>
+      <c r="M81" t="s">
         <v>189</v>
-      </c>
-      <c r="I81" t="s">
-        <v>340</v>
-      </c>
-      <c r="J81" t="s">
-        <v>12</v>
-      </c>
-      <c r="K81" t="s">
-        <v>242</v>
-      </c>
-      <c r="L81" t="s">
-        <v>311</v>
-      </c>
-      <c r="M81" t="s">
-        <v>190</v>
       </c>
       <c r="N81" t="s">
         <v>102</v>
       </c>
       <c r="O81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q81" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">

--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2444" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2BF8F0B-051B-454F-83F9-19EF363F3C0A}"/>
+  <xr:revisionPtr revIDLastSave="2448" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{853230EE-E438-4C27-9D77-A3680EE336CC}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
@@ -3153,10 +3153,10 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
+      <selection pane="bottomRight" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7333,10 +7333,10 @@
         <v>238</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="H79" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I79" t="s">
         <v>339</v>
@@ -7386,10 +7386,10 @@
         <v>238</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="H80" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I80" t="s">
         <v>339</v>
@@ -7439,10 +7439,10 @@
         <v>238</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="H81" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I81" t="s">
         <v>339</v>
@@ -7580,26 +7580,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3620e9c0d1a16779aea146adda0186f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2afd3ea0446edf26a13b3c7fc9e6232" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -7848,26 +7828,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1EE7D2B-72B9-4B29-A99A-A2518AB2EE2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87354EAB-4CC7-4750-AE59-FEDEECBA27EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7884,4 +7865,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1EE7D2B-72B9-4B29-A99A-A2518AB2EE2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject-my.sharepoint.com/personal/icoddington_worldjusticeproject_org/Documents/Desktop/Github/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2863" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CF65E18-4C64-4DFD-9601-4B4D75055CC9}"/>
+  <xr:revisionPtr revIDLastSave="2972" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A034C900-80C7-4C33-9E0D-CCFF80C295D8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
   <sheets>
     <sheet name="general_info" sheetId="3" r:id="rId1"/>
     <sheet name="outline" sheetId="5" r:id="rId2"/>
-    <sheet name="figure_map" sheetId="4" r:id="rId3"/>
+    <sheet name="other_publications" sheetId="6" r:id="rId3"/>
+    <sheet name="methodological_materials" sheetId="7" r:id="rId4"/>
+    <sheet name="figure_map" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="261">
   <si>
     <t>Cover</t>
   </si>
@@ -725,13 +727,121 @@
   </si>
   <si>
     <t xml:space="preserve">Percentage of respondents that would or would not accept the election results in the following scenarios... </t>
+  </si>
+  <si>
+    <t>onClick</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>href</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>WJP Rule of Law Index 2022 Insights</t>
+  </si>
+  <si>
+    <t>https://worldjusticeproject.mx/wp-content/uploads/2022/05/1_WJP_IEDMX_Digital.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>https</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>://worldjusticeproject.mx/wp-content/uploads/2022/05/1_WJP_IEDMX_Digital.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>material_name</t>
+  </si>
+  <si>
+    <t>GENERAL POPULATION POLL (GPP)</t>
+  </si>
+  <si>
+    <t>https://worldjusticeproject.org/sites/default/files/documents/South%20America%20GPP%20Questionnaire%202022_English.pdf</t>
+  </si>
+  <si>
+    <t>World Justice Project General Population Poll 2022 – South American Survey Instrument (English Versions A &amp; B)</t>
+  </si>
+  <si>
+    <t>The General Population Poll in South America was designed to capture high-quality data on the realities and concerns of ordinary people on a variety of themes related to the rule of law, including authoritarianism, government accountability, bribery, corruption, police performance, crime and security, and access to justice.  </t>
+  </si>
+  <si>
+    <t>VARIABLES USED IN INFOGRAPHICS ON CRIME VICTIMIZATION</t>
+  </si>
+  <si>
+    <t>This table lists the question-level variables from the General Population Poll used to construct Chart 12.1 and the “Reasons the crime was not reported” table in Chart 12.2.</t>
+  </si>
+  <si>
+    <t>https://worldjusticeproject.org/sites/default/files/documents/Crime%20Victimization%20Variable%20Map_South%20America.pdf</t>
+  </si>
+  <si>
+    <t>World Justice Project Crime Rates and Reporting Variable Map</t>
+  </si>
+  <si>
+    <t>REGRESSION TABLES FOR REGRESSION ANALYSIS USED IN INFOGRAPHIC ON PERCEPTIONS OF SECURITY</t>
+  </si>
+  <si>
+    <t>This document includes the question-level variables from the General Population Poll used in the regression analysis and the regression results featured in Chart 13.2.</t>
+  </si>
+  <si>
+    <t>https://worldjusticeproject.org/sites/default/files/documents/Regression%20Tables_South%20America_0.pdf</t>
+  </si>
+  <si>
+    <t>World Justice Project Regression Tables</t>
+  </si>
+  <si>
+    <t>link1</t>
+  </si>
+  <si>
+    <t>label1</t>
+  </si>
+  <si>
+    <t>link2</t>
+  </si>
+  <si>
+    <t>label2</t>
+  </si>
+  <si>
+    <t>Rule of Law in North Macedonia -- 2023</t>
+  </si>
+  <si>
+    <t>static/charts_and_images/imgPublications/rule_law_index_2022_insights.png</t>
+  </si>
+  <si>
+    <t>https://worldjusticeproject.org/our-work/research-and-data/rule-of-law/north-macedonia-2023</t>
+  </si>
+  <si>
+    <t>static/charts_and_images/imgPublications/bg-cover.jpg</t>
+  </si>
+  <si>
+    <t>static/charts_and_images/imgPublications/ROLI-Insights.png</t>
+  </si>
+  <si>
+    <t>https://worldjusticeproject.org/rule-of-law-index/global/2023</t>
+  </si>
+  <si>
+    <t>WJP Rule of Law Index 2023 Insights</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +851,35 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -769,10 +908,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -784,11 +924,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -826,6 +978,270 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -844,6 +1260,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA9653AC-F8C3-401C-B349-891D4FF1F533}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0">
   <autoFilter ref="A1:B6" xr:uid="{BA9653AC-F8C3-401C-B349-891D4FF1F533}"/>
@@ -856,7 +1276,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}" name="Table14" displayName="Table14" ref="A1:K29" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}" name="Table14" displayName="Table14" ref="A1:K29" totalsRowShown="0" dataDxfId="20">
   <autoFilter ref="A1:K29" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{9CFB6294-2D1F-459C-958F-167AA1ADC69D}" name="id"/>
@@ -869,13 +1289,41 @@
     <tableColumn id="7" xr3:uid="{7D4CCB54-6DC7-4469-A234-60DD891FC399}" name="has_subsection"/>
     <tableColumn id="8" xr3:uid="{69BC0A78-B535-4CFE-92C3-285DED5D7490}" name="thematic_findings"/>
     <tableColumn id="9" xr3:uid="{D81CCAC3-A209-46F3-88C1-0250B379E958}" name="legend"/>
-    <tableColumn id="13" xr3:uid="{D4941AAA-948A-4C26-9998-E656071F295A}" name="macro" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{D4941AAA-948A-4C26-9998-E656071F295A}" name="macro" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ACB93786-F805-4D77-91EF-7E8E15DFC5F9}" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:D4" xr:uid="{ACB93786-F805-4D77-91EF-7E8E15DFC5F9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0E8B927F-EDA3-44B5-A65F-A43249F8CEFA}" name="onClick" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{37F3D23E-B415-4A3B-8597-71D6413E2E7C}" name="img" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{148497E4-B1E5-47F7-AE41-6BCCE6689F43}" name="href" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{3CC541A0-1A30-4765-BCDB-703BB62E0CFF}" name="text" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1493FFEA-D985-4ADD-8712-2894823646AD}" name="Table5" displayName="Table5" ref="A1:F4" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:F4" xr:uid="{1493FFEA-D985-4ADD-8712-2894823646AD}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{93B89B02-E871-4E2D-8436-6488CD60EF55}" name="material_name" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{07B3A73C-6FB0-47EA-9648-DBDE4BDCF460}" name="description" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{4F00246D-2D81-438C-B4FA-295885A0001B}" name="link1" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{90681B1B-22F0-456F-8696-E186F2FC350B}" name="label1" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{1AE75421-366F-4379-8983-5CF8141CE424}" name="link2" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{95F573B3-309B-4A0A-A474-6A955D9D59DA}" name="label2" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}" name="Table53" displayName="Table53" ref="A1:Q42" totalsRowShown="0">
   <autoFilter ref="A1:Q42" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}"/>
   <tableColumns count="17">
@@ -1224,13 +1672,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="99.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="99.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1238,7 +1686,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1246,7 +1694,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1254,7 +1702,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -1262,7 +1710,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1270,7 +1718,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1290,20 +1738,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B32341-F9AC-424D-8D69-9ABCF2FF7D4F}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="50.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1338,7 +1786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1443,7 +1891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1478,7 +1926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1513,7 +1961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1548,7 +1996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1583,7 +2031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1618,7 +2066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1653,7 +2101,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>184</v>
       </c>
@@ -1688,7 +2136,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -1723,7 +2171,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1758,7 +2206,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1793,7 +2241,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1828,7 +2276,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1863,7 +2311,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1898,7 +2346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1933,7 +2381,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -1968,7 +2416,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -2003,7 +2451,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2038,7 +2486,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -2073,7 +2521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2108,7 +2556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2143,7 +2591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2178,7 +2626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2213,7 +2661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2248,7 +2696,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2283,7 +2731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -2328,25 +2776,216 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B777675-D9D1-464A-8253-1276A291F711}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{DDE09507-FDBB-4B92-A1BB-6B5D8A472EAA}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{9AF91C49-C50E-4740-B8B2-B2601753393F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3769AE-46C0-4DAC-98E3-FE5BCEAF61EE}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942074E-1171-4680-A697-1A8E37014FFA}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M27" sqref="M21:M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2399,7 +3038,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>185</v>
       </c>
@@ -2452,7 +3091,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
@@ -2505,7 +3144,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>122</v>
       </c>
@@ -2558,7 +3197,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>122</v>
       </c>
@@ -2611,7 +3250,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -2664,7 +3303,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2717,7 +3356,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -2770,7 +3409,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -2823,7 +3462,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -2876,7 +3515,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2929,7 +3568,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2982,7 +3621,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3035,7 +3674,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -3088,7 +3727,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -3141,7 +3780,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -3191,7 +3830,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3244,7 +3883,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -3297,7 +3936,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -3350,7 +3989,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3403,7 +4042,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3456,7 +4095,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -3509,7 +4148,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -3562,7 +4201,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3615,7 +4254,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -3668,7 +4307,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -3721,7 +4360,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -3774,7 +4413,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3827,7 +4466,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -3880,7 +4519,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -3933,7 +4572,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>183</v>
       </c>
@@ -3986,7 +4625,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>129</v>
       </c>
@@ -4039,7 +4678,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -4092,7 +4731,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
@@ -4145,7 +4784,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
@@ -4198,7 +4837,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
@@ -4251,7 +4890,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
@@ -4304,7 +4943,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>43</v>
       </c>
@@ -4357,7 +4996,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -4410,7 +5049,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -4463,7 +5102,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -4516,7 +5155,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>

--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject-my.sharepoint.com/personal/icoddington_worldjusticeproject_org/Documents/Desktop/Github/USA-report-2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2972" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A034C900-80C7-4C33-9E0D-CCFF80C295D8}"/>
+  <xr:revisionPtr revIDLastSave="3016" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{015BA577-314E-4422-8838-69E95B2FDA30}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
+    <workbookView xWindow="1716" yWindow="3192" windowWidth="17304" windowHeight="8892" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
   <sheets>
     <sheet name="general_info" sheetId="3" r:id="rId1"/>
     <sheet name="outline" sheetId="5" r:id="rId2"/>
-    <sheet name="other_publications" sheetId="6" r:id="rId3"/>
-    <sheet name="methodological_materials" sheetId="7" r:id="rId4"/>
-    <sheet name="figure_map" sheetId="4" r:id="rId5"/>
+    <sheet name="figure_map" sheetId="4" r:id="rId3"/>
+    <sheet name="other_publications" sheetId="6" r:id="rId4"/>
+    <sheet name="methodological_materials" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="275">
   <si>
     <t>Cover</t>
   </si>
@@ -835,6 +835,48 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>chart_insight</t>
+  </si>
+  <si>
+    <t>Americans tend to associate the notion of rule of law with positive sentiments, but the state of rule of law in the US with negative sentiments.</t>
+  </si>
+  <si>
+    <t>The percentage of respondents who agree that rule of law is integral to the future of the US, democracy and individual lives consistently exceeds 90%.</t>
+  </si>
+  <si>
+    <t>In 2021, democrats and republicans had an almost equal perception of accountability. This figure has increased for both parties in 2024, but now democrats are now more likely than republicans to trust that government officials will be held accountable for breaking the law.</t>
+  </si>
+  <si>
+    <t>Since 2014, the percentage of respondents who agree that the opinions of individual citizens should be prioritized in government matters has decreased by almost 10%. Likewise, the percentage who agree that the president must always obey the law has decreased.</t>
+  </si>
+  <si>
+    <t>Since 2014, the percentage of respondents who agree that high-ranking officials would be held accountable for breaking the law has seen a net decrease of 25%.</t>
+  </si>
+  <si>
+    <t>In 2021, republicans were more likely to trust individual citizens to constrain government powers, while in 2024 results reflect that democrats are more likely to do so.</t>
+  </si>
+  <si>
+    <t>Respondents have a higher perception that the Congress, Courts, and the Citizens themselves can counteract abuses of power from the President. However, since 2014, only the citizens themselves have seen a net increase in this perception.</t>
+  </si>
+  <si>
+    <t>Since a peak in 2018, trust in most institutions has either stagnated or decreased in the country. Trust in judges and magistrates has seen the highest decline since 2018.</t>
+  </si>
+  <si>
+    <t>Apart from judges and magistrates, democrats are reporting higher trust in most institutions, while republicans are reporting lower levels of trust in most actors.</t>
+  </si>
+  <si>
+    <t>In most aspects, democrats have a more positive view of the integrity of the electoral system. Republicans have a more positive view regarding voting access.</t>
+  </si>
+  <si>
+    <t>Close to half of Republicans (46%) and more than a quarter of Democrats (27%) said they would not consider 2024 election results to be legitimate if the other party’s presidential candidate won.</t>
+  </si>
+  <si>
+    <t>The share democrats who possess a lot or some trust in local and state-level election workers, local and federal courts, and congress is significantly higher than the respective share of republicans who do so. However, the inverse is true for the Supreme Court.</t>
+  </si>
+  <si>
+    <t>epublicans’ trust in the Supreme Court impartiality significantly exceeds that of democrats, while democrats have a more positive view of low and mid-level courts than republicans.</t>
   </si>
 </sst>
 </file>
@@ -940,7 +982,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -970,12 +1012,6 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1242,6 +1278,20 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1260,10 +1310,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA9653AC-F8C3-401C-B349-891D4FF1F533}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0">
   <autoFilter ref="A1:B6" xr:uid="{BA9653AC-F8C3-401C-B349-891D4FF1F533}"/>
@@ -1276,7 +1322,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}" name="Table14" displayName="Table14" ref="A1:K29" totalsRowShown="0" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}" name="Table14" displayName="Table14" ref="A1:K29" totalsRowShown="0" dataDxfId="21">
   <autoFilter ref="A1:K29" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{9CFB6294-2D1F-459C-958F-167AA1ADC69D}" name="id"/>
@@ -1289,50 +1335,23 @@
     <tableColumn id="7" xr3:uid="{7D4CCB54-6DC7-4469-A234-60DD891FC399}" name="has_subsection"/>
     <tableColumn id="8" xr3:uid="{69BC0A78-B535-4CFE-92C3-285DED5D7490}" name="thematic_findings"/>
     <tableColumn id="9" xr3:uid="{D81CCAC3-A209-46F3-88C1-0250B379E958}" name="legend"/>
-    <tableColumn id="13" xr3:uid="{D4941AAA-948A-4C26-9998-E656071F295A}" name="macro" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{D4941AAA-948A-4C26-9998-E656071F295A}" name="macro" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ACB93786-F805-4D77-91EF-7E8E15DFC5F9}" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:D4" xr:uid="{ACB93786-F805-4D77-91EF-7E8E15DFC5F9}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0E8B927F-EDA3-44B5-A65F-A43249F8CEFA}" name="onClick" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{37F3D23E-B415-4A3B-8597-71D6413E2E7C}" name="img" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{148497E4-B1E5-47F7-AE41-6BCCE6689F43}" name="href" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{3CC541A0-1A30-4765-BCDB-703BB62E0CFF}" name="text" dataDxfId="13"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1493FFEA-D985-4ADD-8712-2894823646AD}" name="Table5" displayName="Table5" ref="A1:F4" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:F4" xr:uid="{1493FFEA-D985-4ADD-8712-2894823646AD}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{93B89B02-E871-4E2D-8436-6488CD60EF55}" name="material_name" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{07B3A73C-6FB0-47EA-9648-DBDE4BDCF460}" name="description" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{4F00246D-2D81-438C-B4FA-295885A0001B}" name="link1" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{90681B1B-22F0-456F-8696-E186F2FC350B}" name="label1" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{1AE75421-366F-4379-8983-5CF8141CE424}" name="link2" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{95F573B3-309B-4A0A-A474-6A955D9D59DA}" name="label2" dataDxfId="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}" name="Table53" displayName="Table53" ref="A1:Q42" totalsRowShown="0">
-  <autoFilter ref="A1:Q42" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}" name="Table53" displayName="Table53" ref="A1:R42" totalsRowShown="0">
+  <autoFilter ref="A1:R42" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{D92A50FF-F655-438A-821F-D4E0A6773705}" name="id"/>
     <tableColumn id="2" xr3:uid="{4F1F3430-F8D1-427E-BB79-2C98EFBD6FEE}" name="panel"/>
     <tableColumn id="3" xr3:uid="{AF985FC6-38BB-41CE-8758-910FF5881882}" name="chart_title"/>
     <tableColumn id="4" xr3:uid="{8C170698-EA04-48E2-B7A5-E0753E8F925A}" name="chart_subtitle"/>
+    <tableColumn id="18" xr3:uid="{2C17A28C-003C-4D32-9270-F40E9299518E}" name="chart_insight" dataDxfId="19"/>
     <tableColumn id="5" xr3:uid="{EE5EC27F-5201-4917-9105-EBECC1D04D1E}" name="var_id"/>
-    <tableColumn id="6" xr3:uid="{0C24CA8A-57D7-467B-B322-871903FD9B9A}" name="reportValues" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{0C24CA8A-57D7-467B-B322-871903FD9B9A}" name="reportValues" dataDxfId="18"/>
     <tableColumn id="7" xr3:uid="{B404EBD2-5F59-4883-A60E-29783B3EABD5}" name="panel_title"/>
     <tableColumn id="8" xr3:uid="{305A6FE0-17F9-4D5E-A381-A2D30312A6A5}" name="panel_subtitle"/>
     <tableColumn id="17" xr3:uid="{8CD60750-9682-4661-8153-34BC1191E931}" name="source"/>
@@ -1342,10 +1361,38 @@
     <tableColumn id="10" xr3:uid="{46740A75-E106-4C46-AECA-EE476BF4CE81}" name="legend_text"/>
     <tableColumn id="11" xr3:uid="{80D43E73-C185-43D6-A479-05FA587EF5B1}" name="legend_color"/>
     <tableColumn id="12" xr3:uid="{89491228-5A56-4B57-A0BF-8373C462ABB0}" name="sample"/>
-    <tableColumn id="13" xr3:uid="{336E9D74-FDC7-4F0E-89C6-2BAF8929A95A}" name="years" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{336E9D74-FDC7-4F0E-89C6-2BAF8929A95A}" name="years" dataDxfId="17"/>
     <tableColumn id="15" xr3:uid="{5E38E8F7-D7B2-4B97-A263-B5A16D170985}" name="status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ACB93786-F805-4D77-91EF-7E8E15DFC5F9}" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:D4" xr:uid="{ACB93786-F805-4D77-91EF-7E8E15DFC5F9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0E8B927F-EDA3-44B5-A65F-A43249F8CEFA}" name="onClick" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{37F3D23E-B415-4A3B-8597-71D6413E2E7C}" name="img" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{148497E4-B1E5-47F7-AE41-6BCCE6689F43}" name="href" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{3CC541A0-1A30-4765-BCDB-703BB62E0CFF}" name="text" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1493FFEA-D985-4ADD-8712-2894823646AD}" name="Table5" displayName="Table5" ref="A1:F4" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:F4" xr:uid="{1493FFEA-D985-4ADD-8712-2894823646AD}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{93B89B02-E871-4E2D-8436-6488CD60EF55}" name="material_name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{07B3A73C-6FB0-47EA-9648-DBDE4BDCF460}" name="description" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4F00246D-2D81-438C-B4FA-295885A0001B}" name="link1" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{90681B1B-22F0-456F-8696-E186F2FC350B}" name="label1" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{1AE75421-366F-4379-8983-5CF8141CE424}" name="link2" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{95F573B3-309B-4A0A-A474-6A955D9D59DA}" name="label2" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1672,13 +1719,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="99.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="99.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1686,7 +1733,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1694,7 +1741,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1702,7 +1749,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -1710,7 +1757,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1718,7 +1765,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1738,20 +1785,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B32341-F9AC-424D-8D69-9ABCF2FF7D4F}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" customWidth="1"/>
-    <col min="3" max="3" width="50.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1786,7 +1833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1821,7 +1868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1856,7 +1903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1891,7 +1938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1926,7 +1973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1961,7 +2008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1996,7 +2043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2031,7 +2078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2066,7 +2113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2101,7 +2148,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>184</v>
       </c>
@@ -2136,7 +2183,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -2171,7 +2218,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2206,7 +2253,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2241,7 +2288,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2276,7 +2323,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2311,7 +2358,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2346,7 +2393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2381,7 +2428,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -2416,7 +2463,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -2451,7 +2498,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2486,7 +2533,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -2521,7 +2568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2556,7 +2603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2591,7 +2638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2626,7 +2673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2661,7 +2708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2696,7 +2743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2731,7 +2778,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -2776,6 +2823,2394 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942074E-1171-4680-A697-1A8E37014FFA}">
+  <dimension ref="A1:R42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>2024</v>
+      </c>
+      <c r="R2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2024</v>
+      </c>
+      <c r="R3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2024</v>
+      </c>
+      <c r="R4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2024</v>
+      </c>
+      <c r="R5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" t="s">
+        <v>168</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" t="s">
+        <v>168</v>
+      </c>
+      <c r="N8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>190</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9" t="s">
+        <v>168</v>
+      </c>
+      <c r="N9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10" t="s">
+        <v>168</v>
+      </c>
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" t="s">
+        <v>224</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11" t="s">
+        <v>168</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>189</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="s">
+        <v>168</v>
+      </c>
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" t="s">
+        <v>225</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="s">
+        <v>168</v>
+      </c>
+      <c r="N13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" t="s">
+        <v>224</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="s">
+        <v>168</v>
+      </c>
+      <c r="N14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>190</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="s">
+        <v>168</v>
+      </c>
+      <c r="N15" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" t="s">
+        <v>225</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s">
+        <v>190</v>
+      </c>
+      <c r="K16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" t="s">
+        <v>168</v>
+      </c>
+      <c r="N16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17" t="s">
+        <v>168</v>
+      </c>
+      <c r="N17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>269</v>
+      </c>
+      <c r="F18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" t="s">
+        <v>140</v>
+      </c>
+      <c r="M18" t="s">
+        <v>168</v>
+      </c>
+      <c r="N18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" t="s">
+        <v>168</v>
+      </c>
+      <c r="N19" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N20" t="s">
+        <v>108</v>
+      </c>
+      <c r="O20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M21" t="s">
+        <v>168</v>
+      </c>
+      <c r="N21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N22" t="s">
+        <v>106</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M23" t="s">
+        <v>168</v>
+      </c>
+      <c r="N23" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" t="s">
+        <v>130</v>
+      </c>
+      <c r="M24" t="s">
+        <v>168</v>
+      </c>
+      <c r="N24" t="s">
+        <v>106</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" t="s">
+        <v>168</v>
+      </c>
+      <c r="N25" t="s">
+        <v>106</v>
+      </c>
+      <c r="O25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" t="s">
+        <v>130</v>
+      </c>
+      <c r="M26" t="s">
+        <v>168</v>
+      </c>
+      <c r="N26" t="s">
+        <v>106</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" t="s">
+        <v>271</v>
+      </c>
+      <c r="F27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" t="s">
+        <v>173</v>
+      </c>
+      <c r="M27" t="s">
+        <v>169</v>
+      </c>
+      <c r="N27" t="s">
+        <v>106</v>
+      </c>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F28" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M28" t="s">
+        <v>169</v>
+      </c>
+      <c r="N28" t="s">
+        <v>106</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" t="s">
+        <v>173</v>
+      </c>
+      <c r="M29" t="s">
+        <v>169</v>
+      </c>
+      <c r="N29" t="s">
+        <v>106</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>271</v>
+      </c>
+      <c r="F30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" t="s">
+        <v>173</v>
+      </c>
+      <c r="M30" t="s">
+        <v>169</v>
+      </c>
+      <c r="N30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>2024</v>
+      </c>
+      <c r="R31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" t="s">
+        <v>273</v>
+      </c>
+      <c r="F32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" t="s">
+        <v>188</v>
+      </c>
+      <c r="K32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" t="s">
+        <v>141</v>
+      </c>
+      <c r="M32" t="s">
+        <v>169</v>
+      </c>
+      <c r="N32" t="s">
+        <v>106</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>2024</v>
+      </c>
+      <c r="R33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>2024</v>
+      </c>
+      <c r="R34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>2024</v>
+      </c>
+      <c r="R35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>2024</v>
+      </c>
+      <c r="R36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>2024</v>
+      </c>
+      <c r="R37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>2024</v>
+      </c>
+      <c r="R38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>2024</v>
+      </c>
+      <c r="R39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>2024</v>
+      </c>
+      <c r="R40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>2024</v>
+      </c>
+      <c r="R41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>2024</v>
+      </c>
+      <c r="R42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="R2:R42">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="coding">
+      <formula>NOT(ISERROR(SEARCH("coding",R2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="ready">
+      <formula>NOT(ISERROR(SEARCH("ready",R2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="missing">
+      <formula>NOT(ISERROR(SEARCH("missing",R2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B777675-D9D1-464A-8253-1276A291F711}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2783,14 +5218,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>229</v>
       </c>
@@ -2804,7 +5239,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>255</v>
       </c>
@@ -2818,7 +5253,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>258</v>
       </c>
@@ -2832,7 +5267,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>235</v>
       </c>
@@ -2846,7 +5281,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2864,7 +5299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3769AE-46C0-4DAC-98E3-FE5BCEAF61EE}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2872,13 +5307,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>236</v>
       </c>
@@ -2898,7 +5333,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>237</v>
       </c>
@@ -2918,7 +5353,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>241</v>
       </c>
@@ -2938,7 +5373,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>245</v>
       </c>
@@ -2966,2269 +5401,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942074E-1171-4680-A697-1A8E37014FFA}">
-  <dimension ref="A1:Q42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M27" sqref="M21:M27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="P2" s="3">
-        <v>2024</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P3" s="3">
-        <v>2024</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P4" s="3">
-        <v>2024</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P5" s="3">
-        <v>2024</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>189</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>140</v>
-      </c>
-      <c r="L6" t="s">
-        <v>168</v>
-      </c>
-      <c r="M6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>190</v>
-      </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N7" t="s">
-        <v>166</v>
-      </c>
-      <c r="O7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" t="s">
-        <v>140</v>
-      </c>
-      <c r="L8" t="s">
-        <v>168</v>
-      </c>
-      <c r="M8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>190</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>140</v>
-      </c>
-      <c r="L9" t="s">
-        <v>168</v>
-      </c>
-      <c r="M9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" t="s">
-        <v>89</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" t="s">
-        <v>140</v>
-      </c>
-      <c r="L10" t="s">
-        <v>168</v>
-      </c>
-      <c r="M10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" t="s">
-        <v>224</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>189</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" t="s">
-        <v>140</v>
-      </c>
-      <c r="L11" t="s">
-        <v>168</v>
-      </c>
-      <c r="M11" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" t="s">
-        <v>89</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" t="s">
-        <v>199</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>189</v>
-      </c>
-      <c r="J12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" t="s">
-        <v>140</v>
-      </c>
-      <c r="L12" t="s">
-        <v>168</v>
-      </c>
-      <c r="M12" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" t="s">
-        <v>76</v>
-      </c>
-      <c r="O12" t="s">
-        <v>89</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" t="s">
-        <v>225</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
-        <v>189</v>
-      </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" t="s">
-        <v>168</v>
-      </c>
-      <c r="M13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" t="s">
-        <v>76</v>
-      </c>
-      <c r="O13" t="s">
-        <v>89</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" t="s">
-        <v>224</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" t="s">
-        <v>190</v>
-      </c>
-      <c r="J14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" t="s">
-        <v>130</v>
-      </c>
-      <c r="L14" t="s">
-        <v>168</v>
-      </c>
-      <c r="M14" t="s">
-        <v>106</v>
-      </c>
-      <c r="N14" t="s">
-        <v>72</v>
-      </c>
-      <c r="O14" t="s">
-        <v>106</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" t="s">
-        <v>217</v>
-      </c>
-      <c r="E15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
-        <v>190</v>
-      </c>
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" t="s">
-        <v>168</v>
-      </c>
-      <c r="M15" t="s">
-        <v>106</v>
-      </c>
-      <c r="N15" t="s">
-        <v>72</v>
-      </c>
-      <c r="O15" t="s">
-        <v>106</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E16" t="s">
-        <v>223</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" t="s">
-        <v>225</v>
-      </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
-        <v>190</v>
-      </c>
-      <c r="J16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" t="s">
-        <v>168</v>
-      </c>
-      <c r="M16" t="s">
-        <v>106</v>
-      </c>
-      <c r="N16" t="s">
-        <v>72</v>
-      </c>
-      <c r="O16" t="s">
-        <v>106</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" t="s">
-        <v>189</v>
-      </c>
-      <c r="J17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" t="s">
-        <v>140</v>
-      </c>
-      <c r="L17" t="s">
-        <v>168</v>
-      </c>
-      <c r="M17" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O17" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" t="s">
-        <v>189</v>
-      </c>
-      <c r="J18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" t="s">
-        <v>140</v>
-      </c>
-      <c r="L18" t="s">
-        <v>168</v>
-      </c>
-      <c r="M18" t="s">
-        <v>11</v>
-      </c>
-      <c r="N18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O18" t="s">
-        <v>89</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" t="s">
-        <v>189</v>
-      </c>
-      <c r="J19" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L19" t="s">
-        <v>168</v>
-      </c>
-      <c r="M19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N19" t="s">
-        <v>99</v>
-      </c>
-      <c r="O19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" t="s">
-        <v>189</v>
-      </c>
-      <c r="J20" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" t="s">
-        <v>168</v>
-      </c>
-      <c r="M20" t="s">
-        <v>108</v>
-      </c>
-      <c r="N20" t="s">
-        <v>100</v>
-      </c>
-      <c r="O20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" t="s">
-        <v>190</v>
-      </c>
-      <c r="J21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" t="s">
-        <v>130</v>
-      </c>
-      <c r="L21" t="s">
-        <v>168</v>
-      </c>
-      <c r="M21" t="s">
-        <v>106</v>
-      </c>
-      <c r="N21" t="s">
-        <v>72</v>
-      </c>
-      <c r="O21" t="s">
-        <v>106</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
-        <v>165</v>
-      </c>
-      <c r="I22" t="s">
-        <v>190</v>
-      </c>
-      <c r="J22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" t="s">
-        <v>168</v>
-      </c>
-      <c r="M22" t="s">
-        <v>106</v>
-      </c>
-      <c r="N22" t="s">
-        <v>72</v>
-      </c>
-      <c r="O22" t="s">
-        <v>106</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s">
-        <v>156</v>
-      </c>
-      <c r="I23" t="s">
-        <v>190</v>
-      </c>
-      <c r="J23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" t="s">
-        <v>130</v>
-      </c>
-      <c r="L23" t="s">
-        <v>168</v>
-      </c>
-      <c r="M23" t="s">
-        <v>106</v>
-      </c>
-      <c r="N23" t="s">
-        <v>72</v>
-      </c>
-      <c r="O23" t="s">
-        <v>106</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
-        <v>157</v>
-      </c>
-      <c r="I24" t="s">
-        <v>190</v>
-      </c>
-      <c r="J24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24" t="s">
-        <v>168</v>
-      </c>
-      <c r="M24" t="s">
-        <v>106</v>
-      </c>
-      <c r="N24" t="s">
-        <v>72</v>
-      </c>
-      <c r="O24" t="s">
-        <v>106</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" t="s">
-        <v>186</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" t="s">
-        <v>158</v>
-      </c>
-      <c r="I25" t="s">
-        <v>190</v>
-      </c>
-      <c r="J25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" t="s">
-        <v>130</v>
-      </c>
-      <c r="L25" t="s">
-        <v>168</v>
-      </c>
-      <c r="M25" t="s">
-        <v>106</v>
-      </c>
-      <c r="N25" t="s">
-        <v>72</v>
-      </c>
-      <c r="O25" t="s">
-        <v>106</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26" t="s">
-        <v>190</v>
-      </c>
-      <c r="J26" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" t="s">
-        <v>130</v>
-      </c>
-      <c r="L26" t="s">
-        <v>168</v>
-      </c>
-      <c r="M26" t="s">
-        <v>106</v>
-      </c>
-      <c r="N26" t="s">
-        <v>72</v>
-      </c>
-      <c r="O26" t="s">
-        <v>106</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" t="s">
-        <v>188</v>
-      </c>
-      <c r="J27" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" t="s">
-        <v>173</v>
-      </c>
-      <c r="L27" t="s">
-        <v>169</v>
-      </c>
-      <c r="M27" t="s">
-        <v>106</v>
-      </c>
-      <c r="N27" t="s">
-        <v>72</v>
-      </c>
-      <c r="O27" t="s">
-        <v>106</v>
-      </c>
-      <c r="P27" s="1">
-        <v>2024</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" t="s">
-        <v>174</v>
-      </c>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" t="s">
-        <v>188</v>
-      </c>
-      <c r="J28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" t="s">
-        <v>173</v>
-      </c>
-      <c r="L28" t="s">
-        <v>169</v>
-      </c>
-      <c r="M28" t="s">
-        <v>106</v>
-      </c>
-      <c r="N28" t="s">
-        <v>72</v>
-      </c>
-      <c r="O28" t="s">
-        <v>106</v>
-      </c>
-      <c r="P28" s="1">
-        <v>2024</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" t="s">
-        <v>179</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" t="s">
-        <v>175</v>
-      </c>
-      <c r="H29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" t="s">
-        <v>188</v>
-      </c>
-      <c r="J29" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" t="s">
-        <v>173</v>
-      </c>
-      <c r="L29" t="s">
-        <v>169</v>
-      </c>
-      <c r="M29" t="s">
-        <v>106</v>
-      </c>
-      <c r="N29" t="s">
-        <v>72</v>
-      </c>
-      <c r="O29" t="s">
-        <v>106</v>
-      </c>
-      <c r="P29" s="1">
-        <v>2024</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" t="s">
-        <v>180</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" t="s">
-        <v>176</v>
-      </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" t="s">
-        <v>188</v>
-      </c>
-      <c r="J30" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" t="s">
-        <v>173</v>
-      </c>
-      <c r="L30" t="s">
-        <v>169</v>
-      </c>
-      <c r="M30" t="s">
-        <v>106</v>
-      </c>
-      <c r="N30" t="s">
-        <v>72</v>
-      </c>
-      <c r="O30" t="s">
-        <v>106</v>
-      </c>
-      <c r="P30" s="1">
-        <v>2024</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="P31" s="3">
-        <v>2024</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>216</v>
-      </c>
-      <c r="D32" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" t="s">
-        <v>188</v>
-      </c>
-      <c r="J32" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" t="s">
-        <v>141</v>
-      </c>
-      <c r="L32" t="s">
-        <v>169</v>
-      </c>
-      <c r="M32" t="s">
-        <v>106</v>
-      </c>
-      <c r="N32" t="s">
-        <v>72</v>
-      </c>
-      <c r="O32" t="s">
-        <v>106</v>
-      </c>
-      <c r="P32" s="1">
-        <v>2024</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P33" s="3">
-        <v>2024</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P34" s="3">
-        <v>2024</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P35" s="3">
-        <v>2024</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P36" s="3">
-        <v>2024</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P37" s="3">
-        <v>2024</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P38" s="3">
-        <v>2024</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P39" s="3">
-        <v>2024</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P40" s="3">
-        <v>2024</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P41" s="3">
-        <v>2024</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P42" s="3">
-        <v>2024</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>172</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="Q2:Q42">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="coding">
-      <formula>NOT(ISERROR(SEARCH("coding",Q2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="ready">
-      <formula>NOT(ISERROR(SEARCH("ready",Q2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="missing">
-      <formula>NOT(ISERROR(SEARCH("missing",Q2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
@@ -5239,7 +5421,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3620e9c0d1a16779aea146adda0186f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2afd3ea0446edf26a13b3c7fc9e6232" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -5488,16 +5670,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1EE7D2B-72B9-4B29-A99A-A2518AB2EE2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5508,7 +5689,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87354EAB-4CC7-4750-AE59-FEDEECBA27EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5525,12 +5706,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3016" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{015BA577-314E-4422-8838-69E95B2FDA30}"/>
+  <xr:revisionPtr revIDLastSave="3413" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2BB1294-E16C-4147-BD5B-74BB7E6C3F12}"/>
   <bookViews>
-    <workbookView xWindow="1716" yWindow="3192" windowWidth="17304" windowHeight="8892" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
   <sheets>
     <sheet name="general_info" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="291">
   <si>
     <t>Cover</t>
   </si>
@@ -231,9 +231,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>Top Terms Associated to Rule of Law in the United States</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -249,15 +246,6 @@
     <t>Your own life</t>
   </si>
   <si>
-    <t>Perceptions of Accountability in the United States over Time</t>
-  </si>
-  <si>
-    <t>Percentage of respondents who agree or strongly agree that high-ranking government officials would be held accountable for breaking the law…</t>
-  </si>
-  <si>
-    <t>Perceptions of Accountability, by Political Affiliation</t>
-  </si>
-  <si>
     <t>#003b8a, #fa4d57</t>
   </si>
   <si>
@@ -294,18 +282,12 @@
     <t>Electoral Process</t>
   </si>
   <si>
-    <t>Integrity of the Electoral Process, by Political Affiliation</t>
-  </si>
-  <si>
     <t>#003b8a, #fa4d58</t>
   </si>
   <si>
     <t>#003b8a, #fa4d59</t>
   </si>
   <si>
-    <t>Role of the Judiciary in the Electoral Process, by Political Affiliation</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -333,30 +315,12 @@
     <t>https://worldjusticeproject.org/rule-of-law-lac/shareimage_LAC.jpg</t>
   </si>
   <si>
-    <t>Police Officers</t>
-  </si>
-  <si>
-    <t>Executive</t>
-  </si>
-  <si>
     <t>#2a2a94, #a90099</t>
   </si>
   <si>
-    <t>#2a2a94, #a90099, #3273ff</t>
-  </si>
-  <si>
     <t>Justice System</t>
   </si>
   <si>
-    <t>Trust in Institutions over Time</t>
-  </si>
-  <si>
-    <t>Percentage of respondents who have a lot or some trust in...</t>
-  </si>
-  <si>
-    <t>People Living in Their Country</t>
-  </si>
-  <si>
     <t>Trust</t>
   </si>
   <si>
@@ -366,9 +330,6 @@
     <t>National Government Officers, Local Government Officers</t>
   </si>
   <si>
-    <t>Prosecutors, Judges &amp; Magistrates, Public Defense Attorneys</t>
-  </si>
-  <si>
     <t>USA_q18a</t>
   </si>
   <si>
@@ -393,9 +354,6 @@
     <t>q45b_G1</t>
   </si>
   <si>
-    <t>q1a</t>
-  </si>
-  <si>
     <t>q1d</t>
   </si>
   <si>
@@ -477,21 +435,6 @@
     <t>quadpanel</t>
   </si>
   <si>
-    <t>q1e, q1g, q1f</t>
-  </si>
-  <si>
-    <t>Relevance of the Rule of Law, by Political Affiliation</t>
-  </si>
-  <si>
-    <t>Percentage of respondents who believe that the Rule of Law is essential or important in the following topics…</t>
-  </si>
-  <si>
-    <t>Percentage of respondents who agree or strongly agree with the following statements…</t>
-  </si>
-  <si>
-    <t>Percentage of respondents who has a lot or some trust that the following institutions would fairly determine the election results…</t>
-  </si>
-  <si>
     <t>It is important that citizens have a say in government matters, even at the expense of efficiency.</t>
   </si>
   <si>
@@ -501,15 +444,9 @@
     <t xml:space="preserve">It is important to obey the government in power, no matter who you voted for. </t>
   </si>
   <si>
-    <t>2021, 2024</t>
-  </si>
-  <si>
     <t>hexpanel</t>
   </si>
   <si>
-    <t>Acceptance of Election Results, by Political Affiliation</t>
-  </si>
-  <si>
     <t>National Government Officers</t>
   </si>
   <si>
@@ -519,18 +456,9 @@
     <t>Judges and Magistrates</t>
   </si>
   <si>
-    <t>Public Defense Attorneys</t>
-  </si>
-  <si>
-    <t>Trust in Institutions over Time, by Political Affiliation</t>
-  </si>
-  <si>
     <t>q1b</t>
   </si>
   <si>
-    <t>q1f</t>
-  </si>
-  <si>
     <t>q1c</t>
   </si>
   <si>
@@ -552,21 +480,9 @@
     <t>Variables</t>
   </si>
   <si>
-    <t>Percentage of respondents that agree or strongly agree that the Supreme Court of Justice would be impartial if having to decide on…</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
     <t>Edgebars</t>
   </si>
   <si>
-    <t>Voting Rights</t>
-  </si>
-  <si>
     <t>Electoral Authorities</t>
   </si>
   <si>
@@ -576,15 +492,9 @@
     <t>USA_q21b_G2, USA_q21g_G1, USA_q21h_G2, USA_q21i_G2, USA_q21c_G2</t>
   </si>
   <si>
-    <t>USA_q21a_G1, USA_q21a_G2, USA_q21b_G1, USA_q21h_G1</t>
-  </si>
-  <si>
     <t>USA_q21e_G1, USA_q21f_G1, USA_q1k, USA_q2h, USA_q21g_G2</t>
   </si>
   <si>
-    <t>USA_q21c_G1, USA_q21d_G1, USA_q21f_G2, USA_q21j_G2, USA_q21j_merge</t>
-  </si>
-  <si>
     <t>Figure_3_1, Figure_3_2</t>
   </si>
   <si>
@@ -609,9 +519,6 @@
     <t>Source: WJP General Population Poll 2024</t>
   </si>
   <si>
-    <t>Source: WJP General Population Poll 2014, 2016, 2017, 2018, 2021, and 2024</t>
-  </si>
-  <si>
     <t>Source: WJP General Population Poll 2021 and 2024</t>
   </si>
   <si>
@@ -636,9 +543,6 @@
     <t>USA_q16, USA_q17</t>
   </si>
   <si>
-    <t>Percentage of respondents that agree or strongly agree that the following institutions would be impartial if having to decide on…</t>
-  </si>
-  <si>
     <t>Courts</t>
   </si>
   <si>
@@ -690,12 +594,6 @@
     <t>Vote recounts</t>
   </si>
   <si>
-    <t>Trust in in Institutions to Ensure Fair Election Results, by Political Affiliation</t>
-  </si>
-  <si>
-    <t>Percentage of respondents in the United States who believe that various actors could hypothetically stop the President’s illegal actions …</t>
-  </si>
-  <si>
     <t>legend</t>
   </si>
   <si>
@@ -705,12 +603,6 @@
     <t>Panel</t>
   </si>
   <si>
-    <t>Most frequent terms used by people when…</t>
-  </si>
-  <si>
-    <t>Attitudes Towards Authoritarianism and Rule of Law over Time</t>
-  </si>
-  <si>
     <t>q45c_G1</t>
   </si>
   <si>
@@ -718,15 +610,6 @@
   </si>
   <si>
     <t>Citizens</t>
-  </si>
-  <si>
-    <t>Perceptions of Constraints on Government Powers, by Political Affiliation</t>
-  </si>
-  <si>
-    <t>Perceptions of Constraints on Government Powers over Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of respondents that would or would not accept the election results in the following scenarios... </t>
   </si>
   <si>
     <t>onClick</t>
@@ -840,43 +723,208 @@
     <t>chart_insight</t>
   </si>
   <si>
-    <t>Americans tend to associate the notion of rule of law with positive sentiments, but the state of rule of law in the US with negative sentiments.</t>
-  </si>
-  <si>
-    <t>The percentage of respondents who agree that rule of law is integral to the future of the US, democracy and individual lives consistently exceeds 90%.</t>
-  </si>
-  <si>
-    <t>In 2021, democrats and republicans had an almost equal perception of accountability. This figure has increased for both parties in 2024, but now democrats are now more likely than republicans to trust that government officials will be held accountable for breaking the law.</t>
-  </si>
-  <si>
-    <t>Since 2014, the percentage of respondents who agree that the opinions of individual citizens should be prioritized in government matters has decreased by almost 10%. Likewise, the percentage who agree that the president must always obey the law has decreased.</t>
-  </si>
-  <si>
-    <t>Since 2014, the percentage of respondents who agree that high-ranking officials would be held accountable for breaking the law has seen a net decrease of 25%.</t>
-  </si>
-  <si>
-    <t>In 2021, republicans were more likely to trust individual citizens to constrain government powers, while in 2024 results reflect that democrats are more likely to do so.</t>
-  </si>
-  <si>
-    <t>Respondents have a higher perception that the Congress, Courts, and the Citizens themselves can counteract abuses of power from the President. However, since 2014, only the citizens themselves have seen a net increase in this perception.</t>
-  </si>
-  <si>
-    <t>Since a peak in 2018, trust in most institutions has either stagnated or decreased in the country. Trust in judges and magistrates has seen the highest decline since 2018.</t>
-  </si>
-  <si>
-    <t>Apart from judges and magistrates, democrats are reporting higher trust in most institutions, while republicans are reporting lower levels of trust in most actors.</t>
-  </si>
-  <si>
-    <t>In most aspects, democrats have a more positive view of the integrity of the electoral system. Republicans have a more positive view regarding voting access.</t>
-  </si>
-  <si>
-    <t>Close to half of Republicans (46%) and more than a quarter of Democrats (27%) said they would not consider 2024 election results to be legitimate if the other party’s presidential candidate won.</t>
-  </si>
-  <si>
-    <t>The share democrats who possess a lot or some trust in local and state-level election workers, local and federal courts, and congress is significantly higher than the respective share of republicans who do so. However, the inverse is true for the Supreme Court.</t>
-  </si>
-  <si>
-    <t>epublicans’ trust in the Supreme Court impartiality significantly exceeds that of democrats, while democrats have a more positive view of low and mid-level courts than republicans.</t>
+    <t>Both Democrats and Republicans Consider Rule of Law to Be Crucial</t>
+  </si>
+  <si>
+    <t>Regardless of political affiliation, the percentage of respondents who agree that rule of law is essential or important to the future of the country, U.S. democracy, and their own lives consistently exceeds 90%.</t>
+  </si>
+  <si>
+    <t>Perceptions of Accountability Remain Low</t>
+  </si>
+  <si>
+    <t>Since WJP’s 2013 General Population Poll, the proportion of respondents who agree or strongly agree that high-ranking officials would be held accountable for breaking the law has dropped 30 percentage points. However, this figure increased between the 2021 and 2024 polls.</t>
+  </si>
+  <si>
+    <t>Most Americans Express Rule of Law Values, But Majorities Are Eroding</t>
+  </si>
+  <si>
+    <t>Confidence in Institutions to Check Executive Power has Decreased, but Confidence in Citizens to Do so Has Increased</t>
+  </si>
+  <si>
+    <t>The percentages of respondents in the United States who agree that Congress, the courts, and citizens could hypothetically stop a president’s illegal actions follow a similar pattern since 2014—peaking in the 2016 and 2017 polls before dropping off in 2021 and increasing between 2021 and 2024. Between 2014 and 2024, however, the only group that saw a net increase in the percentage of Americans who believed it could stop a president’s illegal actions was citizens.</t>
+  </si>
+  <si>
+    <t>Democrats Are More Likely to Trust That Executive Power Can Be Constrained by a Variety of Actors</t>
+  </si>
+  <si>
+    <t>Trust in Many Institutions Has Eroded Since 2018</t>
+  </si>
+  <si>
+    <t>q1i</t>
+  </si>
+  <si>
+    <t>In most cases, the percentage of respondents who express having a lot or some trust in institutions decreased between the 2018 and 2024 polls. Trust in judges and magistrates declined the most during that time, falling 13 percentage points. Only trust in local government officials is higher in 2024 than 2018, but more Americans still trust officials working at the national level more.</t>
+  </si>
+  <si>
+    <t>News Media</t>
+  </si>
+  <si>
+    <t>The Police</t>
+  </si>
+  <si>
+    <t>Executive Branch</t>
+  </si>
+  <si>
+    <t>q1e, q1g</t>
+  </si>
+  <si>
+    <t>Prosecutors, Judges &amp; Magistrates</t>
+  </si>
+  <si>
+    <t>Democrats Are More Likely Than Republicans to Trust Institutions, Apart from the Police</t>
+  </si>
+  <si>
+    <t>The percentage of Democrats who express a lot or some trust in the media, executive officials, and judicial officials is consistently greater than the percentage of Republicans who do. However, Republicans consistently trust the police more. Since 2021, Democrats have gained trust in executive officials and law enforcement, but lost trust in judges and the media. Republicans have lost trust in most institutions since 2021.</t>
+  </si>
+  <si>
+    <t>Confidence in Elections is Dependent on Political Affiliation</t>
+  </si>
+  <si>
+    <t>For Many Americans, Election Legitimacy Will Depend on Who Wins</t>
+  </si>
+  <si>
+    <t>Perceptions of Accountability are Conditional on Party Affiliation</t>
+  </si>
+  <si>
+    <t>Most frequent terms used by people when…</t>
+  </si>
+  <si>
+    <t>Percentage of respondents who believe that the Rule of Law is essential or important in the following topics…</t>
+  </si>
+  <si>
+    <t>Percentage of respondents who agree or strongly agree that high-ranking government officials would be held accountable for breaking the law…</t>
+  </si>
+  <si>
+    <t>Percentage of respondents who agree or strongly agree with the following statements…</t>
+  </si>
+  <si>
+    <t>Percentage of respondents in the United States who believe that various actors could hypothetically stop the President’s illegal actions …</t>
+  </si>
+  <si>
+    <t>Percentage of respondents who have a lot or some trust in...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of respondents that would or would not accept the election results in the following scenarios... </t>
+  </si>
+  <si>
+    <t>Percentage of respondents who has a lot or some trust that the following institutions would fairly determine the election results…</t>
+  </si>
+  <si>
+    <t>Percentage of respondents that agree or strongly agree that the following institutions would be impartial if having to decide on…</t>
+  </si>
+  <si>
+    <t>Percentage of respondents that agree or strongly agree that the Supreme Court of Justice would be impartial if having to decide on…</t>
+  </si>
+  <si>
+    <t>Overall, around one-third of respondents said they would not accept 2024 presidential election results as legitimate if their favored candidate did not win. This infographic shows how Democrats and Republicans said they would respond to election results based on who won.  A total of 46% of Republicans and 27% of Democrats said they would not accept election results as legitimate if the other party’s candidate won. Those figures include the 14% of all Republicans and almost 11% of all Democrats who said they would take action to overturn election results if the other party won.</t>
+  </si>
+  <si>
+    <t>Democrats Have More Trust in Institutions to Ensure A Fair Election Outcome—Except the Supreme Court</t>
+  </si>
+  <si>
+    <t>If the 2024 presidential election results are contested, the proportion of Democrats who express a lot or some trust in local and state election workers, local and federal courts, and Congress to fairly determine the winner is significantly higher than the respective share of Republicans who do so. However, Republicans have more trust in the Supreme Court to fairly determine a winner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Asked About “The Courts,” Democrats Have More Trust; When asked about “The Supreme Court,” Republicans Do </t>
+  </si>
+  <si>
+    <t>More than two-thirds of Democrats trust “the courts” to act impartially on criminal cases against presidential candidates and a variety of election-related disputes, while smaller majorities of Republicans agreed. However, when asked about “the Supreme Court” regarding those same issues, less than half of Democrats believe the Supreme Court would act in a non-partisan manner, while 74%-81% of Republicans do.</t>
+  </si>
+  <si>
+    <t>Voting Rights and Politics</t>
+  </si>
+  <si>
+    <t>Figure_13</t>
+  </si>
+  <si>
+    <t>Figure_14</t>
+  </si>
+  <si>
+    <t>USA_q21a_G1, USA_q21a_G2, USA_q21b_G1, USA_q21h_G1, USA_q21j_merge</t>
+  </si>
+  <si>
+    <t>USA_q21c_G1, USA_q21d_G1, USA_q21f_G2, USA_q21j_G2</t>
+  </si>
+  <si>
+    <t>q48g_G2</t>
+  </si>
+  <si>
+    <t>q48f_G2</t>
+  </si>
+  <si>
+    <t>q48e_G1</t>
+  </si>
+  <si>
+    <t>q48g_G1</t>
+  </si>
+  <si>
+    <t>Percentage of respondents who believes that…</t>
+  </si>
+  <si>
+    <t>Judges decide cases in an independent manner</t>
+  </si>
+  <si>
+    <t>Courts guarantee everyone a fair trial</t>
+  </si>
+  <si>
+    <t>2018, 2024</t>
+  </si>
+  <si>
+    <t>It is not necessary to obey the laws of a government that you did not vote for</t>
+  </si>
+  <si>
+    <t>Courts are not biased towards money or influence</t>
+  </si>
+  <si>
+    <t>Perceptions on the Judiciary</t>
+  </si>
+  <si>
+    <t>Americans Hold Negative Views on the State of U.S. Rule of Law Today</t>
+  </si>
+  <si>
+    <t>Americans tend to associate the notion of rule of law with positive sentiments, but the current state of the rule of law in the United States with negative sentiments. These word clouds show the most frequent terms people used when…</t>
+  </si>
+  <si>
+    <t>Since 2018, the percentage of people who agree or strongly agree that high-ranking government officials would be held accountable for breaking the law has increased for Democrats, but decreased for Republicans.</t>
+  </si>
+  <si>
+    <t>Since 2018, the percentage of respondents who favor citizen participation over government efficiency has decreased by almost 10 percentage points. Likewise, the percentage who believe the president must always obey the law has decreased. The percentage of people who say it is important to obey the government has not changed significantly since 2018, the number of people who now say it is not necessary to obey the laws of a government you did not for has increased. This is possible because the number of people who did not agree with either statement has declined.</t>
+  </si>
+  <si>
+    <t>Between 2018 and 2024, the percentage of Democrats who believe that courts and Congress could hypothetically stop a president’s illegal actions has increased significantly, while the percentage of Republians that hold the same believe has decreased significantly. A similar but less striking pattern is observed when looking at the percentage of people who trust citizens to constrain government powers.</t>
+  </si>
+  <si>
+    <t>Source: WJP General Population Poll 2013, 2014, 2016, 2017, 2018, 2021, and 2024</t>
+  </si>
+  <si>
+    <t>Source: WJP General Population Poll 2018 and 2024</t>
+  </si>
+  <si>
+    <t>Source: WJP General Population Poll 2018, 2021 and 2024</t>
+  </si>
+  <si>
+    <t>Prosecutors prosecute crimes in an independent manner</t>
+  </si>
+  <si>
+    <t>Independence and Fairness Perceptions of the Justice System Has Eroded Since 2018</t>
+  </si>
+  <si>
+    <t>The percentage of respondents that perceives the Justice System as fair and independent has decreased significantly since 2018. However, the perception on the independence of prosecutors showed a significant increased between 2021 and 2024.</t>
+  </si>
+  <si>
+    <t>Perceptions on Independence and Fairness of the Justice System Show Different Trends Depending on Political Affiliation</t>
+  </si>
+  <si>
+    <t>In 2018, Republicans had a more positive perception on the independence and fairness of the Justice System than Democrats. However, since then, the overall percentage of Republicans has decreased while the percentage of Democrats shows significant increases across all four items evaluated below. As a result, Democrats now show a more positive perception than Republicans when asked about their perception on the fairness of courts and the independence of judges and prosecutors.</t>
+  </si>
+  <si>
+    <t>The News Media</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>In most cases, the percentage of Democrats who agree or strongly agree with the following positive statements about the electoral process significantly exceeds the percentage of Republicans who do so. The only deviations from this trend concern voting rights, where Democrats are less likely than Republicans to believe that voting in the United States is equally accessible and convenient for all citizens.</t>
   </si>
 </sst>
 </file>
@@ -982,37 +1030,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <b val="0"/>
@@ -1292,6 +1310,22 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1322,8 +1356,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}" name="Table14" displayName="Table14" ref="A1:K29" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="A1:K29" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}" name="Table14" displayName="Table14" ref="A1:K31" totalsRowShown="0" dataDxfId="20">
+  <autoFilter ref="A1:K31" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{9CFB6294-2D1F-459C-958F-167AA1ADC69D}" name="id"/>
     <tableColumn id="2" xr3:uid="{2E5F114E-6AFB-4EA6-A519-E85A2FF2C521}" name="page"/>
@@ -1335,23 +1369,23 @@
     <tableColumn id="7" xr3:uid="{7D4CCB54-6DC7-4469-A234-60DD891FC399}" name="has_subsection"/>
     <tableColumn id="8" xr3:uid="{69BC0A78-B535-4CFE-92C3-285DED5D7490}" name="thematic_findings"/>
     <tableColumn id="9" xr3:uid="{D81CCAC3-A209-46F3-88C1-0250B379E958}" name="legend"/>
-    <tableColumn id="13" xr3:uid="{D4941AAA-948A-4C26-9998-E656071F295A}" name="macro" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{D4941AAA-948A-4C26-9998-E656071F295A}" name="macro" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}" name="Table53" displayName="Table53" ref="A1:R42" totalsRowShown="0">
-  <autoFilter ref="A1:R42" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}" name="Table53" displayName="Table53" ref="A1:Q51" totalsRowShown="0">
+  <autoFilter ref="A1:Q51" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{D92A50FF-F655-438A-821F-D4E0A6773705}" name="id"/>
     <tableColumn id="2" xr3:uid="{4F1F3430-F8D1-427E-BB79-2C98EFBD6FEE}" name="panel"/>
-    <tableColumn id="3" xr3:uid="{AF985FC6-38BB-41CE-8758-910FF5881882}" name="chart_title"/>
-    <tableColumn id="4" xr3:uid="{8C170698-EA04-48E2-B7A5-E0753E8F925A}" name="chart_subtitle"/>
-    <tableColumn id="18" xr3:uid="{2C17A28C-003C-4D32-9270-F40E9299518E}" name="chart_insight" dataDxfId="19"/>
+    <tableColumn id="19" xr3:uid="{1520B749-B840-4CF5-8EF6-A17C6F7666CB}" name="chart_title" dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{1D6414BC-35AE-48B3-8DCF-B552D8374772}" name="chart_subtitle" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{2C17A28C-003C-4D32-9270-F40E9299518E}" name="chart_insight" dataDxfId="16"/>
     <tableColumn id="5" xr3:uid="{EE5EC27F-5201-4917-9105-EBECC1D04D1E}" name="var_id"/>
-    <tableColumn id="6" xr3:uid="{0C24CA8A-57D7-467B-B322-871903FD9B9A}" name="reportValues" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{0C24CA8A-57D7-467B-B322-871903FD9B9A}" name="reportValues" dataDxfId="15"/>
     <tableColumn id="7" xr3:uid="{B404EBD2-5F59-4883-A60E-29783B3EABD5}" name="panel_title"/>
     <tableColumn id="8" xr3:uid="{305A6FE0-17F9-4D5E-A381-A2D30312A6A5}" name="panel_subtitle"/>
     <tableColumn id="17" xr3:uid="{8CD60750-9682-4661-8153-34BC1191E931}" name="source"/>
@@ -1361,36 +1395,35 @@
     <tableColumn id="10" xr3:uid="{46740A75-E106-4C46-AECA-EE476BF4CE81}" name="legend_text"/>
     <tableColumn id="11" xr3:uid="{80D43E73-C185-43D6-A479-05FA587EF5B1}" name="legend_color"/>
     <tableColumn id="12" xr3:uid="{89491228-5A56-4B57-A0BF-8373C462ABB0}" name="sample"/>
-    <tableColumn id="13" xr3:uid="{336E9D74-FDC7-4F0E-89C6-2BAF8929A95A}" name="years" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{5E38E8F7-D7B2-4B97-A263-B5A16D170985}" name="status"/>
+    <tableColumn id="13" xr3:uid="{336E9D74-FDC7-4F0E-89C6-2BAF8929A95A}" name="years" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ACB93786-F805-4D77-91EF-7E8E15DFC5F9}" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ACB93786-F805-4D77-91EF-7E8E15DFC5F9}" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:D4" xr:uid="{ACB93786-F805-4D77-91EF-7E8E15DFC5F9}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0E8B927F-EDA3-44B5-A65F-A43249F8CEFA}" name="onClick" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{37F3D23E-B415-4A3B-8597-71D6413E2E7C}" name="img" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{148497E4-B1E5-47F7-AE41-6BCCE6689F43}" name="href" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{3CC541A0-1A30-4765-BCDB-703BB62E0CFF}" name="text" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{0E8B927F-EDA3-44B5-A65F-A43249F8CEFA}" name="onClick" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{37F3D23E-B415-4A3B-8597-71D6413E2E7C}" name="img" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{148497E4-B1E5-47F7-AE41-6BCCE6689F43}" name="href" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{3CC541A0-1A30-4765-BCDB-703BB62E0CFF}" name="text" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1493FFEA-D985-4ADD-8712-2894823646AD}" name="Table5" displayName="Table5" ref="A1:F4" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1493FFEA-D985-4ADD-8712-2894823646AD}" name="Table5" displayName="Table5" ref="A1:F4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F4" xr:uid="{1493FFEA-D985-4ADD-8712-2894823646AD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{93B89B02-E871-4E2D-8436-6488CD60EF55}" name="material_name" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{07B3A73C-6FB0-47EA-9648-DBDE4BDCF460}" name="description" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4F00246D-2D81-438C-B4FA-295885A0001B}" name="link1" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{90681B1B-22F0-456F-8696-E186F2FC350B}" name="label1" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{1AE75421-366F-4379-8983-5CF8141CE424}" name="link2" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{95F573B3-309B-4A0A-A474-6A955D9D59DA}" name="label2" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{93B89B02-E871-4E2D-8436-6488CD60EF55}" name="material_name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{07B3A73C-6FB0-47EA-9648-DBDE4BDCF460}" name="description" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4F00246D-2D81-438C-B4FA-295885A0001B}" name="link1" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{90681B1B-22F0-456F-8696-E186F2FC350B}" name="label1" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1AE75421-366F-4379-8983-5CF8141CE424}" name="link2" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{95F573B3-309B-4A0A-A474-6A955D9D59DA}" name="label2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1719,58 +1752,58 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="99.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="99.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1783,22 +1816,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B32341-F9AC-424D-8D69-9ABCF2FF7D4F}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1812,7 +1845,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1824,16 +1857,16 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="K1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1903,7 +1936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1938,7 +1971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1973,7 +2006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -2008,9 +2041,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2043,9 +2076,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2078,7 +2111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2086,7 +2119,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -2113,7 +2146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2121,13 +2154,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -2142,27 +2175,27 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -2177,27 +2210,27 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -2215,10 +2248,10 @@
         <v>11</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2226,7 +2259,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -2250,10 +2283,10 @@
         <v>11</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2261,7 +2294,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -2282,13 +2315,13 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2296,10 +2329,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
@@ -2317,13 +2350,13 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2331,10 +2364,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
         <v>41</v>
@@ -2352,161 +2385,161 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -2515,141 +2548,141 @@
         <v>43</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B22">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23">
+      <c r="B24">
         <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24">
-        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
         <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -2658,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -2670,56 +2703,56 @@
         <v>11</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
         <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27">
-        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -2728,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -2740,21 +2773,21 @@
         <v>11</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -2775,41 +2808,111 @@
         <v>11</v>
       </c>
       <c r="K28" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>51</v>
       </c>
-      <c r="B29">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="4" t="s">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2824,24 +2927,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942074E-1171-4680-A697-1A8E37014FFA}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
-    <col min="4" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2849,13 +2953,13 @@
         <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="F1" t="s">
         <v>30</v>
@@ -2864,13 +2968,13 @@
         <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="K1" t="s">
         <v>55</v>
@@ -2879,7 +2983,7 @@
         <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="N1" t="s">
         <v>59</v>
@@ -2888,36 +2992,33 @@
         <v>60</v>
       </c>
       <c r="P1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="Q1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -2926,13 +3027,13 @@
         <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>11</v>
@@ -2941,187 +3042,175 @@
         <v>11</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="3">
         <v>2024</v>
       </c>
-      <c r="R2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="3">
         <v>2024</v>
       </c>
-      <c r="R3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="3">
         <v>2024</v>
       </c>
-      <c r="R4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="3">
         <v>2024</v>
       </c>
-      <c r="R5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -3129,16 +3218,16 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -3150,34 +3239,31 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="K6" t="s">
         <v>11</v>
       </c>
       <c r="L6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M6" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N6" t="s">
         <v>11</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3185,16 +3271,16 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="E7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -3206,2003 +3292,2364 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="M7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="O7" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" t="s">
-        <v>150</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" t="s">
-        <v>140</v>
-      </c>
-      <c r="M8" t="s">
-        <v>168</v>
-      </c>
-      <c r="N8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="K9" t="s">
         <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N9" t="s">
         <v>11</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>282</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" t="s">
         <v>126</v>
       </c>
-      <c r="R9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" t="s">
-        <v>265</v>
-      </c>
-      <c r="F10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" t="s">
-        <v>140</v>
-      </c>
       <c r="M10" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s">
         <v>11</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
         <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="E11" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H11" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>189</v>
+        <v>282</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M11" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s">
         <v>11</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="E12" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="K12" t="s">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N12" t="s">
         <v>11</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="E13" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="F13" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
       </c>
       <c r="J13" t="s">
+        <v>280</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" t="s">
         <v>189</v>
       </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" t="s">
-        <v>140</v>
-      </c>
-      <c r="M13" t="s">
-        <v>168</v>
-      </c>
-      <c r="N13" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" t="s">
         <v>126</v>
       </c>
-      <c r="R13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E14" t="s">
-        <v>267</v>
-      </c>
-      <c r="F14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" t="s">
-        <v>224</v>
-      </c>
-      <c r="I14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" t="s">
-        <v>130</v>
-      </c>
       <c r="M14" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="O14" t="s">
         <v>72</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" t="s">
+        <v>188</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>281</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" t="s">
-        <v>199</v>
-      </c>
-      <c r="I15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" t="s">
-        <v>190</v>
-      </c>
-      <c r="K15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" t="s">
-        <v>130</v>
-      </c>
       <c r="M15" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P15" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="E16" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="F16" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
       </c>
       <c r="J16" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="K16" t="s">
         <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M16" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N16" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P16" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c r="E17" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="K17" t="s">
         <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="M17" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N17" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>232</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>288</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="K18" t="s">
         <v>11</v>
       </c>
       <c r="L18" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M18" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N18" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="O18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="E19" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>237</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="K19" t="s">
         <v>11</v>
       </c>
       <c r="L19" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M19" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N19" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="O19" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="E20" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="K20" t="s">
         <v>11</v>
       </c>
       <c r="L20" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M20" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N20" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="O20" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" t="s">
+        <v>235</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="s">
+        <v>280</v>
+      </c>
+      <c r="K21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" t="s">
         <v>126</v>
       </c>
-      <c r="R20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" t="s">
-        <v>270</v>
-      </c>
-      <c r="F21" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" t="s">
-        <v>190</v>
-      </c>
-      <c r="K21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" t="s">
-        <v>130</v>
-      </c>
       <c r="M21" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N21" t="s">
-        <v>106</v>
+        <v>289</v>
       </c>
       <c r="O21" t="s">
         <v>72</v>
       </c>
       <c r="P21" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="E22" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="J22" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="K22" t="s">
         <v>11</v>
       </c>
       <c r="L22" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M22" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N22" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P22" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="E23" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H23" t="s">
         <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="K23" t="s">
         <v>11</v>
       </c>
       <c r="L23" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M23" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N23" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P23" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="E24" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="K24" t="s">
         <v>11</v>
       </c>
       <c r="L24" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M24" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N24" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P24" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="E25" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="J25" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="K25" t="s">
         <v>11</v>
       </c>
       <c r="L25" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M25" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N25" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P25" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
       </c>
       <c r="I26" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="J26" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="K26" t="s">
         <v>11</v>
       </c>
       <c r="L26" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M26" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N26" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P26" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="E27" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>281</v>
+      </c>
+      <c r="K27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" t="s">
+        <v>144</v>
+      </c>
+      <c r="N27" t="s">
+        <v>94</v>
+      </c>
+      <c r="O27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F27" t="s">
-        <v>177</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27" t="s">
-        <v>83</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" t="s">
-        <v>188</v>
-      </c>
-      <c r="K27" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" t="s">
-        <v>173</v>
-      </c>
-      <c r="M27" t="s">
-        <v>169</v>
-      </c>
-      <c r="N27" t="s">
-        <v>106</v>
-      </c>
-      <c r="O27" t="s">
-        <v>72</v>
-      </c>
-      <c r="P27" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>2024</v>
-      </c>
-      <c r="R27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="E28" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H28" t="s">
-        <v>174</v>
+        <v>269</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
       </c>
       <c r="J28" t="s">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="K28" t="s">
         <v>11</v>
       </c>
       <c r="L28" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="M28" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="N28" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="O28" t="s">
         <v>72</v>
       </c>
       <c r="P28" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>2024</v>
-      </c>
-      <c r="R28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="E29" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H29" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
       </c>
       <c r="J29" t="s">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="K29" t="s">
         <v>11</v>
       </c>
       <c r="L29" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="M29" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="N29" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="O29" t="s">
         <v>72</v>
       </c>
       <c r="P29" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>2024</v>
-      </c>
-      <c r="R29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="E30" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F30" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H30" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
       </c>
       <c r="J30" t="s">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
         <v>11</v>
       </c>
       <c r="L30" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="M30" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="N30" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="O30" t="s">
         <v>72</v>
       </c>
       <c r="P30" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>2024</v>
-      </c>
-      <c r="R30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>284</v>
+      </c>
+      <c r="D31" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" t="s">
+        <v>285</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" t="s">
+        <v>273</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O31" s="2" t="s">
+      <c r="M31" t="s">
+        <v>144</v>
+      </c>
+      <c r="N31" t="s">
+        <v>11</v>
+      </c>
+      <c r="O31" t="s">
         <v>72</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>2024</v>
-      </c>
-      <c r="R31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P31" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="D32" t="s">
+        <v>268</v>
+      </c>
+      <c r="E32" t="s">
+        <v>287</v>
+      </c>
+      <c r="F32" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" t="s">
+        <v>269</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" t="s">
+        <v>116</v>
+      </c>
+      <c r="M32" t="s">
+        <v>144</v>
+      </c>
+      <c r="N32" t="s">
+        <v>94</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D33" t="s">
+        <v>268</v>
+      </c>
+      <c r="E33" t="s">
+        <v>287</v>
+      </c>
+      <c r="F33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" t="s">
+        <v>283</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" t="s">
+        <v>159</v>
+      </c>
+      <c r="K33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" t="s">
+        <v>144</v>
+      </c>
+      <c r="N33" t="s">
+        <v>94</v>
+      </c>
+      <c r="O33" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" t="s">
+        <v>287</v>
+      </c>
+      <c r="F34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" t="s">
+        <v>270</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" t="s">
+        <v>159</v>
+      </c>
+      <c r="K34" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" t="s">
+        <v>116</v>
+      </c>
+      <c r="M34" t="s">
+        <v>144</v>
+      </c>
+      <c r="N34" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D35" t="s">
+        <v>268</v>
+      </c>
+      <c r="E35" t="s">
+        <v>287</v>
+      </c>
+      <c r="F35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" t="s">
+        <v>273</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" t="s">
+        <v>159</v>
+      </c>
+      <c r="K35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" t="s">
+        <v>116</v>
+      </c>
+      <c r="M35" t="s">
+        <v>144</v>
+      </c>
+      <c r="N35" t="s">
+        <v>94</v>
+      </c>
+      <c r="O35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" t="s">
+        <v>290</v>
+      </c>
+      <c r="F36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" t="s">
+        <v>158</v>
+      </c>
+      <c r="K36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" t="s">
+        <v>146</v>
+      </c>
+      <c r="M36" t="s">
+        <v>145</v>
+      </c>
+      <c r="N36" t="s">
+        <v>94</v>
+      </c>
+      <c r="O36" t="s">
+        <v>68</v>
+      </c>
+      <c r="P36" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37" t="s">
+        <v>247</v>
+      </c>
+      <c r="E37" t="s">
+        <v>290</v>
+      </c>
+      <c r="F37" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" t="s">
+        <v>259</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" t="s">
+        <v>146</v>
+      </c>
+      <c r="M37" t="s">
+        <v>145</v>
+      </c>
+      <c r="N37" t="s">
+        <v>94</v>
+      </c>
+      <c r="O37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" t="s">
+        <v>247</v>
+      </c>
+      <c r="E38" t="s">
+        <v>290</v>
+      </c>
+      <c r="F38" t="s">
         <v>149</v>
       </c>
-      <c r="E32" t="s">
-        <v>273</v>
-      </c>
-      <c r="F32" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" t="s">
-        <v>188</v>
-      </c>
-      <c r="K32" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" t="s">
-        <v>141</v>
-      </c>
-      <c r="M32" t="s">
-        <v>169</v>
-      </c>
-      <c r="N32" t="s">
-        <v>106</v>
-      </c>
-      <c r="O32" t="s">
-        <v>72</v>
-      </c>
-      <c r="P32" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q32" s="1">
+      <c r="G38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" t="s">
+        <v>158</v>
+      </c>
+      <c r="K38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" t="s">
+        <v>146</v>
+      </c>
+      <c r="M38" t="s">
+        <v>145</v>
+      </c>
+      <c r="N38" t="s">
+        <v>94</v>
+      </c>
+      <c r="O38" t="s">
+        <v>68</v>
+      </c>
+      <c r="P38" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q38" s="1">
         <v>2024</v>
       </c>
-      <c r="R32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q33" s="3">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39" t="s">
+        <v>290</v>
+      </c>
+      <c r="F39" t="s">
+        <v>263</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" t="s">
+        <v>148</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" t="s">
+        <v>158</v>
+      </c>
+      <c r="K39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" t="s">
+        <v>146</v>
+      </c>
+      <c r="M39" t="s">
+        <v>145</v>
+      </c>
+      <c r="N39" t="s">
+        <v>94</v>
+      </c>
+      <c r="O39" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q39" s="1">
         <v>2024</v>
       </c>
-      <c r="R33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>2024</v>
-      </c>
-      <c r="R34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>2024</v>
-      </c>
-      <c r="R35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>2024</v>
-      </c>
-      <c r="R36" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>2024</v>
-      </c>
-      <c r="R37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>2024</v>
-      </c>
-      <c r="R38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>2024</v>
-      </c>
-      <c r="R39" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="Q40" s="3">
         <v>2024</v>
       </c>
-      <c r="R40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M41" s="2" t="s">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>260</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>255</v>
+      </c>
+      <c r="D41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E41" t="s">
+        <v>256</v>
+      </c>
+      <c r="F41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" t="s">
+        <v>158</v>
+      </c>
+      <c r="K41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" t="s">
+        <v>127</v>
+      </c>
+      <c r="M41" t="s">
+        <v>145</v>
+      </c>
+      <c r="N41" t="s">
+        <v>94</v>
+      </c>
+      <c r="O41" t="s">
+        <v>68</v>
+      </c>
+      <c r="P41" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>2024</v>
-      </c>
-      <c r="R41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="G42" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Q42" s="3">
         <v>2024</v>
       </c>
-      <c r="R42" t="s">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>172</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="R2:R42">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="coding">
-      <formula>NOT(ISERROR(SEARCH("coding",R2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="ready">
-      <formula>NOT(ISERROR(SEARCH("ready",R2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="missing">
-      <formula>NOT(ISERROR(SEARCH("missing",R2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -5214,74 +5661,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B777675-D9D1-464A-8253-1276A291F711}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5307,90 +5754,90 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5402,26 +5849,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3620e9c0d1a16779aea146adda0186f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2afd3ea0446edf26a13b3c7fc9e6232" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -5670,26 +6097,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1EE7D2B-72B9-4B29-A99A-A2518AB2EE2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87354EAB-4CC7-4750-AE59-FEDEECBA27EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5706,4 +6134,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1EE7D2B-72B9-4B29-A99A-A2518AB2EE2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3413" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2BB1294-E16C-4147-BD5B-74BB7E6C3F12}"/>
+  <xr:revisionPtr revIDLastSave="3484" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA6454DC-89EC-4893-9825-67344E03F221}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
   <sheets>
     <sheet name="general_info" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="290">
   <si>
     <t>Cover</t>
   </si>
@@ -417,9 +417,6 @@
     <t>Bars</t>
   </si>
   <si>
-    <t>Dumbbells</t>
-  </si>
-  <si>
     <t>Lines</t>
   </si>
   <si>
@@ -468,9 +465,6 @@
     <t>Local Government Officers</t>
   </si>
   <si>
-    <t>#3273ff, #a90099</t>
-  </si>
-  <si>
     <t>label_at</t>
   </si>
   <si>
@@ -624,27 +618,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>WJP Rule of Law Index 2022 Insights</t>
-  </si>
-  <si>
-    <t>https://worldjusticeproject.mx/wp-content/uploads/2022/05/1_WJP_IEDMX_Digital.pdf</t>
-  </si>
-  <si>
-    <r>
-      <t>https</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>://worldjusticeproject.mx/wp-content/uploads/2022/05/1_WJP_IEDMX_Digital.pdf</t>
-    </r>
-  </si>
-  <si>
     <t>material_name</t>
   </si>
   <si>
@@ -654,36 +627,6 @@
     <t>https://worldjusticeproject.org/sites/default/files/documents/South%20America%20GPP%20Questionnaire%202022_English.pdf</t>
   </si>
   <si>
-    <t>World Justice Project General Population Poll 2022 – South American Survey Instrument (English Versions A &amp; B)</t>
-  </si>
-  <si>
-    <t>The General Population Poll in South America was designed to capture high-quality data on the realities and concerns of ordinary people on a variety of themes related to the rule of law, including authoritarianism, government accountability, bribery, corruption, police performance, crime and security, and access to justice.  </t>
-  </si>
-  <si>
-    <t>VARIABLES USED IN INFOGRAPHICS ON CRIME VICTIMIZATION</t>
-  </si>
-  <si>
-    <t>This table lists the question-level variables from the General Population Poll used to construct Chart 12.1 and the “Reasons the crime was not reported” table in Chart 12.2.</t>
-  </si>
-  <si>
-    <t>https://worldjusticeproject.org/sites/default/files/documents/Crime%20Victimization%20Variable%20Map_South%20America.pdf</t>
-  </si>
-  <si>
-    <t>World Justice Project Crime Rates and Reporting Variable Map</t>
-  </si>
-  <si>
-    <t>REGRESSION TABLES FOR REGRESSION ANALYSIS USED IN INFOGRAPHIC ON PERCEPTIONS OF SECURITY</t>
-  </si>
-  <si>
-    <t>This document includes the question-level variables from the General Population Poll used in the regression analysis and the regression results featured in Chart 13.2.</t>
-  </si>
-  <si>
-    <t>https://worldjusticeproject.org/sites/default/files/documents/Regression%20Tables_South%20America_0.pdf</t>
-  </si>
-  <si>
-    <t>World Justice Project Regression Tables</t>
-  </si>
-  <si>
     <t>link1</t>
   </si>
   <si>
@@ -696,30 +639,12 @@
     <t>label2</t>
   </si>
   <si>
-    <t>Rule of Law in North Macedonia -- 2023</t>
-  </si>
-  <si>
-    <t>static/charts_and_images/imgPublications/rule_law_index_2022_insights.png</t>
-  </si>
-  <si>
-    <t>https://worldjusticeproject.org/our-work/research-and-data/rule-of-law/north-macedonia-2023</t>
-  </si>
-  <si>
-    <t>static/charts_and_images/imgPublications/bg-cover.jpg</t>
-  </si>
-  <si>
     <t>static/charts_and_images/imgPublications/ROLI-Insights.png</t>
   </si>
   <si>
-    <t>https://worldjusticeproject.org/rule-of-law-index/global/2023</t>
-  </si>
-  <si>
     <t>WJP Rule of Law Index 2023 Insights</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>chart_insight</t>
   </si>
   <si>
@@ -738,9 +663,6 @@
     <t>Most Americans Express Rule of Law Values, But Majorities Are Eroding</t>
   </si>
   <si>
-    <t>Confidence in Institutions to Check Executive Power has Decreased, but Confidence in Citizens to Do so Has Increased</t>
-  </si>
-  <si>
     <t>The percentages of respondents in the United States who agree that Congress, the courts, and citizens could hypothetically stop a president’s illegal actions follow a similar pattern since 2014—peaking in the 2016 and 2017 polls before dropping off in 2021 and increasing between 2021 and 2024. Between 2014 and 2024, however, the only group that saw a net increase in the percentage of Americans who believed it could stop a president’s illegal actions was citizens.</t>
   </si>
   <si>
@@ -816,9 +738,6 @@
     <t>Percentage of respondents that agree or strongly agree that the Supreme Court of Justice would be impartial if having to decide on…</t>
   </si>
   <si>
-    <t>Overall, around one-third of respondents said they would not accept 2024 presidential election results as legitimate if their favored candidate did not win. This infographic shows how Democrats and Republicans said they would respond to election results based on who won.  A total of 46% of Republicans and 27% of Democrats said they would not accept election results as legitimate if the other party’s candidate won. Those figures include the 14% of all Republicans and almost 11% of all Democrats who said they would take action to overturn election results if the other party won.</t>
-  </si>
-  <si>
     <t>Democrats Have More Trust in Institutions to Ensure A Fair Election Outcome—Except the Supreme Court</t>
   </si>
   <si>
@@ -882,9 +801,6 @@
     <t>Americans Hold Negative Views on the State of U.S. Rule of Law Today</t>
   </si>
   <si>
-    <t>Americans tend to associate the notion of rule of law with positive sentiments, but the current state of the rule of law in the United States with negative sentiments. These word clouds show the most frequent terms people used when…</t>
-  </si>
-  <si>
     <t>Since 2018, the percentage of people who agree or strongly agree that high-ranking government officials would be held accountable for breaking the law has increased for Democrats, but decreased for Republicans.</t>
   </si>
   <si>
@@ -906,18 +822,9 @@
     <t>Prosecutors prosecute crimes in an independent manner</t>
   </si>
   <si>
-    <t>Independence and Fairness Perceptions of the Justice System Has Eroded Since 2018</t>
-  </si>
-  <si>
-    <t>The percentage of respondents that perceives the Justice System as fair and independent has decreased significantly since 2018. However, the perception on the independence of prosecutors showed a significant increased between 2021 and 2024.</t>
-  </si>
-  <si>
     <t>Perceptions on Independence and Fairness of the Justice System Show Different Trends Depending on Political Affiliation</t>
   </si>
   <si>
-    <t>In 2018, Republicans had a more positive perception on the independence and fairness of the Justice System than Democrats. However, since then, the overall percentage of Republicans has decreased while the percentage of Democrats shows significant increases across all four items evaluated below. As a result, Democrats now show a more positive perception than Republicans when asked about their perception on the fairness of courts and the independence of judges and prosecutors.</t>
-  </si>
-  <si>
     <t>The News Media</t>
   </si>
   <si>
@@ -925,6 +832,84 @@
   </si>
   <si>
     <t>In most cases, the percentage of Democrats who agree or strongly agree with the following positive statements about the electoral process significantly exceeds the percentage of Republicans who do so. The only deviations from this trend concern voting rights, where Democrats are less likely than Republicans to believe that voting in the United States is equally accessible and convenient for all citizens.</t>
+  </si>
+  <si>
+    <t>The Rule of Law in the United States 2021</t>
+  </si>
+  <si>
+    <t>static/charts_and_images/imgPublications/US_Report_WJP.jpg</t>
+  </si>
+  <si>
+    <t>https://worldjusticeproject.org/our-work/research-and-data/rule-of-law-united-states-2021</t>
+  </si>
+  <si>
+    <t>Dissecting the Justice Gap in 104 Countries</t>
+  </si>
+  <si>
+    <t>static/charts_and_images/imgPublications/A2J-P2.png</t>
+  </si>
+  <si>
+    <t>https://worldjusticeproject.org/our-work/research-and-data/wjp-justice-data-graphical-report-i</t>
+  </si>
+  <si>
+    <t>WJP Rule of Law Index 2023</t>
+  </si>
+  <si>
+    <t>static/charts_and_images/imgPublications/ROLI.png</t>
+  </si>
+  <si>
+    <t>https://worldjusticeproject.org/rule-of-law-index/</t>
+  </si>
+  <si>
+    <t>https://worldjusticeproject.org/rule-of-law-index/downloads/WJPInsights2023.pdf</t>
+  </si>
+  <si>
+    <t>Índice de Estado de Derecho en México 2023-2024</t>
+  </si>
+  <si>
+    <t>https://index.worldjusticeproject.mx/?mapa</t>
+  </si>
+  <si>
+    <t>WJP Country Reports</t>
+  </si>
+  <si>
+    <t>https://worldjusticeproject.org/our-work/research-and-data/country-reports</t>
+  </si>
+  <si>
+    <t>static/charts_and_images/imgPublications/ROL-Mex.jpg</t>
+  </si>
+  <si>
+    <t>static/charts_and_images/imgPublications/country-reports.png</t>
+  </si>
+  <si>
+    <t>The General Population Poll in the United States was designed to capture high-quality data on the realities and concerns of ordinary people on a variety of themes related to the rule of law, including authoritarianism, government accountability, bribery, corruption, police performance, crime and security, and the 2024 presidential elections.  </t>
+  </si>
+  <si>
+    <t>World Justice Project General Population Poll 2024 – United States Survey Instrument</t>
+  </si>
+  <si>
+    <t>2018, 2021, 2024</t>
+  </si>
+  <si>
+    <t>Note: The 2024 U.S. General Population Poll was conducted in June before the Democratic candidate changed from Joe Biden to Kamala Harris.&lt;br&gt;Source: WJP General Population Poll 2024</t>
+  </si>
+  <si>
+    <t>Americans tend to associate the notion of rule of law with positive sentiments, but they associate the current state of the rule of law in the United States with negative sentiments.</t>
+  </si>
+  <si>
+    <t>Confidence in Institutions to Check Executive Power has Decreased, but Confidence in Citizens to Do So Has Increased</t>
+  </si>
+  <si>
+    <t>Perceptions of Independence and Fairness of the Justice System Have Eroded Since 2018</t>
+  </si>
+  <si>
+    <t>The percentage of respondents that perceives the justice system as fair and independent has decreased significantly since 2018. However, the perception on the independence of prosecutors showed a significant increased between 2021 and 2024.</t>
+  </si>
+  <si>
+    <t>In 2018, Republicans had a more positive perception on the independence and fairness of the Justice System than Democrats. However, since then, Republicans’ perceptions have deteriorated while Democrats views have improved across all four dimensions of justice system performance evaluated. As a result, Democrats now show a more positive perception than Republicans when asked about their perception on the fairness of courts and the independence of judges and prosecutors.</t>
+  </si>
+  <si>
+    <t>Overall, around one-third of respondents said they would not accept 2024 presidential election results as legitimate if their favored candidate did not win. This infographic shows how Democrats and Republicans said they would respond to election results based on who won.  A total of 46% of Republicans and 27% of Democrats said they would not accept election results as legitimate if the other party’s candidate won. Those figures include the 14% of all Republicans and almost 11% of all Democrats who said they would take action to overturn election results if the other party won. What type of action—whether legal or illegal—was not specified in the survey question.</t>
   </si>
 </sst>
 </file>
@@ -1402,8 +1387,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ACB93786-F805-4D77-91EF-7E8E15DFC5F9}" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:D4" xr:uid="{ACB93786-F805-4D77-91EF-7E8E15DFC5F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ACB93786-F805-4D77-91EF-7E8E15DFC5F9}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:D7" xr:uid="{ACB93786-F805-4D77-91EF-7E8E15DFC5F9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0E8B927F-EDA3-44B5-A65F-A43249F8CEFA}" name="onClick" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{37F3D23E-B415-4A3B-8597-71D6413E2E7C}" name="img" dataDxfId="10"/>
@@ -1795,7 +1780,7 @@
         <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1819,7 +1804,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1830,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1860,7 +1845,7 @@
         <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K1" t="s">
         <v>27</v>
@@ -2119,7 +2104,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -2154,13 +2139,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -2175,27 +2160,27 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" t="s">
         <v>161</v>
       </c>
-      <c r="D11" t="s">
-        <v>163</v>
-      </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -2210,10 +2195,10 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2224,7 +2209,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -2248,7 +2233,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2259,7 +2244,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -2283,7 +2268,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2294,7 +2279,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -2315,10 +2300,10 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2329,7 +2314,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
         <v>93</v>
@@ -2350,10 +2335,10 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2364,7 +2349,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D16" t="s">
         <v>93</v>
@@ -2385,10 +2370,10 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2399,10 +2384,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D17" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="E17" t="s">
         <v>42</v>
@@ -2420,27 +2405,27 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2455,10 +2440,10 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2469,7 +2454,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -2504,7 +2489,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -2525,10 +2510,10 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2539,7 +2524,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -2560,27 +2545,27 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2595,27 +2580,27 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2630,10 +2615,10 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2929,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942074E-1171-4680-A697-1A8E37014FFA}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,6 +2928,7 @@
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2959,7 +2945,7 @@
         <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
         <v>30</v>
@@ -2974,7 +2960,7 @@
         <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K1" t="s">
         <v>55</v>
@@ -2983,7 +2969,7 @@
         <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N1" t="s">
         <v>59</v>
@@ -3000,22 +2986,22 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>112</v>
@@ -3027,7 +3013,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>11</v>
@@ -3059,13 +3045,13 @@
         <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>96</v>
@@ -3080,7 +3066,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>11</v>
@@ -3089,7 +3075,7 @@
         <v>124</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>94</v>
@@ -3112,13 +3098,13 @@
         <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>109</v>
@@ -3133,7 +3119,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>11</v>
@@ -3142,7 +3128,7 @@
         <v>124</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>94</v>
@@ -3165,13 +3151,13 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>110</v>
@@ -3186,7 +3172,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>11</v>
@@ -3195,7 +3181,7 @@
         <v>124</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>94</v>
@@ -3218,13 +3204,13 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="F6" t="s">
         <v>113</v>
@@ -3239,16 +3225,16 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="K6" t="s">
         <v>11</v>
       </c>
       <c r="L6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N6" t="s">
         <v>11</v>
@@ -3271,13 +3257,13 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="F7" t="s">
         <v>113</v>
@@ -3292,7 +3278,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -3301,19 +3287,19 @@
         <v>125</v>
       </c>
       <c r="M7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>271</v>
+        <v>142</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s">
         <v>94</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3324,13 +3310,13 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="F8" t="s">
         <v>99</v>
@@ -3339,22 +3325,22 @@
         <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="K8" t="s">
         <v>11</v>
       </c>
       <c r="L8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N8" t="s">
         <v>11</v>
@@ -3377,13 +3363,13 @@
         <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="F9" t="s">
         <v>100</v>
@@ -3392,22 +3378,22 @@
         <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="K9" t="s">
         <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N9" t="s">
         <v>11</v>
@@ -3430,13 +3416,13 @@
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="F10" t="s">
         <v>101</v>
@@ -3445,22 +3431,22 @@
         <v>114</v>
       </c>
       <c r="H10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s">
         <v>11</v>
@@ -3483,13 +3469,13 @@
         <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="F11" t="s">
         <v>101</v>
@@ -3498,22 +3484,22 @@
         <v>117</v>
       </c>
       <c r="H11" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s">
         <v>11</v>
@@ -3536,13 +3522,13 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="E12" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="F12" t="s">
         <v>102</v>
@@ -3551,22 +3537,22 @@
         <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="K12" t="s">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N12" t="s">
         <v>11</v>
@@ -3589,13 +3575,13 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="E13" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="F13" t="s">
         <v>103</v>
@@ -3604,22 +3590,22 @@
         <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="K13" t="s">
         <v>11</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N13" t="s">
         <v>11</v>
@@ -3642,37 +3628,37 @@
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="F14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="K14" t="s">
         <v>11</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N14" t="s">
         <v>11</v>
@@ -3695,13 +3681,13 @@
         <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="E15" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -3710,13 +3696,13 @@
         <v>114</v>
       </c>
       <c r="H15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="K15" t="s">
         <v>11</v>
@@ -3725,7 +3711,7 @@
         <v>116</v>
       </c>
       <c r="M15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N15" t="s">
         <v>94</v>
@@ -3737,7 +3723,7 @@
         <v>94</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3748,13 +3734,13 @@
         <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="E16" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -3763,13 +3749,13 @@
         <v>114</v>
       </c>
       <c r="H16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
       </c>
       <c r="J16" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="K16" t="s">
         <v>11</v>
@@ -3778,7 +3764,7 @@
         <v>116</v>
       </c>
       <c r="M16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N16" t="s">
         <v>94</v>
@@ -3790,7 +3776,7 @@
         <v>94</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -3801,28 +3787,28 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="E17" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="K17" t="s">
         <v>11</v>
@@ -3831,7 +3817,7 @@
         <v>116</v>
       </c>
       <c r="M17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N17" t="s">
         <v>94</v>
@@ -3843,7 +3829,7 @@
         <v>94</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -3854,40 +3840,40 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="F18" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="K18" t="s">
         <v>11</v>
       </c>
       <c r="L18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N18" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="O18" t="s">
         <v>72</v>
@@ -3907,16 +3893,16 @@
         <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="D19" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="F19" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>114</v>
@@ -3928,19 +3914,19 @@
         <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="K19" t="s">
         <v>11</v>
       </c>
       <c r="L19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N19" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="O19" t="s">
         <v>91</v>
@@ -3960,13 +3946,13 @@
         <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="D20" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E20" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -3975,22 +3961,22 @@
         <v>114</v>
       </c>
       <c r="H20" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="K20" t="s">
         <v>11</v>
       </c>
       <c r="L20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N20" t="s">
         <v>95</v>
@@ -4013,13 +3999,13 @@
         <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E21" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="F21" t="s">
         <v>104</v>
@@ -4028,25 +4014,25 @@
         <v>114</v>
       </c>
       <c r="H21" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
       </c>
       <c r="J21" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="K21" t="s">
         <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N21" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="O21" t="s">
         <v>72</v>
@@ -4066,16 +4052,16 @@
         <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E22" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="F22" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>114</v>
@@ -4084,10 +4070,10 @@
         <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="K22" t="s">
         <v>11</v>
@@ -4096,7 +4082,7 @@
         <v>116</v>
       </c>
       <c r="M22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N22" t="s">
         <v>94</v>
@@ -4108,7 +4094,7 @@
         <v>94</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -4119,16 +4105,16 @@
         <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E23" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>114</v>
@@ -4137,10 +4123,10 @@
         <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J23" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="K23" t="s">
         <v>11</v>
@@ -4149,7 +4135,7 @@
         <v>116</v>
       </c>
       <c r="M23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N23" t="s">
         <v>94</v>
@@ -4161,7 +4147,7 @@
         <v>94</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -4172,16 +4158,16 @@
         <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E24" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>114</v>
@@ -4190,10 +4176,10 @@
         <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J24" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="K24" t="s">
         <v>11</v>
@@ -4202,7 +4188,7 @@
         <v>116</v>
       </c>
       <c r="M24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N24" t="s">
         <v>94</v>
@@ -4214,7 +4200,7 @@
         <v>94</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -4225,16 +4211,16 @@
         <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>114</v>
@@ -4243,10 +4229,10 @@
         <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J25" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="K25" t="s">
         <v>11</v>
@@ -4255,7 +4241,7 @@
         <v>116</v>
       </c>
       <c r="M25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N25" t="s">
         <v>94</v>
@@ -4267,7 +4253,7 @@
         <v>94</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -4278,16 +4264,16 @@
         <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E26" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>114</v>
@@ -4296,10 +4282,10 @@
         <v>11</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J26" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="K26" t="s">
         <v>11</v>
@@ -4308,7 +4294,7 @@
         <v>116</v>
       </c>
       <c r="M26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N26" t="s">
         <v>94</v>
@@ -4320,7 +4306,7 @@
         <v>94</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -4331,13 +4317,13 @@
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D27" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="F27" t="s">
         <v>104</v>
@@ -4349,10 +4335,10 @@
         <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="J27" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s">
         <v>11</v>
@@ -4361,7 +4347,7 @@
         <v>116</v>
       </c>
       <c r="M27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N27" t="s">
         <v>94</v>
@@ -4373,7 +4359,7 @@
         <v>94</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -4384,37 +4370,37 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D28" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E28" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H28" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
       </c>
       <c r="J28" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s">
         <v>11</v>
       </c>
       <c r="L28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N28" t="s">
         <v>11</v>
@@ -4437,37 +4423,37 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D29" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E29" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H29" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
       </c>
       <c r="J29" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="K29" t="s">
         <v>11</v>
       </c>
       <c r="L29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N29" t="s">
         <v>11</v>
@@ -4490,37 +4476,37 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D30" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E30" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H30" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
       </c>
       <c r="J30" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="K30" t="s">
         <v>11</v>
       </c>
       <c r="L30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N30" t="s">
         <v>11</v>
@@ -4543,37 +4529,37 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D31" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E31" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>117</v>
       </c>
       <c r="H31" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
       </c>
       <c r="J31" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s">
         <v>11</v>
       </c>
       <c r="L31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N31" t="s">
         <v>11</v>
@@ -4590,34 +4576,34 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="D32" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E32" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F32" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H32" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
       </c>
       <c r="J32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K32" t="s">
         <v>11</v>
@@ -4626,7 +4612,7 @@
         <v>116</v>
       </c>
       <c r="M32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N32" t="s">
         <v>94</v>
@@ -4638,39 +4624,39 @@
         <v>94</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="D33" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E33" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H33" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
       </c>
       <c r="J33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K33" t="s">
         <v>11</v>
@@ -4679,7 +4665,7 @@
         <v>116</v>
       </c>
       <c r="M33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N33" t="s">
         <v>94</v>
@@ -4691,39 +4677,39 @@
         <v>94</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="D34" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E34" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H34" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="I34" t="s">
         <v>11</v>
       </c>
       <c r="J34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K34" t="s">
         <v>11</v>
@@ -4732,7 +4718,7 @@
         <v>116</v>
       </c>
       <c r="M34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N34" t="s">
         <v>94</v>
@@ -4744,39 +4730,39 @@
         <v>94</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B35" t="s">
         <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="D35" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F35" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>117</v>
       </c>
       <c r="H35" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="I35" t="s">
         <v>11</v>
       </c>
       <c r="J35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K35" t="s">
         <v>11</v>
@@ -4785,7 +4771,7 @@
         <v>116</v>
       </c>
       <c r="M35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N35" t="s">
         <v>94</v>
@@ -4797,7 +4783,7 @@
         <v>94</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -4808,37 +4794,37 @@
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D36" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E36" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="F36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
       </c>
       <c r="J36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K36" t="s">
         <v>11</v>
       </c>
       <c r="L36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N36" t="s">
         <v>94</v>
@@ -4861,37 +4847,37 @@
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D37" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E37" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="F37" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H37" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="I37" t="s">
         <v>11</v>
       </c>
       <c r="J37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K37" t="s">
         <v>11</v>
       </c>
       <c r="L37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N37" t="s">
         <v>94</v>
@@ -4914,16 +4900,16 @@
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E38" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>114</v>
@@ -4935,16 +4921,16 @@
         <v>11</v>
       </c>
       <c r="J38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K38" t="s">
         <v>11</v>
       </c>
       <c r="L38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N38" t="s">
         <v>94</v>
@@ -4967,37 +4953,37 @@
         <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D39" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E39" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="F39" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I39" t="s">
         <v>11</v>
       </c>
       <c r="J39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K39" t="s">
         <v>11</v>
       </c>
       <c r="L39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N39" t="s">
         <v>94</v>
@@ -5020,13 +5006,13 @@
         <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>97</v>
@@ -5041,7 +5027,7 @@
         <v>11</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>158</v>
+        <v>283</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>11</v>
@@ -5067,19 +5053,19 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="B41" t="s">
         <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="D41" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="E41" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="F41" t="s">
         <v>98</v>
@@ -5094,16 +5080,16 @@
         <v>11</v>
       </c>
       <c r="J41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K41" t="s">
         <v>11</v>
       </c>
       <c r="L41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N41" t="s">
         <v>94</v>
@@ -5120,34 +5106,34 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>114</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>11</v>
@@ -5156,7 +5142,7 @@
         <v>124</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>94</v>
@@ -5173,34 +5159,34 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>114</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>11</v>
@@ -5209,7 +5195,7 @@
         <v>124</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>94</v>
@@ -5226,34 +5212,34 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>114</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>11</v>
@@ -5262,7 +5248,7 @@
         <v>124</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>94</v>
@@ -5279,34 +5265,34 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>114</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>11</v>
@@ -5315,7 +5301,7 @@
         <v>124</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>94</v>
@@ -5332,34 +5318,34 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>114</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>11</v>
@@ -5368,7 +5354,7 @@
         <v>124</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>94</v>
@@ -5385,34 +5371,34 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>114</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>11</v>
@@ -5421,7 +5407,7 @@
         <v>124</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>94</v>
@@ -5438,34 +5424,34 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>114</v>
       </c>
       <c r="H48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="J48" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>11</v>
@@ -5474,7 +5460,7 @@
         <v>124</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>94</v>
@@ -5491,34 +5477,34 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>114</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>11</v>
@@ -5527,7 +5513,7 @@
         <v>124</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>94</v>
@@ -5544,34 +5530,34 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>114</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>11</v>
@@ -5580,7 +5566,7 @@
         <v>124</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>94</v>
@@ -5597,34 +5583,34 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>114</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>11</v>
@@ -5633,7 +5619,7 @@
         <v>124</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>94</v>
@@ -5659,89 +5645,136 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B777675-D9D1-464A-8253-1276A291F711}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>219</v>
+        <v>268</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>196</v>
+      <c r="A4" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>195</v>
+        <v>279</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{DDE09507-FDBB-4B92-A1BB-6B5D8A472EAA}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{9AF91C49-C50E-4740-B8B2-B2601753393F}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{9A540F78-20F3-4714-B3CB-4F18AE89D35E}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{B61D53F6-1801-4CF7-AA17-08F1F62A3967}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{525EA257-7B7C-4ADF-ABAD-18E26D4721FF}"/>
+    <hyperlink ref="A7" r:id="rId4" xr:uid="{97552CF5-F155-4538-9E29-2826EAB3CD65}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{E4091ED2-A7EF-4DB5-AABA-4247C0BFCD49}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{5DA6FEF9-D718-4BA6-8DB6-87329287E25F}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{79A8B9FB-763D-4530-B3AB-C274909C3FC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5751,7 +5784,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5762,83 +5795,55 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>200</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>221</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>221</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3484" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA6454DC-89EC-4893-9825-67344E03F221}"/>
+  <xr:revisionPtr revIDLastSave="3490" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4A50AC3-C9C7-437C-AB6B-2D74DA923E08}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
   <sheets>
     <sheet name="general_info" sheetId="3" r:id="rId1"/>
@@ -705,9 +705,6 @@
     <t>For Many Americans, Election Legitimacy Will Depend on Who Wins</t>
   </si>
   <si>
-    <t>Perceptions of Accountability are Conditional on Party Affiliation</t>
-  </si>
-  <si>
     <t>Most frequent terms used by people when…</t>
   </si>
   <si>
@@ -801,12 +798,6 @@
     <t>Americans Hold Negative Views on the State of U.S. Rule of Law Today</t>
   </si>
   <si>
-    <t>Since 2018, the percentage of people who agree or strongly agree that high-ranking government officials would be held accountable for breaking the law has increased for Democrats, but decreased for Republicans.</t>
-  </si>
-  <si>
-    <t>Since 2018, the percentage of respondents who favor citizen participation over government efficiency has decreased by almost 10 percentage points. Likewise, the percentage who believe the president must always obey the law has decreased. The percentage of people who say it is important to obey the government has not changed significantly since 2018, the number of people who now say it is not necessary to obey the laws of a government you did not for has increased. This is possible because the number of people who did not agree with either statement has declined.</t>
-  </si>
-  <si>
     <t>Between 2018 and 2024, the percentage of Democrats who believe that courts and Congress could hypothetically stop a president’s illegal actions has increased significantly, while the percentage of Republians that hold the same believe has decreased significantly. A similar but less striking pattern is observed when looking at the percentage of people who trust citizens to constrain government powers.</t>
   </si>
   <si>
@@ -910,6 +901,15 @@
   </si>
   <si>
     <t>Overall, around one-third of respondents said they would not accept 2024 presidential election results as legitimate if their favored candidate did not win. This infographic shows how Democrats and Republicans said they would respond to election results based on who won.  A total of 46% of Republicans and 27% of Democrats said they would not accept election results as legitimate if the other party’s candidate won. Those figures include the 14% of all Republicans and almost 11% of all Democrats who said they would take action to overturn election results if the other party won. What type of action—whether legal or illegal—was not specified in the survey question.</t>
+  </si>
+  <si>
+    <t>Perceptions of Accountability are Conditional on Party Affiliation Again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the 2021 low point in Americans' perceptions of government accountability,  Democrats' and Republicans' views nearly converged. Since 2018, however, the percentage of people who agree or strongly agree that high-ranking government officials would be held accountable for breaking the law has increased for Democrats while it has decreased for Republicans. </t>
+  </si>
+  <si>
+    <t>Since 2018, the percentage of respondents who favor citizen participation over government efficiency has decreased by almost 10 percentage points. Likewise, the percentage who believe the president must always obey the law has decreased. The percentage of people who say it is important to obey the government has not changed significantly since 2018, however the number of people who now say it is not necessary to obey the laws of a government you did not for has increased. This is possible because the number of people who did not agree with either statement has declined.</t>
   </si>
 </sst>
 </file>
@@ -1737,13 +1737,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="99.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -1807,16 +1807,16 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>159</v>
       </c>
       <c r="D17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E17" t="s">
         <v>42</v>
@@ -2411,7 +2411,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E18" t="s">
         <v>151</v>
@@ -2446,7 +2446,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2551,9 +2551,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -2565,7 +2565,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2586,9 +2586,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -2600,7 +2600,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -2914,24 +2914,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942074E-1171-4680-A697-1A8E37014FFA}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>153</v>
       </c>
@@ -2992,13 +2992,13 @@
         <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>164</v>
@@ -3037,7 +3037,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>108</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>202</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>203</v>
@@ -3090,7 +3090,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>108</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>202</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>203</v>
@@ -3143,7 +3143,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>108</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>202</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>203</v>
@@ -3196,7 +3196,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
         <v>205</v>
@@ -3225,7 +3225,7 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K6" t="s">
         <v>11</v>
@@ -3249,7 +3249,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3257,13 +3257,13 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="F7" t="s">
         <v>113</v>
@@ -3278,7 +3278,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -3299,10 +3299,10 @@
         <v>94</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -3313,10 +3313,10 @@
         <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E8" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="F8" t="s">
         <v>99</v>
@@ -3331,7 +3331,7 @@
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K8" t="s">
         <v>11</v>
@@ -3355,7 +3355,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -3366,10 +3366,10 @@
         <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E9" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="F9" t="s">
         <v>100</v>
@@ -3384,7 +3384,7 @@
         <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K9" t="s">
         <v>11</v>
@@ -3408,7 +3408,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -3419,10 +3419,10 @@
         <v>206</v>
       </c>
       <c r="D10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E10" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
         <v>101</v>
@@ -3437,7 +3437,7 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
@@ -3461,7 +3461,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -3472,10 +3472,10 @@
         <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E11" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="F11" t="s">
         <v>101</v>
@@ -3484,13 +3484,13 @@
         <v>117</v>
       </c>
       <c r="H11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
@@ -3514,7 +3514,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -3522,10 +3522,10 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E12" t="s">
         <v>207</v>
@@ -3543,7 +3543,7 @@
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K12" t="s">
         <v>11</v>
@@ -3567,7 +3567,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3575,10 +3575,10 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E13" t="s">
         <v>207</v>
@@ -3596,7 +3596,7 @@
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K13" t="s">
         <v>11</v>
@@ -3620,7 +3620,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -3628,10 +3628,10 @@
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E14" t="s">
         <v>207</v>
@@ -3649,7 +3649,7 @@
         <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K14" t="s">
         <v>11</v>
@@ -3673,7 +3673,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -3684,10 +3684,10 @@
         <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -3702,7 +3702,7 @@
         <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K15" t="s">
         <v>11</v>
@@ -3723,10 +3723,10 @@
         <v>94</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -3737,10 +3737,10 @@
         <v>208</v>
       </c>
       <c r="D16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -3755,7 +3755,7 @@
         <v>11</v>
       </c>
       <c r="J16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K16" t="s">
         <v>11</v>
@@ -3776,10 +3776,10 @@
         <v>94</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -3790,10 +3790,10 @@
         <v>208</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F17" t="s">
         <v>185</v>
@@ -3808,7 +3808,7 @@
         <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K17" t="s">
         <v>11</v>
@@ -3829,10 +3829,10 @@
         <v>94</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>209</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
         <v>211</v>
@@ -3855,13 +3855,13 @@
         <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K18" t="s">
         <v>11</v>
@@ -3885,7 +3885,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>209</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E19" t="s">
         <v>211</v>
@@ -3914,7 +3914,7 @@
         <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K19" t="s">
         <v>11</v>
@@ -3938,7 +3938,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>209</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E20" t="s">
         <v>211</v>
@@ -3967,7 +3967,7 @@
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K20" t="s">
         <v>11</v>
@@ -3991,7 +3991,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>209</v>
       </c>
       <c r="D21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E21" t="s">
         <v>211</v>
@@ -4020,7 +4020,7 @@
         <v>11</v>
       </c>
       <c r="J21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K21" t="s">
         <v>11</v>
@@ -4032,7 +4032,7 @@
         <v>142</v>
       </c>
       <c r="N21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O21" t="s">
         <v>72</v>
@@ -4044,7 +4044,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E22" t="s">
         <v>218</v>
@@ -4073,7 +4073,7 @@
         <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K22" t="s">
         <v>11</v>
@@ -4094,10 +4094,10 @@
         <v>94</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>217</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E23" t="s">
         <v>218</v>
@@ -4126,7 +4126,7 @@
         <v>136</v>
       </c>
       <c r="J23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K23" t="s">
         <v>11</v>
@@ -4147,10 +4147,10 @@
         <v>94</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
         <v>218</v>
@@ -4179,7 +4179,7 @@
         <v>135</v>
       </c>
       <c r="J24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
         <v>11</v>
@@ -4200,10 +4200,10 @@
         <v>94</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E25" t="s">
         <v>218</v>
@@ -4232,7 +4232,7 @@
         <v>134</v>
       </c>
       <c r="J25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K25" t="s">
         <v>11</v>
@@ -4253,10 +4253,10 @@
         <v>94</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>217</v>
       </c>
       <c r="D26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E26" t="s">
         <v>218</v>
@@ -4285,7 +4285,7 @@
         <v>140</v>
       </c>
       <c r="J26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s">
         <v>11</v>
@@ -4306,10 +4306,10 @@
         <v>94</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>217</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E27" t="s">
         <v>218</v>
@@ -4338,7 +4338,7 @@
         <v>213</v>
       </c>
       <c r="J27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s">
         <v>11</v>
@@ -4359,10 +4359,10 @@
         <v>94</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -4370,28 +4370,28 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
       </c>
       <c r="J28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K28" t="s">
         <v>11</v>
@@ -4415,7 +4415,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -4423,28 +4423,28 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
       </c>
       <c r="J29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s">
         <v>11</v>
@@ -4468,7 +4468,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -4476,28 +4476,28 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E30" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
       </c>
       <c r="J30" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K30" t="s">
         <v>11</v>
@@ -4521,7 +4521,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -4529,28 +4529,28 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>117</v>
       </c>
       <c r="H31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
       </c>
       <c r="J31" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K31" t="s">
         <v>11</v>
@@ -4574,7 +4574,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -4582,22 +4582,22 @@
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -4624,10 +4624,10 @@
         <v>94</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -4635,22 +4635,22 @@
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E33" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H33" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
@@ -4677,10 +4677,10 @@
         <v>94</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>151</v>
       </c>
@@ -4688,22 +4688,22 @@
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E34" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I34" t="s">
         <v>11</v>
@@ -4730,10 +4730,10 @@
         <v>94</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -4741,22 +4741,22 @@
         <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E35" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>117</v>
       </c>
       <c r="H35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I35" t="s">
         <v>11</v>
@@ -4783,10 +4783,10 @@
         <v>94</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -4797,10 +4797,10 @@
         <v>219</v>
       </c>
       <c r="D36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E36" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F36" t="s">
         <v>148</v>
@@ -4839,7 +4839,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -4850,19 +4850,19 @@
         <v>219</v>
       </c>
       <c r="D37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I37" t="s">
         <v>11</v>
@@ -4892,7 +4892,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -4903,10 +4903,10 @@
         <v>219</v>
       </c>
       <c r="D38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E38" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F38" t="s">
         <v>147</v>
@@ -4945,7 +4945,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -4956,13 +4956,13 @@
         <v>219</v>
       </c>
       <c r="D39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E39" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>114</v>
@@ -4998,7 +4998,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -5009,10 +5009,10 @@
         <v>220</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>97</v>
@@ -5027,7 +5027,7 @@
         <v>11</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>11</v>
@@ -5051,21 +5051,21 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s">
         <v>61</v>
       </c>
       <c r="C41" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" t="s">
+        <v>228</v>
+      </c>
+      <c r="E41" t="s">
         <v>232</v>
-      </c>
-      <c r="D41" t="s">
-        <v>229</v>
-      </c>
-      <c r="E41" t="s">
-        <v>233</v>
       </c>
       <c r="F41" t="s">
         <v>98</v>
@@ -5104,21 +5104,21 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>166</v>
@@ -5157,21 +5157,21 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>167</v>
@@ -5210,21 +5210,21 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>172</v>
@@ -5263,21 +5263,21 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>173</v>
@@ -5316,21 +5316,21 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>174</v>
@@ -5369,21 +5369,21 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>169</v>
@@ -5422,21 +5422,21 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>168</v>
@@ -5475,21 +5475,21 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>170</v>
@@ -5528,21 +5528,21 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>171</v>
@@ -5581,21 +5581,21 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>175</v>
@@ -5651,14 +5651,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>188</v>
       </c>
@@ -5672,91 +5672,91 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D5" s="5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>199</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>278</v>
-      </c>
       <c r="C7" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5787,13 +5787,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>192</v>
       </c>
@@ -5813,23 +5813,23 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5837,7 +5837,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>

--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject-my.sharepoint.com/personal/icoddington_worldjusticeproject_org/Documents/Desktop/Github/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3490" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4A50AC3-C9C7-437C-AB6B-2D74DA923E08}"/>
+  <xr:revisionPtr revIDLastSave="3608" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB895994-0112-4D21-807B-6F0D483F67D9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
+    <workbookView xWindow="170" yWindow="240" windowWidth="17890" windowHeight="10650" firstSheet="3" activeTab="4" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
   <sheets>
     <sheet name="general_info" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="289">
   <si>
     <t>Cover</t>
   </si>
@@ -264,9 +264,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>The Rule of Law in the United States</t>
-  </si>
-  <si>
     <t>Key Findings from the WJP General Population Poll 2024</t>
   </si>
   <si>
@@ -513,24 +510,15 @@
     <t>Source: WJP General Population Poll 2024</t>
   </si>
   <si>
-    <t>Source: WJP General Population Poll 2021 and 2024</t>
-  </si>
-  <si>
     <t>static/US_Report_WJP_2024.pdf</t>
   </si>
   <si>
     <t>Section I: Rule of Law and Trust</t>
   </si>
   <si>
-    <t>Section II: Perceptions on the 2024 Presidential Elections</t>
-  </si>
-  <si>
     <t>Government Accountability</t>
   </si>
   <si>
-    <t>Perceptions on the Rule of Law</t>
-  </si>
-  <si>
     <t>Figure_1, Figure_2</t>
   </si>
   <si>
@@ -624,21 +612,12 @@
     <t>GENERAL POPULATION POLL (GPP)</t>
   </si>
   <si>
-    <t>https://worldjusticeproject.org/sites/default/files/documents/South%20America%20GPP%20Questionnaire%202022_English.pdf</t>
-  </si>
-  <si>
     <t>link1</t>
   </si>
   <si>
     <t>label1</t>
   </si>
   <si>
-    <t>link2</t>
-  </si>
-  <si>
-    <t>label2</t>
-  </si>
-  <si>
     <t>static/charts_and_images/imgPublications/ROLI-Insights.png</t>
   </si>
   <si>
@@ -657,15 +636,6 @@
     <t>Perceptions of Accountability Remain Low</t>
   </si>
   <si>
-    <t>Since WJP’s 2013 General Population Poll, the proportion of respondents who agree or strongly agree that high-ranking officials would be held accountable for breaking the law has dropped 30 percentage points. However, this figure increased between the 2021 and 2024 polls.</t>
-  </si>
-  <si>
-    <t>Most Americans Express Rule of Law Values, But Majorities Are Eroding</t>
-  </si>
-  <si>
-    <t>The percentages of respondents in the United States who agree that Congress, the courts, and citizens could hypothetically stop a president’s illegal actions follow a similar pattern since 2014—peaking in the 2016 and 2017 polls before dropping off in 2021 and increasing between 2021 and 2024. Between 2014 and 2024, however, the only group that saw a net increase in the percentage of Americans who believed it could stop a president’s illegal actions was citizens.</t>
-  </si>
-  <si>
     <t>Democrats Are More Likely to Trust That Executive Power Can Be Constrained by a Variety of Actors</t>
   </si>
   <si>
@@ -675,9 +645,6 @@
     <t>q1i</t>
   </si>
   <si>
-    <t>In most cases, the percentage of respondents who express having a lot or some trust in institutions decreased between the 2018 and 2024 polls. Trust in judges and magistrates declined the most during that time, falling 13 percentage points. Only trust in local government officials is higher in 2024 than 2018, but more Americans still trust officials working at the national level more.</t>
-  </si>
-  <si>
     <t>News Media</t>
   </si>
   <si>
@@ -690,15 +657,9 @@
     <t>q1e, q1g</t>
   </si>
   <si>
-    <t>Prosecutors, Judges &amp; Magistrates</t>
-  </si>
-  <si>
     <t>Democrats Are More Likely Than Republicans to Trust Institutions, Apart from the Police</t>
   </si>
   <si>
-    <t>The percentage of Democrats who express a lot or some trust in the media, executive officials, and judicial officials is consistently greater than the percentage of Republicans who do. However, Republicans consistently trust the police more. Since 2021, Democrats have gained trust in executive officials and law enforcement, but lost trust in judges and the media. Republicans have lost trust in most institutions since 2021.</t>
-  </si>
-  <si>
     <t>Confidence in Elections is Dependent on Political Affiliation</t>
   </si>
   <si>
@@ -741,9 +702,6 @@
     <t>If the 2024 presidential election results are contested, the proportion of Democrats who express a lot or some trust in local and state election workers, local and federal courts, and Congress to fairly determine the winner is significantly higher than the respective share of Republicans who do so. However, Republicans have more trust in the Supreme Court to fairly determine a winner.</t>
   </si>
   <si>
-    <t xml:space="preserve">When Asked About “The Courts,” Democrats Have More Trust; When asked about “The Supreme Court,” Republicans Do </t>
-  </si>
-  <si>
     <t>More than two-thirds of Democrats trust “the courts” to act impartially on criminal cases against presidential candidates and a variety of election-related disputes, while smaller majorities of Republicans agreed. However, when asked about “the Supreme Court” regarding those same issues, less than half of Democrats believe the Supreme Court would act in a non-partisan manner, while 74%-81% of Republicans do.</t>
   </si>
   <si>
@@ -777,30 +735,12 @@
     <t>Percentage of respondents who believes that…</t>
   </si>
   <si>
-    <t>Judges decide cases in an independent manner</t>
-  </si>
-  <si>
-    <t>Courts guarantee everyone a fair trial</t>
-  </si>
-  <si>
     <t>2018, 2024</t>
   </si>
   <si>
-    <t>It is not necessary to obey the laws of a government that you did not vote for</t>
-  </si>
-  <si>
-    <t>Courts are not biased towards money or influence</t>
-  </si>
-  <si>
-    <t>Perceptions on the Judiciary</t>
-  </si>
-  <si>
     <t>Americans Hold Negative Views on the State of U.S. Rule of Law Today</t>
   </si>
   <si>
-    <t>Between 2018 and 2024, the percentage of Democrats who believe that courts and Congress could hypothetically stop a president’s illegal actions has increased significantly, while the percentage of Republians that hold the same believe has decreased significantly. A similar but less striking pattern is observed when looking at the percentage of people who trust citizens to constrain government powers.</t>
-  </si>
-  <si>
     <t>Source: WJP General Population Poll 2013, 2014, 2016, 2017, 2018, 2021, and 2024</t>
   </si>
   <si>
@@ -810,12 +750,6 @@
     <t>Source: WJP General Population Poll 2018, 2021 and 2024</t>
   </si>
   <si>
-    <t>Prosecutors prosecute crimes in an independent manner</t>
-  </si>
-  <si>
-    <t>Perceptions on Independence and Fairness of the Justice System Show Different Trends Depending on Political Affiliation</t>
-  </si>
-  <si>
     <t>The News Media</t>
   </si>
   <si>
@@ -840,9 +774,6 @@
     <t>static/charts_and_images/imgPublications/A2J-P2.png</t>
   </si>
   <si>
-    <t>https://worldjusticeproject.org/our-work/research-and-data/wjp-justice-data-graphical-report-i</t>
-  </si>
-  <si>
     <t>WJP Rule of Law Index 2023</t>
   </si>
   <si>
@@ -858,9 +789,6 @@
     <t>Índice de Estado de Derecho en México 2023-2024</t>
   </si>
   <si>
-    <t>https://index.worldjusticeproject.mx/?mapa</t>
-  </si>
-  <si>
     <t>WJP Country Reports</t>
   </si>
   <si>
@@ -873,9 +801,6 @@
     <t>static/charts_and_images/imgPublications/country-reports.png</t>
   </si>
   <si>
-    <t>The General Population Poll in the United States was designed to capture high-quality data on the realities and concerns of ordinary people on a variety of themes related to the rule of law, including authoritarianism, government accountability, bribery, corruption, police performance, crime and security, and the 2024 presidential elections.  </t>
-  </si>
-  <si>
     <t>World Justice Project General Population Poll 2024 – United States Survey Instrument</t>
   </si>
   <si>
@@ -894,22 +819,94 @@
     <t>Perceptions of Independence and Fairness of the Justice System Have Eroded Since 2018</t>
   </si>
   <si>
-    <t>The percentage of respondents that perceives the justice system as fair and independent has decreased significantly since 2018. However, the perception on the independence of prosecutors showed a significant increased between 2021 and 2024.</t>
-  </si>
-  <si>
-    <t>In 2018, Republicans had a more positive perception on the independence and fairness of the Justice System than Democrats. However, since then, Republicans’ perceptions have deteriorated while Democrats views have improved across all four dimensions of justice system performance evaluated. As a result, Democrats now show a more positive perception than Republicans when asked about their perception on the fairness of courts and the independence of judges and prosecutors.</t>
-  </si>
-  <si>
-    <t>Overall, around one-third of respondents said they would not accept 2024 presidential election results as legitimate if their favored candidate did not win. This infographic shows how Democrats and Republicans said they would respond to election results based on who won.  A total of 46% of Republicans and 27% of Democrats said they would not accept election results as legitimate if the other party’s candidate won. Those figures include the 14% of all Republicans and almost 11% of all Democrats who said they would take action to overturn election results if the other party won. What type of action—whether legal or illegal—was not specified in the survey question.</t>
-  </si>
-  <si>
-    <t>Perceptions of Accountability are Conditional on Party Affiliation Again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the 2021 low point in Americans' perceptions of government accountability,  Democrats' and Republicans' views nearly converged. Since 2018, however, the percentage of people who agree or strongly agree that high-ranking government officials would be held accountable for breaking the law has increased for Democrats while it has decreased for Republicans. </t>
-  </si>
-  <si>
-    <t>Since 2018, the percentage of respondents who favor citizen participation over government efficiency has decreased by almost 10 percentage points. Likewise, the percentage who believe the president must always obey the law has decreased. The percentage of people who say it is important to obey the government has not changed significantly since 2018, however the number of people who now say it is not necessary to obey the laws of a government you did not for has increased. This is possible because the number of people who did not agree with either statement has declined.</t>
+    <t>U.S. Rule of Law Trends and the 2024 Election</t>
+  </si>
+  <si>
+    <t>Perceptions of the Rule of Law</t>
+  </si>
+  <si>
+    <t>Perceptions of the Judiciary</t>
+  </si>
+  <si>
+    <t>Regardless of political affiliation, the percentage of respondents who agree or strongly agree that rule of law is essential or important to the future of the country, U.S. democracy, and their own lives consistently exceeds 90%.</t>
+  </si>
+  <si>
+    <t>Since 2013, the proportion of respondents who agree or strongly agree that high-ranking officials would be held accountable for breaking the law has dropped 30 percentage points. However, this figure increased between the 2021 and 2024 polls.</t>
+  </si>
+  <si>
+    <t>Perceptions of Accountability are Conditional on Party Affiliation</t>
+  </si>
+  <si>
+    <t>In 2021, Democrats' and Republicans' views nearly converged at a low point of Americans' perceptions of government accountability. Compared to 2018, though, the percentage of respondents who agree or strongly agree that high-ranking government officials would be held accountable for breaking the law in 2024 has increased for Democrats but decreased for Republicans.</t>
+  </si>
+  <si>
+    <t>It is not necessary to obey the laws of a government that you did not vote for.</t>
+  </si>
+  <si>
+    <t>Most Americans Value Rule of Law Principles, Despite Eroding Majority</t>
+  </si>
+  <si>
+    <t>Between 2018 and 2024, the percentage of Democrats who believe that courts and Congress could hypothetically stop a president’s illegal actions has increased significantly, while the percentage of Republicans that hold the same belief has decreased significantly. A similar but less striking pattern is observed when looking at the percentage of people who trust citizens to constrain government powers.</t>
+  </si>
+  <si>
+    <t>In most cases, the percentage of respondents who express having a lot or some trust in institutions decreased between the 2018 and 2024 polls. Trust in judges and magistrates declined the most during that time, falling 13 percentage points. Only trust in local government officials is higher in 2024 than 2018, though Americans still report higher levels of trust in officials working at the national level.</t>
+  </si>
+  <si>
+    <t>Prosecutors, Judges and Magistrates</t>
+  </si>
+  <si>
+    <t>Judges decide cases in an independent manner.</t>
+  </si>
+  <si>
+    <t>Prosecutors prosecute crimes in an independent manner.</t>
+  </si>
+  <si>
+    <t>Courts guarantee everyone a fair trial.</t>
+  </si>
+  <si>
+    <t>Courts are not biased towards money or influence.</t>
+  </si>
+  <si>
+    <t>Perceptions of The Independence and Fairness of the Justice System Show Different Trends Depending on Political Affiliation</t>
+  </si>
+  <si>
+    <t>In 2018, Republicans held more positive views on the independence and fairness of the Justice System than Democrats. However, since then, Republicans’ perceptions have deteriorated while Democrats views have improved across all four evaluated dimensions of justice system performance. As a result, Democrats now report more positive views than Republicans when asked about their perceptions of the fairness of courts and the independence of judges and prosecutors.</t>
+  </si>
+  <si>
+    <t>Overall, around one-third of respondents said they would not accept 2024 presidential election results as legitimate if their favored candidate did not win. This infographic shows how Democrats and Republicans said they would respond to election results based the winning candidate.  A total of 46% of Republicans and 27% of Democrats said they would not accept election results as legitimate if the other party’s candidate won. Those figures include the 14% of all Republicans and almost 11% of all Democrats who said they would take action to overturn election results if the other party won. What type of action—whether legal or illegal—was not specified in the survey question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Asked About “The Courts,” Democrats Have More Trust; When Asked About “The Supreme Court,” Republicans Do </t>
+  </si>
+  <si>
+    <t>Section II: Perceptions of the 2024 Presidential Election</t>
+  </si>
+  <si>
+    <t>https://worldjusticeproject.org/sites/default/files/documents/US_Report_WJP.pdf</t>
+  </si>
+  <si>
+    <t>https://worldjusticeproject.mx/wp-content/uploads/2024/06/IEDMX2024_WEB.pdf</t>
+  </si>
+  <si>
+    <t>https://worldjusticeproject.org/our-work/research-and-data/wjp-justice-data-graphical-report-ii</t>
+  </si>
+  <si>
+    <t>The proportion of respondents who agree or strongly agree that high-ranking officials would be held accountable for breaking the law, by party affiliation.&lt;br&gt;Source: WJP General Population Poll 2018, 2021, and 2024</t>
+  </si>
+  <si>
+    <t>Since 2018, the percentage of respondents who favor citizen participation over government efficiency has decreased by almost 10 percentage points. Likewise, the percentage of respondents who believe the president must always obey the law has decreased. The percentage of people who say it is important to obey the government has not changed significantly since 2018, while the percentage of people who now say it is not necessary to obey the laws of a government you did not vote for has increased.</t>
+  </si>
+  <si>
+    <t>The percentages of respondents in the United States who agree that Congress and the courts could hypothetically stop a president’s illegal actions follow a similar pattern since 2014, with reported levels of confidence peaking in the 2016 and 2017 polls followed by a pronounced dip in the 2018 and 2021 polls. While respondents' levels of confidence has increased for all three groups since 2021, the only group that saw a net increase in the percentage of Americans who believed it could stop a president’s illegal actions since 2014 was citizens.</t>
+  </si>
+  <si>
+    <t>Since 2021, Democrats have gained trust in executive officials and law enforcement, but have lost trust in judges and the media. The percentage of Democrats who express a lot or some trust in the media, executive officials, and judicial officials is consistently greater than the percentage of Republicans who report the same. Republicans consistently report higher levels of trust in the police, though that percentage has decreased since 2018.</t>
+  </si>
+  <si>
+    <t>The percentage of respondents that perceive the justice system as fair and independent has decreased significantly since 2018. However, the perception on the independence of prosecutors showed a marked increased between 2021 and 2024.</t>
+  </si>
+  <si>
+    <t>The General Population Poll in the United States was designed to capture high-quality data on the realities and concerns of ordinary people on a variety of themes related to the rule of law, including authoritarianism, government accountability, bribery, corruption, police performance, crime and security, and the 2024 presidential election.  </t>
   </si>
 </sst>
 </file>
@@ -987,7 +984,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1010,50 +1007,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <b val="0"/>
@@ -1341,7 +1301,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}" name="Table14" displayName="Table14" ref="A1:K31" totalsRowShown="0" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}" name="Table14" displayName="Table14" ref="A1:K31" totalsRowShown="0" dataDxfId="18">
   <autoFilter ref="A1:K31" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{9CFB6294-2D1F-459C-958F-167AA1ADC69D}" name="id"/>
@@ -1354,7 +1314,7 @@
     <tableColumn id="7" xr3:uid="{7D4CCB54-6DC7-4469-A234-60DD891FC399}" name="has_subsection"/>
     <tableColumn id="8" xr3:uid="{69BC0A78-B535-4CFE-92C3-285DED5D7490}" name="thematic_findings"/>
     <tableColumn id="9" xr3:uid="{D81CCAC3-A209-46F3-88C1-0250B379E958}" name="legend"/>
-    <tableColumn id="13" xr3:uid="{D4941AAA-948A-4C26-9998-E656071F295A}" name="macro" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{D4941AAA-948A-4C26-9998-E656071F295A}" name="macro" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1362,15 +1322,21 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}" name="Table53" displayName="Table53" ref="A1:Q51" totalsRowShown="0">
-  <autoFilter ref="A1:Q51" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}"/>
+  <autoFilter ref="A1:Q51" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Figure_10"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{D92A50FF-F655-438A-821F-D4E0A6773705}" name="id"/>
     <tableColumn id="2" xr3:uid="{4F1F3430-F8D1-427E-BB79-2C98EFBD6FEE}" name="panel"/>
-    <tableColumn id="19" xr3:uid="{1520B749-B840-4CF5-8EF6-A17C6F7666CB}" name="chart_title" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{1D6414BC-35AE-48B3-8DCF-B552D8374772}" name="chart_subtitle" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{2C17A28C-003C-4D32-9270-F40E9299518E}" name="chart_insight" dataDxfId="16"/>
+    <tableColumn id="19" xr3:uid="{1520B749-B840-4CF5-8EF6-A17C6F7666CB}" name="chart_title" dataDxfId="16"/>
+    <tableColumn id="20" xr3:uid="{1D6414BC-35AE-48B3-8DCF-B552D8374772}" name="chart_subtitle" dataDxfId="15"/>
+    <tableColumn id="18" xr3:uid="{2C17A28C-003C-4D32-9270-F40E9299518E}" name="chart_insight" dataDxfId="14"/>
     <tableColumn id="5" xr3:uid="{EE5EC27F-5201-4917-9105-EBECC1D04D1E}" name="var_id"/>
-    <tableColumn id="6" xr3:uid="{0C24CA8A-57D7-467B-B322-871903FD9B9A}" name="reportValues" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{0C24CA8A-57D7-467B-B322-871903FD9B9A}" name="reportValues" dataDxfId="13"/>
     <tableColumn id="7" xr3:uid="{B404EBD2-5F59-4883-A60E-29783B3EABD5}" name="panel_title"/>
     <tableColumn id="8" xr3:uid="{305A6FE0-17F9-4D5E-A381-A2D30312A6A5}" name="panel_subtitle"/>
     <tableColumn id="17" xr3:uid="{8CD60750-9682-4661-8153-34BC1191E931}" name="source"/>
@@ -1380,35 +1346,33 @@
     <tableColumn id="10" xr3:uid="{46740A75-E106-4C46-AECA-EE476BF4CE81}" name="legend_text"/>
     <tableColumn id="11" xr3:uid="{80D43E73-C185-43D6-A479-05FA587EF5B1}" name="legend_color"/>
     <tableColumn id="12" xr3:uid="{89491228-5A56-4B57-A0BF-8373C462ABB0}" name="sample"/>
-    <tableColumn id="13" xr3:uid="{336E9D74-FDC7-4F0E-89C6-2BAF8929A95A}" name="years" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{336E9D74-FDC7-4F0E-89C6-2BAF8929A95A}" name="years" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ACB93786-F805-4D77-91EF-7E8E15DFC5F9}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ACB93786-F805-4D77-91EF-7E8E15DFC5F9}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:D7" xr:uid="{ACB93786-F805-4D77-91EF-7E8E15DFC5F9}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0E8B927F-EDA3-44B5-A65F-A43249F8CEFA}" name="onClick" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{37F3D23E-B415-4A3B-8597-71D6413E2E7C}" name="img" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{148497E4-B1E5-47F7-AE41-6BCCE6689F43}" name="href" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{3CC541A0-1A30-4765-BCDB-703BB62E0CFF}" name="text" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{0E8B927F-EDA3-44B5-A65F-A43249F8CEFA}" name="onClick" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{37F3D23E-B415-4A3B-8597-71D6413E2E7C}" name="img" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{148497E4-B1E5-47F7-AE41-6BCCE6689F43}" name="href" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{3CC541A0-1A30-4765-BCDB-703BB62E0CFF}" name="text" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1493FFEA-D985-4ADD-8712-2894823646AD}" name="Table5" displayName="Table5" ref="A1:F4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F4" xr:uid="{1493FFEA-D985-4ADD-8712-2894823646AD}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{93B89B02-E871-4E2D-8436-6488CD60EF55}" name="material_name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{07B3A73C-6FB0-47EA-9648-DBDE4BDCF460}" name="description" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4F00246D-2D81-438C-B4FA-295885A0001B}" name="link1" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{90681B1B-22F0-456F-8696-E186F2FC350B}" name="label1" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{1AE75421-366F-4379-8983-5CF8141CE424}" name="link2" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{95F573B3-309B-4A0A-A474-6A955D9D59DA}" name="label2" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1493FFEA-D985-4ADD-8712-2894823646AD}" name="Table5" displayName="Table5" ref="A1:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D4" xr:uid="{1493FFEA-D985-4ADD-8712-2894823646AD}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{93B89B02-E871-4E2D-8436-6488CD60EF55}" name="material_name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{07B3A73C-6FB0-47EA-9648-DBDE4BDCF460}" name="description" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4F00246D-2D81-438C-B4FA-295885A0001B}" name="link1" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{90681B1B-22F0-456F-8696-E186F2FC350B}" name="label1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1734,16 +1698,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="99.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="99.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1751,44 +1715,44 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
         <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1803,20 +1767,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B32341-F9AC-424D-8D69-9ABCF2FF7D4F}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="50.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1830,7 +1794,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1845,13 +1809,13 @@
         <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1921,7 +1885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1956,7 +1920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1991,7 +1955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -2026,7 +1990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -2061,7 +2025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2096,7 +2060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2104,7 +2068,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -2131,7 +2095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2139,13 +2103,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" t="s">
         <v>159</v>
-      </c>
-      <c r="D10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" t="s">
-        <v>163</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -2160,27 +2124,27 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -2195,27 +2159,27 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -2233,10 +2197,10 @@
         <v>11</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2244,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -2268,10 +2232,10 @@
         <v>11</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2279,7 +2243,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -2300,13 +2264,13 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2314,10 +2278,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
@@ -2335,13 +2299,13 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2349,10 +2313,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
         <v>41</v>
@@ -2370,13 +2334,13 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2384,10 +2348,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E17" t="s">
         <v>42</v>
@@ -2405,27 +2369,27 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2440,13 +2404,13 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -2454,7 +2418,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -2481,21 +2445,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -2510,13 +2474,13 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2524,7 +2488,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -2545,27 +2509,27 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2580,27 +2544,27 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2615,13 +2579,13 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2656,7 +2620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2691,7 +2655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -2726,7 +2690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2761,7 +2725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -2796,7 +2760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -2831,7 +2795,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -2866,7 +2830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -2914,24 +2878,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942074E-1171-4680-A697-1A8E37014FFA}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" customWidth="1"/>
-    <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="4" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.6328125" customWidth="1"/>
+    <col min="17" max="17" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2939,13 +2903,13 @@
         <v>58</v>
       </c>
       <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" t="s">
-        <v>121</v>
-      </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
         <v>30</v>
@@ -2954,13 +2918,13 @@
         <v>24</v>
       </c>
       <c r="H1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" t="s">
         <v>118</v>
       </c>
-      <c r="I1" t="s">
-        <v>119</v>
-      </c>
       <c r="J1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K1" t="s">
         <v>55</v>
@@ -2969,7 +2933,7 @@
         <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N1" t="s">
         <v>59</v>
@@ -2978,33 +2942,33 @@
         <v>60</v>
       </c>
       <c r="P1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -3013,13 +2977,13 @@
         <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>11</v>
@@ -3028,89 +2992,89 @@
         <v>11</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>66</v>
@@ -3119,51 +3083,51 @@
         <v>11</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>67</v>
@@ -3172,31 +3136,31 @@
         <v>11</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -3204,16 +3168,16 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -3225,16 +3189,16 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="K6" t="s">
         <v>11</v>
       </c>
       <c r="L6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N6" t="s">
         <v>11</v>
@@ -3243,13 +3207,13 @@
         <v>72</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3257,16 +3221,16 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -3278,69 +3242,69 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
         <v>68</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="K8" t="s">
         <v>11</v>
       </c>
       <c r="L8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N8" t="s">
         <v>11</v>
@@ -3349,51 +3313,51 @@
         <v>72</v>
       </c>
       <c r="P8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="D9" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="K9" t="s">
         <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N9" t="s">
         <v>11</v>
@@ -3402,51 +3366,51 @@
         <v>72</v>
       </c>
       <c r="P9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s">
         <v>11</v>
@@ -3455,51 +3419,51 @@
         <v>72</v>
       </c>
       <c r="P10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N11" t="s">
         <v>11</v>
@@ -3508,13 +3472,13 @@
         <v>72</v>
       </c>
       <c r="P11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -3522,37 +3486,37 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="K12" t="s">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N12" t="s">
         <v>11</v>
@@ -3561,13 +3525,13 @@
         <v>72</v>
       </c>
       <c r="P12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3575,37 +3539,37 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="K13" t="s">
         <v>11</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N13" t="s">
         <v>11</v>
@@ -3614,13 +3578,13 @@
         <v>72</v>
       </c>
       <c r="P13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -3628,37 +3592,37 @@
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="F14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="K14" t="s">
         <v>11</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N14" t="s">
         <v>11</v>
@@ -3667,13 +3631,13 @@
         <v>72</v>
       </c>
       <c r="P14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -3681,52 +3645,52 @@
         <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K15" t="s">
         <v>11</v>
       </c>
       <c r="L15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O15" t="s">
         <v>68</v>
       </c>
       <c r="P15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -3734,52 +3698,52 @@
         <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
       </c>
       <c r="J16" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K16" t="s">
         <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O16" t="s">
         <v>68</v>
       </c>
       <c r="P16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -3787,52 +3751,52 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K17" t="s">
         <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O17" t="s">
         <v>68</v>
       </c>
       <c r="P17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -3840,52 +3804,52 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E18" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="F18" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H18" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="K18" t="s">
         <v>11</v>
       </c>
       <c r="L18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N18" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s">
         <v>72</v>
       </c>
       <c r="P18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -3893,52 +3857,52 @@
         <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E19" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="K19" t="s">
         <v>11</v>
       </c>
       <c r="L19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N19" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="O19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3946,105 +3910,105 @@
         <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="K20" t="s">
         <v>11</v>
       </c>
       <c r="L20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
       </c>
       <c r="J21" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="K21" t="s">
         <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N21" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="O21" t="s">
         <v>72</v>
       </c>
       <c r="P21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -4052,52 +4016,52 @@
         <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E22" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K22" t="s">
         <v>11</v>
       </c>
       <c r="L22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O22" t="s">
         <v>68</v>
       </c>
       <c r="P22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -4105,52 +4069,52 @@
         <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E23" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H23" t="s">
         <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J23" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s">
         <v>11</v>
       </c>
       <c r="L23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O23" t="s">
         <v>68</v>
       </c>
       <c r="P23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -4158,211 +4122,211 @@
         <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J24" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s">
         <v>11</v>
       </c>
       <c r="L24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O24" t="s">
         <v>68</v>
       </c>
       <c r="P24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D25" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E25" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J25" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s">
         <v>11</v>
       </c>
       <c r="L25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O25" t="s">
         <v>68</v>
       </c>
       <c r="P25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E26" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
       </c>
       <c r="I26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J26" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s">
         <v>11</v>
       </c>
       <c r="L26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O26" t="s">
         <v>68</v>
       </c>
       <c r="P26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E27" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="J27" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s">
         <v>11</v>
       </c>
       <c r="L27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O27" t="s">
         <v>68</v>
       </c>
       <c r="P27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -4370,37 +4334,37 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D28" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E28" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
         <v>11</v>
       </c>
       <c r="L28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N28" t="s">
         <v>11</v>
@@ -4409,13 +4373,13 @@
         <v>72</v>
       </c>
       <c r="P28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -4423,37 +4387,37 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D29" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E29" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H29" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
       </c>
       <c r="J29" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s">
         <v>11</v>
       </c>
       <c r="L29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N29" t="s">
         <v>11</v>
@@ -4462,13 +4426,13 @@
         <v>72</v>
       </c>
       <c r="P29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -4476,37 +4440,37 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E30" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H30" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
       </c>
       <c r="J30" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="K30" t="s">
         <v>11</v>
       </c>
       <c r="L30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N30" t="s">
         <v>11</v>
@@ -4515,51 +4479,51 @@
         <v>72</v>
       </c>
       <c r="P30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D31" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E31" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F31" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H31" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
       </c>
       <c r="J31" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="K31" t="s">
         <v>11</v>
       </c>
       <c r="L31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N31" t="s">
         <v>11</v>
@@ -4568,437 +4532,437 @@
         <v>72</v>
       </c>
       <c r="P31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E32" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H32" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
       </c>
       <c r="J32" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="K32" t="s">
         <v>11</v>
       </c>
       <c r="L32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O32" t="s">
         <v>68</v>
       </c>
       <c r="P32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" t="s">
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="D33" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E33" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F33" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H33" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
       </c>
       <c r="J33" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="K33" t="s">
         <v>11</v>
       </c>
       <c r="L33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O33" t="s">
         <v>68</v>
       </c>
       <c r="P33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="D34" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E34" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F34" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H34" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="I34" t="s">
         <v>11</v>
       </c>
       <c r="J34" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="K34" t="s">
         <v>11</v>
       </c>
       <c r="L34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O34" t="s">
         <v>68</v>
       </c>
       <c r="P34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="D35" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E35" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F35" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H35" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="I35" t="s">
         <v>11</v>
       </c>
       <c r="J35" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="K35" t="s">
         <v>11</v>
       </c>
       <c r="L35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O35" t="s">
         <v>68</v>
       </c>
       <c r="P35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D36" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E36" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
       </c>
       <c r="J36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K36" t="s">
         <v>11</v>
       </c>
       <c r="L36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O36" t="s">
         <v>68</v>
       </c>
       <c r="P36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q36" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D37" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" t="s">
         <v>224</v>
       </c>
-      <c r="E37" t="s">
-        <v>260</v>
-      </c>
-      <c r="F37" t="s">
-        <v>238</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H37" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="I37" t="s">
         <v>11</v>
       </c>
       <c r="J37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K37" t="s">
         <v>11</v>
       </c>
       <c r="L37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O37" t="s">
         <v>68</v>
       </c>
       <c r="P37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q37" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E38" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s">
         <v>11</v>
       </c>
       <c r="J38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K38" t="s">
         <v>11</v>
       </c>
       <c r="L38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O38" t="s">
         <v>68</v>
       </c>
       <c r="P38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q38" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D39" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E39" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="F39" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I39" t="s">
         <v>11</v>
       </c>
       <c r="J39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K39" t="s">
         <v>11</v>
       </c>
       <c r="L39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O39" t="s">
         <v>68</v>
       </c>
       <c r="P39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q39" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -5006,19 +4970,19 @@
         <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>11</v>
@@ -5027,51 +4991,51 @@
         <v>11</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q40" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B41" t="s">
         <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D41" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E41" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
@@ -5080,555 +5044,555 @@
         <v>11</v>
       </c>
       <c r="J41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K41" t="s">
         <v>11</v>
       </c>
       <c r="L41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O41" t="s">
         <v>68</v>
       </c>
       <c r="P41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q41" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q42" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q43" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q44" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q45" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q46" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q47" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q48" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H49" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="J49" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q49" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q50" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q51" s="3">
         <v>2024</v>
@@ -5648,115 +5612,115 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.90625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="4" max="4" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>266</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>266</v>
+        <v>243</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5766,89 +5730,81 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{9A540F78-20F3-4714-B3CB-4F18AE89D35E}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{B61D53F6-1801-4CF7-AA17-08F1F62A3967}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{525EA257-7B7C-4ADF-ABAD-18E26D4721FF}"/>
-    <hyperlink ref="A7" r:id="rId4" xr:uid="{97552CF5-F155-4538-9E29-2826EAB3CD65}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{E4091ED2-A7EF-4DB5-AABA-4247C0BFCD49}"/>
-    <hyperlink ref="A4" r:id="rId6" xr:uid="{5DA6FEF9-D718-4BA6-8DB6-87329287E25F}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{79A8B9FB-763D-4530-B3AB-C274909C3FC3}"/>
+    <hyperlink ref="A7" r:id="rId3" xr:uid="{97552CF5-F155-4538-9E29-2826EAB3CD65}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{E4091ED2-A7EF-4DB5-AABA-4247C0BFCD49}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{5DA6FEF9-D718-4BA6-8DB6-87329287E25F}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{79A8B9FB-763D-4530-B3AB-C274909C3FC3}"/>
+    <hyperlink ref="A3" r:id="rId7" xr:uid="{3C41075D-FC9E-46C8-994B-F07C5771E50B}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{07D48AFF-2FCD-468E-BE68-F76C5F6DAC20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3769AE-46C0-4DAC-98E3-FE5BCEAF61EE}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>194</v>
+        <v>288</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>280</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A1EFD31D-2225-43D3-A0E9-5287DFCE79D7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject-my.sharepoint.com/personal/icoddington_worldjusticeproject_org/Documents/Desktop/Github/USA-report-2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3608" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB895994-0112-4D21-807B-6F0D483F67D9}"/>
+  <xr:revisionPtr revIDLastSave="3615" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDDA980C-7087-4375-8190-4D9A09374628}"/>
   <bookViews>
-    <workbookView xWindow="170" yWindow="240" windowWidth="17890" windowHeight="10650" firstSheet="3" activeTab="4" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
   <sheets>
     <sheet name="general_info" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="290">
   <si>
     <t>Cover</t>
   </si>
@@ -813,9 +813,6 @@
     <t>Americans tend to associate the notion of rule of law with positive sentiments, but they associate the current state of the rule of law in the United States with negative sentiments.</t>
   </si>
   <si>
-    <t>Confidence in Institutions to Check Executive Power has Decreased, but Confidence in Citizens to Do So Has Increased</t>
-  </si>
-  <si>
     <t>Perceptions of Independence and Fairness of the Justice System Have Eroded Since 2018</t>
   </si>
   <si>
@@ -907,6 +904,12 @@
   </si>
   <si>
     <t>The General Population Poll in the United States was designed to capture high-quality data on the realities and concerns of ordinary people on a variety of themes related to the rule of law, including authoritarianism, government accountability, bribery, corruption, police performance, crime and security, and the 2024 presidential election.  </t>
+  </si>
+  <si>
+    <t>Confidence in Institutions to Check Executive Power Has Increased but Remains Below Pre-2018 Levels</t>
+  </si>
+  <si>
+    <t>The percentage of respondents that perceive the justice system as fair and independent remains below pre-2018 levels. However, the perception on the independence of prosecutors showed a marked increased between 2021 and 2024.</t>
   </si>
 </sst>
 </file>
@@ -1322,13 +1325,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}" name="Table53" displayName="Table53" ref="A1:Q51" totalsRowShown="0">
-  <autoFilter ref="A1:Q51" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Figure_10"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q51" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{D92A50FF-F655-438A-821F-D4E0A6773705}" name="id"/>
     <tableColumn id="2" xr3:uid="{4F1F3430-F8D1-427E-BB79-2C98EFBD6FEE}" name="panel"/>
@@ -1701,13 +1698,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
-    <col min="2" max="2" width="99.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="99.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1715,15 +1712,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1731,7 +1728,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1739,7 +1736,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1747,7 +1744,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -1767,20 +1764,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B32341-F9AC-424D-8D69-9ABCF2FF7D4F}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" customWidth="1"/>
-    <col min="3" max="3" width="50.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1815,7 +1812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1850,7 +1847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1885,7 +1882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1920,7 +1917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1955,7 +1952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1990,7 +1987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -2025,7 +2022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2060,7 +2057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2095,7 +2092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2106,7 +2103,7 @@
         <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E10" t="s">
         <v>159</v>
@@ -2130,7 +2127,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -2165,7 +2162,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -2200,7 +2197,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2235,7 +2232,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2270,7 +2267,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2305,7 +2302,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2340,7 +2337,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2351,7 +2348,7 @@
         <v>157</v>
       </c>
       <c r="D17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E17" t="s">
         <v>42</v>
@@ -2375,7 +2372,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -2386,7 +2383,7 @@
         <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E18" t="s">
         <v>150</v>
@@ -2410,7 +2407,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -2418,7 +2415,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -2445,7 +2442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>114</v>
       </c>
@@ -2453,7 +2450,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -2480,7 +2477,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2488,7 +2485,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -2515,7 +2512,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>222</v>
       </c>
@@ -2523,7 +2520,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -2550,7 +2547,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>223</v>
       </c>
@@ -2558,7 +2555,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -2585,7 +2582,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2620,7 +2617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2655,7 +2652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -2690,7 +2687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2725,7 +2722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -2760,7 +2757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -2795,7 +2792,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -2830,7 +2827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -2878,24 +2875,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942074E-1171-4680-A697-1A8E37014FFA}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
-    <col min="4" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.6328125" customWidth="1"/>
-    <col min="17" max="17" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2948,7 +2945,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -3001,7 +2998,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>107</v>
       </c>
@@ -3015,7 +3012,7 @@
         <v>209</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>95</v>
@@ -3054,7 +3051,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>107</v>
       </c>
@@ -3107,7 +3104,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>107</v>
       </c>
@@ -3160,7 +3157,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -3174,7 +3171,7 @@
         <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F6" t="s">
         <v>112</v>
@@ -3213,7 +3210,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3221,13 +3218,13 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D7" t="s">
         <v>210</v>
       </c>
       <c r="E7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" t="s">
         <v>112</v>
@@ -3242,7 +3239,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -3266,7 +3263,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -3274,13 +3271,13 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D8" t="s">
         <v>211</v>
       </c>
       <c r="E8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F8" t="s">
         <v>98</v>
@@ -3319,7 +3316,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -3327,13 +3324,13 @@
         <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D9" t="s">
         <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F9" t="s">
         <v>99</v>
@@ -3372,7 +3369,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -3380,13 +3377,13 @@
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10" t="s">
         <v>211</v>
       </c>
       <c r="E10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F10" t="s">
         <v>100</v>
@@ -3425,7 +3422,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -3433,13 +3430,13 @@
         <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D11" t="s">
         <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -3448,7 +3445,7 @@
         <v>116</v>
       </c>
       <c r="H11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -3478,7 +3475,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -3486,13 +3483,13 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="D12" t="s">
         <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -3531,7 +3528,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3539,13 +3536,13 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F13" t="s">
         <v>102</v>
@@ -3584,7 +3581,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -3592,13 +3589,13 @@
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="D14" t="s">
         <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F14" t="s">
         <v>181</v>
@@ -3637,7 +3634,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -3651,7 +3648,7 @@
         <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F15" t="s">
         <v>101</v>
@@ -3690,7 +3687,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -3704,7 +3701,7 @@
         <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F16" t="s">
         <v>102</v>
@@ -3743,7 +3740,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -3757,7 +3754,7 @@
         <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F17" t="s">
         <v>181</v>
@@ -3796,7 +3793,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -3810,7 +3807,7 @@
         <v>213</v>
       </c>
       <c r="E18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F18" t="s">
         <v>200</v>
@@ -3849,7 +3846,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -3863,7 +3860,7 @@
         <v>213</v>
       </c>
       <c r="E19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F19" t="s">
         <v>204</v>
@@ -3890,7 +3887,7 @@
         <v>141</v>
       </c>
       <c r="N19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O19" t="s">
         <v>90</v>
@@ -3902,7 +3899,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3916,7 +3913,7 @@
         <v>213</v>
       </c>
       <c r="E20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F20" t="s">
         <v>104</v>
@@ -3955,7 +3952,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -3969,7 +3966,7 @@
         <v>213</v>
       </c>
       <c r="E21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F21" t="s">
         <v>103</v>
@@ -4008,7 +4005,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -4022,7 +4019,7 @@
         <v>213</v>
       </c>
       <c r="E22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F22" t="s">
         <v>200</v>
@@ -4061,7 +4058,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -4075,7 +4072,7 @@
         <v>213</v>
       </c>
       <c r="E23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F23" t="s">
         <v>153</v>
@@ -4114,7 +4111,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -4128,7 +4125,7 @@
         <v>213</v>
       </c>
       <c r="E24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F24" t="s">
         <v>138</v>
@@ -4167,7 +4164,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -4181,7 +4178,7 @@
         <v>213</v>
       </c>
       <c r="E25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F25" t="s">
         <v>137</v>
@@ -4220,7 +4217,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -4234,7 +4231,7 @@
         <v>213</v>
       </c>
       <c r="E26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -4273,7 +4270,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -4287,7 +4284,7 @@
         <v>213</v>
       </c>
       <c r="E27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F27" t="s">
         <v>103</v>
@@ -4326,7 +4323,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -4334,13 +4331,13 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D28" t="s">
         <v>230</v>
       </c>
       <c r="E28" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F28" t="s">
         <v>226</v>
@@ -4349,7 +4346,7 @@
         <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -4379,7 +4376,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -4387,13 +4384,13 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D29" t="s">
         <v>230</v>
       </c>
       <c r="E29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F29" t="s">
         <v>227</v>
@@ -4402,7 +4399,7 @@
         <v>113</v>
       </c>
       <c r="H29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -4432,7 +4429,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -4440,13 +4437,13 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D30" t="s">
         <v>230</v>
       </c>
       <c r="E30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F30" t="s">
         <v>228</v>
@@ -4455,7 +4452,7 @@
         <v>113</v>
       </c>
       <c r="H30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -4485,7 +4482,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -4493,13 +4490,13 @@
         <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D31" t="s">
         <v>230</v>
       </c>
       <c r="E31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F31" t="s">
         <v>229</v>
@@ -4508,7 +4505,7 @@
         <v>116</v>
       </c>
       <c r="H31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -4538,7 +4535,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -4546,13 +4543,13 @@
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D32" t="s">
         <v>230</v>
       </c>
       <c r="E32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F32" t="s">
         <v>226</v>
@@ -4561,7 +4558,7 @@
         <v>113</v>
       </c>
       <c r="H32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -4591,7 +4588,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>150</v>
       </c>
@@ -4599,13 +4596,13 @@
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D33" t="s">
         <v>230</v>
       </c>
       <c r="E33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F33" t="s">
         <v>227</v>
@@ -4614,7 +4611,7 @@
         <v>113</v>
       </c>
       <c r="H33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
@@ -4644,7 +4641,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -4652,13 +4649,13 @@
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D34" t="s">
         <v>230</v>
       </c>
       <c r="E34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F34" t="s">
         <v>228</v>
@@ -4667,7 +4664,7 @@
         <v>113</v>
       </c>
       <c r="H34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I34" t="s">
         <v>11</v>
@@ -4697,7 +4694,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>150</v>
       </c>
@@ -4705,13 +4702,13 @@
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D35" t="s">
         <v>230</v>
       </c>
       <c r="E35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F35" t="s">
         <v>229</v>
@@ -4720,7 +4717,7 @@
         <v>116</v>
       </c>
       <c r="H35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I35" t="s">
         <v>11</v>
@@ -4750,7 +4747,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -4803,7 +4800,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -4856,7 +4853,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -4909,7 +4906,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -4962,7 +4959,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -4976,7 +4973,7 @@
         <v>214</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>96</v>
@@ -5015,7 +5012,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>222</v>
       </c>
@@ -5068,7 +5065,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>223</v>
       </c>
@@ -5076,7 +5073,7 @@
         <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>216</v>
@@ -5121,7 +5118,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>223</v>
       </c>
@@ -5129,7 +5126,7 @@
         <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>216</v>
@@ -5174,7 +5171,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>223</v>
       </c>
@@ -5182,7 +5179,7 @@
         <v>63</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>216</v>
@@ -5227,7 +5224,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>223</v>
       </c>
@@ -5235,7 +5232,7 @@
         <v>77</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>216</v>
@@ -5280,7 +5277,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>223</v>
       </c>
@@ -5288,7 +5285,7 @@
         <v>81</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>216</v>
@@ -5333,7 +5330,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>223</v>
       </c>
@@ -5341,7 +5338,7 @@
         <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>216</v>
@@ -5386,7 +5383,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>223</v>
       </c>
@@ -5394,7 +5391,7 @@
         <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>216</v>
@@ -5439,7 +5436,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>223</v>
       </c>
@@ -5447,7 +5444,7 @@
         <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>216</v>
@@ -5492,7 +5489,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>223</v>
       </c>
@@ -5500,7 +5497,7 @@
         <v>83</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>216</v>
@@ -5545,7 +5542,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>223</v>
       </c>
@@ -5553,7 +5550,7 @@
         <v>87</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>217</v>
@@ -5615,14 +5612,14 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.90625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="4" max="4" width="45.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>184</v>
       </c>
@@ -5636,7 +5633,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>241</v>
       </c>
@@ -5650,21 +5647,21 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>243</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>250</v>
       </c>
@@ -5678,7 +5675,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>246</v>
       </c>
@@ -5692,7 +5689,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>247</v>
       </c>
@@ -5706,21 +5703,21 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>251</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5748,17 +5745,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3769AE-46C0-4DAC-98E3-FE5BCEAF61EE}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>188</v>
       </c>
@@ -5772,27 +5769,27 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>189</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -5810,6 +5807,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3620e9c0d1a16779aea146adda0186f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2afd3ea0446edf26a13b3c7fc9e6232" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -6058,41 +6075,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87354EAB-4CC7-4750-AE59-FEDEECBA27EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6115,9 +6101,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87354EAB-4CC7-4750-AE59-FEDEECBA27EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3615" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDDA980C-7087-4375-8190-4D9A09374628}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
+    <workbookView xWindow="-28905" yWindow="90" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
   <sheets>
     <sheet name="general_info" sheetId="3" r:id="rId1"/>
@@ -2875,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942074E-1171-4680-A697-1A8E37014FFA}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5807,26 +5807,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3620e9c0d1a16779aea146adda0186f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2afd3ea0446edf26a13b3c7fc9e6232" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -6075,10 +6055,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87354EAB-4CC7-4750-AE59-FEDEECBA27EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6101,20 +6112,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87354EAB-4CC7-4750-AE59-FEDEECBA27EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3615" documentId="8_{F18DE356-3958-4E61-A81F-20E34B64EA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDDA980C-7087-4375-8190-4D9A09374628}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="90" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
   <sheets>
     <sheet name="general_info" sheetId="3" r:id="rId1"/>
@@ -2875,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942074E-1171-4680-A697-1A8E37014FFA}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5807,6 +5807,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3620e9c0d1a16779aea146adda0186f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2afd3ea0446edf26a13b3c7fc9e6232" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -6055,41 +6075,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87354EAB-4CC7-4750-AE59-FEDEECBA27EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6112,9 +6101,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87354EAB-4CC7-4750-AE59-FEDEECBA27EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>